--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO1"/>
+  <dimension ref="A1:AO25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,6 +640,3246 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Bulgarian A League</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Septemvri</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CSKA 1948 Sofia</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Bulgarian A League</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Beroe Stara Za</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Cherno More</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G3" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Bulgarian A League</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CSKA Sofia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Lokomotiv Plovdiv</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Israeli Premier League</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>14:30:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Maccabi Netanya</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>FC Ashdod</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Israeli Premier League</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>14:45:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Ironi Tiberias</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Beitar Jerusalem</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Israeli Premier League</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Maccabi Tel Aviv</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Hapoel Haifa</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="I7" t="n">
+        <v>170</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K7" t="n">
+        <v>950</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Athletic Bilbao</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Bolivian Liga de Futbol Profesional</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Blooming Santa Cruz</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Academia de Balompie Bolivi</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K9" t="n">
+        <v>950</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>English Premier League</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Nottm Forest</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>English Premier League</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H11" t="n">
+        <v>11</v>
+      </c>
+      <c r="I11" t="n">
+        <v>12</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6</v>
+      </c>
+      <c r="K11" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>520</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>English Premier League</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X12" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>180</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>English Premier League</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="X13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Scottish Premiership</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Falkirk</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Motherwell</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Scottish Premiership</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Dundee Utd</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>70</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>9.199999999999999</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Scottish Premiership</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Kilmarnock</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K16" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="X16" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Scottish Premiership</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Dundee</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H17" t="n">
+        <v>21</v>
+      </c>
+      <c r="I17" t="n">
+        <v>34</v>
+      </c>
+      <c r="J17" t="n">
+        <v>12</v>
+      </c>
+      <c r="K17" t="n">
+        <v>15</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N17" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="W17" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Scottish Premiership</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>St Mirren</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>English Premier League</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Sunderland</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+      <c r="I19" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="J19" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K19" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N19" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>300</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>970</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>English Premier League</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N20" t="n">
+        <v>4</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X20" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>170</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>500</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Fortaleza EC</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Red Bull Bragantino</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>EC Vitoria Salvador</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H24" t="n">
+        <v>15</v>
+      </c>
+      <c r="I24" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="K24" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.1</v>
+        <v>5.3</v>
       </c>
       <c r="G2" t="n">
         <v>7.8</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="Q2" t="n">
         <v>1.89</v>
@@ -835,7 +835,7 @@
         <v>1.68</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>1.38</v>
       </c>
       <c r="G4" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="H4" t="n">
         <v>9.800000000000001</v>
@@ -949,7 +949,7 @@
         <v>14</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="K4" t="n">
         <v>5.3</v>
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="H5" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="J5" t="n">
         <v>3.25</v>
@@ -1219,7 +1219,7 @@
         <v>1.7</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="K6" t="n">
         <v>4.9</v>
@@ -1375,7 +1375,7 @@
         <v>2.16</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G8" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="H8" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="I8" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="J8" t="n">
         <v>4.1</v>
@@ -1510,7 +1510,7 @@
         <v>2.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1519,10 +1519,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="U8" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>10.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA8" t="n">
         <v>20</v>
@@ -1552,16 +1552,16 @@
         <v>10.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF8" t="n">
         <v>36</v>
       </c>
       <c r="AG8" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AH8" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI8" t="n">
         <v>32</v>
@@ -1579,7 +1579,7 @@
         <v>90</v>
       </c>
       <c r="AN8" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AO8" t="n">
         <v>10.5</v>
@@ -1789,7 +1789,7 @@
         <v>4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="U10" t="n">
         <v>2.04</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="G11" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="H11" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="I11" t="n">
         <v>12</v>
       </c>
       <c r="J11" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K11" t="n">
         <v>6</v>
-      </c>
-      <c r="K11" t="n">
-        <v>6.2</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q11" t="n">
         <v>1.76</v>
@@ -1921,7 +1921,7 @@
         <v>1.49</v>
       </c>
       <c r="S11" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="T11" t="n">
         <v>2.22</v>
@@ -1939,7 +1939,7 @@
         <v>22</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
@@ -1951,13 +1951,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AC11" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AF11" t="n">
         <v>7.4</v>
@@ -1966,22 +1966,22 @@
         <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AK11" t="n">
         <v>14.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN11" t="n">
         <v>5.5</v>
@@ -2020,7 +2020,7 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="H12" t="n">
         <v>1.81</v>
@@ -2032,16 +2032,16 @@
         <v>3.95</v>
       </c>
       <c r="K12" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O12" t="n">
         <v>1.35</v>
@@ -2095,7 +2095,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AG12" t="n">
         <v>20</v>
@@ -2104,7 +2104,7 @@
         <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ12" t="n">
         <v>180</v>
@@ -2119,7 +2119,7 @@
         <v>130</v>
       </c>
       <c r="AN12" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AO12" t="n">
         <v>13</v>
@@ -2200,7 +2200,7 @@
         <v>2.26</v>
       </c>
       <c r="V13" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W13" t="n">
         <v>1.81</v>
@@ -2293,7 +2293,7 @@
         <v>2.92</v>
       </c>
       <c r="H14" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="I14" t="n">
         <v>2.78</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.76</v>
+        <v>1.64</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2431,7 +2431,7 @@
         <v>1.68</v>
       </c>
       <c r="I15" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="J15" t="n">
         <v>4.1</v>
@@ -2452,22 +2452,22 @@
         <v>1.23</v>
       </c>
       <c r="P15" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="R15" t="n">
         <v>1.47</v>
       </c>
       <c r="S15" t="n">
-        <v>2.8</v>
+        <v>2.68</v>
       </c>
       <c r="T15" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U15" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>70</v>
       </c>
       <c r="AO15" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -2575,7 +2575,7 @@
         <v>6.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
@@ -2602,7 +2602,7 @@
         <v>2.06</v>
       </c>
       <c r="U16" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="V16" t="n">
         <v>1.09</v>
@@ -2692,58 +2692,58 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="G17" t="n">
         <v>1.13</v>
       </c>
       <c r="H17" t="n">
-        <v>21</v>
+        <v>1.06</v>
       </c>
       <c r="I17" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="J17" t="n">
         <v>12</v>
       </c>
       <c r="K17" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="L17" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="P17" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="R17" t="n">
-        <v>2.18</v>
+        <v>1.44</v>
       </c>
       <c r="S17" t="n">
-        <v>1.68</v>
+        <v>1.23</v>
       </c>
       <c r="T17" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="U17" t="n">
-        <v>1.67</v>
+        <v>1.01</v>
       </c>
       <c r="V17" t="n">
         <v>1.03</v>
       </c>
       <c r="W17" t="n">
-        <v>8.199999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2758,7 +2758,7 @@
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
         <v>1000</v>
@@ -2770,10 +2770,10 @@
         <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
         <v>1000</v>
@@ -2782,10 +2782,10 @@
         <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
         <v>1000</v>
@@ -2794,7 +2794,7 @@
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>2.4</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G18" t="n">
-        <v>1000</v>
+        <v>2.88</v>
       </c>
       <c r="H18" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I18" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J18" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K18" t="n">
         <v>3.6</v>
@@ -2851,22 +2851,22 @@
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O18" t="n">
-        <v>1.06</v>
+        <v>1.24</v>
       </c>
       <c r="P18" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R18" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S18" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="T18" t="n">
         <v>1.01</v>
@@ -2875,10 +2875,10 @@
         <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W18" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -2971,7 +2971,7 @@
         <v>9</v>
       </c>
       <c r="I19" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J19" t="n">
         <v>5.8</v>
@@ -3049,7 +3049,7 @@
         <v>25</v>
       </c>
       <c r="AI19" t="n">
-        <v>970</v>
+        <v>110</v>
       </c>
       <c r="AJ19" t="n">
         <v>12</v>
@@ -3064,7 +3064,7 @@
         <v>130</v>
       </c>
       <c r="AN19" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="G20" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H20" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="I20" t="n">
         <v>1.83</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1.84</v>
       </c>
       <c r="J20" t="n">
         <v>4.2</v>
@@ -3127,13 +3127,13 @@
         <v>1.3</v>
       </c>
       <c r="P20" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q20" t="n">
         <v>1.9</v>
       </c>
       <c r="R20" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S20" t="n">
         <v>3.35</v>
@@ -3145,10 +3145,10 @@
         <v>2.08</v>
       </c>
       <c r="V20" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="W20" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="X20" t="n">
         <v>17</v>
@@ -3181,7 +3181,7 @@
         <v>18.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI20" t="n">
         <v>34</v>
@@ -3190,10 +3190,10 @@
         <v>170</v>
       </c>
       <c r="AK20" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="AL20" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AM20" t="n">
         <v>130</v>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="G21" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H21" t="n">
         <v>3.9</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G22" t="n">
         <v>2.56</v>
@@ -3400,7 +3400,7 @@
         <v>1.82</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>1.74</v>
       </c>
       <c r="I23" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="J23" t="n">
         <v>3.65</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3778,16 +3778,16 @@
         <v>2.8</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I25" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J25" t="n">
         <v>3.2</v>
       </c>
       <c r="K25" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
@@ -700,7 +700,7 @@
         <v>1.89</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>1.68</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>1.38</v>
       </c>
       <c r="G4" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="H4" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="I4" t="n">
         <v>14</v>
@@ -1078,10 +1078,10 @@
         <v>2.24</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J5" t="n">
         <v>3.25</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.16</v>
+        <v>2.38</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="G8" t="n">
         <v>4.6</v>
@@ -1486,10 +1486,10 @@
         <v>1.83</v>
       </c>
       <c r="I8" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="J8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K8" t="n">
         <v>4.3</v>
@@ -1510,19 +1510,19 @@
         <v>2.2</v>
       </c>
       <c r="Q8" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>1.78</v>
       </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.77</v>
-      </c>
       <c r="U8" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y8" t="n">
         <v>10.5</v>
@@ -1540,10 +1540,10 @@
         <v>11.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC8" t="n">
         <v>9.6</v>
@@ -1555,34 +1555,34 @@
         <v>18</v>
       </c>
       <c r="AF8" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI8" t="n">
         <v>32</v>
       </c>
       <c r="AJ8" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AK8" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL8" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM8" t="n">
         <v>90</v>
       </c>
       <c r="AN8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AO8" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1753,10 +1753,10 @@
         <v>3.55</v>
       </c>
       <c r="H10" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="I10" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="J10" t="n">
         <v>3.5</v>
@@ -1780,7 +1780,7 @@
         <v>1.83</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R10" t="n">
         <v>1.3</v>
@@ -1846,7 +1846,7 @@
         <v>60</v>
       </c>
       <c r="AM10" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN10" t="n">
         <v>50</v>
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G11" t="n">
         <v>1.35</v>
       </c>
-      <c r="G11" t="n">
-        <v>1.36</v>
-      </c>
       <c r="H11" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="I11" t="n">
         <v>12</v>
@@ -1897,7 +1897,7 @@
         <v>5.8</v>
       </c>
       <c r="K11" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1921,10 +1921,10 @@
         <v>1.49</v>
       </c>
       <c r="S11" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="T11" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="U11" t="n">
         <v>1.76</v>
@@ -1942,10 +1942,10 @@
         <v>34</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA11" t="n">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="AB11" t="n">
         <v>8.199999999999999</v>
@@ -1960,7 +1960,7 @@
         <v>240</v>
       </c>
       <c r="AF11" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AG11" t="n">
         <v>11</v>
@@ -1981,7 +1981,7 @@
         <v>42</v>
       </c>
       <c r="AM11" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AN11" t="n">
         <v>5.5</v>
@@ -2017,25 +2017,25 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="G12" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="H12" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="I12" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="J12" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.95</v>
       </c>
-      <c r="K12" t="n">
-        <v>4</v>
-      </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
@@ -2059,31 +2059,31 @@
         <v>3.75</v>
       </c>
       <c r="T12" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U12" t="n">
         <v>1.97</v>
       </c>
-      <c r="U12" t="n">
-        <v>1.96</v>
-      </c>
       <c r="V12" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="W12" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="X12" t="n">
         <v>14</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AA12" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC12" t="n">
         <v>8.4</v>
@@ -2092,7 +2092,7 @@
         <v>10.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF12" t="n">
         <v>40</v>
@@ -2107,10 +2107,10 @@
         <v>40</v>
       </c>
       <c r="AJ12" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="AK12" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AL12" t="n">
         <v>80</v>
@@ -2119,10 +2119,10 @@
         <v>130</v>
       </c>
       <c r="AN12" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AO12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G13" t="n">
         <v>2.24</v>
@@ -2161,7 +2161,7 @@
         <v>3.55</v>
       </c>
       <c r="I13" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J13" t="n">
         <v>3.65</v>
@@ -2182,7 +2182,7 @@
         <v>1.3</v>
       </c>
       <c r="P13" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q13" t="n">
         <v>1.91</v>
@@ -2203,13 +2203,13 @@
         <v>1.38</v>
       </c>
       <c r="W13" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="X13" t="n">
         <v>15.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z13" t="n">
         <v>26</v>
@@ -2290,7 +2290,7 @@
         <v>2.76</v>
       </c>
       <c r="G14" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H14" t="n">
         <v>2.58</v>
@@ -2320,7 +2320,7 @@
         <v>1.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.64</v>
+        <v>1.76</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2431,7 +2431,7 @@
         <v>1.68</v>
       </c>
       <c r="I15" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="J15" t="n">
         <v>4.1</v>
@@ -2455,7 +2455,7 @@
         <v>2.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="R15" t="n">
         <v>1.47</v>
@@ -2464,10 +2464,10 @@
         <v>2.68</v>
       </c>
       <c r="T15" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U15" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>110</v>
       </c>
       <c r="AN15" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AO15" t="n">
         <v>9</v>
@@ -2560,7 +2560,7 @@
         <v>1.34</v>
       </c>
       <c r="G16" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="H16" t="n">
         <v>10.5</v>
@@ -2569,13 +2569,13 @@
         <v>12.5</v>
       </c>
       <c r="J16" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="K16" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="L16" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
@@ -2587,31 +2587,31 @@
         <v>1.23</v>
       </c>
       <c r="P16" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="R16" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="S16" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="T16" t="n">
         <v>2.06</v>
       </c>
       <c r="U16" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="V16" t="n">
         <v>1.09</v>
       </c>
       <c r="W16" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="X16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y16" t="n">
         <v>1000</v>
@@ -2626,16 +2626,16 @@
         <v>9</v>
       </c>
       <c r="AC16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD16" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
         <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AG16" t="n">
         <v>11.5</v>
@@ -2659,7 +2659,7 @@
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>5.6</v>
+        <v>6.8</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2695,55 +2695,55 @@
         <v>1.1</v>
       </c>
       <c r="G17" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="H17" t="n">
-        <v>1.06</v>
+        <v>27</v>
       </c>
       <c r="I17" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="J17" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="K17" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="M17" t="n">
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="P17" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="R17" t="n">
-        <v>1.44</v>
+        <v>2.18</v>
       </c>
       <c r="S17" t="n">
-        <v>1.23</v>
+        <v>1.67</v>
       </c>
       <c r="T17" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="U17" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="V17" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="W17" t="n">
-        <v>5.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2758,10 +2758,10 @@
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AD17" t="n">
         <v>1000</v>
@@ -2770,10 +2770,10 @@
         <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH17" t="n">
         <v>1000</v>
@@ -2782,10 +2782,10 @@
         <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AL17" t="n">
         <v>1000</v>
@@ -2794,7 +2794,7 @@
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>2.4</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2830,61 +2830,61 @@
         <v>2.3</v>
       </c>
       <c r="G18" t="n">
-        <v>2.88</v>
+        <v>2.48</v>
       </c>
       <c r="H18" t="n">
-        <v>2.82</v>
+        <v>3.15</v>
       </c>
       <c r="I18" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="J18" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="K18" t="n">
         <v>3.6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S18" t="n">
         <v>3.3</v>
       </c>
-      <c r="O18" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.86</v>
-      </c>
       <c r="T18" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="U18" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="V18" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="W18" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z18" t="n">
         <v>1000</v>
@@ -2893,25 +2893,25 @@
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE18" t="n">
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
@@ -2971,7 +2971,7 @@
         <v>9</v>
       </c>
       <c r="I19" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="J19" t="n">
         <v>5.8</v>
@@ -2995,7 +2995,7 @@
         <v>2.52</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="R19" t="n">
         <v>1.61</v>
@@ -3004,7 +3004,7 @@
         <v>2.58</v>
       </c>
       <c r="T19" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U19" t="n">
         <v>2</v>
@@ -3049,7 +3049,7 @@
         <v>25</v>
       </c>
       <c r="AI19" t="n">
-        <v>110</v>
+        <v>970</v>
       </c>
       <c r="AJ19" t="n">
         <v>12</v>
@@ -3061,7 +3061,7 @@
         <v>34</v>
       </c>
       <c r="AM19" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN19" t="n">
         <v>5.2</v>
@@ -3106,46 +3106,46 @@
         <v>1.82</v>
       </c>
       <c r="I20" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="J20" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K20" t="n">
         <v>4.2</v>
       </c>
-      <c r="K20" t="n">
-        <v>4.3</v>
-      </c>
       <c r="L20" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M20" t="n">
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O20" t="n">
         <v>1.3</v>
       </c>
       <c r="P20" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="R20" t="n">
         <v>1.41</v>
       </c>
       <c r="S20" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T20" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U20" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V20" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="W20" t="n">
         <v>1.26</v>
@@ -3154,7 +3154,7 @@
         <v>17</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Z20" t="n">
         <v>11</v>
@@ -3169,7 +3169,7 @@
         <v>9</v>
       </c>
       <c r="AD20" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE20" t="n">
         <v>17.5</v>
@@ -3190,13 +3190,13 @@
         <v>170</v>
       </c>
       <c r="AK20" t="n">
-        <v>550</v>
+        <v>60</v>
       </c>
       <c r="AL20" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AM20" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN20" t="n">
         <v>70</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="G21" t="n">
         <v>2.16</v>
@@ -3247,7 +3247,7 @@
         <v>3.45</v>
       </c>
       <c r="K21" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="G22" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="H22" t="n">
         <v>3.15</v>
@@ -3379,7 +3379,7 @@
         <v>3.5</v>
       </c>
       <c r="J22" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K22" t="n">
         <v>3.65</v>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q22" t="n">
         <v>1.86</v>
@@ -3505,16 +3505,16 @@
         <v>5.1</v>
       </c>
       <c r="G23" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="H23" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="I23" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="J23" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K23" t="n">
         <v>4</v>
@@ -3535,7 +3535,7 @@
         <v>1.86</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="G2" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="H2" t="n">
         <v>1.54</v>
@@ -679,100 +679,100 @@
         <v>1.67</v>
       </c>
       <c r="J2" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
         <v>4.7</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -805,13 +805,13 @@
         <v>4.4</v>
       </c>
       <c r="G3" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="H3" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="I3" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="J3" t="n">
         <v>3.15</v>
@@ -835,7 +835,7 @@
         <v>1.68</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>1.38</v>
       </c>
       <c r="G4" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="H4" t="n">
         <v>10</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="G5" t="n">
-        <v>2.24</v>
+        <v>2.38</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K5" t="n">
-        <v>4.3</v>
+        <v>950</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="H6" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="I6" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="J6" t="n">
         <v>4.1</v>
       </c>
       <c r="K6" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>1.28</v>
       </c>
       <c r="G7" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="H7" t="n">
-        <v>2.96</v>
+        <v>6.6</v>
       </c>
       <c r="I7" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="J7" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K7" t="n">
-        <v>950</v>
+        <v>15</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1480,13 +1480,13 @@
         <v>4.5</v>
       </c>
       <c r="G8" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H8" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="I8" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="J8" t="n">
         <v>4.2</v>
@@ -1510,7 +1510,7 @@
         <v>2.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1519,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="U8" t="n">
         <v>2.2</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y8" t="n">
         <v>10.5</v>
@@ -1540,7 +1540,7 @@
         <v>11.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AB8" t="n">
         <v>18.5</v>
@@ -1549,7 +1549,7 @@
         <v>9.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
         <v>18</v>
@@ -1567,19 +1567,19 @@
         <v>32</v>
       </c>
       <c r="AJ8" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL8" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM8" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AN8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO8" t="n">
         <v>10</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="G9" t="n">
-        <v>1000</v>
+        <v>1.7</v>
       </c>
       <c r="H9" t="n">
         <v>1.04</v>
       </c>
       <c r="I9" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J9" t="n">
         <v>1.01</v>
@@ -1750,7 +1750,7 @@
         <v>3.5</v>
       </c>
       <c r="G10" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H10" t="n">
         <v>2.32</v>
@@ -1759,7 +1759,7 @@
         <v>2.34</v>
       </c>
       <c r="J10" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K10" t="n">
         <v>3.55</v>
@@ -1780,7 +1780,7 @@
         <v>1.83</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R10" t="n">
         <v>1.3</v>
@@ -1804,7 +1804,7 @@
         <v>12.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z10" t="n">
         <v>14</v>
@@ -1894,10 +1894,10 @@
         <v>12</v>
       </c>
       <c r="J11" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="K11" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1906,22 +1906,22 @@
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P11" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="R11" t="n">
         <v>1.49</v>
       </c>
       <c r="S11" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="T11" t="n">
         <v>2.24</v>
@@ -1942,22 +1942,22 @@
         <v>34</v>
       </c>
       <c r="Z11" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AA11" t="n">
         <v>510</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC11" t="n">
         <v>13.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AE11" t="n">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="AF11" t="n">
         <v>7.6</v>
@@ -1978,7 +1978,7 @@
         <v>14.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM11" t="n">
         <v>250</v>
@@ -2020,10 +2020,10 @@
         <v>4.8</v>
       </c>
       <c r="G12" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H12" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="I12" t="n">
         <v>1.86</v>
@@ -2032,7 +2032,7 @@
         <v>3.9</v>
       </c>
       <c r="K12" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L12" t="n">
         <v>1.08</v>
@@ -2047,7 +2047,7 @@
         <v>1.35</v>
       </c>
       <c r="P12" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="Q12" t="n">
         <v>2.06</v>
@@ -2059,10 +2059,10 @@
         <v>3.75</v>
       </c>
       <c r="T12" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U12" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V12" t="n">
         <v>2.16</v>
@@ -2071,13 +2071,13 @@
         <v>1.25</v>
       </c>
       <c r="X12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA12" t="n">
         <v>19.5</v>
@@ -2095,10 +2095,10 @@
         <v>21</v>
       </c>
       <c r="AF12" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AH12" t="n">
         <v>22</v>
@@ -2119,10 +2119,10 @@
         <v>130</v>
       </c>
       <c r="AN12" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AO12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="13">
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G13" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="H13" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I13" t="n">
         <v>3.55</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3.6</v>
       </c>
       <c r="J13" t="n">
         <v>3.65</v>
@@ -2170,10 +2170,10 @@
         <v>3.7</v>
       </c>
       <c r="L13" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
         <v>4.1</v>
@@ -2200,10 +2200,10 @@
         <v>2.26</v>
       </c>
       <c r="V13" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W13" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="X13" t="n">
         <v>15.5</v>
@@ -2230,7 +2230,7 @@
         <v>40</v>
       </c>
       <c r="AF13" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG13" t="n">
         <v>11</v>
@@ -2290,10 +2290,10 @@
         <v>2.76</v>
       </c>
       <c r="G14" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="H14" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="I14" t="n">
         <v>2.78</v>
@@ -2302,7 +2302,7 @@
         <v>3.5</v>
       </c>
       <c r="K14" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="G15" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="H15" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="I15" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="J15" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2446,28 +2446,28 @@
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P15" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="R15" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="S15" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="T15" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="U15" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>980</v>
       </c>
       <c r="Y15" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z15" t="n">
         <v>980</v>
@@ -2491,7 +2491,7 @@
         <v>980</v>
       </c>
       <c r="AC15" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD15" t="n">
         <v>11</v>
@@ -2512,7 +2512,7 @@
         <v>980</v>
       </c>
       <c r="AJ15" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AK15" t="n">
         <v>70</v>
@@ -2524,10 +2524,10 @@
         <v>110</v>
       </c>
       <c r="AN15" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AO15" t="n">
-        <v>9</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="16">
@@ -2563,13 +2563,13 @@
         <v>1.39</v>
       </c>
       <c r="H16" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="I16" t="n">
         <v>12.5</v>
       </c>
       <c r="J16" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="K16" t="n">
         <v>5.9</v>
@@ -2581,25 +2581,25 @@
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="O16" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P16" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="Q16" t="n">
         <v>1.71</v>
       </c>
       <c r="R16" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="S16" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="T16" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="U16" t="n">
         <v>1.76</v>
@@ -2608,10 +2608,10 @@
         <v>1.09</v>
       </c>
       <c r="W16" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="X16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y16" t="n">
         <v>1000</v>
@@ -2653,7 +2653,7 @@
         <v>15.5</v>
       </c>
       <c r="AL16" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
         <v>1000</v>
@@ -2698,7 +2698,7 @@
         <v>1.12</v>
       </c>
       <c r="H17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I17" t="n">
         <v>36</v>
@@ -2710,37 +2710,37 @@
         <v>15</v>
       </c>
       <c r="L17" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="M17" t="n">
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O17" t="n">
         <v>1.09</v>
       </c>
       <c r="P17" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="R17" t="n">
         <v>2.18</v>
       </c>
       <c r="S17" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="T17" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="U17" t="n">
         <v>1.68</v>
       </c>
       <c r="V17" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="W17" t="n">
         <v>9.199999999999999</v>
@@ -2758,10 +2758,10 @@
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC17" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
         <v>1000</v>
@@ -2770,7 +2770,7 @@
         <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG17" t="n">
         <v>16.5</v>
@@ -2782,7 +2782,7 @@
         <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK17" t="n">
         <v>18</v>
@@ -2794,7 +2794,7 @@
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G18" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="H18" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I18" t="n">
         <v>3.55</v>
@@ -2851,37 +2851,37 @@
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P18" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="R18" t="n">
         <v>1.35</v>
       </c>
       <c r="S18" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="T18" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="U18" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V18" t="n">
         <v>1.39</v>
       </c>
       <c r="W18" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X18" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y18" t="n">
         <v>14</v>
@@ -2893,10 +2893,10 @@
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD18" t="n">
         <v>15</v>
@@ -2932,7 +2932,7 @@
         <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19">
@@ -2968,7 +2968,7 @@
         <v>1.4</v>
       </c>
       <c r="H19" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I19" t="n">
         <v>9.4</v>
@@ -2986,13 +2986,13 @@
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O19" t="n">
         <v>1.2</v>
       </c>
       <c r="P19" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="Q19" t="n">
         <v>1.62</v>
@@ -3004,7 +3004,7 @@
         <v>2.58</v>
       </c>
       <c r="T19" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U19" t="n">
         <v>2</v>
@@ -3040,7 +3040,7 @@
         <v>130</v>
       </c>
       <c r="AF19" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AG19" t="n">
         <v>10</v>
@@ -3052,7 +3052,7 @@
         <v>970</v>
       </c>
       <c r="AJ19" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK19" t="n">
         <v>13.5</v>
@@ -3106,7 +3106,7 @@
         <v>1.82</v>
       </c>
       <c r="I20" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="J20" t="n">
         <v>4.1</v>
@@ -3115,7 +3115,7 @@
         <v>4.2</v>
       </c>
       <c r="L20" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M20" t="n">
         <v>1.06</v>
@@ -3127,7 +3127,7 @@
         <v>1.3</v>
       </c>
       <c r="P20" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q20" t="n">
         <v>1.87</v>
@@ -3142,10 +3142,10 @@
         <v>1.84</v>
       </c>
       <c r="U20" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V20" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="W20" t="n">
         <v>1.26</v>
@@ -3154,19 +3154,19 @@
         <v>17</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z20" t="n">
         <v>11</v>
       </c>
       <c r="AA20" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AB20" t="n">
         <v>17</v>
       </c>
       <c r="AC20" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AD20" t="n">
         <v>9.800000000000001</v>
@@ -3187,7 +3187,7 @@
         <v>34</v>
       </c>
       <c r="AJ20" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AK20" t="n">
         <v>60</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
         <v>2.16</v>
       </c>
       <c r="H21" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I21" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J21" t="n">
         <v>3.45</v>
       </c>
       <c r="K21" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.89</v>
+        <v>2.08</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="Q22" t="n">
         <v>1.86</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="G23" t="n">
         <v>5.7</v>
       </c>
       <c r="H23" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="I23" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="J23" t="n">
         <v>3.6</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q23" t="n">
         <v>1.98</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="G24" t="n">
         <v>1.26</v>
@@ -3646,13 +3646,13 @@
         <v>15</v>
       </c>
       <c r="I24" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="J24" t="n">
         <v>7.2</v>
       </c>
       <c r="K24" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3778,16 +3778,16 @@
         <v>2.8</v>
       </c>
       <c r="H25" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="I25" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J25" t="n">
         <v>3.2</v>
       </c>
       <c r="K25" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="Q25" t="n">
         <v>2.26</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
@@ -670,7 +670,7 @@
         <v>6.2</v>
       </c>
       <c r="G2" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="H2" t="n">
         <v>1.54</v>
@@ -685,10 +685,10 @@
         <v>4.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
         <v>3.85</v>
@@ -709,10 +709,10 @@
         <v>3.05</v>
       </c>
       <c r="T2" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="U2" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="V2" t="n">
         <v>2.48</v>
@@ -721,40 +721,40 @@
         <v>1.15</v>
       </c>
       <c r="X2" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AC2" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AD2" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AG2" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH2" t="n">
         <v>27</v>
       </c>
-      <c r="AH2" t="n">
-        <v>23</v>
-      </c>
       <c r="AI2" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AJ2" t="n">
         <v>240</v>
@@ -772,7 +772,7 @@
         <v>150</v>
       </c>
       <c r="AO2" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -808,16 +808,16 @@
         <v>8</v>
       </c>
       <c r="H3" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="I3" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="J3" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K3" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="G4" t="n">
         <v>1.48</v>
@@ -946,13 +946,13 @@
         <v>10</v>
       </c>
       <c r="I4" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="J4" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K4" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>1.98</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="G7" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="H7" t="n">
         <v>6.6</v>
       </c>
       <c r="I7" t="n">
-        <v>100</v>
+        <v>12.5</v>
       </c>
       <c r="J7" t="n">
         <v>4.8</v>
       </c>
       <c r="K7" t="n">
-        <v>15</v>
+        <v>6.4</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.38</v>
+        <v>2.54</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1483,7 +1483,7 @@
         <v>4.7</v>
       </c>
       <c r="H8" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="I8" t="n">
         <v>1.84</v>
@@ -1519,10 +1519,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U8" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1531,37 +1531,37 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y8" t="n">
         <v>10.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AA8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB8" t="n">
         <v>18.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE8" t="n">
         <v>18</v>
       </c>
       <c r="AF8" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AG8" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI8" t="n">
         <v>32</v>
@@ -1573,7 +1573,7 @@
         <v>55</v>
       </c>
       <c r="AL8" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM8" t="n">
         <v>110</v>
@@ -1582,7 +1582,7 @@
         <v>55</v>
       </c>
       <c r="AO8" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="9">
@@ -1750,13 +1750,13 @@
         <v>3.5</v>
       </c>
       <c r="G10" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I10" t="n">
         <v>2.32</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.34</v>
       </c>
       <c r="J10" t="n">
         <v>3.45</v>
@@ -1771,16 +1771,16 @@
         <v>1.09</v>
       </c>
       <c r="N10" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P10" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="R10" t="n">
         <v>1.3</v>
@@ -1789,7 +1789,7 @@
         <v>4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U10" t="n">
         <v>2.04</v>
@@ -1801,10 +1801,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="n">
         <v>14</v>
@@ -1813,7 +1813,7 @@
         <v>32</v>
       </c>
       <c r="AB10" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC10" t="n">
         <v>7.4</v>
@@ -1825,7 +1825,7 @@
         <v>27</v>
       </c>
       <c r="AF10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG10" t="n">
         <v>15</v>
@@ -1837,10 +1837,10 @@
         <v>44</v>
       </c>
       <c r="AJ10" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AL10" t="n">
         <v>60</v>
@@ -1849,10 +1849,10 @@
         <v>130</v>
       </c>
       <c r="AN10" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AO10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="G11" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="H11" t="n">
         <v>11.5</v>
@@ -1894,10 +1894,10 @@
         <v>12</v>
       </c>
       <c r="J11" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K11" t="n">
         <v>5.9</v>
-      </c>
-      <c r="K11" t="n">
-        <v>6</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>2.24</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R11" t="n">
         <v>1.49</v>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y11" t="n">
         <v>34</v>
@@ -1945,7 +1945,7 @@
         <v>120</v>
       </c>
       <c r="AA11" t="n">
-        <v>510</v>
+        <v>470</v>
       </c>
       <c r="AB11" t="n">
         <v>8</v>
@@ -1957,10 +1957,10 @@
         <v>44</v>
       </c>
       <c r="AE11" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AF11" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AG11" t="n">
         <v>11</v>
@@ -1984,7 +1984,7 @@
         <v>250</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2020,52 +2020,52 @@
         <v>4.8</v>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H12" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="I12" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="J12" t="n">
         <v>3.9</v>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L12" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M12" t="n">
         <v>1.08</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.07</v>
-      </c>
       <c r="N12" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O12" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P12" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="R12" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S12" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T12" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="U12" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="V12" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="W12" t="n">
         <v>1.25</v>
@@ -2080,7 +2080,7 @@
         <v>10.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AB12" t="n">
         <v>15.5</v>
@@ -2107,13 +2107,13 @@
         <v>40</v>
       </c>
       <c r="AJ12" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="AK12" t="n">
         <v>75</v>
       </c>
       <c r="AL12" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM12" t="n">
         <v>130</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G13" t="n">
         <v>2.24</v>
       </c>
-      <c r="G13" t="n">
-        <v>2.26</v>
-      </c>
       <c r="H13" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I13" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J13" t="n">
         <v>3.65</v>
@@ -2176,16 +2176,16 @@
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P13" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="R13" t="n">
         <v>1.41</v>
@@ -2194,22 +2194,22 @@
         <v>3.25</v>
       </c>
       <c r="T13" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U13" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="V13" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W13" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X13" t="n">
         <v>15.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z13" t="n">
         <v>26</v>
@@ -2218,7 +2218,7 @@
         <v>65</v>
       </c>
       <c r="AB13" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC13" t="n">
         <v>8.199999999999999</v>
@@ -2236,10 +2236,10 @@
         <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ13" t="n">
         <v>29</v>
@@ -2248,7 +2248,7 @@
         <v>23</v>
       </c>
       <c r="AL13" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM13" t="n">
         <v>75</v>
@@ -2290,7 +2290,7 @@
         <v>2.76</v>
       </c>
       <c r="G14" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="H14" t="n">
         <v>2.64</v>
@@ -2302,7 +2302,7 @@
         <v>3.5</v>
       </c>
       <c r="K14" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.67</v>
+        <v>1.82</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2428,16 +2428,16 @@
         <v>5.5</v>
       </c>
       <c r="H15" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="I15" t="n">
         <v>1.82</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K15" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2455,13 +2455,13 @@
         <v>2.12</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="R15" t="n">
         <v>1.43</v>
       </c>
       <c r="S15" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="T15" t="n">
         <v>1.73</v>
@@ -2524,10 +2524,10 @@
         <v>110</v>
       </c>
       <c r="AN15" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AO15" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="16">
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="G16" t="n">
         <v>1.39</v>
@@ -2566,7 +2566,7 @@
         <v>11</v>
       </c>
       <c r="I16" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="J16" t="n">
         <v>5.2</v>
@@ -2587,10 +2587,10 @@
         <v>1.24</v>
       </c>
       <c r="P16" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="R16" t="n">
         <v>1.46</v>
@@ -2602,7 +2602,7 @@
         <v>2.14</v>
       </c>
       <c r="U16" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="V16" t="n">
         <v>1.09</v>
@@ -2731,7 +2731,7 @@
         <v>2.18</v>
       </c>
       <c r="S17" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="T17" t="n">
         <v>2.26</v>
@@ -2836,7 +2836,7 @@
         <v>3.3</v>
       </c>
       <c r="I18" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J18" t="n">
         <v>3.35</v>
@@ -2884,13 +2884,13 @@
         <v>16.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z18" t="n">
         <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB18" t="n">
         <v>10.5</v>
@@ -2905,7 +2905,7 @@
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG18" t="n">
         <v>11.5</v>
@@ -2932,7 +2932,7 @@
         <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2965,16 +2965,16 @@
         <v>1.39</v>
       </c>
       <c r="G19" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="H19" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="I19" t="n">
         <v>9.4</v>
       </c>
       <c r="J19" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="K19" t="n">
         <v>5.9</v>
@@ -2992,7 +2992,7 @@
         <v>1.2</v>
       </c>
       <c r="P19" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="Q19" t="n">
         <v>1.62</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y19" t="n">
         <v>34</v>
@@ -3037,7 +3037,7 @@
         <v>34</v>
       </c>
       <c r="AE19" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
         <v>8.6</v>
@@ -3058,13 +3058,13 @@
         <v>13.5</v>
       </c>
       <c r="AL19" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM19" t="n">
         <v>120</v>
       </c>
       <c r="AN19" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3100,7 +3100,7 @@
         <v>4.7</v>
       </c>
       <c r="G20" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H20" t="n">
         <v>1.82</v>
@@ -3154,7 +3154,7 @@
         <v>17</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Z20" t="n">
         <v>11</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G21" t="n">
         <v>2.16</v>
       </c>
       <c r="H21" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
         <v>4.5</v>
       </c>
       <c r="J21" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="K21" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3367,19 +3367,19 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="G22" t="n">
-        <v>2.54</v>
+        <v>2.44</v>
       </c>
       <c r="H22" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J22" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K22" t="n">
         <v>3.65</v>
@@ -3508,13 +3508,13 @@
         <v>5.7</v>
       </c>
       <c r="H23" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="I23" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="J23" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K23" t="n">
         <v>4</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3646,10 +3646,10 @@
         <v>15</v>
       </c>
       <c r="I24" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J24" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="K24" t="n">
         <v>8.4</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="G25" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="H25" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="I25" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K25" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.68</v>
+        <v>1.58</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO25"/>
+  <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -694,7 +694,7 @@
         <v>3.85</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
         <v>1.98</v>
@@ -706,7 +706,7 @@
         <v>1.38</v>
       </c>
       <c r="S2" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="T2" t="n">
         <v>1.89</v>
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="G3" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="H3" t="n">
         <v>1.75</v>
@@ -814,100 +814,100 @@
         <v>1.93</v>
       </c>
       <c r="J3" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="K3" t="n">
         <v>4.3</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P3" t="n">
         <v>1.65</v>
       </c>
       <c r="Q3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V3" t="n">
         <v>2.06</v>
       </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="G4" t="n">
         <v>1.48</v>
@@ -949,7 +949,7 @@
         <v>14.5</v>
       </c>
       <c r="J4" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="K4" t="n">
         <v>5.2</v>
@@ -970,7 +970,7 @@
         <v>1.81</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G5" t="n">
         <v>2.38</v>
       </c>
       <c r="H5" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
         <v>4.7</v>
       </c>
       <c r="J5" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K5" t="n">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>1.98</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,36 +1193,36 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ironi Tiberias</t>
+          <t>SSD Dolomiti Bellunesi</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>1.03</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1328,36 +1328,36 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Ironi Tiberias</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.34</v>
+        <v>4.7</v>
       </c>
       <c r="G7" t="n">
-        <v>1.44</v>
+        <v>980</v>
       </c>
       <c r="H7" t="n">
-        <v>6.6</v>
+        <v>1.46</v>
       </c>
       <c r="I7" t="n">
-        <v>12.5</v>
+        <v>1.79</v>
       </c>
       <c r="J7" t="n">
-        <v>4.8</v>
+        <v>3.85</v>
       </c>
       <c r="K7" t="n">
-        <v>6.4</v>
+        <v>10.5</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.54</v>
+        <v>2</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,37 +1468,37 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.5</v>
+        <v>1.36</v>
       </c>
       <c r="G8" t="n">
-        <v>4.7</v>
+        <v>1.44</v>
       </c>
       <c r="H8" t="n">
-        <v>1.83</v>
+        <v>8</v>
       </c>
       <c r="I8" t="n">
-        <v>1.84</v>
+        <v>11</v>
       </c>
       <c r="J8" t="n">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="K8" t="n">
-        <v>4.3</v>
+        <v>6.4</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.2</v>
+        <v>2.54</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.78</v>
+        <v>1.51</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1519,10 +1519,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1531,64 +1531,64 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,42 +1598,42 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Blooming Santa Cruz</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Academia de Balompie Bolivi</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.09</v>
+        <v>4.5</v>
       </c>
       <c r="G9" t="n">
-        <v>1.7</v>
+        <v>4.7</v>
       </c>
       <c r="H9" t="n">
-        <v>1.04</v>
+        <v>1.82</v>
       </c>
       <c r="I9" t="n">
-        <v>8.800000000000001</v>
+        <v>1.84</v>
       </c>
       <c r="J9" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="K9" t="n">
-        <v>950</v>
+        <v>4.3</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1666,64 +1666,64 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,66 +1733,66 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Blooming Santa Cruz</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Academia de Balompie Bolivi</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.5</v>
+        <v>1.33</v>
       </c>
       <c r="G10" t="n">
-        <v>3.55</v>
+        <v>1.44</v>
       </c>
       <c r="H10" t="n">
-        <v>2.3</v>
+        <v>1.09</v>
       </c>
       <c r="I10" t="n">
-        <v>2.32</v>
+        <v>11.5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.45</v>
+        <v>4.5</v>
       </c>
       <c r="K10" t="n">
-        <v>3.55</v>
+        <v>6.4</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.79</v>
+        <v>2.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.22</v>
+        <v>1.48</v>
       </c>
       <c r="R10" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1801,58 +1801,58 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AM10" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.35</v>
+        <v>3.45</v>
       </c>
       <c r="G11" t="n">
-        <v>1.36</v>
+        <v>3.55</v>
       </c>
       <c r="H11" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD11" t="n">
         <v>11.5</v>
       </c>
-      <c r="I11" t="n">
-        <v>12</v>
-      </c>
-      <c r="J11" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>120</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>470</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD11" t="n">
+      <c r="AE11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI11" t="n">
         <v>44</v>
       </c>
-      <c r="AE11" t="n">
-        <v>270</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>1000</v>
-      </c>
       <c r="AJ11" t="n">
-        <v>10.5</v>
+        <v>70</v>
       </c>
       <c r="AK11" t="n">
-        <v>14.5</v>
+        <v>46</v>
       </c>
       <c r="AL11" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AM11" t="n">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.6</v>
+        <v>65</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4.8</v>
+        <v>1.35</v>
       </c>
       <c r="G12" t="n">
-        <v>4.9</v>
+        <v>1.36</v>
       </c>
       <c r="H12" t="n">
-        <v>1.86</v>
+        <v>11</v>
       </c>
       <c r="I12" t="n">
-        <v>1.87</v>
+        <v>11.5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.9</v>
+        <v>5.8</v>
       </c>
       <c r="K12" t="n">
-        <v>3.95</v>
+        <v>5.9</v>
       </c>
       <c r="L12" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>3.55</v>
+        <v>4.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="P12" t="n">
-        <v>1.87</v>
+        <v>2.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.12</v>
+        <v>1.8</v>
       </c>
       <c r="R12" t="n">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="S12" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.97</v>
+        <v>2.22</v>
       </c>
       <c r="U12" t="n">
-        <v>1.97</v>
+        <v>1.75</v>
       </c>
       <c r="V12" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>13.5</v>
+        <v>20</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.199999999999999</v>
+        <v>34</v>
       </c>
       <c r="Z12" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>490</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>250</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AG12" t="n">
         <v>10.5</v>
       </c>
-      <c r="AA12" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AI12" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="AK12" t="n">
-        <v>75</v>
+        <v>14.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="AM12" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="AN12" t="n">
-        <v>95</v>
+        <v>5.6</v>
       </c>
       <c r="AO12" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.22</v>
+        <v>4.8</v>
       </c>
       <c r="G13" t="n">
-        <v>2.24</v>
+        <v>4.9</v>
       </c>
       <c r="H13" t="n">
-        <v>3.55</v>
+        <v>1.86</v>
       </c>
       <c r="I13" t="n">
-        <v>3.6</v>
+        <v>1.87</v>
       </c>
       <c r="J13" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="K13" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="L13" t="n">
-        <v>1.31</v>
+        <v>1.08</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="P13" t="n">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="R13" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="S13" t="n">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="T13" t="n">
-        <v>1.75</v>
+        <v>1.97</v>
       </c>
       <c r="U13" t="n">
-        <v>2.24</v>
+        <v>1.96</v>
       </c>
       <c r="V13" t="n">
-        <v>1.38</v>
+        <v>2.14</v>
       </c>
       <c r="W13" t="n">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="X13" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y13" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB13" t="n">
         <v>15</v>
       </c>
-      <c r="Z13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>11</v>
-      </c>
       <c r="AC13" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="AE13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI13" t="n">
         <v>40</v>
       </c>
-      <c r="AF13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>46</v>
-      </c>
       <c r="AJ13" t="n">
-        <v>29</v>
+        <v>170</v>
       </c>
       <c r="AK13" t="n">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="AL13" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="AM13" t="n">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="AN13" t="n">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="AO13" t="n">
-        <v>36</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,126 +2273,126 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.76</v>
+        <v>2.2</v>
       </c>
       <c r="G14" t="n">
-        <v>2.88</v>
+        <v>2.22</v>
       </c>
       <c r="H14" t="n">
-        <v>2.64</v>
+        <v>3.55</v>
       </c>
       <c r="I14" t="n">
-        <v>2.78</v>
+        <v>3.6</v>
       </c>
       <c r="J14" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="K14" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
@@ -2413,61 +2413,61 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.8</v>
+        <v>2.76</v>
       </c>
       <c r="G15" t="n">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="H15" t="n">
-        <v>1.73</v>
+        <v>2.68</v>
       </c>
       <c r="I15" t="n">
-        <v>1.82</v>
+        <v>2.78</v>
       </c>
       <c r="J15" t="n">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="K15" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.69</v>
+        <v>1.86</v>
       </c>
       <c r="R15" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2476,58 +2476,58 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AM15" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.38</v>
+        <v>4.8</v>
       </c>
       <c r="G16" t="n">
-        <v>1.39</v>
+        <v>5.5</v>
       </c>
       <c r="H16" t="n">
-        <v>11</v>
+        <v>1.73</v>
       </c>
       <c r="I16" t="n">
-        <v>11.5</v>
+        <v>1.81</v>
       </c>
       <c r="J16" t="n">
-        <v>5.2</v>
+        <v>4.2</v>
       </c>
       <c r="K16" t="n">
-        <v>5.9</v>
+        <v>4.3</v>
       </c>
       <c r="L16" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="O16" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="P16" t="n">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="Q16" t="n">
         <v>1.73</v>
       </c>
       <c r="R16" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="S16" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="T16" t="n">
-        <v>2.14</v>
+        <v>1.76</v>
       </c>
       <c r="U16" t="n">
-        <v>1.75</v>
+        <v>2.04</v>
       </c>
       <c r="V16" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AB16" t="n">
-        <v>9</v>
+        <v>980</v>
       </c>
       <c r="AC16" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF16" t="n">
-        <v>8.4</v>
+        <v>48</v>
       </c>
       <c r="AG16" t="n">
-        <v>11.5</v>
+        <v>25</v>
       </c>
       <c r="AH16" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ16" t="n">
-        <v>11.5</v>
+        <v>150</v>
       </c>
       <c r="AK16" t="n">
-        <v>15.5</v>
+        <v>85</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN16" t="n">
-        <v>6.8</v>
+        <v>80</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -2683,73 +2683,73 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.1</v>
+        <v>1.38</v>
       </c>
       <c r="G17" t="n">
-        <v>1.12</v>
+        <v>1.39</v>
       </c>
       <c r="H17" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N17" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W17" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="X17" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y17" t="n">
         <v>36</v>
-      </c>
-      <c r="J17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K17" t="n">
-        <v>15</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N17" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="W17" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="X17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>1000</v>
       </c>
       <c r="Z17" t="n">
         <v>1000</v>
@@ -2758,10 +2758,10 @@
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>16</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD17" t="n">
         <v>1000</v>
@@ -2770,22 +2770,22 @@
         <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AG17" t="n">
-        <v>16.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI17" t="n">
         <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AL17" t="n">
         <v>1000</v>
@@ -2794,7 +2794,7 @@
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>2.46</v>
+        <v>6.2</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2818,109 +2818,109 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.32</v>
+        <v>1.11</v>
       </c>
       <c r="G18" t="n">
-        <v>2.44</v>
+        <v>1.13</v>
       </c>
       <c r="H18" t="n">
-        <v>3.3</v>
+        <v>28</v>
       </c>
       <c r="I18" t="n">
-        <v>3.6</v>
+        <v>36</v>
       </c>
       <c r="J18" t="n">
-        <v>3.35</v>
+        <v>12.5</v>
       </c>
       <c r="K18" t="n">
-        <v>3.6</v>
+        <v>14</v>
       </c>
       <c r="L18" t="n">
-        <v>1.41</v>
+        <v>1.15</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>3.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O18" t="n">
-        <v>1.33</v>
+        <v>1.09</v>
       </c>
       <c r="P18" t="n">
-        <v>1.9</v>
+        <v>3.85</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.97</v>
+        <v>1.29</v>
       </c>
       <c r="R18" t="n">
-        <v>1.35</v>
+        <v>2.14</v>
       </c>
       <c r="S18" t="n">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="T18" t="n">
-        <v>1.75</v>
+        <v>2.26</v>
       </c>
       <c r="U18" t="n">
-        <v>2.14</v>
+        <v>1.68</v>
       </c>
       <c r="V18" t="n">
-        <v>1.39</v>
+        <v>1.03</v>
       </c>
       <c r="W18" t="n">
-        <v>1.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X18" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
         <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>10.5</v>
+        <v>16</v>
       </c>
       <c r="AC18" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>15.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>11.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AL18" t="n">
         <v>1000</v>
@@ -2929,7 +2929,7 @@
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>2.46</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2938,7 +2938,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,123 +2948,123 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.39</v>
+        <v>2.28</v>
       </c>
       <c r="G19" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L19" t="n">
         <v>1.41</v>
       </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-      <c r="I19" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="J19" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="K19" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="O19" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="P19" t="n">
-        <v>2.56</v>
+        <v>1.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.62</v>
+        <v>1.97</v>
       </c>
       <c r="R19" t="n">
-        <v>1.61</v>
+        <v>1.35</v>
       </c>
       <c r="S19" t="n">
-        <v>2.58</v>
+        <v>3.5</v>
       </c>
       <c r="T19" t="n">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="X19" t="n">
-        <v>25</v>
+        <v>16.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>34</v>
+        <v>13.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
         <v>10.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AD19" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AE19" t="n">
         <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>8.6</v>
+        <v>15.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>5.1</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3088,127 +3088,127 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.7</v>
+        <v>1.39</v>
       </c>
       <c r="G20" t="n">
-        <v>4.9</v>
+        <v>1.4</v>
       </c>
       <c r="H20" t="n">
-        <v>1.82</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>1.83</v>
+        <v>9.4</v>
       </c>
       <c r="J20" t="n">
-        <v>4.1</v>
+        <v>5.8</v>
       </c>
       <c r="K20" t="n">
-        <v>4.2</v>
+        <v>5.9</v>
       </c>
       <c r="L20" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>4.1</v>
+        <v>5.6</v>
       </c>
       <c r="O20" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="P20" t="n">
-        <v>2.1</v>
+        <v>2.56</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.87</v>
+        <v>1.61</v>
       </c>
       <c r="R20" t="n">
-        <v>1.41</v>
+        <v>1.62</v>
       </c>
       <c r="S20" t="n">
-        <v>3.3</v>
+        <v>2.54</v>
       </c>
       <c r="T20" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="U20" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="V20" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.4</v>
+        <v>34</v>
       </c>
       <c r="Z20" t="n">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.5</v>
+        <v>350</v>
       </c>
       <c r="AB20" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.4</v>
+        <v>13</v>
       </c>
       <c r="AD20" t="n">
-        <v>9.800000000000001</v>
+        <v>34</v>
       </c>
       <c r="AE20" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>36</v>
+        <v>8.6</v>
       </c>
       <c r="AG20" t="n">
-        <v>18.5</v>
+        <v>10</v>
       </c>
       <c r="AH20" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AI20" t="n">
+        <v>970</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL20" t="n">
         <v>34</v>
       </c>
-      <c r="AJ20" t="n">
-        <v>160</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>65</v>
-      </c>
       <c r="AM20" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AN20" t="n">
-        <v>70</v>
+        <v>5.1</v>
       </c>
       <c r="AO20" t="n">
-        <v>11.5</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Fortaleza EC</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.02</v>
+        <v>4.8</v>
       </c>
       <c r="G21" t="n">
-        <v>2.16</v>
+        <v>4.9</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>1.81</v>
       </c>
       <c r="I21" t="n">
-        <v>4.5</v>
+        <v>1.82</v>
       </c>
       <c r="J21" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S21" t="n">
         <v>3.3</v>
       </c>
-      <c r="K21" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,31 +3358,31 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Real Tomayapo</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>EC Vitoria Salvador</t>
+          <t>Oriente Petrolero</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.26</v>
+        <v>1.04</v>
       </c>
       <c r="G22" t="n">
-        <v>2.44</v>
+        <v>1000</v>
       </c>
       <c r="H22" t="n">
-        <v>3.3</v>
+        <v>1.04</v>
       </c>
       <c r="I22" t="n">
-        <v>3.7</v>
+        <v>1000</v>
       </c>
       <c r="J22" t="n">
-        <v>3.3</v>
+        <v>1.01</v>
       </c>
       <c r="K22" t="n">
-        <v>3.65</v>
+        <v>950</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.87</v>
+        <v>1.24</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.86</v>
+        <v>1.01</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3488,36 +3488,36 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Fortaleza EC</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4.9</v>
+        <v>1.97</v>
       </c>
       <c r="G23" t="n">
-        <v>5.7</v>
+        <v>2.06</v>
       </c>
       <c r="H23" t="n">
-        <v>1.78</v>
+        <v>4.2</v>
       </c>
       <c r="I23" t="n">
-        <v>1.87</v>
+        <v>4.7</v>
       </c>
       <c r="J23" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="K23" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.86</v>
+        <v>1.72</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.99</v>
+        <v>2.18</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3623,36 +3623,36 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>EC Vitoria Salvador</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.21</v>
+        <v>2.26</v>
       </c>
       <c r="G24" t="n">
-        <v>1.26</v>
+        <v>2.44</v>
       </c>
       <c r="H24" t="n">
-        <v>15</v>
+        <v>3.3</v>
       </c>
       <c r="I24" t="n">
-        <v>21</v>
+        <v>3.7</v>
       </c>
       <c r="J24" t="n">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="K24" t="n">
-        <v>8.4</v>
+        <v>3.65</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2.8</v>
+        <v>1.87</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.46</v>
+        <v>2</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3758,125 +3758,395 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K25" t="n">
+        <v>4</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>20:00:00</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H26" t="n">
+        <v>14</v>
+      </c>
+      <c r="I26" t="n">
+        <v>21</v>
+      </c>
+      <c r="J26" t="n">
+        <v>7</v>
+      </c>
+      <c r="K26" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>Sao Paulo</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>Internacional</t>
         </is>
       </c>
-      <c r="F25" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="G25" t="n">
+      <c r="F27" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G27" t="n">
         <v>2.76</v>
       </c>
-      <c r="H25" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
+      <c r="H27" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>1.58</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="Q27" t="n">
         <v>2.38</v>
       </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO25" t="n">
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO27"/>
+  <dimension ref="A1:AO30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,13 +700,13 @@
         <v>1.98</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R2" t="n">
         <v>1.38</v>
       </c>
       <c r="S2" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T2" t="n">
         <v>1.89</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
         <v>7.2</v>
@@ -814,19 +814,19 @@
         <v>1.93</v>
       </c>
       <c r="J3" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
         <v>4.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="O3" t="n">
         <v>1.35</v>
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="G4" t="n">
         <v>1.48</v>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I4" t="n">
         <v>14.5</v>
@@ -955,100 +955,100 @@
         <v>5.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P4" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Maccabi Netanya</t>
+          <t>Kazincbarcika</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FC Ashdod</t>
+          <t>Gyori</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.91</v>
+        <v>5.8</v>
       </c>
       <c r="G5" t="n">
-        <v>2.38</v>
+        <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>1.54</v>
       </c>
       <c r="I5" t="n">
-        <v>4.7</v>
+        <v>1.66</v>
       </c>
       <c r="J5" t="n">
-        <v>3.45</v>
+        <v>4.3</v>
       </c>
       <c r="K5" t="n">
-        <v>980</v>
+        <v>5.1</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.61</v>
+        <v>1.22</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Slovakian Super League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SSD Dolomiti Bellunesi</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Ruzomberok</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="P6" t="n">
-        <v>1.03</v>
+        <v>2.62</v>
       </c>
       <c r="Q6" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T6" t="n">
         <v>1.01</v>
       </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Slovakian Super League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,126 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Ironi Tiberias</t>
+          <t>Podbrezova</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Spartak Trnava</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="G7" t="n">
-        <v>980</v>
+        <v>3.8</v>
       </c>
       <c r="H7" t="n">
-        <v>1.46</v>
+        <v>2.08</v>
       </c>
       <c r="I7" t="n">
-        <v>1.79</v>
+        <v>2.34</v>
       </c>
       <c r="J7" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="K7" t="n">
-        <v>10.5</v>
+        <v>4.2</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P7" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T7" t="n">
         <v>1.01</v>
       </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Maccabi Netanya</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>FC Ashdod</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.36</v>
+        <v>2.04</v>
       </c>
       <c r="G8" t="n">
-        <v>1.44</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>11</v>
+        <v>3.85</v>
       </c>
       <c r="J8" t="n">
-        <v>5.2</v>
+        <v>3.3</v>
       </c>
       <c r="K8" t="n">
-        <v>6.4</v>
+        <v>4.3</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>2.54</v>
+        <v>2.16</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.51</v>
+        <v>1.68</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>SSD Dolomiti Bellunesi</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.5</v>
+        <v>1.04</v>
       </c>
       <c r="G9" t="n">
-        <v>4.7</v>
+        <v>1000</v>
       </c>
       <c r="H9" t="n">
-        <v>1.82</v>
+        <v>1.04</v>
       </c>
       <c r="I9" t="n">
-        <v>1.84</v>
+        <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>4.2</v>
+        <v>1.01</v>
       </c>
       <c r="K9" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>2.2</v>
+        <v>1.24</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.78</v>
+        <v>1.02</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="T9" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="U9" t="n">
-        <v>2.22</v>
+        <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X9" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,36 +1733,36 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Blooming Santa Cruz</t>
+          <t>Ironi Tiberias</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Academia de Balompie Bolivi</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.33</v>
+        <v>4.7</v>
       </c>
       <c r="G10" t="n">
-        <v>1.44</v>
+        <v>980</v>
       </c>
       <c r="H10" t="n">
-        <v>1.09</v>
+        <v>1.46</v>
       </c>
       <c r="I10" t="n">
-        <v>11.5</v>
+        <v>1.79</v>
       </c>
       <c r="J10" t="n">
-        <v>4.5</v>
+        <v>3.85</v>
       </c>
       <c r="K10" t="n">
-        <v>6.4</v>
+        <v>10.5</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,66 +1868,66 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.45</v>
+        <v>1.37</v>
       </c>
       <c r="G11" t="n">
-        <v>3.55</v>
+        <v>1.45</v>
       </c>
       <c r="H11" t="n">
-        <v>2.32</v>
+        <v>7.8</v>
       </c>
       <c r="I11" t="n">
-        <v>2.36</v>
+        <v>11</v>
       </c>
       <c r="J11" t="n">
-        <v>3.45</v>
+        <v>5.3</v>
       </c>
       <c r="K11" t="n">
-        <v>3.5</v>
+        <v>6.4</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.8</v>
+        <v>2.54</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.22</v>
+        <v>1.52</v>
       </c>
       <c r="R11" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1936,64 +1936,64 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AM11" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,36 +2003,36 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.35</v>
+        <v>4.5</v>
       </c>
       <c r="G12" t="n">
-        <v>1.36</v>
+        <v>4.6</v>
       </c>
       <c r="H12" t="n">
-        <v>11</v>
+        <v>1.83</v>
       </c>
       <c r="I12" t="n">
-        <v>11.5</v>
+        <v>1.85</v>
       </c>
       <c r="J12" t="n">
-        <v>5.8</v>
+        <v>4.2</v>
       </c>
       <c r="K12" t="n">
-        <v>5.9</v>
+        <v>4.3</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2041,29 +2041,29 @@
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>2.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="R12" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U12" t="n">
         <v>2.22</v>
       </c>
-      <c r="U12" t="n">
-        <v>1.75</v>
-      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
@@ -2071,64 +2071,64 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y12" t="n">
-        <v>34</v>
+        <v>10.5</v>
       </c>
       <c r="Z12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM12" t="n">
         <v>110</v>
       </c>
-      <c r="AA12" t="n">
-        <v>490</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>44</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>250</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AG12" t="n">
+      <c r="AN12" t="n">
+        <v>65</v>
+      </c>
+      <c r="AO12" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>250</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,126 +2138,126 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Blooming Santa Cruz</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Academia de Balompie Bolivi</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.8</v>
+        <v>1.33</v>
       </c>
       <c r="G13" t="n">
-        <v>4.9</v>
+        <v>1.44</v>
       </c>
       <c r="H13" t="n">
-        <v>1.86</v>
+        <v>1.09</v>
       </c>
       <c r="I13" t="n">
-        <v>1.87</v>
+        <v>11.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="K13" t="n">
-        <v>3.95</v>
+        <v>6.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.88</v>
+        <v>2.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.1</v>
+        <v>1.48</v>
       </c>
       <c r="R13" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2278,127 +2278,127 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="F14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H14" t="n">
+        <v>11</v>
+      </c>
+      <c r="I14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P14" t="n">
         <v>2.2</v>
       </c>
-      <c r="G14" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N14" t="n">
-        <v>4</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.04</v>
-      </c>
       <c r="Q14" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="R14" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="S14" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="T14" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U14" t="n">
         <v>1.75</v>
       </c>
-      <c r="U14" t="n">
-        <v>2.24</v>
-      </c>
       <c r="V14" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="Y14" t="n">
-        <v>14.5</v>
+        <v>32</v>
       </c>
       <c r="Z14" t="n">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="AA14" t="n">
-        <v>65</v>
+        <v>470</v>
       </c>
       <c r="AB14" t="n">
-        <v>11</v>
+        <v>7.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.199999999999999</v>
+        <v>13</v>
       </c>
       <c r="AD14" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="AE14" t="n">
-        <v>40</v>
+        <v>260</v>
       </c>
       <c r="AF14" t="n">
-        <v>15</v>
+        <v>7.2</v>
       </c>
       <c r="AG14" t="n">
         <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>16.5</v>
+        <v>34</v>
       </c>
       <c r="AI14" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="AK14" t="n">
-        <v>23</v>
+        <v>14.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AM14" t="n">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="AN14" t="n">
-        <v>16</v>
+        <v>5.7</v>
       </c>
       <c r="AO14" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,66 +2408,66 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.76</v>
+        <v>3.45</v>
       </c>
       <c r="G15" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="H15" t="n">
-        <v>2.68</v>
+        <v>2.34</v>
       </c>
       <c r="I15" t="n">
-        <v>2.78</v>
+        <v>2.36</v>
       </c>
       <c r="J15" t="n">
         <v>3.45</v>
       </c>
       <c r="K15" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P15" t="n">
-        <v>2</v>
+        <v>1.79</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.86</v>
+        <v>2.22</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2476,64 +2476,64 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="F16" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G16" t="n">
         <v>4.8</v>
       </c>
-      <c r="G16" t="n">
-        <v>5.5</v>
-      </c>
       <c r="H16" t="n">
-        <v>1.73</v>
+        <v>1.86</v>
       </c>
       <c r="I16" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="J16" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="K16" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="O16" t="n">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="P16" t="n">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="R16" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="S16" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="T16" t="n">
-        <v>1.76</v>
+        <v>1.98</v>
       </c>
       <c r="U16" t="n">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="X16" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z16" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AC16" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD16" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD16" t="n">
-        <v>11</v>
-      </c>
       <c r="AE16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF16" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AG16" t="n">
-        <v>25</v>
+        <v>19.5</v>
       </c>
       <c r="AH16" t="n">
         <v>22</v>
       </c>
       <c r="AI16" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ16" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AK16" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AL16" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AM16" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN16" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AO16" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,126 +2678,126 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="F17" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N17" t="n">
+        <v>4</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V17" t="n">
         <v>1.38</v>
       </c>
-      <c r="G17" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="H17" t="n">
+      <c r="W17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X17" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG17" t="n">
         <v>11</v>
       </c>
-      <c r="I17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N17" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W17" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="X17" t="n">
+      <c r="AH17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK17" t="n">
         <v>24</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="AL17" t="n">
         <v>36</v>
       </c>
-      <c r="Z17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN17" t="n">
-        <v>6.2</v>
+        <v>17</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.11</v>
+        <v>2.76</v>
       </c>
       <c r="G18" t="n">
-        <v>1.13</v>
+        <v>2.88</v>
       </c>
       <c r="H18" t="n">
-        <v>28</v>
+        <v>2.68</v>
       </c>
       <c r="I18" t="n">
-        <v>36</v>
+        <v>2.78</v>
       </c>
       <c r="J18" t="n">
-        <v>12.5</v>
+        <v>3.45</v>
       </c>
       <c r="K18" t="n">
-        <v>14</v>
+        <v>3.8</v>
       </c>
       <c r="L18" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>3.85</v>
+        <v>2.02</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.29</v>
+        <v>1.81</v>
       </c>
       <c r="R18" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AK18" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN18" t="n">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.28</v>
+        <v>4.7</v>
       </c>
       <c r="G19" t="n">
-        <v>2.44</v>
+        <v>5.2</v>
       </c>
       <c r="H19" t="n">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="I19" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="J19" t="n">
-        <v>3.35</v>
+        <v>4.3</v>
       </c>
       <c r="K19" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N19" t="n">
+        <v>4</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R19" t="n">
         <v>1.41</v>
       </c>
-      <c r="M19" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N19" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.35</v>
-      </c>
       <c r="S19" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="T19" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U19" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="V19" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AB19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC19" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC19" t="n">
-        <v>8</v>
-      </c>
       <c r="AD19" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF19" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AG19" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AH19" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,93 +3083,93 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="G20" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H20" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="I20" t="n">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="J20" t="n">
-        <v>5.8</v>
+        <v>4.9</v>
       </c>
       <c r="K20" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>5.6</v>
+        <v>4.2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="P20" t="n">
-        <v>2.56</v>
+        <v>2.12</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="R20" t="n">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="S20" t="n">
-        <v>2.54</v>
+        <v>2.92</v>
       </c>
       <c r="T20" t="n">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="U20" t="n">
-        <v>2.02</v>
+        <v>1.79</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="X20" t="n">
-        <v>25</v>
+        <v>19.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Z20" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC20" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AE20" t="n">
         <v>1000</v>
@@ -3178,37 +3178,37 @@
         <v>8.6</v>
       </c>
       <c r="AG20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH20" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AI20" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AK20" t="n">
-        <v>13.5</v>
+        <v>19</v>
       </c>
       <c r="AL20" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>5.1</v>
+        <v>7.6</v>
       </c>
       <c r="AO20" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4.8</v>
+        <v>1.1</v>
       </c>
       <c r="G21" t="n">
-        <v>4.9</v>
+        <v>1.11</v>
       </c>
       <c r="H21" t="n">
-        <v>1.81</v>
+        <v>29</v>
       </c>
       <c r="I21" t="n">
-        <v>1.82</v>
+        <v>38</v>
       </c>
       <c r="J21" t="n">
-        <v>4.1</v>
+        <v>14</v>
       </c>
       <c r="K21" t="n">
-        <v>4.2</v>
+        <v>15.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.32</v>
+        <v>1.15</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>4.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O21" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="P21" t="n">
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.87</v>
+        <v>1.29</v>
       </c>
       <c r="R21" t="n">
-        <v>1.41</v>
+        <v>2.14</v>
       </c>
       <c r="S21" t="n">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="T21" t="n">
-        <v>1.83</v>
+        <v>2.28</v>
       </c>
       <c r="U21" t="n">
-        <v>2.12</v>
+        <v>1.68</v>
       </c>
       <c r="V21" t="n">
-        <v>2.2</v>
+        <v>1.02</v>
       </c>
       <c r="W21" t="n">
-        <v>1.25</v>
+        <v>9.4</v>
       </c>
       <c r="X21" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK21" t="n">
         <v>18</v>
       </c>
-      <c r="AC21" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>160</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>60</v>
-      </c>
       <c r="AL21" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>85</v>
+        <v>2.46</v>
       </c>
       <c r="AO21" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Real Tomayapo</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Oriente Petrolero</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.04</v>
+        <v>2.24</v>
       </c>
       <c r="G22" t="n">
-        <v>1000</v>
+        <v>2.4</v>
       </c>
       <c r="H22" t="n">
-        <v>1.04</v>
+        <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>1000</v>
+        <v>3.65</v>
       </c>
       <c r="J22" t="n">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="K22" t="n">
-        <v>950</v>
+        <v>3.6</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P22" t="n">
-        <v>1.24</v>
+        <v>1.91</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.01</v>
+        <v>1.95</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,66 +3488,66 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Fortaleza EC</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.97</v>
+        <v>1.39</v>
       </c>
       <c r="G23" t="n">
-        <v>2.06</v>
+        <v>1.4</v>
       </c>
       <c r="H23" t="n">
-        <v>4.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I23" t="n">
-        <v>4.7</v>
+        <v>9.4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.4</v>
+        <v>5.7</v>
       </c>
       <c r="K23" t="n">
-        <v>3.7</v>
+        <v>5.9</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P23" t="n">
-        <v>1.72</v>
+        <v>2.56</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.18</v>
+        <v>1.61</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -3556,64 +3556,64 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>EC Vitoria Salvador</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.26</v>
+        <v>4.6</v>
       </c>
       <c r="G24" t="n">
-        <v>2.44</v>
+        <v>4.8</v>
       </c>
       <c r="H24" t="n">
-        <v>3.3</v>
+        <v>1.83</v>
       </c>
       <c r="I24" t="n">
-        <v>3.7</v>
+        <v>1.84</v>
       </c>
       <c r="J24" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="K24" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P24" t="n">
-        <v>1.87</v>
+        <v>2.1</v>
       </c>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="AM24" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,36 +3758,36 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Real Tomayapo</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Oriente Petrolero</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>4.9</v>
+        <v>1.04</v>
       </c>
       <c r="G25" t="n">
-        <v>5.5</v>
+        <v>600</v>
       </c>
       <c r="H25" t="n">
-        <v>1.78</v>
+        <v>1.04</v>
       </c>
       <c r="I25" t="n">
-        <v>1.87</v>
+        <v>870</v>
       </c>
       <c r="J25" t="n">
-        <v>3.75</v>
+        <v>1.01</v>
       </c>
       <c r="K25" t="n">
-        <v>4</v>
+        <v>950</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.87</v>
+        <v>1.24</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.97</v>
+        <v>1.01</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3893,36 +3893,36 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Fortaleza EC</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.21</v>
+        <v>1.97</v>
       </c>
       <c r="G26" t="n">
-        <v>1.27</v>
+        <v>2.02</v>
       </c>
       <c r="H26" t="n">
-        <v>14</v>
+        <v>4.2</v>
       </c>
       <c r="I26" t="n">
-        <v>21</v>
+        <v>4.7</v>
       </c>
       <c r="J26" t="n">
-        <v>7</v>
+        <v>3.45</v>
       </c>
       <c r="K26" t="n">
-        <v>8.4</v>
+        <v>3.75</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -3937,10 +3937,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>2.8</v>
+        <v>1.72</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.46</v>
+        <v>2.18</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -4028,125 +4028,530 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Red Bull Bragantino</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>EC Vitoria Salvador</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G28" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K28" t="n">
+        <v>4</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>20:00:00</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H29" t="n">
+        <v>14</v>
+      </c>
+      <c r="I29" t="n">
+        <v>21</v>
+      </c>
+      <c r="J29" t="n">
+        <v>7</v>
+      </c>
+      <c r="K29" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>Sao Paulo</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>Internacional</t>
         </is>
       </c>
-      <c r="F27" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="G27" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO27" t="n">
+      <c r="F30" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO30" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO30"/>
+  <dimension ref="A1:AO32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -706,16 +706,16 @@
         <v>1.38</v>
       </c>
       <c r="S2" t="n">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="T2" t="n">
         <v>1.89</v>
       </c>
       <c r="U2" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V2" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="W2" t="n">
         <v>1.15</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="G3" t="n">
         <v>7.2</v>
@@ -829,7 +829,7 @@
         <v>2.7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P3" t="n">
         <v>1.65</v>
@@ -943,13 +943,13 @@
         <v>1.48</v>
       </c>
       <c r="H4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="I4" t="n">
         <v>14.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="K4" t="n">
         <v>5.2</v>
@@ -979,10 +979,10 @@
         <v>3.2</v>
       </c>
       <c r="T4" t="n">
-        <v>2.04</v>
+        <v>1.04</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V4" t="n">
         <v>1.07</v>
@@ -1096,7 +1096,7 @@
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>2.02</v>
+        <v>2.36</v>
       </c>
       <c r="O5" t="n">
         <v>1.22</v>
@@ -1105,19 +1105,19 @@
         <v>2.02</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.22</v>
+        <v>1.59</v>
       </c>
       <c r="R5" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S5" t="n">
         <v>2.36</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V5" t="n">
         <v>2.5</v>
@@ -1231,7 +1231,7 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="O6" t="n">
         <v>1.16</v>
@@ -1243,16 +1243,16 @@
         <v>1.49</v>
       </c>
       <c r="R6" t="n">
-        <v>1.21</v>
+        <v>1.52</v>
       </c>
       <c r="S6" t="n">
         <v>2.02</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V6" t="n">
         <v>1.09</v>
@@ -1378,16 +1378,16 @@
         <v>1.75</v>
       </c>
       <c r="R7" t="n">
-        <v>1.18</v>
+        <v>1.34</v>
       </c>
       <c r="S7" t="n">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V7" t="n">
         <v>1.74</v>
@@ -1489,7 +1489,7 @@
         <v>3.85</v>
       </c>
       <c r="J8" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="K8" t="n">
         <v>4.3</v>
@@ -1501,7 +1501,7 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="O8" t="n">
         <v>1.22</v>
@@ -1519,10 +1519,10 @@
         <v>2.4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V8" t="n">
         <v>1.35</v>
@@ -1615,19 +1615,19 @@
         <v>1.04</v>
       </c>
       <c r="G9" t="n">
-        <v>1000</v>
+        <v>610</v>
       </c>
       <c r="H9" t="n">
         <v>1.04</v>
       </c>
       <c r="I9" t="n">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="J9" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K9" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1636,13 +1636,13 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="O9" t="n">
         <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q9" t="n">
         <v>1.02</v>
@@ -1651,13 +1651,13 @@
         <v>1.18</v>
       </c>
       <c r="S9" t="n">
-        <v>1.02</v>
+        <v>1.35</v>
       </c>
       <c r="T9" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U9" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V9" t="n">
         <v>1.01</v>
@@ -1750,115 +1750,115 @@
         <v>4.7</v>
       </c>
       <c r="G10" t="n">
-        <v>980</v>
+        <v>8.4</v>
       </c>
       <c r="H10" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="I10" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="J10" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K10" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Kahraba Ismailia</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>Pyramids</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.37</v>
+        <v>15</v>
       </c>
       <c r="G11" t="n">
-        <v>1.45</v>
+        <v>22</v>
       </c>
       <c r="H11" t="n">
-        <v>7.8</v>
+        <v>1.28</v>
       </c>
       <c r="I11" t="n">
-        <v>11</v>
+        <v>1.34</v>
       </c>
       <c r="J11" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="K11" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P11" t="n">
-        <v>2.54</v>
+        <v>1.85</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.52</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4.5</v>
+        <v>1.38</v>
       </c>
       <c r="G12" t="n">
-        <v>4.6</v>
+        <v>1.44</v>
       </c>
       <c r="H12" t="n">
-        <v>1.83</v>
+        <v>7.8</v>
       </c>
       <c r="I12" t="n">
-        <v>1.85</v>
+        <v>11</v>
       </c>
       <c r="J12" t="n">
-        <v>4.2</v>
+        <v>5.4</v>
       </c>
       <c r="K12" t="n">
-        <v>4.3</v>
+        <v>6.4</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="P12" t="n">
-        <v>2.2</v>
+        <v>2.54</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.79</v>
+        <v>1.52</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="T12" t="n">
-        <v>1.76</v>
+        <v>1.66</v>
       </c>
       <c r="U12" t="n">
-        <v>2.22</v>
+        <v>1.84</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="X12" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="Y12" t="n">
-        <v>10.5</v>
+        <v>48</v>
       </c>
       <c r="Z12" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="AA12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>46</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK12" t="n">
         <v>21</v>
       </c>
-      <c r="AB12" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>55</v>
-      </c>
       <c r="AL12" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AM12" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,42 +2138,42 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Blooming Santa Cruz</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Academia de Balompie Bolivi</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.33</v>
+        <v>4.3</v>
       </c>
       <c r="G13" t="n">
-        <v>1.44</v>
+        <v>4.4</v>
       </c>
       <c r="H13" t="n">
-        <v>1.09</v>
+        <v>1.85</v>
       </c>
       <c r="I13" t="n">
-        <v>11.5</v>
+        <v>1.87</v>
       </c>
       <c r="J13" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="K13" t="n">
-        <v>6.4</v>
+        <v>4.4</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -2185,7 +2185,7 @@
         <v>2.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.48</v>
+        <v>1.79</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2194,10 +2194,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2206,64 +2206,64 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,102 +2273,102 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Blooming Santa Cruz</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Academia de Balompie Bolivi</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>1.36</v>
       </c>
       <c r="G14" t="n">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="H14" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I14" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="J14" t="n">
-        <v>5.7</v>
+        <v>4.5</v>
       </c>
       <c r="K14" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>4.5</v>
+        <v>2.48</v>
       </c>
       <c r="O14" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="P14" t="n">
-        <v>2.2</v>
+        <v>2.48</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.8</v>
+        <v>1.48</v>
       </c>
       <c r="R14" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S14" t="n">
-        <v>3.05</v>
+        <v>2.02</v>
       </c>
       <c r="T14" t="n">
-        <v>2.24</v>
+        <v>1.61</v>
       </c>
       <c r="U14" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="X14" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Y14" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="Z14" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>470</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>7.8</v>
+        <v>15</v>
       </c>
       <c r="AC14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>48</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF14" t="n">
         <v>13</v>
       </c>
-      <c r="AD14" t="n">
-        <v>42</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>260</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>7.2</v>
-      </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="AH14" t="n">
         <v>34</v>
@@ -2377,19 +2377,19 @@
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AK14" t="n">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="AL14" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM14" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>5.7</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.45</v>
+        <v>1.37</v>
       </c>
       <c r="G15" t="n">
-        <v>3.5</v>
+        <v>1.38</v>
       </c>
       <c r="H15" t="n">
-        <v>2.34</v>
+        <v>10</v>
       </c>
       <c r="I15" t="n">
-        <v>2.36</v>
+        <v>11</v>
       </c>
       <c r="J15" t="n">
-        <v>3.45</v>
+        <v>5.5</v>
       </c>
       <c r="K15" t="n">
-        <v>3.55</v>
+        <v>5.6</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M15" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="O15" t="n">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="P15" t="n">
-        <v>1.79</v>
+        <v>2.16</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.22</v>
+        <v>1.83</v>
       </c>
       <c r="R15" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="S15" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="T15" t="n">
-        <v>1.91</v>
+        <v>2.18</v>
       </c>
       <c r="U15" t="n">
-        <v>2.04</v>
+        <v>1.78</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="X15" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.199999999999999</v>
+        <v>32</v>
       </c>
       <c r="Z15" t="n">
-        <v>14.5</v>
+        <v>95</v>
       </c>
       <c r="AA15" t="n">
-        <v>34</v>
+        <v>420</v>
       </c>
       <c r="AB15" t="n">
-        <v>12</v>
+        <v>7.8</v>
       </c>
       <c r="AC15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>200</v>
+      </c>
+      <c r="AF15" t="n">
         <v>7.4</v>
       </c>
-      <c r="AD15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>23</v>
-      </c>
       <c r="AG15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK15" t="n">
         <v>15</v>
       </c>
-      <c r="AH15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>44</v>
-      </c>
       <c r="AL15" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AM15" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="AN15" t="n">
-        <v>50</v>
+        <v>6.4</v>
       </c>
       <c r="AO15" t="n">
-        <v>24</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="G16" t="n">
-        <v>4.8</v>
+        <v>3.45</v>
       </c>
       <c r="H16" t="n">
-        <v>1.86</v>
+        <v>2.36</v>
       </c>
       <c r="I16" t="n">
-        <v>1.87</v>
+        <v>2.38</v>
       </c>
       <c r="J16" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="K16" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="O16" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P16" t="n">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="R16" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S16" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="T16" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="U16" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="V16" t="n">
-        <v>2.14</v>
+        <v>1.72</v>
       </c>
       <c r="W16" t="n">
-        <v>1.26</v>
+        <v>1.4</v>
       </c>
       <c r="X16" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Z16" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.5</v>
+        <v>32</v>
       </c>
       <c r="AB16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG16" t="n">
         <v>14.5</v>
       </c>
-      <c r="AC16" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AH16" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AI16" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ16" t="n">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="AK16" t="n">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="AL16" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AM16" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN16" t="n">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="AO16" t="n">
-        <v>13.5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
@@ -2698,7 +2698,7 @@
         <v>2.24</v>
       </c>
       <c r="H17" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I17" t="n">
         <v>3.6</v>
@@ -2710,7 +2710,7 @@
         <v>3.7</v>
       </c>
       <c r="L17" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="M17" t="n">
         <v>1.07</v>
@@ -2728,10 +2728,10 @@
         <v>1.94</v>
       </c>
       <c r="R17" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S17" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T17" t="n">
         <v>1.76</v>
@@ -2746,31 +2746,31 @@
         <v>1.8</v>
       </c>
       <c r="X17" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y17" t="n">
         <v>14.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA17" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AB17" t="n">
         <v>10.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF17" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG17" t="n">
         <v>11</v>
@@ -2779,13 +2779,13 @@
         <v>16.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AJ17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL17" t="n">
         <v>36</v>
@@ -2794,16 +2794,16 @@
         <v>80</v>
       </c>
       <c r="AN17" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.76</v>
+        <v>4.8</v>
       </c>
       <c r="G18" t="n">
-        <v>2.88</v>
+        <v>4.9</v>
       </c>
       <c r="H18" t="n">
-        <v>2.68</v>
+        <v>1.86</v>
       </c>
       <c r="I18" t="n">
-        <v>2.78</v>
+        <v>1.87</v>
       </c>
       <c r="J18" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="K18" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P18" t="n">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.81</v>
+        <v>2.12</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Austrian Bundesliga</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,126 +2948,126 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>WSG Wattens</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4.7</v>
+        <v>1.63</v>
       </c>
       <c r="G19" t="n">
-        <v>5.2</v>
+        <v>1.64</v>
       </c>
       <c r="H19" t="n">
-        <v>1.75</v>
+        <v>5.6</v>
       </c>
       <c r="I19" t="n">
-        <v>1.8</v>
+        <v>7.4</v>
       </c>
       <c r="J19" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
         <v>4.5</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="P19" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="R19" t="n">
-        <v>1.41</v>
+        <v>1.25</v>
       </c>
       <c r="S19" t="n">
-        <v>3.05</v>
+        <v>1.79</v>
       </c>
       <c r="T19" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U19" t="n">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="X19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD19" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.38</v>
+        <v>2.76</v>
       </c>
       <c r="G20" t="n">
-        <v>1.42</v>
+        <v>2.88</v>
       </c>
       <c r="H20" t="n">
-        <v>10.5</v>
+        <v>2.68</v>
       </c>
       <c r="I20" t="n">
-        <v>11.5</v>
+        <v>2.78</v>
       </c>
       <c r="J20" t="n">
-        <v>4.9</v>
+        <v>3.45</v>
       </c>
       <c r="K20" t="n">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="R20" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AH20" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AK20" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN20" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.1</v>
+        <v>4.6</v>
       </c>
       <c r="G21" t="n">
-        <v>1.11</v>
+        <v>5.3</v>
       </c>
       <c r="H21" t="n">
-        <v>29</v>
+        <v>1.73</v>
       </c>
       <c r="I21" t="n">
-        <v>38</v>
+        <v>1.82</v>
       </c>
       <c r="J21" t="n">
-        <v>14</v>
+        <v>4.1</v>
       </c>
       <c r="K21" t="n">
-        <v>15.5</v>
+        <v>4.9</v>
       </c>
       <c r="L21" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>9.199999999999999</v>
+        <v>4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="P21" t="n">
-        <v>3.9</v>
+        <v>2.06</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.29</v>
+        <v>1.74</v>
       </c>
       <c r="R21" t="n">
-        <v>2.14</v>
+        <v>1.41</v>
       </c>
       <c r="S21" t="n">
-        <v>1.75</v>
+        <v>3.05</v>
       </c>
       <c r="T21" t="n">
-        <v>2.28</v>
+        <v>1.76</v>
       </c>
       <c r="U21" t="n">
-        <v>1.68</v>
+        <v>2.08</v>
       </c>
       <c r="V21" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AB21" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AC21" t="n">
-        <v>34</v>
+        <v>10.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF21" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AG21" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ21" t="n">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="AK21" t="n">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN21" t="n">
-        <v>2.46</v>
+        <v>75</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -3358,110 +3358,110 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.24</v>
+        <v>1.38</v>
       </c>
       <c r="G22" t="n">
-        <v>2.4</v>
+        <v>1.43</v>
       </c>
       <c r="H22" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="I22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K22" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N22" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W22" t="n">
         <v>3.3</v>
       </c>
-      <c r="I22" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N22" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S22" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.71</v>
-      </c>
       <c r="X22" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK22" t="n">
         <v>16.5</v>
       </c>
-      <c r="Y22" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL22" t="n">
         <v>1000</v>
       </c>
@@ -3469,16 +3469,16 @@
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AO22" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.39</v>
+        <v>1.1</v>
       </c>
       <c r="G23" t="n">
-        <v>1.4</v>
+        <v>1.11</v>
       </c>
       <c r="H23" t="n">
+        <v>30</v>
+      </c>
+      <c r="I23" t="n">
+        <v>38</v>
+      </c>
+      <c r="J23" t="n">
+        <v>14</v>
+      </c>
+      <c r="K23" t="n">
+        <v>15</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N23" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="I23" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="J23" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="K23" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N23" t="n">
-        <v>5.6</v>
-      </c>
       <c r="O23" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="P23" t="n">
-        <v>2.56</v>
+        <v>3.9</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.61</v>
+        <v>1.29</v>
       </c>
       <c r="R23" t="n">
-        <v>1.62</v>
+        <v>2.16</v>
       </c>
       <c r="S23" t="n">
-        <v>2.54</v>
+        <v>1.74</v>
       </c>
       <c r="T23" t="n">
-        <v>1.92</v>
+        <v>2.28</v>
       </c>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>1.68</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="X23" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF23" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>8.6</v>
-      </c>
       <c r="AG23" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AH23" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="AK23" t="n">
-        <v>13.5</v>
+        <v>18</v>
       </c>
       <c r="AL23" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AM23" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>5.1</v>
+        <v>2.46</v>
       </c>
       <c r="AO23" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4.6</v>
+        <v>2.24</v>
       </c>
       <c r="G24" t="n">
-        <v>4.8</v>
+        <v>2.4</v>
       </c>
       <c r="H24" t="n">
-        <v>1.83</v>
+        <v>3.3</v>
       </c>
       <c r="I24" t="n">
-        <v>1.84</v>
+        <v>3.65</v>
       </c>
       <c r="J24" t="n">
-        <v>4.1</v>
+        <v>3.35</v>
       </c>
       <c r="K24" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="L24" t="n">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="O24" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P24" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="R24" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="S24" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T24" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="U24" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V24" t="n">
-        <v>2.18</v>
+        <v>1.38</v>
       </c>
       <c r="W24" t="n">
-        <v>1.26</v>
+        <v>1.71</v>
       </c>
       <c r="X24" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>9.6</v>
+        <v>13.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="AA24" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH24" t="n">
         <v>17.5</v>
       </c>
-      <c r="AC24" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AI24" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>11.5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,66 +3758,66 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Real Tomayapo</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Oriente Petrolero</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="F25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H25" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="I25" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="J25" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K25" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
         <v>1.04</v>
       </c>
-      <c r="G25" t="n">
-        <v>600</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I25" t="n">
-        <v>870</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K25" t="n">
-        <v>950</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P25" t="n">
-        <v>1.24</v>
+        <v>2.56</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -3826,64 +3826,64 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN25" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="AO25" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Fortaleza EC</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.97</v>
+        <v>4.6</v>
       </c>
       <c r="G26" t="n">
-        <v>2.02</v>
+        <v>4.7</v>
       </c>
       <c r="H26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K26" t="n">
         <v>4.2</v>
       </c>
-      <c r="I26" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.75</v>
-      </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P26" t="n">
-        <v>1.72</v>
+        <v>2.12</v>
       </c>
       <c r="Q26" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V26" t="n">
         <v>2.18</v>
       </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AL26" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM26" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN26" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AO26" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,31 +4033,31 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Real Tomayapo</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>EC Vitoria Salvador</t>
+          <t>Oriente Petrolero</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.22</v>
+        <v>1.04</v>
       </c>
       <c r="G27" t="n">
-        <v>2.4</v>
+        <v>600</v>
       </c>
       <c r="H27" t="n">
-        <v>3.4</v>
+        <v>1.04</v>
       </c>
       <c r="I27" t="n">
-        <v>3.75</v>
+        <v>870</v>
       </c>
       <c r="J27" t="n">
-        <v>3.3</v>
+        <v>1.01</v>
       </c>
       <c r="K27" t="n">
-        <v>3.7</v>
+        <v>950</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -4072,10 +4072,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1.87</v>
+        <v>1.24</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.86</v>
+        <v>1.01</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -4163,37 +4163,37 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Fortaleza EC</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>4.9</v>
+        <v>1.98</v>
       </c>
       <c r="G28" t="n">
-        <v>5.5</v>
+        <v>2.06</v>
       </c>
       <c r="H28" t="n">
-        <v>1.78</v>
+        <v>4.2</v>
       </c>
       <c r="I28" t="n">
-        <v>1.87</v>
+        <v>4.7</v>
       </c>
       <c r="J28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K28" t="n">
         <v>3.75</v>
       </c>
-      <c r="K28" t="n">
-        <v>4</v>
-      </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
@@ -4207,10 +4207,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1.87</v>
+        <v>1.72</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.97</v>
+        <v>2.18</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -4298,36 +4298,36 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>EC Vitoria Salvador</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.21</v>
+        <v>2.22</v>
       </c>
       <c r="G29" t="n">
-        <v>1.27</v>
+        <v>2.4</v>
       </c>
       <c r="H29" t="n">
-        <v>14</v>
+        <v>3.4</v>
       </c>
       <c r="I29" t="n">
-        <v>21</v>
+        <v>3.75</v>
       </c>
       <c r="J29" t="n">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="K29" t="n">
-        <v>8.4</v>
+        <v>3.7</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -4342,10 +4342,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>2.8</v>
+        <v>1.87</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.46</v>
+        <v>1.86</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -4433,125 +4433,395 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>5</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>20:00:00</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H31" t="n">
+        <v>15</v>
+      </c>
+      <c r="I31" t="n">
+        <v>21</v>
+      </c>
+      <c r="J31" t="n">
+        <v>7</v>
+      </c>
+      <c r="K31" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>Sao Paulo</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>Internacional</t>
         </is>
       </c>
-      <c r="F30" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="G30" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="H30" t="n">
+      <c r="F32" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H32" t="n">
         <v>3.05</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K32" t="n">
         <v>3.35</v>
       </c>
-      <c r="J30" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
         <v>1.57</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="Q32" t="n">
         <v>2.42</v>
       </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO30" t="n">
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO32" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
@@ -673,7 +673,7 @@
         <v>7.6</v>
       </c>
       <c r="H2" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="I2" t="n">
         <v>1.67</v>
@@ -682,7 +682,7 @@
         <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L2" t="n">
         <v>1.37</v>
@@ -712,10 +712,10 @@
         <v>1.89</v>
       </c>
       <c r="U2" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V2" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="W2" t="n">
         <v>1.15</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="G3" t="n">
         <v>7.2</v>
@@ -817,7 +817,7 @@
         <v>3.2</v>
       </c>
       <c r="K3" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="L3" t="n">
         <v>1.41</v>
@@ -952,7 +952,7 @@
         <v>4.3</v>
       </c>
       <c r="K4" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
         <v>1.33</v>
@@ -1021,7 +1021,7 @@
         <v>15.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1105,7 +1105,7 @@
         <v>2.02</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R5" t="n">
         <v>1.41</v>
@@ -1771,13 +1771,13 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>2.42</v>
+        <v>4.7</v>
       </c>
       <c r="O10" t="n">
         <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="Q10" t="n">
         <v>1.54</v>
@@ -1885,7 +1885,7 @@
         <v>15</v>
       </c>
       <c r="G11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H11" t="n">
         <v>1.28</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="G13" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H13" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="I13" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="J13" t="n">
         <v>4.2</v>
       </c>
       <c r="K13" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2218,7 +2218,7 @@
         <v>21</v>
       </c>
       <c r="AB13" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC13" t="n">
         <v>9.4</v>
@@ -2242,7 +2242,7 @@
         <v>30</v>
       </c>
       <c r="AJ13" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="n">
         <v>50</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="G14" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I14" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="J14" t="n">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
       <c r="K14" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2311,34 +2311,34 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>2.48</v>
+        <v>2.64</v>
       </c>
       <c r="O14" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P14" t="n">
-        <v>2.48</v>
+        <v>2.64</v>
       </c>
       <c r="Q14" t="n">
         <v>1.48</v>
       </c>
       <c r="R14" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="S14" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="T14" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="U14" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V14" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W14" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="X14" t="n">
         <v>36</v>
@@ -2353,7 +2353,7 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC14" t="n">
         <v>18.5</v>
@@ -2365,10 +2365,10 @@
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH14" t="n">
         <v>34</v>
@@ -2377,10 +2377,10 @@
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK14" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AL14" t="n">
         <v>46</v>
@@ -2428,7 +2428,7 @@
         <v>1.38</v>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="I15" t="n">
         <v>11</v>
@@ -2467,7 +2467,7 @@
         <v>2.18</v>
       </c>
       <c r="U15" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V15" t="n">
         <v>1.1</v>
@@ -2479,25 +2479,25 @@
         <v>18</v>
       </c>
       <c r="Y15" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z15" t="n">
         <v>95</v>
       </c>
       <c r="AA15" t="n">
-        <v>420</v>
+        <v>500</v>
       </c>
       <c r="AB15" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC15" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD15" t="n">
         <v>38</v>
       </c>
       <c r="AE15" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AF15" t="n">
         <v>7.4</v>
@@ -2509,13 +2509,13 @@
         <v>32</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ15" t="n">
         <v>11</v>
       </c>
       <c r="AK15" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL15" t="n">
         <v>40</v>
@@ -2569,10 +2569,10 @@
         <v>2.38</v>
       </c>
       <c r="J16" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K16" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L16" t="n">
         <v>1.44</v>
@@ -2587,10 +2587,10 @@
         <v>1.4</v>
       </c>
       <c r="P16" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R16" t="n">
         <v>1.3</v>
@@ -2602,7 +2602,7 @@
         <v>1.91</v>
       </c>
       <c r="U16" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V16" t="n">
         <v>1.72</v>
@@ -2662,7 +2662,7 @@
         <v>48</v>
       </c>
       <c r="AO16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
@@ -2710,7 +2710,7 @@
         <v>3.7</v>
       </c>
       <c r="L17" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="M17" t="n">
         <v>1.07</v>
@@ -2734,7 +2734,7 @@
         <v>3.3</v>
       </c>
       <c r="T17" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U17" t="n">
         <v>2.24</v>
@@ -2833,16 +2833,16 @@
         <v>4.9</v>
       </c>
       <c r="H18" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="I18" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="J18" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K18" t="n">
         <v>3.9</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.95</v>
       </c>
       <c r="L18" t="n">
         <v>1.35</v>
@@ -2857,7 +2857,7 @@
         <v>1.37</v>
       </c>
       <c r="P18" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Q18" t="n">
         <v>2.12</v>
@@ -2869,13 +2869,13 @@
         <v>3.85</v>
       </c>
       <c r="T18" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="U18" t="n">
         <v>1.95</v>
       </c>
       <c r="V18" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="W18" t="n">
         <v>1.25</v>
@@ -2890,13 +2890,13 @@
         <v>10.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AB18" t="n">
         <v>15.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
         <v>10</v>
@@ -2932,7 +2932,7 @@
         <v>80</v>
       </c>
       <c r="AO18" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
@@ -2965,7 +2965,7 @@
         <v>1.63</v>
       </c>
       <c r="G19" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="H19" t="n">
         <v>5.6</v>
@@ -2986,22 +2986,22 @@
         <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O19" t="n">
         <v>1.23</v>
       </c>
       <c r="P19" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="R19" t="n">
         <v>1.25</v>
       </c>
       <c r="S19" t="n">
-        <v>1.79</v>
+        <v>2.22</v>
       </c>
       <c r="T19" t="n">
         <v>1.77</v>
@@ -3112,19 +3112,19 @@
         <v>3.45</v>
       </c>
       <c r="K20" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P20" t="n">
         <v>2.02</v>
@@ -3133,76 +3133,76 @@
         <v>1.81</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
@@ -3232,25 +3232,25 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="G21" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="H21" t="n">
         <v>1.73</v>
       </c>
       <c r="I21" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="J21" t="n">
         <v>4.1</v>
       </c>
       <c r="K21" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M21" t="n">
         <v>1.06</v>
@@ -3265,7 +3265,7 @@
         <v>2.06</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="R21" t="n">
         <v>1.41</v>
@@ -3274,16 +3274,16 @@
         <v>3.05</v>
       </c>
       <c r="T21" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="U21" t="n">
         <v>2.08</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X21" t="n">
         <v>980</v>
@@ -3298,7 +3298,7 @@
         <v>23</v>
       </c>
       <c r="AB21" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AC21" t="n">
         <v>10.5</v>
@@ -3313,28 +3313,28 @@
         <v>980</v>
       </c>
       <c r="AG21" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AH21" t="n">
         <v>980</v>
       </c>
       <c r="AI21" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AJ21" t="n">
         <v>140</v>
       </c>
       <c r="AK21" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AL21" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AM21" t="n">
         <v>120</v>
       </c>
       <c r="AN21" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AO21" t="n">
         <v>11</v>
@@ -3394,25 +3394,25 @@
         <v>4.2</v>
       </c>
       <c r="O22" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P22" t="n">
         <v>2.12</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R22" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S22" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="T22" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U22" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="V22" t="n">
         <v>1.09</v>
@@ -3424,7 +3424,7 @@
         <v>19.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
         <v>1000</v>
@@ -3436,7 +3436,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC22" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD22" t="n">
         <v>44</v>
@@ -3517,7 +3517,7 @@
         <v>14</v>
       </c>
       <c r="K23" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="L23" t="n">
         <v>1.15</v>
@@ -3538,16 +3538,16 @@
         <v>1.29</v>
       </c>
       <c r="R23" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="S23" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="T23" t="n">
         <v>2.28</v>
       </c>
       <c r="U23" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="V23" t="n">
         <v>1.02</v>
@@ -3598,7 +3598,7 @@
         <v>18</v>
       </c>
       <c r="AL23" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM23" t="n">
         <v>1000</v>
@@ -3640,22 +3640,22 @@
         <v>2.24</v>
       </c>
       <c r="G24" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H24" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I24" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J24" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K24" t="n">
         <v>3.6</v>
       </c>
       <c r="L24" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M24" t="n">
         <v>1.07</v>
@@ -3664,13 +3664,13 @@
         <v>3.65</v>
       </c>
       <c r="O24" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P24" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="R24" t="n">
         <v>1.35</v>
@@ -3685,10 +3685,10 @@
         <v>2.16</v>
       </c>
       <c r="V24" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W24" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X24" t="n">
         <v>16.5</v>
@@ -3772,13 +3772,13 @@
         </is>
       </c>
       <c r="F25" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G25" t="n">
         <v>1.4</v>
       </c>
-      <c r="G25" t="n">
-        <v>1.41</v>
-      </c>
       <c r="H25" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="I25" t="n">
         <v>9.4</v>
@@ -3787,10 +3787,10 @@
         <v>5.6</v>
       </c>
       <c r="K25" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M25" t="n">
         <v>1.04</v>
@@ -3814,19 +3814,19 @@
         <v>2.54</v>
       </c>
       <c r="T25" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y25" t="n">
         <v>34</v>
@@ -3841,7 +3841,7 @@
         <v>10.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD25" t="n">
         <v>34</v>
@@ -3850,16 +3850,16 @@
         <v>130</v>
       </c>
       <c r="AF25" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG25" t="n">
         <v>10</v>
       </c>
       <c r="AH25" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI25" t="n">
-        <v>960</v>
+        <v>110</v>
       </c>
       <c r="AJ25" t="n">
         <v>11.5</v>
@@ -3868,16 +3868,16 @@
         <v>13</v>
       </c>
       <c r="AL25" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AM25" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN25" t="n">
         <v>5.1</v>
       </c>
       <c r="AO25" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26">
@@ -3925,13 +3925,13 @@
         <v>4.2</v>
       </c>
       <c r="L26" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O26" t="n">
         <v>1.29</v>
@@ -3952,7 +3952,7 @@
         <v>1.83</v>
       </c>
       <c r="U26" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V26" t="n">
         <v>2.18</v>
@@ -3961,7 +3961,7 @@
         <v>1.27</v>
       </c>
       <c r="X26" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y26" t="n">
         <v>9.4</v>
@@ -3970,19 +3970,19 @@
         <v>11</v>
       </c>
       <c r="AA26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB26" t="n">
         <v>17.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE26" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF26" t="n">
         <v>36</v>
@@ -3991,28 +3991,28 @@
         <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI26" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ26" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="AK26" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL26" t="n">
         <v>60</v>
       </c>
       <c r="AM26" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN26" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AO26" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -4177,13 +4177,13 @@
         </is>
       </c>
       <c r="F28" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="G28" t="n">
         <v>1.98</v>
       </c>
-      <c r="G28" t="n">
-        <v>2.06</v>
-      </c>
       <c r="H28" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I28" t="n">
         <v>4.7</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G29" t="n">
         <v>2.4</v>
@@ -4324,10 +4324,10 @@
         <v>3.75</v>
       </c>
       <c r="J29" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K29" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -4447,13 +4447,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="G30" t="n">
         <v>5.5</v>
       </c>
       <c r="H30" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="I30" t="n">
         <v>1.85</v>
@@ -4462,7 +4462,7 @@
         <v>3.8</v>
       </c>
       <c r="K30" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4597,7 +4597,7 @@
         <v>7</v>
       </c>
       <c r="K31" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="G32" t="n">
         <v>2.82</v>
@@ -4726,13 +4726,13 @@
         <v>3.05</v>
       </c>
       <c r="I32" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J32" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K32" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -4747,10 +4747,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO32"/>
+  <dimension ref="A1:AO33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="G2" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="I2" t="n">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>3.15</v>
       </c>
       <c r="K2" t="n">
         <v>4.6</v>
@@ -703,10 +703,10 @@
         <v>1.82</v>
       </c>
       <c r="R2" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="S2" t="n">
-        <v>3.05</v>
+        <v>2.82</v>
       </c>
       <c r="T2" t="n">
         <v>1.89</v>
@@ -715,64 +715,64 @@
         <v>1.9</v>
       </c>
       <c r="V2" t="n">
-        <v>2.48</v>
+        <v>2.28</v>
       </c>
       <c r="W2" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="X2" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="Z2" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AB2" t="n">
         <v>27</v>
       </c>
       <c r="AC2" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AF2" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AH2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI2" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ2" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
     </row>
     <row r="3">
@@ -802,46 +802,46 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="G3" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="H3" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="I3" t="n">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K3" t="n">
         <v>3.9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>2.7</v>
+        <v>1.25</v>
       </c>
       <c r="O3" t="n">
-        <v>1.37</v>
+        <v>1.08</v>
       </c>
       <c r="P3" t="n">
-        <v>1.65</v>
+        <v>1.54</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R3" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>3.85</v>
+        <v>1.85</v>
       </c>
       <c r="T3" t="n">
         <v>2.04</v>
@@ -850,10 +850,10 @@
         <v>1.78</v>
       </c>
       <c r="V3" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="W3" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="X3" t="n">
         <v>13.5</v>
@@ -871,13 +871,13 @@
         <v>19</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
         <v>12.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF3" t="n">
         <v>55</v>
@@ -940,55 +940,55 @@
         <v>1.39</v>
       </c>
       <c r="G4" t="n">
-        <v>1.48</v>
+        <v>1.61</v>
       </c>
       <c r="H4" t="n">
         <v>10.5</v>
       </c>
       <c r="I4" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="J4" t="n">
-        <v>4.3</v>
+        <v>1.2</v>
       </c>
       <c r="K4" t="n">
         <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>2.98</v>
+        <v>2.42</v>
       </c>
       <c r="O4" t="n">
         <v>1.27</v>
       </c>
       <c r="P4" t="n">
-        <v>1.8</v>
+        <v>1.26</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>1.42</v>
       </c>
       <c r="R4" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="T4" t="n">
-        <v>1.04</v>
+        <v>2.04</v>
       </c>
       <c r="U4" t="n">
         <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W4" t="n">
-        <v>3.05</v>
+        <v>2.62</v>
       </c>
       <c r="X4" t="n">
         <v>20</v>
@@ -1087,7 +1087,7 @@
         <v>4.3</v>
       </c>
       <c r="K5" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1105,10 +1105,10 @@
         <v>2.02</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R5" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S5" t="n">
         <v>2.36</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="G6" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="H6" t="n">
-        <v>8.4</v>
+        <v>6.8</v>
       </c>
       <c r="I6" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="J6" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="K6" t="n">
-        <v>6.6</v>
+        <v>14</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1246,7 +1246,7 @@
         <v>1.52</v>
       </c>
       <c r="S6" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="T6" t="n">
         <v>1.04</v>
@@ -1255,10 +1255,10 @@
         <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W6" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1342,25 +1342,25 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="G7" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.08</v>
+        <v>1.94</v>
       </c>
       <c r="I7" t="n">
-        <v>2.34</v>
+        <v>2.6</v>
       </c>
       <c r="J7" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
-        <v>4.2</v>
+        <v>7.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
@@ -1375,7 +1375,7 @@
         <v>2.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.75</v>
+        <v>1.61</v>
       </c>
       <c r="R7" t="n">
         <v>1.34</v>
@@ -1390,10 +1390,10 @@
         <v>1.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="W7" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="X7" t="n">
         <v>28</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="G8" t="n">
         <v>2.3</v>
@@ -1495,13 +1495,13 @@
         <v>4.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>2.32</v>
+        <v>2.98</v>
       </c>
       <c r="O8" t="n">
         <v>1.22</v>
@@ -1513,10 +1513,10 @@
         <v>1.68</v>
       </c>
       <c r="R8" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S8" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T8" t="n">
         <v>1.04</v>
@@ -1531,22 +1531,22 @@
         <v>1.76</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Y8" t="n">
         <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD8" t="n">
         <v>1000</v>
@@ -1555,19 +1555,19 @@
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK8" t="n">
         <v>1000</v>
@@ -1636,16 +1636,16 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="O9" t="n">
         <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.02</v>
+        <v>1.35</v>
       </c>
       <c r="R9" t="n">
         <v>1.18</v>
@@ -1747,103 +1747,103 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4.7</v>
+        <v>6</v>
       </c>
       <c r="G10" t="n">
         <v>8.4</v>
       </c>
       <c r="H10" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="I10" t="n">
-        <v>1.77</v>
+        <v>1.63</v>
       </c>
       <c r="J10" t="n">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="K10" t="n">
-        <v>9.4</v>
+        <v>6.4</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="O10" t="n">
         <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>2.04</v>
+        <v>2.38</v>
       </c>
       <c r="Q10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R10" t="n">
         <v>1.54</v>
       </c>
-      <c r="R10" t="n">
-        <v>1.47</v>
-      </c>
       <c r="S10" t="n">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="T10" t="n">
         <v>1.04</v>
       </c>
       <c r="U10" t="n">
-        <v>1.04</v>
+        <v>2.12</v>
       </c>
       <c r="V10" t="n">
-        <v>2.28</v>
+        <v>2.58</v>
       </c>
       <c r="W10" t="n">
         <v>1.14</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ10" t="n">
         <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
@@ -1918,10 +1918,10 @@
         <v>2</v>
       </c>
       <c r="R11" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S11" t="n">
-        <v>3</v>
+        <v>2.44</v>
       </c>
       <c r="T11" t="n">
         <v>1.04</v>
@@ -2020,19 +2020,19 @@
         <v>1.38</v>
       </c>
       <c r="G12" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H12" t="n">
-        <v>7.8</v>
+        <v>4.9</v>
       </c>
       <c r="I12" t="n">
-        <v>11</v>
+        <v>870</v>
       </c>
       <c r="J12" t="n">
         <v>5.4</v>
       </c>
       <c r="K12" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
@@ -2053,16 +2053,16 @@
         <v>1.52</v>
       </c>
       <c r="R12" t="n">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="S12" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="T12" t="n">
-        <v>1.66</v>
+        <v>1.76</v>
       </c>
       <c r="U12" t="n">
-        <v>1.84</v>
+        <v>1.04</v>
       </c>
       <c r="V12" t="n">
         <v>1.11</v>
@@ -2155,13 +2155,13 @@
         <v>4.4</v>
       </c>
       <c r="G13" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H13" t="n">
         <v>1.84</v>
       </c>
       <c r="I13" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="J13" t="n">
         <v>4.2</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="Y13" t="n">
         <v>10.5</v>
@@ -2215,10 +2215,10 @@
         <v>12</v>
       </c>
       <c r="AA13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AC13" t="n">
         <v>9.4</v>
@@ -2230,7 +2230,7 @@
         <v>17.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AG13" t="n">
         <v>17</v>
@@ -2245,16 +2245,16 @@
         <v>100</v>
       </c>
       <c r="AK13" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL13" t="n">
         <v>55</v>
       </c>
       <c r="AM13" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN13" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AO13" t="n">
         <v>10.5</v>
@@ -2287,64 +2287,64 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="G14" t="n">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="I14" t="n">
-        <v>11.5</v>
+        <v>15.5</v>
       </c>
       <c r="J14" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="K14" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>2.64</v>
+        <v>2.8</v>
       </c>
       <c r="O14" t="n">
         <v>1.16</v>
       </c>
       <c r="P14" t="n">
-        <v>2.64</v>
+        <v>2.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="R14" t="n">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="S14" t="n">
-        <v>2.04</v>
+        <v>1.45</v>
       </c>
       <c r="T14" t="n">
-        <v>1.66</v>
+        <v>1.04</v>
       </c>
       <c r="U14" t="n">
-        <v>1.7</v>
+        <v>1.04</v>
       </c>
       <c r="V14" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="W14" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="X14" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Y14" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="Z14" t="n">
         <v>1000</v>
@@ -2356,34 +2356,34 @@
         <v>17</v>
       </c>
       <c r="AC14" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AD14" t="n">
+        <v>65</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL14" t="n">
         <v>48</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>46</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
@@ -2434,10 +2434,10 @@
         <v>11</v>
       </c>
       <c r="J15" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K15" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="L15" t="n">
         <v>1.33</v>
@@ -2446,7 +2446,7 @@
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O15" t="n">
         <v>1.28</v>
@@ -2455,7 +2455,7 @@
         <v>2.16</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="R15" t="n">
         <v>1.45</v>
@@ -2473,13 +2473,13 @@
         <v>1.1</v>
       </c>
       <c r="W15" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="X15" t="n">
         <v>18</v>
       </c>
       <c r="Y15" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z15" t="n">
         <v>95</v>
@@ -2506,7 +2506,7 @@
         <v>10</v>
       </c>
       <c r="AH15" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI15" t="n">
         <v>160</v>
@@ -2524,7 +2524,7 @@
         <v>200</v>
       </c>
       <c r="AN15" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AO15" t="n">
         <v>250</v>
@@ -2584,10 +2584,10 @@
         <v>3.4</v>
       </c>
       <c r="O16" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P16" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q16" t="n">
         <v>2.2</v>
@@ -2596,10 +2596,10 @@
         <v>1.3</v>
       </c>
       <c r="S16" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U16" t="n">
         <v>2.02</v>
@@ -2611,7 +2611,7 @@
         <v>1.4</v>
       </c>
       <c r="X16" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y16" t="n">
         <v>9</v>
@@ -2623,13 +2623,13 @@
         <v>32</v>
       </c>
       <c r="AB16" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC16" t="n">
         <v>7.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE16" t="n">
         <v>27</v>
@@ -2710,7 +2710,7 @@
         <v>3.7</v>
       </c>
       <c r="L17" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M17" t="n">
         <v>1.07</v>
@@ -2734,7 +2734,7 @@
         <v>3.3</v>
       </c>
       <c r="T17" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U17" t="n">
         <v>2.24</v>
@@ -2779,7 +2779,7 @@
         <v>16.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ17" t="n">
         <v>28</v>
@@ -2794,7 +2794,7 @@
         <v>80</v>
       </c>
       <c r="AN17" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AO17" t="n">
         <v>38</v>
@@ -2845,7 +2845,7 @@
         <v>3.9</v>
       </c>
       <c r="L18" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M18" t="n">
         <v>1.08</v>
@@ -2857,10 +2857,10 @@
         <v>1.37</v>
       </c>
       <c r="P18" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R18" t="n">
         <v>1.33</v>
@@ -2869,10 +2869,10 @@
         <v>3.85</v>
       </c>
       <c r="T18" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="U18" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V18" t="n">
         <v>2.12</v>
@@ -2881,22 +2881,22 @@
         <v>1.25</v>
       </c>
       <c r="X18" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z18" t="n">
         <v>10.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD18" t="n">
         <v>10</v>
@@ -2992,25 +2992,25 @@
         <v>1.23</v>
       </c>
       <c r="P19" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q19" t="n">
         <v>1.73</v>
       </c>
       <c r="R19" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="S19" t="n">
         <v>2.22</v>
       </c>
       <c r="T19" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U19" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="V19" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W19" t="n">
         <v>2.36</v>
@@ -3121,7 +3121,7 @@
         <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="O20" t="n">
         <v>1.28</v>
@@ -3133,7 +3133,7 @@
         <v>1.81</v>
       </c>
       <c r="R20" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="S20" t="n">
         <v>2.8</v>
@@ -3151,10 +3151,10 @@
         <v>1.53</v>
       </c>
       <c r="X20" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>12.5</v>
+        <v>18</v>
       </c>
       <c r="Z20" t="n">
         <v>19.5</v>
@@ -3163,22 +3163,22 @@
         <v>42</v>
       </c>
       <c r="AB20" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.4</v>
+        <v>12</v>
       </c>
       <c r="AD20" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE20" t="n">
         <v>29</v>
       </c>
       <c r="AF20" t="n">
-        <v>19.5</v>
+        <v>28</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>18.5</v>
       </c>
       <c r="AH20" t="n">
         <v>16</v>
@@ -3187,7 +3187,7 @@
         <v>38</v>
       </c>
       <c r="AJ20" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AK20" t="n">
         <v>29</v>
@@ -3199,10 +3199,10 @@
         <v>80</v>
       </c>
       <c r="AN20" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AO20" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -3238,22 +3238,22 @@
         <v>4.9</v>
       </c>
       <c r="H21" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="I21" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="J21" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="K21" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="L21" t="n">
         <v>1.34</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
         <v>4</v>
@@ -3265,7 +3265,7 @@
         <v>2.06</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="R21" t="n">
         <v>1.41</v>
@@ -3280,34 +3280,34 @@
         <v>2.08</v>
       </c>
       <c r="V21" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="W21" t="n">
         <v>1.25</v>
       </c>
       <c r="X21" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="Y21" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z21" t="n">
         <v>12</v>
       </c>
       <c r="AA21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD21" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD21" t="n">
-        <v>11</v>
-      </c>
       <c r="AE21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF21" t="n">
         <v>980</v>
@@ -3319,25 +3319,25 @@
         <v>980</v>
       </c>
       <c r="AI21" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AJ21" t="n">
         <v>140</v>
       </c>
       <c r="AK21" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AL21" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AM21" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
         <v>85</v>
       </c>
       <c r="AO21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -3373,19 +3373,19 @@
         <v>1.43</v>
       </c>
       <c r="H22" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I22" t="n">
         <v>11.5</v>
       </c>
       <c r="J22" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="K22" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M22" t="n">
         <v>1.05</v>
@@ -3400,13 +3400,13 @@
         <v>2.12</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="R22" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="S22" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="T22" t="n">
         <v>2.1</v>
@@ -3421,10 +3421,10 @@
         <v>3.3</v>
       </c>
       <c r="X22" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Z22" t="n">
         <v>1000</v>
@@ -3436,40 +3436,40 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC22" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="AD22" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
         <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>8.6</v>
+        <v>11.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AI22" t="n">
         <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AK22" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3505,19 +3505,19 @@
         <v>1.1</v>
       </c>
       <c r="G23" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="H23" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I23" t="n">
         <v>38</v>
       </c>
       <c r="J23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K23" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="L23" t="n">
         <v>1.15</v>
@@ -3535,7 +3535,7 @@
         <v>3.9</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="R23" t="n">
         <v>2.18</v>
@@ -3547,7 +3547,7 @@
         <v>2.28</v>
       </c>
       <c r="U23" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="V23" t="n">
         <v>1.02</v>
@@ -3568,10 +3568,10 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
         <v>1000</v>
@@ -3580,10 +3580,10 @@
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AG23" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH23" t="n">
         <v>1000</v>
@@ -3595,7 +3595,7 @@
         <v>9</v>
       </c>
       <c r="AK23" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
         <v>55</v>
@@ -3604,7 +3604,7 @@
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>2.46</v>
+        <v>2.7</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="G24" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H24" t="n">
         <v>3.35</v>
@@ -3649,7 +3649,7 @@
         <v>3.7</v>
       </c>
       <c r="J24" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K24" t="n">
         <v>3.6</v>
@@ -3667,19 +3667,19 @@
         <v>1.32</v>
       </c>
       <c r="P24" t="n">
-        <v>1.92</v>
+        <v>1.71</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R24" t="n">
         <v>1.35</v>
       </c>
       <c r="S24" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T24" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U24" t="n">
         <v>2.16</v>
@@ -3688,16 +3688,16 @@
         <v>1.37</v>
       </c>
       <c r="W24" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="X24" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>13.5</v>
+        <v>19</v>
       </c>
       <c r="Z24" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AA24" t="n">
         <v>1000</v>
@@ -3709,19 +3709,19 @@
         <v>8</v>
       </c>
       <c r="AD24" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AF24" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AG24" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AH24" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
         <v>1000</v>
@@ -3730,7 +3730,7 @@
         <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL24" t="n">
         <v>1000</v>
@@ -3739,10 +3739,10 @@
         <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO24" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -3778,7 +3778,7 @@
         <v>1.4</v>
       </c>
       <c r="H25" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I25" t="n">
         <v>9.4</v>
@@ -3787,7 +3787,7 @@
         <v>5.6</v>
       </c>
       <c r="K25" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L25" t="n">
         <v>1.28</v>
@@ -3796,7 +3796,7 @@
         <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="O25" t="n">
         <v>1.2</v>
@@ -3814,7 +3814,7 @@
         <v>2.54</v>
       </c>
       <c r="T25" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U25" t="n">
         <v>2.02</v>
@@ -3835,7 +3835,7 @@
         <v>85</v>
       </c>
       <c r="AA25" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="AB25" t="n">
         <v>10.5</v>
@@ -3844,7 +3844,7 @@
         <v>12.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AE25" t="n">
         <v>130</v>
@@ -3874,7 +3874,7 @@
         <v>120</v>
       </c>
       <c r="AN25" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AO25" t="n">
         <v>120</v>
@@ -3925,7 +3925,7 @@
         <v>4.2</v>
       </c>
       <c r="L26" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
@@ -3964,7 +3964,7 @@
         <v>16.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Z26" t="n">
         <v>11</v>
@@ -4009,7 +4009,7 @@
         <v>95</v>
       </c>
       <c r="AN26" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO26" t="n">
         <v>11</v>
@@ -4042,10 +4042,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.04</v>
+        <v>1.72</v>
       </c>
       <c r="G27" t="n">
-        <v>600</v>
+        <v>3.2</v>
       </c>
       <c r="H27" t="n">
         <v>1.04</v>
@@ -4054,100 +4054,100 @@
         <v>870</v>
       </c>
       <c r="J27" t="n">
-        <v>1.01</v>
+        <v>2.14</v>
       </c>
       <c r="K27" t="n">
         <v>950</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P27" t="n">
-        <v>1.24</v>
+        <v>2.12</v>
       </c>
       <c r="Q27" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="T27" t="n">
         <v>1.01</v>
       </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
@@ -4177,13 +4177,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="G28" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="H28" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I28" t="n">
         <v>4.7</v>
@@ -4192,97 +4192,97 @@
         <v>3.5</v>
       </c>
       <c r="K28" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S28" t="n">
         <v>3.75</v>
       </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AO28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
@@ -4330,16 +4330,16 @@
         <v>3.65</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P29" t="n">
         <v>1.87</v>
@@ -4348,76 +4348,76 @@
         <v>1.86</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
@@ -4447,112 +4447,112 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="G30" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="H30" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="I30" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="J30" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="K30" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P30" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="Q30" t="n">
         <v>1.97</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z30" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AK30" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AL30" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AM30" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AN30" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AO30" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
@@ -4585,31 +4585,31 @@
         <v>1.21</v>
       </c>
       <c r="G31" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H31" t="n">
-        <v>15</v>
+        <v>8.6</v>
       </c>
       <c r="I31" t="n">
         <v>21</v>
       </c>
       <c r="J31" t="n">
-        <v>7</v>
+        <v>1.09</v>
       </c>
       <c r="K31" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="P31" t="n">
         <v>2.8</v>
@@ -4618,76 +4618,76 @@
         <v>1.46</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="AO31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
@@ -4717,34 +4717,34 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G32" t="n">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="H32" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I32" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J32" t="n">
         <v>3.15</v>
       </c>
       <c r="K32" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P32" t="n">
         <v>1.61</v>
@@ -4753,76 +4753,211 @@
         <v>2.44</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z32" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AK32" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AL32" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM32" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN32" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AO32" t="n">
-        <v>0</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>20:20:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Fortaleza FC</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="G2" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="H2" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="I2" t="n">
-        <v>1.79</v>
+        <v>1.66</v>
       </c>
       <c r="J2" t="n">
-        <v>3.15</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
         <v>4.6</v>
@@ -703,76 +703,76 @@
         <v>1.82</v>
       </c>
       <c r="R2" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="S2" t="n">
-        <v>2.82</v>
+        <v>3.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U2" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V2" t="n">
-        <v>2.28</v>
+        <v>2.5</v>
       </c>
       <c r="W2" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="X2" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="Y2" t="n">
-        <v>970</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AB2" t="n">
         <v>27</v>
       </c>
       <c r="AC2" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AH2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI2" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AO2" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -805,13 +805,13 @@
         <v>4.6</v>
       </c>
       <c r="G3" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="H3" t="n">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="I3" t="n">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="J3" t="n">
         <v>3.25</v>
@@ -820,61 +820,61 @@
         <v>3.9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>1.25</v>
+        <v>2.68</v>
       </c>
       <c r="O3" t="n">
-        <v>1.08</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>1.54</v>
+        <v>1.66</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="S3" t="n">
-        <v>1.85</v>
+        <v>3.85</v>
       </c>
       <c r="T3" t="n">
         <v>2.04</v>
       </c>
       <c r="U3" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="V3" t="n">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="W3" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="X3" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="Y3" t="n">
         <v>8.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AA3" t="n">
         <v>25</v>
       </c>
       <c r="AB3" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AC3" t="n">
         <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AE3" t="n">
         <v>27</v>
@@ -940,7 +940,7 @@
         <v>1.39</v>
       </c>
       <c r="G4" t="n">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="H4" t="n">
         <v>10.5</v>
@@ -949,37 +949,37 @@
         <v>980</v>
       </c>
       <c r="J4" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="K4" t="n">
         <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>2.42</v>
+        <v>2.94</v>
       </c>
       <c r="O4" t="n">
         <v>1.27</v>
       </c>
       <c r="P4" t="n">
-        <v>1.26</v>
+        <v>1.71</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.42</v>
+        <v>1.85</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="S4" t="n">
         <v>3.05</v>
       </c>
       <c r="T4" t="n">
-        <v>2.04</v>
+        <v>1.04</v>
       </c>
       <c r="U4" t="n">
         <v>1.04</v>
@@ -988,10 +988,10 @@
         <v>1.06</v>
       </c>
       <c r="W4" t="n">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="X4" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
         <v>40</v>
@@ -1105,10 +1105,10 @@
         <v>2.02</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S5" t="n">
         <v>2.36</v>
@@ -1210,7 +1210,7 @@
         <v>1.28</v>
       </c>
       <c r="G6" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="H6" t="n">
         <v>6.8</v>
@@ -1222,7 +1222,7 @@
         <v>4.8</v>
       </c>
       <c r="K6" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1231,7 +1231,7 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.1</v>
+        <v>2.62</v>
       </c>
       <c r="O6" t="n">
         <v>1.16</v>
@@ -1243,10 +1243,10 @@
         <v>1.49</v>
       </c>
       <c r="R6" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S6" t="n">
-        <v>2.16</v>
+        <v>1.86</v>
       </c>
       <c r="T6" t="n">
         <v>1.04</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="G7" t="n">
         <v>4.1</v>
@@ -1357,7 +1357,7 @@
         <v>3.25</v>
       </c>
       <c r="K7" t="n">
-        <v>7.2</v>
+        <v>950</v>
       </c>
       <c r="L7" t="n">
         <v>1.27</v>
@@ -1375,7 +1375,7 @@
         <v>2.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
       <c r="R7" t="n">
         <v>1.34</v>
@@ -1516,7 +1516,7 @@
         <v>1.4</v>
       </c>
       <c r="S8" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="T8" t="n">
         <v>1.04</v>
@@ -1534,7 +1534,7 @@
         <v>29</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z8" t="n">
         <v>40</v>
@@ -1549,10 +1549,10 @@
         <v>13</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF8" t="n">
         <v>22</v>
@@ -1570,13 +1570,13 @@
         <v>38</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN8" t="n">
         <v>1000</v>
@@ -1636,7 +1636,7 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.1</v>
+        <v>1.29</v>
       </c>
       <c r="O9" t="n">
         <v>1.01</v>
@@ -1756,13 +1756,13 @@
         <v>1.5</v>
       </c>
       <c r="I10" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="J10" t="n">
         <v>4.5</v>
       </c>
       <c r="K10" t="n">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1780,79 +1780,79 @@
         <v>2.38</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="R10" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S10" t="n">
-        <v>2.12</v>
+        <v>2.46</v>
       </c>
       <c r="T10" t="n">
-        <v>1.04</v>
+        <v>1.71</v>
       </c>
       <c r="U10" t="n">
         <v>2.12</v>
       </c>
       <c r="V10" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="W10" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="X10" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB10" t="n">
         <v>34</v>
       </c>
-      <c r="Y10" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>40</v>
-      </c>
       <c r="AC10" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AD10" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AF10" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>200</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>95</v>
+      </c>
+      <c r="AL10" t="n">
         <v>85</v>
       </c>
-      <c r="AG10" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>85</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>75</v>
-      </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="11">
@@ -1906,7 +1906,7 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="O11" t="n">
         <v>1.32</v>
@@ -1921,7 +1921,7 @@
         <v>1.28</v>
       </c>
       <c r="S11" t="n">
-        <v>2.44</v>
+        <v>3</v>
       </c>
       <c r="T11" t="n">
         <v>1.04</v>
@@ -2020,19 +2020,19 @@
         <v>1.38</v>
       </c>
       <c r="G12" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H12" t="n">
-        <v>4.9</v>
+        <v>7.8</v>
       </c>
       <c r="I12" t="n">
-        <v>870</v>
+        <v>9.6</v>
       </c>
       <c r="J12" t="n">
         <v>5.4</v>
       </c>
       <c r="K12" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
@@ -2053,10 +2053,10 @@
         <v>1.52</v>
       </c>
       <c r="R12" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="S12" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="T12" t="n">
         <v>1.76</v>
@@ -2155,10 +2155,10 @@
         <v>4.4</v>
       </c>
       <c r="G13" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H13" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="I13" t="n">
         <v>1.85</v>
@@ -2197,7 +2197,7 @@
         <v>1.76</v>
       </c>
       <c r="U13" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2206,13 +2206,13 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="n">
         <v>10.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA13" t="n">
         <v>20</v>
@@ -2233,7 +2233,7 @@
         <v>36</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AH13" t="n">
         <v>18.5</v>
@@ -2248,7 +2248,7 @@
         <v>55</v>
       </c>
       <c r="AL13" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM13" t="n">
         <v>85</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="G14" t="n">
         <v>1.34</v>
@@ -2296,103 +2296,103 @@
         <v>10.5</v>
       </c>
       <c r="I14" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="K14" t="n">
         <v>7.4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="M14" t="n">
         <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>2.8</v>
+        <v>5.9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P14" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="Q14" t="n">
         <v>1.45</v>
       </c>
       <c r="R14" t="n">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="S14" t="n">
-        <v>1.45</v>
+        <v>2.14</v>
       </c>
       <c r="T14" t="n">
-        <v>1.04</v>
+        <v>1.86</v>
       </c>
       <c r="U14" t="n">
-        <v>1.04</v>
+        <v>1.9</v>
       </c>
       <c r="V14" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W14" t="n">
         <v>3.9</v>
       </c>
       <c r="X14" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Y14" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>480</v>
       </c>
       <c r="AB14" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AF14" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AH14" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ14" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15">
@@ -2440,7 +2440,7 @@
         <v>5.7</v>
       </c>
       <c r="L15" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
@@ -2449,19 +2449,19 @@
         <v>4.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P15" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R15" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S15" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T15" t="n">
         <v>2.18</v>
@@ -2476,7 +2476,7 @@
         <v>3.65</v>
       </c>
       <c r="X15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y15" t="n">
         <v>32</v>
@@ -2488,7 +2488,7 @@
         <v>500</v>
       </c>
       <c r="AB15" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC15" t="n">
         <v>12</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="G16" t="n">
         <v>3.45</v>
@@ -2566,7 +2566,7 @@
         <v>2.36</v>
       </c>
       <c r="I16" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J16" t="n">
         <v>3.5</v>
@@ -2599,19 +2599,19 @@
         <v>4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U16" t="n">
         <v>2.02</v>
       </c>
       <c r="V16" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="W16" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X16" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y16" t="n">
         <v>9</v>
@@ -2629,7 +2629,7 @@
         <v>7.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE16" t="n">
         <v>27</v>
@@ -2653,7 +2653,7 @@
         <v>44</v>
       </c>
       <c r="AL16" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM16" t="n">
         <v>120</v>
@@ -2710,7 +2710,7 @@
         <v>3.7</v>
       </c>
       <c r="L17" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="M17" t="n">
         <v>1.07</v>
@@ -2722,7 +2722,7 @@
         <v>1.31</v>
       </c>
       <c r="P17" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q17" t="n">
         <v>1.94</v>
@@ -2779,7 +2779,7 @@
         <v>16.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ17" t="n">
         <v>28</v>
@@ -2794,7 +2794,7 @@
         <v>80</v>
       </c>
       <c r="AN17" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AO17" t="n">
         <v>38</v>
@@ -2830,13 +2830,13 @@
         <v>4.8</v>
       </c>
       <c r="G18" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H18" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="I18" t="n">
         <v>1.87</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1.88</v>
       </c>
       <c r="J18" t="n">
         <v>3.85</v>
@@ -2851,16 +2851,16 @@
         <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O18" t="n">
         <v>1.37</v>
       </c>
       <c r="P18" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R18" t="n">
         <v>1.33</v>
@@ -2869,13 +2869,13 @@
         <v>3.85</v>
       </c>
       <c r="T18" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U18" t="n">
         <v>1.96</v>
       </c>
       <c r="V18" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="W18" t="n">
         <v>1.25</v>
@@ -2905,7 +2905,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AG18" t="n">
         <v>19</v>
@@ -2923,7 +2923,7 @@
         <v>70</v>
       </c>
       <c r="AL18" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM18" t="n">
         <v>130</v>
@@ -2971,7 +2971,7 @@
         <v>5.6</v>
       </c>
       <c r="I19" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="J19" t="n">
         <v>4</v>
@@ -2980,7 +2980,7 @@
         <v>4.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M19" t="n">
         <v>1.05</v>
@@ -2989,28 +2989,28 @@
         <v>3.55</v>
       </c>
       <c r="O19" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P19" t="n">
         <v>2.04</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="R19" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="S19" t="n">
-        <v>2.22</v>
+        <v>2.78</v>
       </c>
       <c r="T19" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U19" t="n">
         <v>1.96</v>
       </c>
       <c r="V19" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W19" t="n">
         <v>2.36</v>
@@ -3019,7 +3019,7 @@
         <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Z19" t="n">
         <v>1000</v>
@@ -3028,34 +3028,34 @@
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE19" t="n">
         <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI19" t="n">
         <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL19" t="n">
         <v>1000</v>
@@ -3118,10 +3118,10 @@
         <v>1.37</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O20" t="n">
         <v>1.28</v>
@@ -3136,7 +3136,7 @@
         <v>1.41</v>
       </c>
       <c r="S20" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="T20" t="n">
         <v>1.68</v>
@@ -3151,43 +3151,43 @@
         <v>1.53</v>
       </c>
       <c r="X20" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="Y20" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="Z20" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AA20" t="n">
         <v>42</v>
       </c>
       <c r="AB20" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AC20" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AD20" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AE20" t="n">
         <v>29</v>
       </c>
       <c r="AF20" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AG20" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AH20" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AI20" t="n">
         <v>38</v>
       </c>
       <c r="AJ20" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AK20" t="n">
         <v>29</v>
@@ -3199,10 +3199,10 @@
         <v>80</v>
       </c>
       <c r="AN20" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AO20" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
@@ -3238,16 +3238,16 @@
         <v>4.9</v>
       </c>
       <c r="H21" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="I21" t="n">
         <v>1.83</v>
       </c>
       <c r="J21" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="L21" t="n">
         <v>1.34</v>
@@ -3295,13 +3295,13 @@
         <v>12</v>
       </c>
       <c r="AA21" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AB21" t="n">
         <v>22</v>
       </c>
       <c r="AC21" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AD21" t="n">
         <v>10.5</v>
@@ -3325,13 +3325,13 @@
         <v>140</v>
       </c>
       <c r="AK21" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AL21" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN21" t="n">
         <v>85</v>
@@ -3367,19 +3367,19 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="G22" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="H22" t="n">
-        <v>8.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I22" t="n">
         <v>11.5</v>
       </c>
       <c r="J22" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="K22" t="n">
         <v>5.5</v>
@@ -3397,16 +3397,16 @@
         <v>1.26</v>
       </c>
       <c r="P22" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q22" t="n">
         <v>1.76</v>
       </c>
       <c r="R22" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="S22" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="T22" t="n">
         <v>2.1</v>
@@ -3415,16 +3415,16 @@
         <v>1.78</v>
       </c>
       <c r="V22" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W22" t="n">
         <v>3.3</v>
       </c>
       <c r="X22" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
         <v>1000</v>
@@ -3433,34 +3433,34 @@
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE22" t="n">
         <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>11.5</v>
+        <v>8.6</v>
       </c>
       <c r="AG22" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AH22" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AI22" t="n">
         <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AK22" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="AL22" t="n">
         <v>50</v>
@@ -3469,7 +3469,7 @@
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3508,7 +3508,7 @@
         <v>1.12</v>
       </c>
       <c r="H23" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I23" t="n">
         <v>38</v>
@@ -3517,7 +3517,7 @@
         <v>13</v>
       </c>
       <c r="K23" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="L23" t="n">
         <v>1.15</v>
@@ -3553,7 +3553,7 @@
         <v>1.02</v>
       </c>
       <c r="W23" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -3580,7 +3580,7 @@
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AG23" t="n">
         <v>16.5</v>
@@ -3595,16 +3595,16 @@
         <v>9</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AL23" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>2.7</v>
+        <v>2.44</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3640,10 +3640,10 @@
         <v>2.22</v>
       </c>
       <c r="G24" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H24" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I24" t="n">
         <v>3.7</v>
@@ -3667,10 +3667,10 @@
         <v>1.32</v>
       </c>
       <c r="P24" t="n">
-        <v>1.71</v>
+        <v>1.9</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R24" t="n">
         <v>1.35</v>
@@ -3688,16 +3688,16 @@
         <v>1.37</v>
       </c>
       <c r="W24" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y24" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="Z24" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
         <v>1000</v>
@@ -3709,28 +3709,28 @@
         <v>8</v>
       </c>
       <c r="AD24" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI24" t="n">
         <v>55</v>
       </c>
-      <c r="AF24" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>1000</v>
-      </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK24" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
         <v>1000</v>
@@ -3739,7 +3739,7 @@
         <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3787,7 +3787,7 @@
         <v>5.6</v>
       </c>
       <c r="K25" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L25" t="n">
         <v>1.28</v>
@@ -3835,7 +3835,7 @@
         <v>85</v>
       </c>
       <c r="AA25" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AB25" t="n">
         <v>10.5</v>
@@ -3844,7 +3844,7 @@
         <v>12.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AE25" t="n">
         <v>130</v>
@@ -3925,13 +3925,13 @@
         <v>4.2</v>
       </c>
       <c r="L26" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O26" t="n">
         <v>1.29</v>
@@ -3964,7 +3964,7 @@
         <v>16.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z26" t="n">
         <v>11</v>
@@ -3976,13 +3976,13 @@
         <v>17.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD26" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AE26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF26" t="n">
         <v>36</v>
@@ -3997,7 +3997,7 @@
         <v>32</v>
       </c>
       <c r="AJ26" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AK26" t="n">
         <v>55</v>
@@ -4042,112 +4042,112 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.72</v>
+        <v>2.46</v>
       </c>
       <c r="G27" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H27" t="n">
-        <v>1.04</v>
+        <v>2.4</v>
       </c>
       <c r="I27" t="n">
-        <v>870</v>
+        <v>2.8</v>
       </c>
       <c r="J27" t="n">
-        <v>2.14</v>
+        <v>3.45</v>
       </c>
       <c r="K27" t="n">
-        <v>950</v>
+        <v>4.8</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N27" t="n">
         <v>2.12</v>
       </c>
       <c r="O27" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="P27" t="n">
         <v>2.12</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="R27" t="n">
-        <v>1.22</v>
+        <v>1.43</v>
       </c>
       <c r="S27" t="n">
-        <v>1.18</v>
+        <v>2.46</v>
       </c>
       <c r="T27" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="U27" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="V27" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="W27" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
@@ -4183,10 +4183,10 @@
         <v>2.02</v>
       </c>
       <c r="H28" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I28" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J28" t="n">
         <v>3.5</v>
@@ -4198,91 +4198,91 @@
         <v>1.48</v>
       </c>
       <c r="M28" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N28" t="n">
-        <v>1.77</v>
+        <v>3.15</v>
       </c>
       <c r="O28" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P28" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q28" t="n">
         <v>2.16</v>
       </c>
       <c r="R28" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="S28" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="U28" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="V28" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W28" t="n">
         <v>1.98</v>
       </c>
       <c r="X28" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.5</v>
+        <v>14</v>
       </c>
       <c r="Z28" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB28" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AE28" t="n">
         <v>80</v>
       </c>
       <c r="AF28" t="n">
-        <v>16.5</v>
+        <v>12</v>
       </c>
       <c r="AG28" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AK28" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN28" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29">
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G29" t="n">
         <v>2.4</v>
@@ -4333,10 +4333,10 @@
         <v>1.45</v>
       </c>
       <c r="M29" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N29" t="n">
-        <v>2.48</v>
+        <v>3.4</v>
       </c>
       <c r="O29" t="n">
         <v>1.36</v>
@@ -4345,79 +4345,79 @@
         <v>1.87</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="R29" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="S29" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="T29" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="U29" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="V29" t="n">
         <v>1.36</v>
       </c>
       <c r="W29" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y29" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA29" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB29" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>10.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF29" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH29" t="n">
-        <v>25</v>
+        <v>19.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL29" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30">
@@ -4450,10 +4450,10 @@
         <v>5.1</v>
       </c>
       <c r="G30" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="H30" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="I30" t="n">
         <v>1.79</v>
@@ -4468,31 +4468,31 @@
         <v>1.43</v>
       </c>
       <c r="M30" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>1.88</v>
+        <v>3.5</v>
       </c>
       <c r="O30" t="n">
         <v>1.34</v>
       </c>
       <c r="P30" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="Q30" t="n">
         <v>1.97</v>
       </c>
       <c r="R30" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="S30" t="n">
-        <v>1.01</v>
+        <v>3.55</v>
       </c>
       <c r="T30" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="U30" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="V30" t="n">
         <v>2.26</v>
@@ -4501,58 +4501,58 @@
         <v>1.22</v>
       </c>
       <c r="X30" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z30" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB30" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AC30" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD30" t="n">
         <v>10</v>
       </c>
       <c r="AE30" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH30" t="n">
         <v>22</v>
       </c>
-      <c r="AF30" t="n">
-        <v>44</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>23</v>
-      </c>
       <c r="AI30" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AJ30" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AK30" t="n">
         <v>80</v>
       </c>
       <c r="AL30" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AM30" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AN30" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AO30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
@@ -4585,16 +4585,16 @@
         <v>1.21</v>
       </c>
       <c r="G31" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="H31" t="n">
-        <v>8.6</v>
+        <v>12.5</v>
       </c>
       <c r="I31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J31" t="n">
-        <v>1.09</v>
+        <v>7</v>
       </c>
       <c r="K31" t="n">
         <v>8.199999999999999</v>
@@ -4606,88 +4606,88 @@
         <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>2.78</v>
+        <v>2.56</v>
       </c>
       <c r="O31" t="n">
         <v>1.15</v>
       </c>
       <c r="P31" t="n">
-        <v>2.8</v>
+        <v>2.56</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.46</v>
+        <v>1.15</v>
       </c>
       <c r="R31" t="n">
-        <v>1.72</v>
+        <v>1.59</v>
       </c>
       <c r="S31" t="n">
-        <v>1.15</v>
+        <v>1.84</v>
       </c>
       <c r="T31" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U31" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="V31" t="n">
         <v>1.05</v>
       </c>
       <c r="W31" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="Y31" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AA31" t="n">
         <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC31" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AD31" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AF31" t="n">
-        <v>12</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG31" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK31" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AL31" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN31" t="n">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
     </row>
     <row r="32">
@@ -4717,16 +4717,16 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="G32" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="H32" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I32" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="J32" t="n">
         <v>3.15</v>
@@ -4738,85 +4738,85 @@
         <v>1.52</v>
       </c>
       <c r="M32" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N32" t="n">
-        <v>1.61</v>
+        <v>2.8</v>
       </c>
       <c r="O32" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="P32" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="Q32" t="n">
         <v>2.44</v>
       </c>
       <c r="R32" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S32" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="T32" t="n">
         <v>1.94</v>
       </c>
       <c r="U32" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="V32" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W32" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="X32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z32" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AA32" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI32" t="n">
         <v>65</v>
       </c>
-      <c r="AB32" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>75</v>
-      </c>
       <c r="AJ32" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AK32" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AL32" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM32" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AN32" t="n">
         <v>40</v>
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.04</v>
+        <v>2.46</v>
       </c>
       <c r="G33" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H33" t="n">
-        <v>1.45</v>
+        <v>2.36</v>
       </c>
       <c r="I33" t="n">
-        <v>1000</v>
+        <v>3.75</v>
       </c>
       <c r="J33" t="n">
-        <v>1.47</v>
+        <v>3</v>
       </c>
       <c r="K33" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L33" t="n">
         <v>1.01</v>
@@ -4876,34 +4876,34 @@
         <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="O33" t="n">
         <v>1.02</v>
       </c>
       <c r="P33" t="n">
-        <v>1.24</v>
+        <v>1.46</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.59</v>
+        <v>2.18</v>
       </c>
       <c r="R33" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="S33" t="n">
-        <v>1.59</v>
+        <v>3.95</v>
       </c>
       <c r="T33" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U33" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V33" t="n">
         <v>1.36</v>
       </c>
       <c r="W33" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="X33" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO33"/>
+  <dimension ref="A1:AO37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="G2" t="n">
         <v>7.6</v>
       </c>
       <c r="H2" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="I2" t="n">
         <v>1.66</v>
@@ -685,34 +685,34 @@
         <v>4.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O2" t="n">
         <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R2" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S2" t="n">
-        <v>3.1</v>
+        <v>2.84</v>
       </c>
       <c r="T2" t="n">
         <v>1.9</v>
       </c>
       <c r="U2" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="V2" t="n">
         <v>2.5</v>
@@ -736,7 +736,7 @@
         <v>27</v>
       </c>
       <c r="AC2" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AD2" t="n">
         <v>12</v>
@@ -754,22 +754,22 @@
         <v>28</v>
       </c>
       <c r="AI2" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ2" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AK2" t="n">
+        <v>130</v>
+      </c>
+      <c r="AL2" t="n">
         <v>120</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>110</v>
       </c>
       <c r="AM2" t="n">
         <v>160</v>
       </c>
       <c r="AN2" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AO2" t="n">
         <v>11</v>
@@ -805,13 +805,13 @@
         <v>4.6</v>
       </c>
       <c r="G3" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="H3" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="I3" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J3" t="n">
         <v>3.25</v>
@@ -850,22 +850,22 @@
         <v>1.76</v>
       </c>
       <c r="V3" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="W3" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="X3" t="n">
         <v>970</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z3" t="n">
         <v>970</v>
       </c>
       <c r="AA3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB3" t="n">
         <v>970</v>
@@ -886,7 +886,7 @@
         <v>28</v>
       </c>
       <c r="AH3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI3" t="n">
         <v>60</v>
@@ -940,16 +940,16 @@
         <v>1.39</v>
       </c>
       <c r="G4" t="n">
-        <v>1.56</v>
+        <v>1.49</v>
       </c>
       <c r="H4" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="I4" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="J4" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="K4" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         <v>1.27</v>
       </c>
       <c r="P4" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q4" t="n">
         <v>1.85</v>
@@ -985,10 +985,10 @@
         <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W4" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1006,7 +1006,7 @@
         <v>9.6</v>
       </c>
       <c r="AC4" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
@@ -1018,10 +1018,10 @@
         <v>10.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="G5" t="n">
         <v>7</v>
@@ -1081,10 +1081,10 @@
         <v>1.54</v>
       </c>
       <c r="I5" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="J5" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K5" t="n">
         <v>5</v>
@@ -1120,7 +1120,7 @@
         <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="W5" t="n">
         <v>1.16</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="G6" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="H6" t="n">
         <v>6.8</v>
       </c>
       <c r="I6" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="J6" t="n">
         <v>4.8</v>
@@ -1246,7 +1246,7 @@
         <v>1.53</v>
       </c>
       <c r="S6" t="n">
-        <v>1.86</v>
+        <v>2.2</v>
       </c>
       <c r="T6" t="n">
         <v>1.04</v>
@@ -1372,10 +1372,10 @@
         <v>1.23</v>
       </c>
       <c r="P7" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R7" t="n">
         <v>1.34</v>
@@ -1396,10 +1396,10 @@
         <v>1.32</v>
       </c>
       <c r="X7" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y7" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z7" t="n">
         <v>22</v>
@@ -1411,7 +1411,7 @@
         <v>23</v>
       </c>
       <c r="AC7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD7" t="n">
         <v>16</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G8" t="n">
         <v>2.3</v>
@@ -1489,7 +1489,7 @@
         <v>3.85</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="K8" t="n">
         <v>4.3</v>
@@ -1783,10 +1783,10 @@
         <v>1.57</v>
       </c>
       <c r="R10" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S10" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="T10" t="n">
         <v>1.71</v>
@@ -1798,7 +1798,7 @@
         <v>2.6</v>
       </c>
       <c r="W10" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="X10" t="n">
         <v>29</v>
@@ -2053,13 +2053,13 @@
         <v>1.52</v>
       </c>
       <c r="R12" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S12" t="n">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="T12" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U12" t="n">
         <v>1.04</v>
@@ -2155,13 +2155,13 @@
         <v>4.4</v>
       </c>
       <c r="G13" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H13" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="I13" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="J13" t="n">
         <v>4.2</v>
@@ -2206,19 +2206,19 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="Y13" t="n">
         <v>10.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AA13" t="n">
         <v>20</v>
       </c>
       <c r="AB13" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC13" t="n">
         <v>9.4</v>
@@ -2248,7 +2248,7 @@
         <v>55</v>
       </c>
       <c r="AL13" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM13" t="n">
         <v>85</v>
@@ -2305,7 +2305,7 @@
         <v>7.4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="M14" t="n">
         <v>1.02</v>
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.37</v>
+        <v>3.35</v>
       </c>
       <c r="G15" t="n">
-        <v>1.38</v>
+        <v>3.45</v>
       </c>
       <c r="H15" t="n">
-        <v>10.5</v>
+        <v>2.36</v>
       </c>
       <c r="I15" t="n">
-        <v>11</v>
+        <v>2.4</v>
       </c>
       <c r="J15" t="n">
-        <v>5.6</v>
+        <v>3.5</v>
       </c>
       <c r="K15" t="n">
-        <v>5.7</v>
+        <v>3.55</v>
       </c>
       <c r="L15" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N15" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="P15" t="n">
-        <v>2.18</v>
+        <v>1.81</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="R15" t="n">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="S15" t="n">
-        <v>3.05</v>
+        <v>4</v>
       </c>
       <c r="T15" t="n">
-        <v>2.18</v>
+        <v>1.91</v>
       </c>
       <c r="U15" t="n">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="V15" t="n">
-        <v>1.1</v>
+        <v>1.71</v>
       </c>
       <c r="W15" t="n">
-        <v>3.65</v>
+        <v>1.41</v>
       </c>
       <c r="X15" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH15" t="n">
         <v>19</v>
       </c>
-      <c r="Y15" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>95</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>38</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>190</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>30</v>
-      </c>
       <c r="AI15" t="n">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="AJ15" t="n">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="AK15" t="n">
-        <v>14.5</v>
+        <v>44</v>
       </c>
       <c r="AL15" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AM15" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="AN15" t="n">
-        <v>6.2</v>
+        <v>48</v>
       </c>
       <c r="AO15" t="n">
-        <v>250</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.35</v>
+        <v>2.22</v>
       </c>
       <c r="G16" t="n">
-        <v>3.45</v>
+        <v>2.24</v>
       </c>
       <c r="H16" t="n">
-        <v>2.36</v>
+        <v>3.55</v>
       </c>
       <c r="I16" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="J16" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="K16" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="L16" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="M16" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="O16" t="n">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="P16" t="n">
-        <v>1.81</v>
+        <v>2.04</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.2</v>
+        <v>1.94</v>
       </c>
       <c r="R16" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="T16" t="n">
-        <v>1.91</v>
+        <v>1.76</v>
       </c>
       <c r="U16" t="n">
-        <v>2.02</v>
+        <v>2.24</v>
       </c>
       <c r="V16" t="n">
-        <v>1.71</v>
+        <v>1.38</v>
       </c>
       <c r="W16" t="n">
-        <v>1.41</v>
+        <v>1.8</v>
       </c>
       <c r="X16" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>9</v>
+        <v>14.5</v>
       </c>
       <c r="Z16" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF16" t="n">
         <v>14</v>
       </c>
-      <c r="AA16" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>22</v>
-      </c>
       <c r="AG16" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AJ16" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="AK16" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="AL16" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AM16" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AN16" t="n">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="AO16" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.22</v>
+        <v>1.37</v>
       </c>
       <c r="G17" t="n">
-        <v>2.24</v>
+        <v>1.38</v>
       </c>
       <c r="H17" t="n">
-        <v>3.55</v>
+        <v>10.5</v>
       </c>
       <c r="I17" t="n">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="J17" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K17" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N17" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W17" t="n">
         <v>3.65</v>
       </c>
-      <c r="K17" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N17" t="n">
-        <v>4</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.8</v>
-      </c>
       <c r="X17" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>95</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>190</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK17" t="n">
         <v>14.5</v>
       </c>
-      <c r="Y17" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE17" t="n">
+      <c r="AL17" t="n">
         <v>40</v>
       </c>
-      <c r="AF17" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>36</v>
-      </c>
       <c r="AM17" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AN17" t="n">
-        <v>16</v>
+        <v>6.2</v>
       </c>
       <c r="AO17" t="n">
-        <v>38</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Austrian Bundesliga</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,127 +2818,127 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>WSG Wattens</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4.8</v>
+        <v>1.62</v>
       </c>
       <c r="G18" t="n">
-        <v>5</v>
+        <v>1.73</v>
       </c>
       <c r="H18" t="n">
-        <v>1.86</v>
+        <v>5.6</v>
       </c>
       <c r="I18" t="n">
-        <v>1.87</v>
+        <v>6.6</v>
       </c>
       <c r="J18" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="M18" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O18" t="n">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="P18" t="n">
-        <v>1.87</v>
+        <v>2.04</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.12</v>
+        <v>1.79</v>
       </c>
       <c r="R18" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="S18" t="n">
-        <v>3.85</v>
+        <v>2.78</v>
       </c>
       <c r="T18" t="n">
-        <v>1.99</v>
+        <v>1.78</v>
       </c>
       <c r="U18" t="n">
         <v>1.96</v>
       </c>
       <c r="V18" t="n">
-        <v>2.14</v>
+        <v>1.17</v>
       </c>
       <c r="W18" t="n">
-        <v>1.25</v>
+        <v>2.36</v>
       </c>
       <c r="X18" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.199999999999999</v>
+        <v>30</v>
       </c>
       <c r="Z18" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.4</v>
+        <v>13.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="AE18" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="AG18" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AH18" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AI18" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AJ18" t="n">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="AK18" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="AL18" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Austrian Bundesliga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WSG Wattens</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.63</v>
+        <v>4.9</v>
       </c>
       <c r="G19" t="n">
-        <v>1.73</v>
+        <v>5</v>
       </c>
       <c r="H19" t="n">
-        <v>5.6</v>
+        <v>1.86</v>
       </c>
       <c r="I19" t="n">
-        <v>6.6</v>
+        <v>1.87</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="K19" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="L19" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O19" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="W19" t="n">
         <v>1.25</v>
       </c>
-      <c r="P19" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W19" t="n">
-        <v>2.36</v>
-      </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y19" t="n">
-        <v>30</v>
+        <v>7.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AC19" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>80</v>
+      </c>
+      <c r="AO19" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3124,13 +3124,13 @@
         <v>4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P20" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="R20" t="n">
         <v>1.41</v>
@@ -3139,7 +3139,7 @@
         <v>3.05</v>
       </c>
       <c r="T20" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U20" t="n">
         <v>2.28</v>
@@ -3238,16 +3238,16 @@
         <v>4.9</v>
       </c>
       <c r="H21" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="I21" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K21" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L21" t="n">
         <v>1.34</v>
@@ -3280,64 +3280,64 @@
         <v>2.08</v>
       </c>
       <c r="V21" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="W21" t="n">
         <v>1.25</v>
       </c>
       <c r="X21" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Y21" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="Z21" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AB21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG21" t="n">
         <v>22</v>
       </c>
-      <c r="AC21" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>23</v>
-      </c>
       <c r="AH21" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AI21" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AJ21" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AK21" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AL21" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM21" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AN21" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AO21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="G22" t="n">
         <v>1.44</v>
@@ -3409,7 +3409,7 @@
         <v>2.96</v>
       </c>
       <c r="T22" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U22" t="n">
         <v>1.78</v>
@@ -3547,7 +3547,7 @@
         <v>2.28</v>
       </c>
       <c r="U23" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="V23" t="n">
         <v>1.02</v>
@@ -3643,7 +3643,7 @@
         <v>2.38</v>
       </c>
       <c r="H24" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I24" t="n">
         <v>3.7</v>
@@ -3709,7 +3709,7 @@
         <v>8</v>
       </c>
       <c r="AD24" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
         <v>1000</v>
@@ -3778,10 +3778,10 @@
         <v>1.4</v>
       </c>
       <c r="H25" t="n">
+        <v>9</v>
+      </c>
+      <c r="I25" t="n">
         <v>9.199999999999999</v>
-      </c>
-      <c r="I25" t="n">
-        <v>9.4</v>
       </c>
       <c r="J25" t="n">
         <v>5.6</v>
@@ -3820,7 +3820,7 @@
         <v>2.02</v>
       </c>
       <c r="V25" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W25" t="n">
         <v>3.5</v>
@@ -3844,7 +3844,7 @@
         <v>12.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AE25" t="n">
         <v>130</v>
@@ -3913,10 +3913,10 @@
         <v>4.7</v>
       </c>
       <c r="H26" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="I26" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="J26" t="n">
         <v>4.1</v>
@@ -3955,7 +3955,7 @@
         <v>2.14</v>
       </c>
       <c r="V26" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="W26" t="n">
         <v>1.27</v>
@@ -3976,7 +3976,7 @@
         <v>17.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD26" t="n">
         <v>9.800000000000001</v>
@@ -3991,7 +3991,7 @@
         <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI26" t="n">
         <v>32</v>
@@ -4018,7 +4018,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,127 +4033,127 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Real Tomayapo</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Oriente Petrolero</t>
+          <t>EC Vitoria Salvador</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.46</v>
+        <v>2.22</v>
       </c>
       <c r="G27" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="H27" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="I27" t="n">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="J27" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K27" t="n">
-        <v>4.8</v>
+        <v>3.65</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M27" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>2.12</v>
+        <v>3.4</v>
       </c>
       <c r="O27" t="n">
-        <v>1.21</v>
+        <v>1.36</v>
       </c>
       <c r="P27" t="n">
-        <v>2.12</v>
+        <v>1.87</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="R27" t="n">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="S27" t="n">
-        <v>2.46</v>
+        <v>3.6</v>
       </c>
       <c r="T27" t="n">
-        <v>1.42</v>
+        <v>1.8</v>
       </c>
       <c r="U27" t="n">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="V27" t="n">
-        <v>1.55</v>
+        <v>1.36</v>
       </c>
       <c r="W27" t="n">
-        <v>1.52</v>
+        <v>1.71</v>
       </c>
       <c r="X27" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="Y27" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA27" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AB27" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD27" t="n">
         <v>16</v>
       </c>
-      <c r="AC27" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AE27" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AF27" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AG27" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AH27" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI27" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL27" t="n">
         <v>44</v>
       </c>
-      <c r="AJ27" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>42</v>
-      </c>
       <c r="AM27" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AN27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO27" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,121 +4168,121 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Fortaleza EC</t>
+          <t>Real Tomayapo</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Oriente Petrolero</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.95</v>
+        <v>2.42</v>
       </c>
       <c r="G28" t="n">
-        <v>2.02</v>
+        <v>3.1</v>
       </c>
       <c r="H28" t="n">
-        <v>4.3</v>
+        <v>2.58</v>
       </c>
       <c r="I28" t="n">
-        <v>4.8</v>
+        <v>2.8</v>
       </c>
       <c r="J28" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="K28" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="L28" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>3.15</v>
+        <v>1.1</v>
       </c>
       <c r="O28" t="n">
-        <v>1.4</v>
+        <v>1.19</v>
       </c>
       <c r="P28" t="n">
-        <v>1.74</v>
+        <v>2.24</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.16</v>
+        <v>1.63</v>
       </c>
       <c r="R28" t="n">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="S28" t="n">
-        <v>4</v>
+        <v>2.34</v>
       </c>
       <c r="T28" t="n">
-        <v>1.96</v>
+        <v>1.39</v>
       </c>
       <c r="U28" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
-        <v>1.27</v>
+        <v>1.55</v>
       </c>
       <c r="W28" t="n">
-        <v>1.98</v>
+        <v>1.49</v>
       </c>
       <c r="X28" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="Y28" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="Z28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE28" t="n">
         <v>34</v>
       </c>
-      <c r="AA28" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>80</v>
-      </c>
       <c r="AF28" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="AG28" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AH28" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>970</v>
+      </c>
+      <c r="AO28" t="n">
         <v>22</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>19</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>110</v>
       </c>
     </row>
     <row r="29">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Fortaleza EC</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>EC Vitoria Salvador</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.22</v>
+        <v>1.93</v>
       </c>
       <c r="G29" t="n">
-        <v>2.4</v>
+        <v>1.99</v>
       </c>
       <c r="H29" t="n">
-        <v>3.4</v>
+        <v>4.7</v>
       </c>
       <c r="I29" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K29" t="n">
         <v>3.75</v>
       </c>
-      <c r="J29" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3.65</v>
-      </c>
       <c r="L29" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="M29" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N29" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O29" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P29" t="n">
-        <v>1.87</v>
+        <v>1.74</v>
       </c>
       <c r="Q29" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W29" t="n">
         <v>2</v>
       </c>
-      <c r="R29" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S29" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U29" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1.72</v>
-      </c>
       <c r="X29" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="Y29" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="Z29" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AA29" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE29" t="n">
         <v>70</v>
       </c>
-      <c r="AB29" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>46</v>
-      </c>
       <c r="AF29" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AG29" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AH29" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AI29" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AJ29" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AK29" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AL29" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AM29" t="n">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="AN29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO29" t="n">
-        <v>48</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
@@ -4462,7 +4462,7 @@
         <v>3.95</v>
       </c>
       <c r="K30" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L30" t="n">
         <v>1.43</v>
@@ -4477,7 +4477,7 @@
         <v>1.34</v>
       </c>
       <c r="P30" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="Q30" t="n">
         <v>1.97</v>
@@ -4498,13 +4498,13 @@
         <v>2.26</v>
       </c>
       <c r="W30" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="X30" t="n">
         <v>14.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z30" t="n">
         <v>10.5</v>
@@ -4513,7 +4513,7 @@
         <v>19</v>
       </c>
       <c r="AB30" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AC30" t="n">
         <v>8.800000000000001</v>
@@ -4528,7 +4528,7 @@
         <v>42</v>
       </c>
       <c r="AG30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH30" t="n">
         <v>22</v>
@@ -4537,7 +4537,7 @@
         <v>38</v>
       </c>
       <c r="AJ30" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AK30" t="n">
         <v>80</v>
@@ -4549,7 +4549,7 @@
         <v>130</v>
       </c>
       <c r="AN30" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AO30" t="n">
         <v>13</v>
@@ -4582,16 +4582,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="G31" t="n">
         <v>1.26</v>
       </c>
       <c r="H31" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="I31" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="J31" t="n">
         <v>7</v>
@@ -4606,28 +4606,28 @@
         <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>2.56</v>
+        <v>6.2</v>
       </c>
       <c r="O31" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P31" t="n">
-        <v>2.56</v>
+        <v>2.82</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="R31" t="n">
-        <v>1.59</v>
+        <v>1.73</v>
       </c>
       <c r="S31" t="n">
-        <v>1.84</v>
+        <v>2.14</v>
       </c>
       <c r="T31" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="U31" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V31" t="n">
         <v>1.05</v>
@@ -4657,7 +4657,7 @@
         <v>60</v>
       </c>
       <c r="AE31" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="AF31" t="n">
         <v>9.199999999999999</v>
@@ -4666,10 +4666,10 @@
         <v>12.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AI31" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AJ31" t="n">
         <v>9.800000000000001</v>
@@ -4678,16 +4678,16 @@
         <v>15</v>
       </c>
       <c r="AL31" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM31" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AN31" t="n">
         <v>3.8</v>
       </c>
       <c r="AO31" t="n">
-        <v>390</v>
+        <v>360</v>
       </c>
     </row>
     <row r="32">
@@ -4720,10 +4720,10 @@
         <v>2.64</v>
       </c>
       <c r="G32" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="H32" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I32" t="n">
         <v>3.25</v>
@@ -4741,13 +4741,13 @@
         <v>1.1</v>
       </c>
       <c r="N32" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="O32" t="n">
         <v>1.47</v>
       </c>
       <c r="P32" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q32" t="n">
         <v>2.44</v>
@@ -4783,7 +4783,7 @@
         <v>55</v>
       </c>
       <c r="AB32" t="n">
-        <v>9</v>
+        <v>970</v>
       </c>
       <c r="AC32" t="n">
         <v>7.2</v>
@@ -4807,7 +4807,7 @@
         <v>65</v>
       </c>
       <c r="AJ32" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AK32" t="n">
         <v>38</v>
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.46</v>
+        <v>1.04</v>
       </c>
       <c r="G33" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H33" t="n">
-        <v>2.36</v>
+        <v>2.72</v>
       </c>
       <c r="I33" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="J33" t="n">
         <v>3</v>
       </c>
       <c r="K33" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="L33" t="n">
         <v>1.01</v>
@@ -4876,22 +4876,22 @@
         <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="O33" t="n">
         <v>1.02</v>
       </c>
       <c r="P33" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R33" t="n">
         <v>1.17</v>
       </c>
       <c r="S33" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="T33" t="n">
         <v>1.04</v>
@@ -4900,63 +4900,603 @@
         <v>1.04</v>
       </c>
       <c r="V33" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Atletico MG</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>SE Palmeiras</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X34" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>50</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Ceara SC Fortaleza</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H35" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="I35" t="n">
+        <v>16</v>
+      </c>
+      <c r="J35" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K35" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L35" t="n">
         <v>1.36</v>
       </c>
-      <c r="W33" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="X33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO33" t="n">
+      <c r="M35" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N35" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="W35" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="X35" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>38</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>140</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>890</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>320</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>300</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>340</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Cruz Azul</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Tigres</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X36" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Atletico Bucaramanga</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Tolima</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I37" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K37" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO37" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
@@ -667,73 +667,73 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="G2" t="n">
         <v>7.6</v>
       </c>
       <c r="H2" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="I2" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K2" t="n">
         <v>4.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P2" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="R2" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S2" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U2" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="V2" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="W2" t="n">
         <v>1.15</v>
       </c>
       <c r="X2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z2" t="n">
         <v>11.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AB2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC2" t="n">
         <v>12</v>
@@ -751,28 +751,28 @@
         <v>32</v>
       </c>
       <c r="AH2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI2" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ2" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AK2" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AL2" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AM2" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN2" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="G3" t="n">
         <v>7.2</v>
       </c>
       <c r="H3" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="I3" t="n">
         <v>1.9</v>
@@ -946,7 +946,7 @@
         <v>9.6</v>
       </c>
       <c r="I4" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="J4" t="n">
         <v>4.3</v>
@@ -955,46 +955,46 @@
         <v>5</v>
       </c>
       <c r="L4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O4" t="n">
         <v>1.33</v>
       </c>
-      <c r="M4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.27</v>
-      </c>
       <c r="P4" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="R4" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="S4" t="n">
-        <v>3.05</v>
+        <v>3.6</v>
       </c>
       <c r="T4" t="n">
-        <v>1.04</v>
+        <v>2.24</v>
       </c>
       <c r="U4" t="n">
-        <v>1.04</v>
+        <v>1.65</v>
       </c>
       <c r="V4" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="W4" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y4" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,22 +1003,22 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.6</v>
+        <v>7</v>
       </c>
       <c r="AC4" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
         <v>1000</v>
@@ -1027,10 +1027,10 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>26</v>
+        <v>18.5</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1075,10 +1075,10 @@
         <v>5.7</v>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="H5" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="I5" t="n">
         <v>1.67</v>
@@ -1090,76 +1090,76 @@
         <v>5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>2.36</v>
+        <v>4.6</v>
       </c>
       <c r="O5" t="n">
         <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>2.02</v>
+        <v>2.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="R5" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="S5" t="n">
-        <v>2.36</v>
+        <v>2.54</v>
       </c>
       <c r="T5" t="n">
-        <v>1.04</v>
+        <v>1.75</v>
       </c>
       <c r="U5" t="n">
-        <v>1.04</v>
+        <v>2.08</v>
       </c>
       <c r="V5" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="W5" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
@@ -1177,7 +1177,7 @@
         <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -1207,31 +1207,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="G6" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="H6" t="n">
-        <v>6.8</v>
+        <v>8.4</v>
       </c>
       <c r="I6" t="n">
-        <v>46</v>
+        <v>10.5</v>
       </c>
       <c r="J6" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="K6" t="n">
-        <v>980</v>
+        <v>6.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>2.62</v>
+        <v>5.7</v>
       </c>
       <c r="O6" t="n">
         <v>1.16</v>
@@ -1243,25 +1243,25 @@
         <v>1.49</v>
       </c>
       <c r="R6" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="S6" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="T6" t="n">
-        <v>1.04</v>
+        <v>1.79</v>
       </c>
       <c r="U6" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="W6" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y6" t="n">
         <v>1000</v>
@@ -1273,10 +1273,10 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
@@ -1285,10 +1285,10 @@
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH6" t="n">
         <v>1000</v>
@@ -1297,10 +1297,10 @@
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
@@ -1309,7 +1309,7 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.94</v>
+        <v>3.25</v>
       </c>
       <c r="G7" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="H7" t="n">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="I7" t="n">
-        <v>2.6</v>
+        <v>2.34</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="K7" t="n">
-        <v>950</v>
+        <v>4.2</v>
       </c>
       <c r="L7" t="n">
         <v>1.27</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="R7" t="n">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="S7" t="n">
-        <v>2.3</v>
+        <v>2.84</v>
       </c>
       <c r="T7" t="n">
-        <v>1.04</v>
+        <v>1.64</v>
       </c>
       <c r="U7" t="n">
-        <v>1.04</v>
+        <v>2.26</v>
       </c>
       <c r="V7" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="W7" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="X7" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Y7" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO7" t="n">
         <v>17</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1480,7 +1480,7 @@
         <v>2.04</v>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H8" t="n">
         <v>3.3</v>
@@ -1489,100 +1489,100 @@
         <v>3.85</v>
       </c>
       <c r="J8" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="K8" t="n">
         <v>4.3</v>
       </c>
       <c r="L8" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O8" t="n">
         <v>1.23</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.22</v>
       </c>
       <c r="P8" t="n">
         <v>2.16</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R8" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="S8" t="n">
-        <v>2.46</v>
+        <v>2.72</v>
       </c>
       <c r="T8" t="n">
-        <v>1.04</v>
+        <v>1.62</v>
       </c>
       <c r="U8" t="n">
-        <v>1.04</v>
+        <v>2.3</v>
       </c>
       <c r="V8" t="n">
         <v>1.35</v>
       </c>
       <c r="W8" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="X8" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Y8" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Z8" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AB8" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AE8" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI8" t="n">
         <v>55</v>
       </c>
-      <c r="AF8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>65</v>
-      </c>
       <c r="AJ8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL8" t="n">
         <v>38</v>
       </c>
-      <c r="AK8" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>46</v>
-      </c>
       <c r="AM8" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
@@ -1750,7 +1750,7 @@
         <v>6</v>
       </c>
       <c r="G10" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="H10" t="n">
         <v>1.5</v>
@@ -1765,7 +1765,7 @@
         <v>5.3</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
@@ -1777,28 +1777,28 @@
         <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q10" t="n">
         <v>1.57</v>
       </c>
       <c r="R10" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S10" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="T10" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U10" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V10" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="W10" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="X10" t="n">
         <v>29</v>
@@ -1843,7 +1843,7 @@
         <v>95</v>
       </c>
       <c r="AL10" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AM10" t="n">
         <v>110</v>
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H11" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="I11" t="n">
         <v>1.34</v>
@@ -1900,16 +1900,16 @@
         <v>6.2</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>1.96</v>
+        <v>3.45</v>
       </c>
       <c r="O11" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P11" t="n">
         <v>1.85</v>
@@ -1918,16 +1918,16 @@
         <v>2</v>
       </c>
       <c r="R11" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="S11" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="T11" t="n">
-        <v>1.04</v>
+        <v>2.62</v>
       </c>
       <c r="U11" t="n">
-        <v>1.04</v>
+        <v>1.5</v>
       </c>
       <c r="V11" t="n">
         <v>3.9</v>
@@ -1936,31 +1936,31 @@
         <v>1.06</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AG11" t="n">
         <v>1000</v>
@@ -1975,19 +1975,19 @@
         <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>520</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>490</v>
       </c>
       <c r="AN11" t="n">
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="12">
@@ -2041,28 +2041,28 @@
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>1.1</v>
+        <v>5.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P12" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="Q12" t="n">
         <v>1.52</v>
       </c>
       <c r="R12" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="S12" t="n">
-        <v>1.88</v>
+        <v>2.3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="U12" t="n">
-        <v>1.04</v>
+        <v>1.99</v>
       </c>
       <c r="V12" t="n">
         <v>1.11</v>
@@ -2071,55 +2071,55 @@
         <v>3.2</v>
       </c>
       <c r="X12" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="Y12" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="Z12" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AC12" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AD12" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL12" t="n">
         <v>34</v>
       </c>
-      <c r="AI12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>46</v>
-      </c>
       <c r="AM12" t="n">
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2161,7 +2161,7 @@
         <v>1.84</v>
       </c>
       <c r="I13" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="J13" t="n">
         <v>4.2</v>
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q13" t="n">
         <v>1.79</v>
@@ -2221,7 +2221,7 @@
         <v>18.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
         <v>9.800000000000001</v>
@@ -2296,7 +2296,7 @@
         <v>10.5</v>
       </c>
       <c r="I14" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="J14" t="n">
         <v>5.9</v>
@@ -2311,13 +2311,13 @@
         <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O14" t="n">
         <v>1.15</v>
       </c>
       <c r="P14" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="Q14" t="n">
         <v>1.45</v>
@@ -2326,16 +2326,16 @@
         <v>1.7</v>
       </c>
       <c r="S14" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="T14" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U14" t="n">
         <v>1.9</v>
       </c>
       <c r="V14" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W14" t="n">
         <v>3.9</v>
@@ -2431,7 +2431,7 @@
         <v>2.36</v>
       </c>
       <c r="I15" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J15" t="n">
         <v>3.5</v>
@@ -2440,7 +2440,7 @@
         <v>3.55</v>
       </c>
       <c r="L15" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M15" t="n">
         <v>1.09</v>
@@ -2470,7 +2470,7 @@
         <v>2.02</v>
       </c>
       <c r="V15" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W15" t="n">
         <v>1.41</v>
@@ -2494,7 +2494,7 @@
         <v>7.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -2848,31 +2848,31 @@
         <v>1.28</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="O18" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P18" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R18" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="S18" t="n">
-        <v>2.78</v>
+        <v>3.1</v>
       </c>
       <c r="T18" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="U18" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
         <v>1.17</v>
@@ -2881,10 +2881,10 @@
         <v>2.36</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y18" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Z18" t="n">
         <v>1000</v>
@@ -2893,34 +2893,34 @@
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>13</v>
+        <v>9.4</v>
       </c>
       <c r="AC18" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="AD18" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AE18" t="n">
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AI18" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ18" t="n">
-        <v>24</v>
+        <v>17.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="AL18" t="n">
         <v>1000</v>
@@ -2929,7 +2929,7 @@
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2980,7 +2980,7 @@
         <v>3.9</v>
       </c>
       <c r="L19" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="M19" t="n">
         <v>1.08</v>
@@ -2992,16 +2992,16 @@
         <v>1.37</v>
       </c>
       <c r="P19" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R19" t="n">
         <v>1.33</v>
       </c>
       <c r="S19" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="T19" t="n">
         <v>1.97</v>
@@ -3019,7 +3019,7 @@
         <v>13</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z19" t="n">
         <v>10.5</v>
@@ -3235,10 +3235,10 @@
         <v>4.8</v>
       </c>
       <c r="G21" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="H21" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="I21" t="n">
         <v>1.81</v>
@@ -3250,7 +3250,7 @@
         <v>4.4</v>
       </c>
       <c r="L21" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
@@ -3283,7 +3283,7 @@
         <v>2.24</v>
       </c>
       <c r="W21" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="X21" t="n">
         <v>22</v>
@@ -3298,7 +3298,7 @@
         <v>22</v>
       </c>
       <c r="AB21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC21" t="n">
         <v>9.800000000000001</v>
@@ -3328,7 +3328,7 @@
         <v>65</v>
       </c>
       <c r="AL21" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM21" t="n">
         <v>100</v>
@@ -3385,7 +3385,7 @@
         <v>5.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M22" t="n">
         <v>1.05</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="G23" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="H23" t="n">
         <v>30</v>
@@ -3520,40 +3520,40 @@
         <v>15.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="M23" t="n">
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="O23" t="n">
         <v>1.1</v>
       </c>
       <c r="P23" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="R23" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="S23" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="T23" t="n">
         <v>2.28</v>
       </c>
       <c r="U23" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="V23" t="n">
         <v>1.02</v>
       </c>
       <c r="W23" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -3568,10 +3568,10 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AD23" t="n">
         <v>1000</v>
@@ -3592,7 +3592,7 @@
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK23" t="n">
         <v>18</v>
@@ -3604,7 +3604,7 @@
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3643,7 +3643,7 @@
         <v>2.38</v>
       </c>
       <c r="H24" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I24" t="n">
         <v>3.7</v>
@@ -3778,10 +3778,10 @@
         <v>1.4</v>
       </c>
       <c r="H25" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I25" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="J25" t="n">
         <v>5.6</v>
@@ -3820,7 +3820,7 @@
         <v>2.02</v>
       </c>
       <c r="V25" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W25" t="n">
         <v>3.5</v>
@@ -3844,7 +3844,7 @@
         <v>12.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AE25" t="n">
         <v>130</v>
@@ -3925,13 +3925,13 @@
         <v>4.2</v>
       </c>
       <c r="L26" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O26" t="n">
         <v>1.29</v>
@@ -4042,16 +4042,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="G27" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="H27" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I27" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J27" t="n">
         <v>3.35</v>
@@ -4075,7 +4075,7 @@
         <v>1.87</v>
       </c>
       <c r="Q27" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="R27" t="n">
         <v>1.3</v>
@@ -4084,70 +4084,70 @@
         <v>3.6</v>
       </c>
       <c r="T27" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U27" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V27" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="W27" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="X27" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Y27" t="n">
         <v>13.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AA27" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI27" t="n">
         <v>70</v>
       </c>
-      <c r="AB27" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>60</v>
-      </c>
       <c r="AJ27" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AK27" t="n">
         <v>27</v>
       </c>
       <c r="AL27" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM27" t="n">
         <v>130</v>
       </c>
       <c r="AN27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO27" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28">
@@ -4189,7 +4189,7 @@
         <v>2.8</v>
       </c>
       <c r="J28" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K28" t="n">
         <v>5</v>
@@ -4201,10 +4201,10 @@
         <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="O28" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P28" t="n">
         <v>2.24</v>
@@ -4219,16 +4219,16 @@
         <v>2.34</v>
       </c>
       <c r="T28" t="n">
-        <v>1.39</v>
+        <v>1.56</v>
       </c>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="V28" t="n">
         <v>1.55</v>
       </c>
       <c r="W28" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="X28" t="n">
         <v>26</v>
@@ -4312,37 +4312,37 @@
         </is>
       </c>
       <c r="F29" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G29" t="n">
         <v>1.93</v>
       </c>
-      <c r="G29" t="n">
-        <v>1.99</v>
-      </c>
       <c r="H29" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I29" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="J29" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K29" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L29" t="n">
         <v>1.48</v>
       </c>
       <c r="M29" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N29" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O29" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P29" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="Q29" t="n">
         <v>2.12</v>
@@ -4351,70 +4351,70 @@
         <v>1.27</v>
       </c>
       <c r="S29" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T29" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="U29" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="V29" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="W29" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="X29" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="Y29" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="Z29" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA29" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB29" t="n">
-        <v>970</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF29" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AD29" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>970</v>
-      </c>
       <c r="AG29" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI29" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ29" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK29" t="n">
         <v>25</v>
       </c>
-      <c r="AK29" t="n">
-        <v>24</v>
-      </c>
       <c r="AL29" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM29" t="n">
         <v>170</v>
       </c>
       <c r="AN29" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AO29" t="n">
         <v>110</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="G30" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="H30" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="I30" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="J30" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K30" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L30" t="n">
         <v>1.43</v>
@@ -4477,10 +4477,10 @@
         <v>1.34</v>
       </c>
       <c r="P30" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R30" t="n">
         <v>1.33</v>
@@ -4489,16 +4489,16 @@
         <v>3.55</v>
       </c>
       <c r="T30" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U30" t="n">
         <v>1.96</v>
       </c>
       <c r="V30" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="W30" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="X30" t="n">
         <v>14.5</v>
@@ -4528,7 +4528,7 @@
         <v>42</v>
       </c>
       <c r="AG30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH30" t="n">
         <v>22</v>
@@ -4537,7 +4537,7 @@
         <v>38</v>
       </c>
       <c r="AJ30" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AK30" t="n">
         <v>80</v>
@@ -4549,7 +4549,7 @@
         <v>130</v>
       </c>
       <c r="AN30" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AO30" t="n">
         <v>13</v>
@@ -4585,16 +4585,16 @@
         <v>1.22</v>
       </c>
       <c r="G31" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="H31" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="I31" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="J31" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="K31" t="n">
         <v>8.199999999999999</v>
@@ -4612,52 +4612,52 @@
         <v>1.16</v>
       </c>
       <c r="P31" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="R31" t="n">
         <v>1.73</v>
       </c>
       <c r="S31" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="T31" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="U31" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="V31" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W31" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="X31" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Y31" t="n">
         <v>55</v>
       </c>
       <c r="Z31" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AA31" t="n">
         <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC31" t="n">
         <v>18</v>
       </c>
       <c r="AD31" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AE31" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AF31" t="n">
         <v>9.199999999999999</v>
@@ -4669,25 +4669,25 @@
         <v>36</v>
       </c>
       <c r="AI31" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AJ31" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AK31" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL31" t="n">
         <v>40</v>
       </c>
       <c r="AM31" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN31" t="n">
         <v>3.8</v>
       </c>
       <c r="AO31" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32">
@@ -4717,112 +4717,112 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.64</v>
+        <v>2.86</v>
       </c>
       <c r="G32" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N32" t="n">
         <v>2.84</v>
       </c>
-      <c r="H32" t="n">
-        <v>3</v>
-      </c>
-      <c r="I32" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N32" t="n">
-        <v>2.82</v>
-      </c>
       <c r="O32" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="P32" t="n">
         <v>1.61</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="R32" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S32" t="n">
         <v>4.8</v>
       </c>
       <c r="T32" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U32" t="n">
         <v>1.86</v>
       </c>
       <c r="V32" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="W32" t="n">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="X32" t="n">
         <v>10</v>
       </c>
       <c r="Y32" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z32" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AB32" t="n">
-        <v>970</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC32" t="n">
         <v>7.2</v>
       </c>
       <c r="AD32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG32" t="n">
         <v>14.5</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>13</v>
       </c>
       <c r="AH32" t="n">
         <v>21</v>
       </c>
       <c r="AI32" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL32" t="n">
         <v>65</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>60</v>
       </c>
       <c r="AM32" t="n">
         <v>140</v>
       </c>
       <c r="AN32" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AO32" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33">
@@ -4879,7 +4879,7 @@
         <v>2</v>
       </c>
       <c r="O33" t="n">
-        <v>1.02</v>
+        <v>1.37</v>
       </c>
       <c r="P33" t="n">
         <v>1.48</v>
@@ -5122,10 +5122,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="G35" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="H35" t="n">
         <v>12.5</v>
@@ -5134,10 +5134,10 @@
         <v>16</v>
       </c>
       <c r="J35" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="K35" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="L35" t="n">
         <v>1.36</v>
@@ -5149,13 +5149,13 @@
         <v>4.1</v>
       </c>
       <c r="O35" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P35" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="R35" t="n">
         <v>1.43</v>
@@ -5164,16 +5164,16 @@
         <v>3</v>
       </c>
       <c r="T35" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="U35" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="V35" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W35" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="X35" t="n">
         <v>18</v>
@@ -5182,13 +5182,13 @@
         <v>38</v>
       </c>
       <c r="Z35" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AA35" t="n">
         <v>890</v>
       </c>
       <c r="AB35" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC35" t="n">
         <v>13.5</v>
@@ -5197,34 +5197,34 @@
         <v>55</v>
       </c>
       <c r="AE35" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="AF35" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AG35" t="n">
         <v>12</v>
       </c>
       <c r="AH35" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AI35" t="n">
         <v>300</v>
       </c>
       <c r="AJ35" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK35" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL35" t="n">
         <v>55</v>
       </c>
       <c r="AM35" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="AN35" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="AO35" t="n">
         <v>560</v>
@@ -5284,7 +5284,7 @@
         <v>3.95</v>
       </c>
       <c r="O36" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P36" t="n">
         <v>2.02</v>
@@ -5335,7 +5335,7 @@
         <v>38</v>
       </c>
       <c r="AF36" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AG36" t="n">
         <v>12.5</v>
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G37" t="n">
         <v>2.28</v>
       </c>
       <c r="H37" t="n">
-        <v>1.04</v>
+        <v>3.55</v>
       </c>
       <c r="I37" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="J37" t="n">
-        <v>2.6</v>
+        <v>2.82</v>
       </c>
       <c r="K37" t="n">
-        <v>5.9</v>
+        <v>3.9</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
@@ -5422,10 +5422,10 @@
         <v>1.02</v>
       </c>
       <c r="P37" t="n">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R37" t="n">
         <v>1.18</v>
@@ -5440,7 +5440,7 @@
         <v>1.04</v>
       </c>
       <c r="V37" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="W37" t="n">
         <v>1.78</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
@@ -679,40 +679,40 @@
         <v>1.65</v>
       </c>
       <c r="J2" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="K2" t="n">
         <v>4.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
         <v>1.27</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="Q2" t="n">
         <v>1.79</v>
       </c>
       <c r="R2" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="T2" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="U2" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V2" t="n">
         <v>2.52</v>
@@ -721,13 +721,13 @@
         <v>1.15</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
         <v>18</v>
@@ -736,13 +736,13 @@
         <v>28</v>
       </c>
       <c r="AC2" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD2" t="n">
         <v>12</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF2" t="n">
         <v>70</v>
@@ -751,13 +751,13 @@
         <v>32</v>
       </c>
       <c r="AH2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI2" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ2" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AK2" t="n">
         <v>120</v>
@@ -769,10 +769,10 @@
         <v>150</v>
       </c>
       <c r="AN2" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AO2" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="G3" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="H3" t="n">
         <v>1.74</v>
@@ -820,22 +820,22 @@
         <v>3.9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>2.68</v>
+        <v>2.82</v>
       </c>
       <c r="O3" t="n">
         <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="R3" t="n">
         <v>1.24</v>
@@ -865,19 +865,19 @@
         <v>970</v>
       </c>
       <c r="AA3" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AB3" t="n">
         <v>970</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>970</v>
       </c>
       <c r="AD3" t="n">
         <v>970</v>
       </c>
       <c r="AE3" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AF3" t="n">
         <v>55</v>
@@ -886,7 +886,7 @@
         <v>28</v>
       </c>
       <c r="AH3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI3" t="n">
         <v>60</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
     </row>
     <row r="4">
@@ -940,58 +940,58 @@
         <v>1.39</v>
       </c>
       <c r="G4" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="H4" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="J4" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="K4" t="n">
         <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P4" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="R4" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="T4" t="n">
         <v>2.24</v>
       </c>
       <c r="U4" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="V4" t="n">
         <v>1.09</v>
       </c>
       <c r="W4" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="X4" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Y4" t="n">
         <v>28</v>
@@ -1003,13 +1003,13 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AC4" t="n">
         <v>11.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1084,7 +1084,7 @@
         <v>1.67</v>
       </c>
       <c r="J5" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="K5" t="n">
         <v>5</v>
@@ -1096,22 +1096,22 @@
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P5" t="n">
         <v>2.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R5" t="n">
         <v>1.49</v>
       </c>
       <c r="S5" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="T5" t="n">
         <v>1.75</v>
@@ -1120,7 +1120,7 @@
         <v>2.08</v>
       </c>
       <c r="V5" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="W5" t="n">
         <v>1.17</v>
@@ -1165,10 +1165,10 @@
         <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
@@ -1207,58 +1207,58 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="G6" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="H6" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="I6" t="n">
         <v>10.5</v>
       </c>
       <c r="J6" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="P6" t="n">
-        <v>2.62</v>
+        <v>2.44</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="R6" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="S6" t="n">
-        <v>2.12</v>
+        <v>2.4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W6" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="X6" t="n">
         <v>32</v>
@@ -1267,13 +1267,13 @@
         <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC6" t="n">
         <v>14.5</v>
@@ -1348,7 +1348,7 @@
         <v>3.8</v>
       </c>
       <c r="H7" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I7" t="n">
         <v>2.34</v>
@@ -1366,16 +1366,16 @@
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P7" t="n">
         <v>2.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R7" t="n">
         <v>1.43</v>
@@ -1387,10 +1387,10 @@
         <v>1.64</v>
       </c>
       <c r="U7" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="V7" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="W7" t="n">
         <v>1.35</v>
@@ -1447,7 +1447,7 @@
         <v>40</v>
       </c>
       <c r="AO7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -1576,7 +1576,7 @@
         <v>38</v>
       </c>
       <c r="AM8" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AN8" t="n">
         <v>15.5</v>
@@ -1624,7 +1624,7 @@
         <v>870</v>
       </c>
       <c r="J9" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K9" t="n">
         <v>950</v>
@@ -1822,7 +1822,7 @@
         <v>12</v>
       </c>
       <c r="AE10" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF10" t="n">
         <v>70</v>
@@ -1837,7 +1837,7 @@
         <v>36</v>
       </c>
       <c r="AJ10" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AK10" t="n">
         <v>95</v>
@@ -1885,19 +1885,19 @@
         <v>14</v>
       </c>
       <c r="G11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H11" t="n">
         <v>1.29</v>
       </c>
       <c r="I11" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="J11" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="K11" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L11" t="n">
         <v>1.4</v>
@@ -1924,13 +1924,13 @@
         <v>3.6</v>
       </c>
       <c r="T11" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="U11" t="n">
         <v>1.5</v>
       </c>
       <c r="V11" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="W11" t="n">
         <v>1.06</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="G12" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="H12" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="I12" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="J12" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K12" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
@@ -2041,40 +2041,40 @@
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P12" t="n">
-        <v>2.56</v>
+        <v>2.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="R12" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="S12" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="U12" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="V12" t="n">
         <v>1.11</v>
       </c>
       <c r="W12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="X12" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Y12" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z12" t="n">
         <v>85</v>
@@ -2086,7 +2086,7 @@
         <v>12</v>
       </c>
       <c r="AC12" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AD12" t="n">
         <v>34</v>
@@ -2107,7 +2107,7 @@
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AK12" t="n">
         <v>15</v>
@@ -2119,7 +2119,7 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="G13" t="n">
         <v>4.6</v>
@@ -2185,7 +2185,7 @@
         <v>2.18</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U13" t="n">
         <v>2.24</v>
@@ -2209,10 +2209,10 @@
         <v>18.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA13" t="n">
         <v>20</v>
@@ -2227,7 +2227,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AE13" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF13" t="n">
         <v>36</v>
@@ -2287,25 +2287,25 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="G14" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="H14" t="n">
         <v>10.5</v>
       </c>
       <c r="I14" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="J14" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="K14" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="M14" t="n">
         <v>1.02</v>
@@ -2317,13 +2317,13 @@
         <v>1.15</v>
       </c>
       <c r="P14" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="Q14" t="n">
         <v>1.45</v>
       </c>
       <c r="R14" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="S14" t="n">
         <v>2.12</v>
@@ -2332,19 +2332,19 @@
         <v>1.87</v>
       </c>
       <c r="U14" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V14" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W14" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="X14" t="n">
         <v>34</v>
       </c>
       <c r="Y14" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Z14" t="n">
         <v>140</v>
@@ -2356,10 +2356,10 @@
         <v>12.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AE14" t="n">
         <v>190</v>
@@ -2371,7 +2371,7 @@
         <v>12</v>
       </c>
       <c r="AH14" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AI14" t="n">
         <v>140</v>
@@ -2383,7 +2383,7 @@
         <v>14.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM14" t="n">
         <v>150</v>
@@ -2392,7 +2392,7 @@
         <v>4.2</v>
       </c>
       <c r="AO14" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G15" t="n">
         <v>3.45</v>
@@ -2440,7 +2440,7 @@
         <v>3.55</v>
       </c>
       <c r="L15" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M15" t="n">
         <v>1.09</v>
@@ -2518,7 +2518,7 @@
         <v>44</v>
       </c>
       <c r="AL15" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM15" t="n">
         <v>120</v>
@@ -2575,7 +2575,7 @@
         <v>3.7</v>
       </c>
       <c r="L16" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="M16" t="n">
         <v>1.07</v>
@@ -2590,7 +2590,7 @@
         <v>2.04</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="R16" t="n">
         <v>1.4</v>
@@ -2599,10 +2599,10 @@
         <v>3.3</v>
       </c>
       <c r="T16" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U16" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V16" t="n">
         <v>1.38</v>
@@ -2626,7 +2626,7 @@
         <v>10.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD16" t="n">
         <v>14.5</v>
@@ -2650,7 +2650,7 @@
         <v>28</v>
       </c>
       <c r="AK16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL16" t="n">
         <v>36</v>
@@ -2716,13 +2716,13 @@
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O17" t="n">
         <v>1.27</v>
       </c>
       <c r="P17" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q17" t="n">
         <v>1.8</v>
@@ -2731,13 +2731,13 @@
         <v>1.46</v>
       </c>
       <c r="S17" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T17" t="n">
         <v>2.18</v>
       </c>
       <c r="U17" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V17" t="n">
         <v>1.1</v>
@@ -2746,7 +2746,7 @@
         <v>3.65</v>
       </c>
       <c r="X17" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y17" t="n">
         <v>32</v>
@@ -2755,7 +2755,7 @@
         <v>95</v>
       </c>
       <c r="AA17" t="n">
-        <v>500</v>
+        <v>430</v>
       </c>
       <c r="AB17" t="n">
         <v>8</v>
@@ -2767,10 +2767,10 @@
         <v>38</v>
       </c>
       <c r="AE17" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AF17" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AG17" t="n">
         <v>10</v>
@@ -2782,7 +2782,7 @@
         <v>160</v>
       </c>
       <c r="AJ17" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK17" t="n">
         <v>14.5</v>
@@ -2791,10 +2791,10 @@
         <v>40</v>
       </c>
       <c r="AM17" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AN17" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AO17" t="n">
         <v>250</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="G18" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H18" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I18" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K18" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L18" t="n">
         <v>1.28</v>
@@ -2857,13 +2857,13 @@
         <v>1.27</v>
       </c>
       <c r="P18" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="R18" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S18" t="n">
         <v>3.1</v>
@@ -2875,13 +2875,13 @@
         <v>2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W18" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="X18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y18" t="n">
         <v>22</v>
@@ -2974,13 +2974,13 @@
         <v>1.87</v>
       </c>
       <c r="J19" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K19" t="n">
         <v>3.9</v>
       </c>
       <c r="L19" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M19" t="n">
         <v>1.08</v>
@@ -2989,13 +2989,13 @@
         <v>3.6</v>
       </c>
       <c r="O19" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P19" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R19" t="n">
         <v>1.33</v>
@@ -3007,7 +3007,7 @@
         <v>1.97</v>
       </c>
       <c r="U19" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V19" t="n">
         <v>2.14</v>
@@ -3019,7 +3019,7 @@
         <v>13</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Z19" t="n">
         <v>10.5</v>
@@ -3028,7 +3028,7 @@
         <v>19.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC19" t="n">
         <v>8.4</v>
@@ -3037,7 +3037,7 @@
         <v>10</v>
       </c>
       <c r="AE19" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF19" t="n">
         <v>36</v>
@@ -3049,7 +3049,7 @@
         <v>21</v>
       </c>
       <c r="AI19" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ19" t="n">
         <v>120</v>
@@ -3100,7 +3100,7 @@
         <v>2.76</v>
       </c>
       <c r="G20" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H20" t="n">
         <v>2.68</v>
@@ -3109,10 +3109,10 @@
         <v>2.78</v>
       </c>
       <c r="J20" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K20" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L20" t="n">
         <v>1.37</v>
@@ -3121,34 +3121,34 @@
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O20" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P20" t="n">
         <v>2</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="R20" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="S20" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="T20" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="U20" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="V20" t="n">
         <v>1.56</v>
       </c>
       <c r="W20" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X20" t="n">
         <v>970</v>
@@ -3184,25 +3184,25 @@
         <v>970</v>
       </c>
       <c r="AI20" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AJ20" t="n">
         <v>42</v>
       </c>
       <c r="AK20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL20" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM20" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
@@ -3235,16 +3235,16 @@
         <v>4.8</v>
       </c>
       <c r="G21" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="H21" t="n">
         <v>1.74</v>
       </c>
       <c r="I21" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="J21" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K21" t="n">
         <v>4.4</v>
@@ -3256,34 +3256,34 @@
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O21" t="n">
         <v>1.27</v>
       </c>
       <c r="P21" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="R21" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S21" t="n">
         <v>3.05</v>
       </c>
       <c r="T21" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U21" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V21" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="W21" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="X21" t="n">
         <v>22</v>
@@ -3307,22 +3307,22 @@
         <v>10</v>
       </c>
       <c r="AE21" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AF21" t="n">
         <v>42</v>
       </c>
       <c r="AG21" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AH21" t="n">
         <v>21</v>
       </c>
       <c r="AI21" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ21" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AK21" t="n">
         <v>65</v>
@@ -3334,10 +3334,10 @@
         <v>100</v>
       </c>
       <c r="AN21" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AO21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -3373,13 +3373,13 @@
         <v>1.44</v>
       </c>
       <c r="H22" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="I22" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="J22" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="K22" t="n">
         <v>5.5</v>
@@ -3391,37 +3391,37 @@
         <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O22" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P22" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="R22" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="S22" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="T22" t="n">
         <v>2.12</v>
       </c>
       <c r="U22" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="V22" t="n">
         <v>1.1</v>
       </c>
       <c r="W22" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="X22" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y22" t="n">
         <v>1000</v>
@@ -3433,25 +3433,25 @@
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC22" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD22" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AE22" t="n">
         <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AG22" t="n">
         <v>11</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI22" t="n">
         <v>1000</v>
@@ -3463,13 +3463,13 @@
         <v>16.5</v>
       </c>
       <c r="AL22" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3505,7 +3505,7 @@
         <v>1.11</v>
       </c>
       <c r="G23" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="H23" t="n">
         <v>30</v>
@@ -3517,7 +3517,7 @@
         <v>13</v>
       </c>
       <c r="K23" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="L23" t="n">
         <v>1.16</v>
@@ -3535,19 +3535,19 @@
         <v>3.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="R23" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S23" t="n">
         <v>1.77</v>
       </c>
       <c r="T23" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="U23" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="V23" t="n">
         <v>1.02</v>
@@ -3571,7 +3571,7 @@
         <v>17.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
         <v>1000</v>
@@ -3646,10 +3646,10 @@
         <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J24" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K24" t="n">
         <v>3.6</v>
@@ -3661,7 +3661,7 @@
         <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O24" t="n">
         <v>1.32</v>
@@ -3676,16 +3676,16 @@
         <v>1.35</v>
       </c>
       <c r="S24" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T24" t="n">
         <v>1.76</v>
       </c>
       <c r="U24" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="V24" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W24" t="n">
         <v>1.72</v>
@@ -3724,7 +3724,7 @@
         <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
         <v>36</v>
@@ -3739,7 +3739,7 @@
         <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3784,7 +3784,7 @@
         <v>9.4</v>
       </c>
       <c r="J25" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="K25" t="n">
         <v>5.8</v>
@@ -3796,13 +3796,13 @@
         <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O25" t="n">
         <v>1.2</v>
       </c>
       <c r="P25" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="Q25" t="n">
         <v>1.61</v>
@@ -3817,7 +3817,7 @@
         <v>1.93</v>
       </c>
       <c r="U25" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
         <v>1.11</v>
@@ -3826,7 +3826,7 @@
         <v>3.5</v>
       </c>
       <c r="X25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y25" t="n">
         <v>34</v>
@@ -3877,7 +3877,7 @@
         <v>5.2</v>
       </c>
       <c r="AO25" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26">
@@ -3937,13 +3937,13 @@
         <v>1.29</v>
       </c>
       <c r="P26" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R26" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S26" t="n">
         <v>3.25</v>
@@ -3964,7 +3964,7 @@
         <v>16.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Z26" t="n">
         <v>11</v>
@@ -3979,7 +3979,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD26" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AE26" t="n">
         <v>17</v>
@@ -4012,7 +4012,7 @@
         <v>55</v>
       </c>
       <c r="AO26" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="27">
@@ -4042,16 +4042,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="G27" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="H27" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I27" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J27" t="n">
         <v>3.35</v>
@@ -4075,7 +4075,7 @@
         <v>1.87</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="R27" t="n">
         <v>1.3</v>
@@ -4084,7 +4084,7 @@
         <v>3.6</v>
       </c>
       <c r="T27" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U27" t="n">
         <v>2.04</v>
@@ -4093,7 +4093,7 @@
         <v>1.34</v>
       </c>
       <c r="W27" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="X27" t="n">
         <v>16</v>
@@ -4120,10 +4120,10 @@
         <v>48</v>
       </c>
       <c r="AF27" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH27" t="n">
         <v>23</v>
@@ -4132,10 +4132,10 @@
         <v>70</v>
       </c>
       <c r="AJ27" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL27" t="n">
         <v>42</v>
@@ -4183,52 +4183,52 @@
         <v>3.1</v>
       </c>
       <c r="H28" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="I28" t="n">
         <v>2.8</v>
       </c>
       <c r="J28" t="n">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="K28" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N28" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="O28" t="n">
         <v>1.21</v>
       </c>
       <c r="P28" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="R28" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="S28" t="n">
         <v>2.34</v>
       </c>
       <c r="T28" t="n">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="U28" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="V28" t="n">
         <v>1.55</v>
       </c>
       <c r="W28" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X28" t="n">
         <v>26</v>
@@ -4252,7 +4252,7 @@
         <v>970</v>
       </c>
       <c r="AE28" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF28" t="n">
         <v>24</v>
@@ -4264,25 +4264,25 @@
         <v>970</v>
       </c>
       <c r="AI28" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AJ28" t="n">
         <v>46</v>
       </c>
       <c r="AK28" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AL28" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AM28" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AN28" t="n">
         <v>970</v>
       </c>
       <c r="AO28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
@@ -4312,16 +4312,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="G29" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="H29" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I29" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J29" t="n">
         <v>3.55</v>
@@ -4333,25 +4333,25 @@
         <v>1.48</v>
       </c>
       <c r="M29" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N29" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O29" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P29" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="R29" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="S29" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="T29" t="n">
         <v>2</v>
@@ -4360,13 +4360,13 @@
         <v>1.87</v>
       </c>
       <c r="V29" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W29" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="X29" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y29" t="n">
         <v>18</v>
@@ -4375,10 +4375,10 @@
         <v>36</v>
       </c>
       <c r="AA29" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB29" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AC29" t="n">
         <v>9</v>
@@ -4411,13 +4411,13 @@
         <v>48</v>
       </c>
       <c r="AM29" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AN29" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO29" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30">
@@ -4450,16 +4450,16 @@
         <v>5</v>
       </c>
       <c r="G30" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="H30" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="I30" t="n">
         <v>1.83</v>
       </c>
       <c r="J30" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K30" t="n">
         <v>4.1</v>
@@ -4525,22 +4525,22 @@
         <v>19.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AG30" t="n">
         <v>21</v>
       </c>
       <c r="AH30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI30" t="n">
         <v>38</v>
       </c>
       <c r="AJ30" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AK30" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AL30" t="n">
         <v>90</v>
@@ -4549,7 +4549,7 @@
         <v>130</v>
       </c>
       <c r="AN30" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AO30" t="n">
         <v>13</v>
@@ -4582,13 +4582,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="G31" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="H31" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="I31" t="n">
         <v>17</v>
@@ -4612,28 +4612,28 @@
         <v>1.16</v>
       </c>
       <c r="P31" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="Q31" t="n">
         <v>1.46</v>
       </c>
       <c r="R31" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="S31" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="T31" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U31" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="V31" t="n">
         <v>1.06</v>
       </c>
       <c r="W31" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="X31" t="n">
         <v>34</v>
@@ -4684,10 +4684,10 @@
         <v>200</v>
       </c>
       <c r="AN31" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="AO31" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="32">
@@ -4717,16 +4717,16 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="G32" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="H32" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="I32" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
         <v>3.2</v>
@@ -4741,40 +4741,40 @@
         <v>1.09</v>
       </c>
       <c r="N32" t="n">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="O32" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P32" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="R32" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S32" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T32" t="n">
-        <v>1.96</v>
+        <v>1.89</v>
       </c>
       <c r="U32" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="V32" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="W32" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X32" t="n">
         <v>10</v>
       </c>
       <c r="Y32" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="Z32" t="n">
         <v>17.5</v>
@@ -4798,7 +4798,7 @@
         <v>18.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH32" t="n">
         <v>21</v>
@@ -4807,7 +4807,7 @@
         <v>60</v>
       </c>
       <c r="AJ32" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AK32" t="n">
         <v>40</v>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.04</v>
+        <v>2.1</v>
       </c>
       <c r="G33" t="n">
         <v>3.05</v>
@@ -4867,7 +4867,7 @@
         <v>3</v>
       </c>
       <c r="K33" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="L33" t="n">
         <v>1.01</v>
@@ -4876,13 +4876,13 @@
         <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>2</v>
+        <v>2.48</v>
       </c>
       <c r="O33" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="P33" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="Q33" t="n">
         <v>2.2</v>
@@ -4987,13 +4987,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G34" t="n">
         <v>3.5</v>
       </c>
       <c r="H34" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="I34" t="n">
         <v>2.58</v>
@@ -5005,34 +5005,34 @@
         <v>3.45</v>
       </c>
       <c r="L34" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M34" t="n">
         <v>1.09</v>
       </c>
       <c r="N34" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="O34" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P34" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="R34" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S34" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="T34" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="U34" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="V34" t="n">
         <v>1.63</v>
@@ -5074,7 +5074,7 @@
         <v>970</v>
       </c>
       <c r="AI34" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ34" t="n">
         <v>65</v>
@@ -5083,16 +5083,16 @@
         <v>46</v>
       </c>
       <c r="AL34" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM34" t="n">
         <v>150</v>
       </c>
       <c r="AN34" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AO34" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35">
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="G35" t="n">
         <v>1.32</v>
@@ -5131,7 +5131,7 @@
         <v>12.5</v>
       </c>
       <c r="I35" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="J35" t="n">
         <v>6.2</v>
@@ -5146,16 +5146,16 @@
         <v>1.05</v>
       </c>
       <c r="N35" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O35" t="n">
         <v>1.26</v>
       </c>
       <c r="P35" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R35" t="n">
         <v>1.43</v>
@@ -5164,13 +5164,13 @@
         <v>3</v>
       </c>
       <c r="T35" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="U35" t="n">
         <v>1.59</v>
       </c>
       <c r="V35" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W35" t="n">
         <v>4.1</v>
@@ -5185,7 +5185,7 @@
         <v>150</v>
       </c>
       <c r="AA35" t="n">
-        <v>890</v>
+        <v>870</v>
       </c>
       <c r="AB35" t="n">
         <v>7.8</v>
@@ -5209,10 +5209,10 @@
         <v>42</v>
       </c>
       <c r="AI35" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AJ35" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AK35" t="n">
         <v>15.5</v>
@@ -5224,10 +5224,10 @@
         <v>300</v>
       </c>
       <c r="AN35" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AO35" t="n">
-        <v>560</v>
+        <v>530</v>
       </c>
     </row>
     <row r="36">
@@ -5287,7 +5287,7 @@
         <v>1.29</v>
       </c>
       <c r="P36" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q36" t="n">
         <v>1.98</v>
@@ -5359,10 +5359,10 @@
         <v>80</v>
       </c>
       <c r="AN36" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO36" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
@@ -673,13 +673,13 @@
         <v>7.6</v>
       </c>
       <c r="H2" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="I2" t="n">
         <v>1.65</v>
       </c>
       <c r="J2" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
         <v>4.6</v>
@@ -694,85 +694,85 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P2" t="n">
         <v>2.06</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="R2" t="n">
         <v>1.41</v>
       </c>
       <c r="S2" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="T2" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U2" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="V2" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="W2" t="n">
         <v>1.15</v>
       </c>
       <c r="X2" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AC2" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AF2" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AH2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AI2" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AJ2" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,82 +802,82 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="G3" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="H3" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="I3" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="J3" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K3" t="n">
         <v>3.9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="P3" t="n">
         <v>1.65</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="R3" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="S3" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="T3" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V3" t="n">
         <v>2.04</v>
       </c>
-      <c r="U3" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.1</v>
-      </c>
       <c r="W3" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="X3" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="Y3" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="Z3" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AA3" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AB3" t="n">
         <v>970</v>
       </c>
       <c r="AC3" t="n">
-        <v>970</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AF3" t="n">
         <v>55</v>
@@ -886,7 +886,7 @@
         <v>28</v>
       </c>
       <c r="AH3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI3" t="n">
         <v>60</v>
@@ -901,10 +901,10 @@
         <v>130</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AO3" t="n">
         <v>970</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="G4" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="H4" t="n">
         <v>9.800000000000001</v>
@@ -949,40 +949,40 @@
         <v>12</v>
       </c>
       <c r="J4" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="K4" t="n">
         <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="O4" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="P4" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R4" t="n">
         <v>1.32</v>
       </c>
       <c r="S4" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="T4" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="U4" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="V4" t="n">
         <v>1.09</v>
@@ -991,10 +991,10 @@
         <v>3.05</v>
       </c>
       <c r="X4" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,43 +1003,43 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="G5" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="I5" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="J5" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="K5" t="n">
         <v>5</v>
@@ -1096,79 +1096,79 @@
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="R5" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="S5" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V5" t="n">
         <v>2.62</v>
       </c>
-      <c r="T5" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2.48</v>
-      </c>
       <c r="W5" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="X5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y5" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="AC5" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AF5" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI5" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
@@ -1177,7 +1177,7 @@
         <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.800000000000001</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1207,109 +1207,109 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="G6" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="H6" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="I6" t="n">
         <v>10.5</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="K6" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P6" t="n">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R6" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="S6" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.81</v>
+        <v>1.04</v>
       </c>
       <c r="U6" t="n">
-        <v>1.98</v>
+        <v>1.04</v>
       </c>
       <c r="V6" t="n">
         <v>1.11</v>
       </c>
       <c r="W6" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="X6" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Z6" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AC6" t="n">
         <v>14.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AG6" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AK6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.5</v>
+        <v>7.2</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1348,7 +1348,7 @@
         <v>3.8</v>
       </c>
       <c r="H7" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="I7" t="n">
         <v>2.34</v>
@@ -1360,28 +1360,28 @@
         <v>4.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
         <v>2.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R7" t="n">
         <v>1.43</v>
       </c>
       <c r="S7" t="n">
-        <v>2.84</v>
+        <v>2.58</v>
       </c>
       <c r="T7" t="n">
         <v>1.64</v>
@@ -1396,58 +1396,58 @@
         <v>1.35</v>
       </c>
       <c r="X7" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
         <v>14</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AA7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB7" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AC7" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AF7" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK7" t="n">
         <v>40</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>46</v>
-      </c>
       <c r="AL7" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AM7" t="n">
         <v>80</v>
       </c>
       <c r="AN7" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -1495,7 +1495,7 @@
         <v>4.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
@@ -1507,13 +1507,13 @@
         <v>1.23</v>
       </c>
       <c r="P8" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="R8" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="S8" t="n">
         <v>2.72</v>
@@ -1531,58 +1531,58 @@
         <v>1.78</v>
       </c>
       <c r="X8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y8" t="n">
         <v>24</v>
       </c>
-      <c r="Y8" t="n">
-        <v>20</v>
-      </c>
       <c r="Z8" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AA8" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AB8" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD8" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AE8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL8" t="n">
         <v>46</v>
       </c>
-      <c r="AF8" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>38</v>
-      </c>
       <c r="AM8" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AN8" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1750,7 +1750,7 @@
         <v>6</v>
       </c>
       <c r="G10" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="H10" t="n">
         <v>1.5</v>
@@ -1765,7 +1765,7 @@
         <v>5.3</v>
       </c>
       <c r="L10" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
@@ -1786,19 +1786,19 @@
         <v>1.55</v>
       </c>
       <c r="S10" t="n">
-        <v>2.46</v>
+        <v>2.28</v>
       </c>
       <c r="T10" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U10" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V10" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="W10" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="X10" t="n">
         <v>29</v>
@@ -1822,7 +1822,7 @@
         <v>12</v>
       </c>
       <c r="AE10" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AF10" t="n">
         <v>70</v>
@@ -1837,13 +1837,13 @@
         <v>36</v>
       </c>
       <c r="AJ10" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AK10" t="n">
         <v>95</v>
       </c>
       <c r="AL10" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AM10" t="n">
         <v>110</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="G11" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="H11" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="I11" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="J11" t="n">
         <v>5.1</v>
       </c>
       <c r="K11" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L11" t="n">
         <v>1.4</v>
@@ -1906,7 +1906,7 @@
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="O11" t="n">
         <v>1.33</v>
@@ -1915,19 +1915,19 @@
         <v>1.85</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="R11" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="S11" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="T11" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="U11" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="V11" t="n">
         <v>3.75</v>
@@ -1936,31 +1936,31 @@
         <v>1.06</v>
       </c>
       <c r="X11" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="Z11" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AA11" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AB11" t="n">
         <v>42</v>
       </c>
       <c r="AC11" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AD11" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE11" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AG11" t="n">
         <v>1000</v>
@@ -1975,19 +1975,19 @@
         <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="AL11" t="n">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="AM11" t="n">
-        <v>490</v>
+        <v>450</v>
       </c>
       <c r="AN11" t="n">
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="12">
@@ -2023,13 +2023,13 @@
         <v>1.43</v>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="I12" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="J12" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="K12" t="n">
         <v>6.6</v>
@@ -2038,7 +2038,7 @@
         <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N12" t="n">
         <v>5.8</v>
@@ -2047,19 +2047,19 @@
         <v>1.16</v>
       </c>
       <c r="P12" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R12" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="S12" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T12" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U12" t="n">
         <v>2.02</v>
@@ -2071,55 +2071,55 @@
         <v>3.25</v>
       </c>
       <c r="X12" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="Y12" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="Z12" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>12</v>
+        <v>17.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>14.5</v>
+        <v>20</v>
       </c>
       <c r="AD12" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AG12" t="n">
-        <v>11.5</v>
+        <v>16</v>
       </c>
       <c r="AH12" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AL12" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2158,10 +2158,10 @@
         <v>4.6</v>
       </c>
       <c r="H13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="I13" t="n">
         <v>1.84</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1.85</v>
       </c>
       <c r="J13" t="n">
         <v>4.2</v>
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q13" t="n">
         <v>1.8</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y13" t="n">
         <v>10</v>
@@ -2233,7 +2233,7 @@
         <v>36</v>
       </c>
       <c r="AG13" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AH13" t="n">
         <v>18.5</v>
@@ -2254,7 +2254,7 @@
         <v>85</v>
       </c>
       <c r="AN13" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AO13" t="n">
         <v>10.5</v>
@@ -2290,28 +2290,28 @@
         <v>1.25</v>
       </c>
       <c r="G14" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="H14" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="I14" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="K14" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L14" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="M14" t="n">
         <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O14" t="n">
         <v>1.15</v>
@@ -2320,79 +2320,79 @@
         <v>2.78</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="R14" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="S14" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="T14" t="n">
-        <v>1.87</v>
+        <v>1.04</v>
       </c>
       <c r="U14" t="n">
-        <v>1.89</v>
+        <v>1.64</v>
       </c>
       <c r="V14" t="n">
         <v>1.07</v>
       </c>
       <c r="W14" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="X14" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="Y14" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="Z14" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>480</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>12.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AD14" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AE14" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AH14" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>11.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>14.5</v>
+        <v>19</v>
       </c>
       <c r="AL14" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AM14" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.2</v>
+        <v>5.4</v>
       </c>
       <c r="AO14" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2440,7 +2440,7 @@
         <v>3.55</v>
       </c>
       <c r="L15" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M15" t="n">
         <v>1.09</v>
@@ -2452,7 +2452,7 @@
         <v>1.39</v>
       </c>
       <c r="P15" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q15" t="n">
         <v>2.2</v>
@@ -2488,7 +2488,7 @@
         <v>32</v>
       </c>
       <c r="AB15" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC15" t="n">
         <v>7.4</v>
@@ -2524,7 +2524,7 @@
         <v>120</v>
       </c>
       <c r="AN15" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AO15" t="n">
         <v>23</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G16" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="H16" t="n">
         <v>3.55</v>
@@ -2575,7 +2575,7 @@
         <v>3.7</v>
       </c>
       <c r="L16" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M16" t="n">
         <v>1.07</v>
@@ -2587,10 +2587,10 @@
         <v>1.31</v>
       </c>
       <c r="P16" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R16" t="n">
         <v>1.4</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="G17" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="H17" t="n">
+        <v>10</v>
+      </c>
+      <c r="I17" t="n">
         <v>10.5</v>
       </c>
-      <c r="I17" t="n">
-        <v>11</v>
-      </c>
       <c r="J17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K17" t="n">
         <v>5.6</v>
-      </c>
-      <c r="K17" t="n">
-        <v>5.7</v>
       </c>
       <c r="L17" t="n">
         <v>1.35</v>
@@ -2716,13 +2716,13 @@
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O17" t="n">
         <v>1.27</v>
       </c>
       <c r="P17" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q17" t="n">
         <v>1.8</v>
@@ -2734,16 +2734,16 @@
         <v>3</v>
       </c>
       <c r="T17" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="U17" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V17" t="n">
         <v>1.1</v>
       </c>
       <c r="W17" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="X17" t="n">
         <v>19.5</v>
@@ -2755,10 +2755,10 @@
         <v>95</v>
       </c>
       <c r="AA17" t="n">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="AB17" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC17" t="n">
         <v>12</v>
@@ -2767,10 +2767,10 @@
         <v>38</v>
       </c>
       <c r="AE17" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AF17" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AG17" t="n">
         <v>10</v>
@@ -2779,22 +2779,22 @@
         <v>30</v>
       </c>
       <c r="AI17" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ17" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AK17" t="n">
         <v>14.5</v>
       </c>
       <c r="AL17" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM17" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN17" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AO17" t="n">
         <v>250</v>
@@ -2827,64 +2827,64 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="G18" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="H18" t="n">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="I18" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="J18" t="n">
         <v>3.95</v>
       </c>
       <c r="K18" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="M18" t="n">
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>3.95</v>
+        <v>3.45</v>
       </c>
       <c r="O18" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="P18" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="Q18" t="n">
         <v>1.83</v>
       </c>
       <c r="R18" t="n">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="S18" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="T18" t="n">
-        <v>1.84</v>
+        <v>1.04</v>
       </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>1.04</v>
       </c>
       <c r="V18" t="n">
         <v>1.18</v>
       </c>
       <c r="W18" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="X18" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Z18" t="n">
         <v>1000</v>
@@ -2893,34 +2893,34 @@
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.4</v>
+        <v>13</v>
       </c>
       <c r="AC18" t="n">
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AE18" t="n">
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AG18" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AH18" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AI18" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>17.5</v>
+        <v>25</v>
       </c>
       <c r="AK18" t="n">
-        <v>18.5</v>
+        <v>26</v>
       </c>
       <c r="AL18" t="n">
         <v>1000</v>
@@ -2929,7 +2929,7 @@
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>9.800000000000001</v>
+        <v>14.5</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2968,19 +2968,19 @@
         <v>5</v>
       </c>
       <c r="H19" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I19" t="n">
         <v>1.86</v>
       </c>
-      <c r="I19" t="n">
-        <v>1.87</v>
-      </c>
       <c r="J19" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K19" t="n">
         <v>3.9</v>
       </c>
       <c r="L19" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="M19" t="n">
         <v>1.08</v>
@@ -2992,7 +2992,7 @@
         <v>1.36</v>
       </c>
       <c r="P19" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q19" t="n">
         <v>2.08</v>
@@ -3004,13 +3004,13 @@
         <v>3.8</v>
       </c>
       <c r="T19" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U19" t="n">
         <v>1.98</v>
       </c>
       <c r="V19" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="W19" t="n">
         <v>1.25</v>
@@ -3019,7 +3019,7 @@
         <v>13</v>
       </c>
       <c r="Y19" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z19" t="n">
         <v>10.5</v>
@@ -3100,7 +3100,7 @@
         <v>2.76</v>
       </c>
       <c r="G20" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="H20" t="n">
         <v>2.68</v>
@@ -3115,13 +3115,13 @@
         <v>3.7</v>
       </c>
       <c r="L20" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O20" t="n">
         <v>1.3</v>
@@ -3130,19 +3130,19 @@
         <v>2</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="R20" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="S20" t="n">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="T20" t="n">
         <v>1.71</v>
       </c>
       <c r="U20" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="V20" t="n">
         <v>1.56</v>
@@ -3154,55 +3154,55 @@
         <v>970</v>
       </c>
       <c r="Y20" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>970</v>
+        <v>28</v>
       </c>
       <c r="AA20" t="n">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AB20" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="AF20" t="n">
-        <v>970</v>
+        <v>28</v>
       </c>
       <c r="AG20" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AI20" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AJ20" t="n">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AK20" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="AL20" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AM20" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -3241,10 +3241,10 @@
         <v>1.74</v>
       </c>
       <c r="I21" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="J21" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K21" t="n">
         <v>4.4</v>
@@ -3253,13 +3253,13 @@
         <v>1.36</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P21" t="n">
         <v>2.08</v>
@@ -3268,7 +3268,7 @@
         <v>1.82</v>
       </c>
       <c r="R21" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S21" t="n">
         <v>3.05</v>
@@ -3277,16 +3277,16 @@
         <v>1.8</v>
       </c>
       <c r="U21" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="V21" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="W21" t="n">
         <v>1.24</v>
       </c>
       <c r="X21" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="Y21" t="n">
         <v>9.800000000000001</v>
@@ -3295,13 +3295,13 @@
         <v>11.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AB21" t="n">
         <v>22</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD21" t="n">
         <v>10</v>
@@ -3310,13 +3310,13 @@
         <v>18</v>
       </c>
       <c r="AF21" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AG21" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI21" t="n">
         <v>34</v>
@@ -3328,13 +3328,13 @@
         <v>65</v>
       </c>
       <c r="AL21" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM21" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN21" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AO21" t="n">
         <v>11</v>
@@ -3367,28 +3367,28 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="G22" t="n">
         <v>1.44</v>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I22" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="J22" t="n">
         <v>4.8</v>
       </c>
       <c r="K22" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="L22" t="n">
         <v>1.35</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
         <v>4</v>
@@ -3400,19 +3400,19 @@
         <v>2.04</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="R22" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S22" t="n">
         <v>3</v>
       </c>
       <c r="T22" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U22" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="V22" t="n">
         <v>1.1</v>
@@ -3424,7 +3424,7 @@
         <v>18.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Z22" t="n">
         <v>1000</v>
@@ -3433,43 +3433,43 @@
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>46</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN22" t="n">
         <v>8.199999999999999</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>42</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>7</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G23" t="n">
         <v>1.11</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1.12</v>
       </c>
       <c r="H23" t="n">
         <v>30</v>
       </c>
       <c r="I23" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K23" t="n">
         <v>15</v>
@@ -3526,34 +3526,34 @@
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O23" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P23" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="R23" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="S23" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="T23" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="U23" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="V23" t="n">
         <v>1.02</v>
       </c>
       <c r="W23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -3568,10 +3568,10 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AD23" t="n">
         <v>1000</v>
@@ -3580,10 +3580,10 @@
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AG23" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH23" t="n">
         <v>1000</v>
@@ -3592,19 +3592,19 @@
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AK23" t="n">
         <v>18</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM23" t="n">
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>2.46</v>
+        <v>2.6</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3649,40 +3649,40 @@
         <v>3.75</v>
       </c>
       <c r="J24" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K24" t="n">
         <v>3.6</v>
       </c>
       <c r="L24" t="n">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="M24" t="n">
         <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O24" t="n">
         <v>1.32</v>
       </c>
       <c r="P24" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R24" t="n">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="S24" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="T24" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U24" t="n">
-        <v>2.12</v>
+        <v>1.92</v>
       </c>
       <c r="V24" t="n">
         <v>1.36</v>
@@ -3691,46 +3691,46 @@
         <v>1.72</v>
       </c>
       <c r="X24" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>14</v>
+        <v>19.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA24" t="n">
         <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE24" t="n">
         <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AG24" t="n">
-        <v>11.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI24" t="n">
         <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL24" t="n">
         <v>1000</v>
@@ -3739,7 +3739,7 @@
         <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3790,13 +3790,13 @@
         <v>5.8</v>
       </c>
       <c r="L25" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M25" t="n">
         <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O25" t="n">
         <v>1.2</v>
@@ -3814,10 +3814,10 @@
         <v>2.54</v>
       </c>
       <c r="T25" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V25" t="n">
         <v>1.11</v>
@@ -3826,7 +3826,7 @@
         <v>3.5</v>
       </c>
       <c r="X25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y25" t="n">
         <v>34</v>
@@ -3844,7 +3844,7 @@
         <v>12.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AE25" t="n">
         <v>130</v>
@@ -3856,7 +3856,7 @@
         <v>10</v>
       </c>
       <c r="AH25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI25" t="n">
         <v>110</v>
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G26" t="n">
         <v>4.6</v>
       </c>
-      <c r="G26" t="n">
-        <v>4.7</v>
-      </c>
       <c r="H26" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="I26" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="J26" t="n">
+        <v>4</v>
+      </c>
+      <c r="K26" t="n">
         <v>4.1</v>
-      </c>
-      <c r="K26" t="n">
-        <v>4.2</v>
       </c>
       <c r="L26" t="n">
         <v>1.31</v>
@@ -3943,22 +3943,22 @@
         <v>1.88</v>
       </c>
       <c r="R26" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S26" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="T26" t="n">
         <v>1.83</v>
       </c>
       <c r="U26" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="V26" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="W26" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X26" t="n">
         <v>16.5</v>
@@ -3967,13 +3967,13 @@
         <v>9.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AA26" t="n">
         <v>19</v>
       </c>
       <c r="AB26" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC26" t="n">
         <v>8.800000000000001</v>
@@ -3988,7 +3988,7 @@
         <v>36</v>
       </c>
       <c r="AG26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH26" t="n">
         <v>18.5</v>
@@ -4042,34 +4042,34 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="G27" t="n">
-        <v>2.3</v>
+        <v>2.14</v>
       </c>
       <c r="H27" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="I27" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="J27" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K27" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="L27" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M27" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N27" t="n">
         <v>3.4</v>
       </c>
       <c r="O27" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P27" t="n">
         <v>1.87</v>
@@ -4084,70 +4084,70 @@
         <v>3.6</v>
       </c>
       <c r="T27" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U27" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="V27" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="W27" t="n">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="X27" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="Z27" t="n">
         <v>32</v>
       </c>
       <c r="AA27" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AB27" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AC27" t="n">
         <v>8.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE27" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AF27" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI27" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ27" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AK27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL27" t="n">
         <v>42</v>
       </c>
       <c r="AM27" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO27" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28">
@@ -4177,52 +4177,52 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="G28" t="n">
         <v>3.1</v>
       </c>
       <c r="H28" t="n">
-        <v>2.56</v>
+        <v>1.05</v>
       </c>
       <c r="I28" t="n">
         <v>2.8</v>
       </c>
       <c r="J28" t="n">
-        <v>1.2</v>
+        <v>2.84</v>
       </c>
       <c r="K28" t="n">
-        <v>5.1</v>
+        <v>950</v>
       </c>
       <c r="L28" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M28" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N28" t="n">
-        <v>4.3</v>
+        <v>2.42</v>
       </c>
       <c r="O28" t="n">
         <v>1.21</v>
       </c>
       <c r="P28" t="n">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="R28" t="n">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="S28" t="n">
-        <v>2.34</v>
+        <v>2.04</v>
       </c>
       <c r="T28" t="n">
-        <v>1.51</v>
+        <v>1.36</v>
       </c>
       <c r="U28" t="n">
-        <v>2.32</v>
+        <v>2.06</v>
       </c>
       <c r="V28" t="n">
         <v>1.55</v>
@@ -4231,58 +4231,58 @@
         <v>1.48</v>
       </c>
       <c r="X28" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z28" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC28" t="n">
         <v>970</v>
       </c>
       <c r="AD28" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE28" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH28" t="n">
         <v>970</v>
       </c>
       <c r="AI28" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
@@ -4312,10 +4312,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="G29" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="H29" t="n">
         <v>4.7</v>
@@ -4324,40 +4324,40 @@
         <v>5</v>
       </c>
       <c r="J29" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K29" t="n">
         <v>3.65</v>
       </c>
       <c r="L29" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="M29" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N29" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="O29" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="P29" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="R29" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S29" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="T29" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="U29" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="V29" t="n">
         <v>1.25</v>
@@ -4366,25 +4366,25 @@
         <v>2.02</v>
       </c>
       <c r="X29" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="Y29" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Z29" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA29" t="n">
         <v>130</v>
       </c>
       <c r="AB29" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AC29" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE29" t="n">
         <v>85</v>
@@ -4396,28 +4396,28 @@
         <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI29" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AJ29" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AK29" t="n">
         <v>25</v>
       </c>
       <c r="AL29" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AM29" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AN29" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AO29" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="G30" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="H30" t="n">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="I30" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="J30" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K30" t="n">
         <v>3.95</v>
-      </c>
-      <c r="K30" t="n">
-        <v>4.1</v>
       </c>
       <c r="L30" t="n">
         <v>1.43</v>
@@ -4471,40 +4471,40 @@
         <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O30" t="n">
         <v>1.34</v>
       </c>
       <c r="P30" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="R30" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S30" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T30" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="U30" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="V30" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="W30" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X30" t="n">
         <v>14.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="Z30" t="n">
         <v>10.5</v>
@@ -4513,10 +4513,10 @@
         <v>19</v>
       </c>
       <c r="AB30" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD30" t="n">
         <v>10</v>
@@ -4525,10 +4525,10 @@
         <v>19.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AG30" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AH30" t="n">
         <v>21</v>
@@ -4537,22 +4537,22 @@
         <v>38</v>
       </c>
       <c r="AJ30" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AK30" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AL30" t="n">
         <v>90</v>
       </c>
       <c r="AM30" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN30" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AO30" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="31">
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="G31" t="n">
         <v>1.28</v>
       </c>
       <c r="H31" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="I31" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="J31" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="K31" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="L31" t="n">
         <v>1.25</v>
@@ -4606,28 +4606,28 @@
         <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>6.2</v>
+        <v>1.1</v>
       </c>
       <c r="O31" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="P31" t="n">
-        <v>2.78</v>
+        <v>1.25</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.46</v>
+        <v>1.15</v>
       </c>
       <c r="R31" t="n">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="S31" t="n">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="T31" t="n">
-        <v>2.02</v>
+        <v>1.04</v>
       </c>
       <c r="U31" t="n">
-        <v>1.78</v>
+        <v>1.04</v>
       </c>
       <c r="V31" t="n">
         <v>1.06</v>
@@ -4636,58 +4636,58 @@
         <v>4.5</v>
       </c>
       <c r="X31" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Y31" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="Z31" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AA31" t="n">
         <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>11.5</v>
+        <v>16</v>
       </c>
       <c r="AC31" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AD31" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AE31" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>9.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH31" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AI31" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AK31" t="n">
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
       <c r="AL31" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AM31" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>3.75</v>
+        <v>4.8</v>
       </c>
       <c r="AO31" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
@@ -4717,16 +4717,16 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.82</v>
+        <v>2.66</v>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H32" t="n">
-        <v>2.76</v>
+        <v>2.96</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="J32" t="n">
         <v>3.2</v>
@@ -4741,88 +4741,88 @@
         <v>1.09</v>
       </c>
       <c r="N32" t="n">
-        <v>2.94</v>
+        <v>2.82</v>
       </c>
       <c r="O32" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P32" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="R32" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="S32" t="n">
         <v>4.7</v>
       </c>
       <c r="T32" t="n">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="U32" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="V32" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="W32" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="X32" t="n">
         <v>10</v>
       </c>
       <c r="Y32" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z32" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AB32" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC32" t="n">
         <v>7.2</v>
       </c>
       <c r="AD32" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG32" t="n">
         <v>13</v>
       </c>
-      <c r="AE32" t="n">
+      <c r="AH32" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK32" t="n">
         <v>38</v>
       </c>
-      <c r="AF32" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI32" t="n">
+      <c r="AL32" t="n">
         <v>60</v>
       </c>
-      <c r="AJ32" t="n">
+      <c r="AM32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO32" t="n">
         <v>48</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>44</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>44</v>
       </c>
     </row>
     <row r="33">
@@ -4852,28 +4852,28 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="G33" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="H33" t="n">
-        <v>2.72</v>
+        <v>2.96</v>
       </c>
       <c r="I33" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J33" t="n">
-        <v>3</v>
+        <v>2.34</v>
       </c>
       <c r="K33" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L33" t="n">
         <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N33" t="n">
         <v>2.48</v>
@@ -4882,28 +4882,28 @@
         <v>1.45</v>
       </c>
       <c r="P33" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="R33" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="S33" t="n">
         <v>4.1</v>
       </c>
       <c r="T33" t="n">
-        <v>1.04</v>
+        <v>1.94</v>
       </c>
       <c r="U33" t="n">
-        <v>1.04</v>
+        <v>1.84</v>
       </c>
       <c r="V33" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="W33" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="X33" t="n">
         <v>1000</v>
@@ -4987,16 +4987,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="G34" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H34" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I34" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="J34" t="n">
         <v>3.25</v>
@@ -5005,10 +5005,10 @@
         <v>3.45</v>
       </c>
       <c r="L34" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M34" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N34" t="n">
         <v>2.92</v>
@@ -5020,22 +5020,22 @@
         <v>1.65</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="R34" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S34" t="n">
         <v>4.4</v>
       </c>
       <c r="T34" t="n">
-        <v>1.94</v>
+        <v>1.04</v>
       </c>
       <c r="U34" t="n">
-        <v>1.9</v>
+        <v>1.04</v>
       </c>
       <c r="V34" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="W34" t="n">
         <v>1.4</v>
@@ -5044,55 +5044,55 @@
         <v>970</v>
       </c>
       <c r="Y34" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="Z34" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AA34" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AB34" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AC34" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD34" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AE34" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF34" t="n">
         <v>32</v>
       </c>
-      <c r="AF34" t="n">
-        <v>23</v>
-      </c>
       <c r="AG34" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AH34" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI34" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AJ34" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="AK34" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AL34" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM34" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO34" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35">
@@ -5125,10 +5125,10 @@
         <v>1.3</v>
       </c>
       <c r="G35" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="H35" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="I35" t="n">
         <v>14.5</v>
@@ -5140,55 +5140,55 @@
         <v>6.6</v>
       </c>
       <c r="L35" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="M35" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O35" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P35" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="R35" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="S35" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="T35" t="n">
-        <v>2.48</v>
+        <v>2.36</v>
       </c>
       <c r="U35" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="V35" t="n">
         <v>1.07</v>
       </c>
       <c r="W35" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="X35" t="n">
         <v>18</v>
       </c>
       <c r="Y35" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Z35" t="n">
         <v>150</v>
       </c>
       <c r="AA35" t="n">
-        <v>870</v>
+        <v>820</v>
       </c>
       <c r="AB35" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC35" t="n">
         <v>13.5</v>
@@ -5197,7 +5197,7 @@
         <v>55</v>
       </c>
       <c r="AE35" t="n">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="AF35" t="n">
         <v>7</v>
@@ -5212,22 +5212,22 @@
         <v>250</v>
       </c>
       <c r="AJ35" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AK35" t="n">
         <v>15.5</v>
       </c>
       <c r="AL35" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM35" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AN35" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="AO35" t="n">
-        <v>530</v>
+        <v>460</v>
       </c>
     </row>
     <row r="36">
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="G36" t="n">
         <v>2.64</v>
@@ -5266,16 +5266,16 @@
         <v>2.98</v>
       </c>
       <c r="I36" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J36" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K36" t="n">
         <v>3.5</v>
       </c>
       <c r="L36" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M36" t="n">
         <v>1.06</v>
@@ -5299,7 +5299,7 @@
         <v>3.15</v>
       </c>
       <c r="T36" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U36" t="n">
         <v>2.22</v>
@@ -5311,58 +5311,58 @@
         <v>1.62</v>
       </c>
       <c r="X36" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AA36" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI36" t="n">
         <v>50</v>
       </c>
-      <c r="AB36" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>48</v>
-      </c>
       <c r="AJ36" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AK36" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AL36" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AM36" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AN36" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AO36" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37">
@@ -5398,49 +5398,49 @@
         <v>2.28</v>
       </c>
       <c r="H37" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I37" t="n">
         <v>5</v>
       </c>
       <c r="J37" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="K37" t="n">
         <v>3.9</v>
       </c>
       <c r="L37" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M37" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N37" t="n">
-        <v>2.36</v>
+        <v>2.72</v>
       </c>
       <c r="O37" t="n">
-        <v>1.02</v>
+        <v>1.44</v>
       </c>
       <c r="P37" t="n">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R37" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S37" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="T37" t="n">
-        <v>1.04</v>
+        <v>1.96</v>
       </c>
       <c r="U37" t="n">
-        <v>1.04</v>
+        <v>1.83</v>
       </c>
       <c r="V37" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="W37" t="n">
         <v>1.78</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
@@ -670,22 +670,22 @@
         <v>6.2</v>
       </c>
       <c r="G2" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="H2" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="I2" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K2" t="n">
         <v>4.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -700,79 +700,79 @@
         <v>2.06</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="R2" t="n">
         <v>1.41</v>
       </c>
       <c r="S2" t="n">
-        <v>2.96</v>
+        <v>3.35</v>
       </c>
       <c r="T2" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U2" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V2" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="W2" t="n">
         <v>1.15</v>
       </c>
       <c r="X2" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="Y2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC2" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z2" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
+      <c r="AD2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG2" t="n">
         <v>32</v>
       </c>
-      <c r="AC2" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>36</v>
-      </c>
       <c r="AH2" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AI2" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AO2" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -802,61 +802,61 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="H3" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="I3" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="J3" t="n">
         <v>3.35</v>
       </c>
       <c r="K3" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L3" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="O3" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="P3" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="R3" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="S3" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T3" t="n">
-        <v>1.04</v>
+        <v>2.02</v>
       </c>
       <c r="U3" t="n">
-        <v>1.04</v>
+        <v>1.79</v>
       </c>
       <c r="V3" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="W3" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="X3" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y3" t="n">
         <v>8.199999999999999</v>
@@ -871,22 +871,22 @@
         <v>970</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD3" t="n">
         <v>12.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AF3" t="n">
         <v>55</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI3" t="n">
         <v>60</v>
@@ -901,10 +901,10 @@
         <v>130</v>
       </c>
       <c r="AM3" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AO3" t="n">
         <v>970</v>
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="G4" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="H4" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="I4" t="n">
         <v>12</v>
@@ -955,31 +955,31 @@
         <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
         <v>1.86</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R4" t="n">
         <v>1.32</v>
       </c>
       <c r="S4" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U4" t="n">
         <v>1.65</v>
@@ -1009,7 +1009,7 @@
         <v>13.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1072,82 +1072,82 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6.2</v>
+        <v>7.4</v>
       </c>
       <c r="G5" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="H5" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="I5" t="n">
         <v>1.49</v>
       </c>
-      <c r="I5" t="n">
-        <v>1.61</v>
-      </c>
       <c r="J5" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="R5" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="S5" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="T5" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="U5" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>2.62</v>
+        <v>3</v>
       </c>
       <c r="W5" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="X5" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>15</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA5" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="AF5" t="n">
         <v>1000</v>
@@ -1156,10 +1156,10 @@
         <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AI5" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
@@ -1177,7 +1177,7 @@
         <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="6">
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="G6" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="H6" t="n">
         <v>7.2</v>
@@ -1231,16 +1231,16 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P6" t="n">
         <v>2.34</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R6" t="n">
         <v>1.53</v>
@@ -1249,16 +1249,16 @@
         <v>2.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.04</v>
+        <v>1.81</v>
       </c>
       <c r="U6" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
         <v>1.11</v>
       </c>
       <c r="W6" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="X6" t="n">
         <v>29</v>
@@ -1348,7 +1348,7 @@
         <v>3.8</v>
       </c>
       <c r="H7" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="I7" t="n">
         <v>2.34</v>
@@ -1375,13 +1375,13 @@
         <v>2.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R7" t="n">
         <v>1.43</v>
       </c>
       <c r="S7" t="n">
-        <v>2.58</v>
+        <v>2.84</v>
       </c>
       <c r="T7" t="n">
         <v>1.64</v>
@@ -1396,58 +1396,58 @@
         <v>1.35</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y7" t="n">
         <v>14</v>
       </c>
       <c r="Z7" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB7" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AF7" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AG7" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AH7" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AI7" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AJ7" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AK7" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN7" t="n">
         <v>40</v>
       </c>
-      <c r="AL7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO7" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -1507,16 +1507,16 @@
         <v>1.23</v>
       </c>
       <c r="P8" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.59</v>
+        <v>1.68</v>
       </c>
       <c r="R8" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="S8" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="T8" t="n">
         <v>1.62</v>
@@ -1531,58 +1531,58 @@
         <v>1.78</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y8" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Z8" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AB8" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AE8" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI8" t="n">
         <v>55</v>
       </c>
-      <c r="AF8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>65</v>
-      </c>
       <c r="AJ8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL8" t="n">
         <v>38</v>
       </c>
-      <c r="AK8" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>46</v>
-      </c>
       <c r="AM8" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
@@ -1612,58 +1612,58 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.04</v>
+        <v>3.65</v>
       </c>
       <c r="G9" t="n">
-        <v>610</v>
+        <v>4.6</v>
       </c>
       <c r="H9" t="n">
-        <v>1.04</v>
+        <v>2.08</v>
       </c>
       <c r="I9" t="n">
-        <v>870</v>
+        <v>2.38</v>
       </c>
       <c r="J9" t="n">
-        <v>1.03</v>
+        <v>2.88</v>
       </c>
       <c r="K9" t="n">
-        <v>950</v>
+        <v>3.65</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="W9" t="n">
         <v>1.29</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.01</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1888,10 +1888,10 @@
         <v>19.5</v>
       </c>
       <c r="H11" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="I11" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="J11" t="n">
         <v>5.1</v>
@@ -1912,25 +1912,25 @@
         <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="Q11" t="n">
         <v>1.94</v>
       </c>
       <c r="R11" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="S11" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="T11" t="n">
         <v>2.52</v>
       </c>
       <c r="U11" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="V11" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="W11" t="n">
         <v>1.06</v>
@@ -2020,16 +2020,16 @@
         <v>1.35</v>
       </c>
       <c r="G12" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="H12" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="I12" t="n">
         <v>9.6</v>
       </c>
       <c r="J12" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K12" t="n">
         <v>6.6</v>
@@ -2050,16 +2050,16 @@
         <v>2.68</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="R12" t="n">
         <v>1.68</v>
       </c>
       <c r="S12" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="T12" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U12" t="n">
         <v>2.02</v>
@@ -2071,55 +2071,55 @@
         <v>3.25</v>
       </c>
       <c r="X12" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="Y12" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AD12" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK12" t="n">
         <v>15</v>
       </c>
-      <c r="AG12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>20</v>
-      </c>
       <c r="AL12" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="G13" t="n">
         <v>4.6</v>
       </c>
       <c r="H13" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="I13" t="n">
         <v>1.84</v>
@@ -2167,7 +2167,7 @@
         <v>4.2</v>
       </c>
       <c r="K13" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2185,7 +2185,7 @@
         <v>2.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>9</v>
       </c>
       <c r="AD13" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
         <v>18</v>
@@ -2233,7 +2233,7 @@
         <v>36</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH13" t="n">
         <v>18.5</v>
@@ -2290,7 +2290,7 @@
         <v>1.25</v>
       </c>
       <c r="G14" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="H14" t="n">
         <v>11</v>
@@ -2302,16 +2302,16 @@
         <v>6.2</v>
       </c>
       <c r="K14" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="M14" t="n">
         <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O14" t="n">
         <v>1.15</v>
@@ -2323,76 +2323,76 @@
         <v>1.44</v>
       </c>
       <c r="R14" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T14" t="n">
-        <v>1.04</v>
+        <v>1.86</v>
       </c>
       <c r="U14" t="n">
-        <v>1.64</v>
+        <v>1.9</v>
       </c>
       <c r="V14" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W14" t="n">
         <v>4</v>
       </c>
       <c r="X14" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Y14" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC14" t="n">
         <v>17.5</v>
       </c>
-      <c r="AC14" t="n">
-        <v>23</v>
-      </c>
       <c r="AD14" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AF14" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ14" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AL14" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN14" t="n">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15">
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G15" t="n">
         <v>3.4</v>
       </c>
-      <c r="G15" t="n">
-        <v>3.45</v>
-      </c>
       <c r="H15" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I15" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J15" t="n">
         <v>3.5</v>
@@ -2452,10 +2452,10 @@
         <v>1.39</v>
       </c>
       <c r="P15" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R15" t="n">
         <v>1.3</v>
@@ -2470,7 +2470,7 @@
         <v>2.02</v>
       </c>
       <c r="V15" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="W15" t="n">
         <v>1.41</v>
@@ -2479,7 +2479,7 @@
         <v>12</v>
       </c>
       <c r="Y15" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z15" t="n">
         <v>14</v>
@@ -2518,7 +2518,7 @@
         <v>44</v>
       </c>
       <c r="AL15" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM15" t="n">
         <v>120</v>
@@ -2587,10 +2587,10 @@
         <v>1.31</v>
       </c>
       <c r="P16" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R16" t="n">
         <v>1.4</v>
@@ -2599,7 +2599,7 @@
         <v>3.3</v>
       </c>
       <c r="T16" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U16" t="n">
         <v>2.26</v>
@@ -2692,10 +2692,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="G17" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="H17" t="n">
         <v>10</v>
@@ -2704,10 +2704,10 @@
         <v>10.5</v>
       </c>
       <c r="J17" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K17" t="n">
         <v>5.5</v>
-      </c>
-      <c r="K17" t="n">
-        <v>5.6</v>
       </c>
       <c r="L17" t="n">
         <v>1.35</v>
@@ -2722,7 +2722,7 @@
         <v>1.27</v>
       </c>
       <c r="P17" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="Q17" t="n">
         <v>1.8</v>
@@ -2731,7 +2731,7 @@
         <v>1.46</v>
       </c>
       <c r="S17" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T17" t="n">
         <v>2.16</v>
@@ -2743,10 +2743,10 @@
         <v>1.1</v>
       </c>
       <c r="W17" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="X17" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y17" t="n">
         <v>32</v>
@@ -2758,7 +2758,7 @@
         <v>400</v>
       </c>
       <c r="AB17" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AC17" t="n">
         <v>12</v>
@@ -2776,7 +2776,7 @@
         <v>10</v>
       </c>
       <c r="AH17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI17" t="n">
         <v>150</v>
@@ -2791,7 +2791,7 @@
         <v>38</v>
       </c>
       <c r="AM17" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AN17" t="n">
         <v>6.2</v>
@@ -2833,16 +2833,16 @@
         <v>1.74</v>
       </c>
       <c r="H18" t="n">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="I18" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="J18" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L18" t="n">
         <v>1.3</v>
@@ -2851,28 +2851,28 @@
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="P18" t="n">
-        <v>1.78</v>
+        <v>2.04</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="R18" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="S18" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="T18" t="n">
-        <v>1.04</v>
+        <v>1.79</v>
       </c>
       <c r="U18" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
         <v>1.18</v>
@@ -2881,46 +2881,46 @@
         <v>2.34</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y18" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF18" t="n">
         <v>13</v>
       </c>
-      <c r="AC18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>15</v>
-      </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ18" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AK18" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AL18" t="n">
         <v>1000</v>
@@ -2929,7 +2929,7 @@
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>14.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2974,10 +2974,10 @@
         <v>1.86</v>
       </c>
       <c r="J19" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K19" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L19" t="n">
         <v>1.35</v>
@@ -2992,10 +2992,10 @@
         <v>1.36</v>
       </c>
       <c r="P19" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R19" t="n">
         <v>1.33</v>
@@ -3007,7 +3007,7 @@
         <v>1.96</v>
       </c>
       <c r="U19" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="V19" t="n">
         <v>2.16</v>
@@ -3019,13 +3019,13 @@
         <v>13</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Z19" t="n">
         <v>10.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AB19" t="n">
         <v>15.5</v>
@@ -3067,7 +3067,7 @@
         <v>80</v>
       </c>
       <c r="AO19" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -3100,13 +3100,13 @@
         <v>2.76</v>
       </c>
       <c r="G20" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H20" t="n">
         <v>2.68</v>
       </c>
       <c r="I20" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="J20" t="n">
         <v>3.4</v>
@@ -3118,7 +3118,7 @@
         <v>1.39</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N20" t="n">
         <v>3.85</v>
@@ -3133,10 +3133,10 @@
         <v>1.87</v>
       </c>
       <c r="R20" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="S20" t="n">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="T20" t="n">
         <v>1.71</v>
@@ -3145,64 +3145,64 @@
         <v>2.2</v>
       </c>
       <c r="V20" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="W20" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X20" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AA20" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AB20" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD20" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AF20" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AG20" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AI20" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>55</v>
       </c>
-      <c r="AJ20" t="n">
-        <v>65</v>
-      </c>
       <c r="AK20" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AL20" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
@@ -3235,10 +3235,10 @@
         <v>4.8</v>
       </c>
       <c r="G21" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="H21" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="I21" t="n">
         <v>1.81</v>
@@ -3268,7 +3268,7 @@
         <v>1.82</v>
       </c>
       <c r="R21" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S21" t="n">
         <v>3.05</v>
@@ -3277,13 +3277,13 @@
         <v>1.8</v>
       </c>
       <c r="U21" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="V21" t="n">
         <v>2.24</v>
       </c>
       <c r="W21" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="X21" t="n">
         <v>17.5</v>
@@ -3295,7 +3295,7 @@
         <v>11.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AB21" t="n">
         <v>22</v>
@@ -3313,7 +3313,7 @@
         <v>40</v>
       </c>
       <c r="AG21" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AH21" t="n">
         <v>19.5</v>
@@ -3322,7 +3322,7 @@
         <v>34</v>
       </c>
       <c r="AJ21" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK21" t="n">
         <v>65</v>
@@ -3331,10 +3331,10 @@
         <v>70</v>
       </c>
       <c r="AM21" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN21" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AO21" t="n">
         <v>11</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="G22" t="n">
         <v>1.44</v>
@@ -3376,13 +3376,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="I22" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="J22" t="n">
         <v>4.8</v>
       </c>
       <c r="K22" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L22" t="n">
         <v>1.35</v>
@@ -3400,22 +3400,22 @@
         <v>2.04</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="R22" t="n">
         <v>1.39</v>
       </c>
       <c r="S22" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="T22" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U22" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="V22" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W22" t="n">
         <v>3.25</v>
@@ -3424,7 +3424,7 @@
         <v>18.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
         <v>1000</v>
@@ -3433,13 +3433,13 @@
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AD22" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
         <v>1000</v>
@@ -3451,13 +3451,13 @@
         <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI22" t="n">
         <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK22" t="n">
         <v>19.5</v>
@@ -3469,7 +3469,7 @@
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3508,55 +3508,55 @@
         <v>1.11</v>
       </c>
       <c r="H23" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I23" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J23" t="n">
         <v>14</v>
       </c>
       <c r="K23" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="M23" t="n">
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="O23" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P23" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="R23" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S23" t="n">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="T23" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="U23" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="V23" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="W23" t="n">
         <v>10</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="Y23" t="n">
         <v>1000</v>
@@ -3580,10 +3580,10 @@
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AG23" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AH23" t="n">
         <v>1000</v>
@@ -3592,19 +3592,19 @@
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AK23" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM23" t="n">
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>2.6</v>
+        <v>2.76</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="G24" t="n">
         <v>2.38</v>
@@ -3646,7 +3646,7 @@
         <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J24" t="n">
         <v>3.35</v>
@@ -3661,88 +3661,88 @@
         <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="O24" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P24" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R24" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="S24" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="T24" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U24" t="n">
-        <v>1.92</v>
+        <v>2.12</v>
       </c>
       <c r="V24" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W24" t="n">
         <v>1.72</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA24" t="n">
         <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC24" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AD24" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF24" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH24" t="n">
         <v>21</v>
       </c>
-      <c r="AG24" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>25</v>
-      </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ24" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AK24" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM24" t="n">
         <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25">
@@ -3778,10 +3778,10 @@
         <v>1.4</v>
       </c>
       <c r="H25" t="n">
+        <v>9</v>
+      </c>
+      <c r="I25" t="n">
         <v>9.199999999999999</v>
-      </c>
-      <c r="I25" t="n">
-        <v>9.4</v>
       </c>
       <c r="J25" t="n">
         <v>5.7</v>
@@ -3802,7 +3802,7 @@
         <v>1.2</v>
       </c>
       <c r="P25" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="Q25" t="n">
         <v>1.61</v>
@@ -3814,13 +3814,13 @@
         <v>2.54</v>
       </c>
       <c r="T25" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U25" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V25" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W25" t="n">
         <v>3.5</v>
@@ -3835,7 +3835,7 @@
         <v>85</v>
       </c>
       <c r="AA25" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AB25" t="n">
         <v>10.5</v>
@@ -3847,7 +3847,7 @@
         <v>32</v>
       </c>
       <c r="AE25" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF25" t="n">
         <v>8.800000000000001</v>
@@ -3856,7 +3856,7 @@
         <v>10</v>
       </c>
       <c r="AH25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI25" t="n">
         <v>110</v>
@@ -3874,7 +3874,7 @@
         <v>120</v>
       </c>
       <c r="AN25" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AO25" t="n">
         <v>130</v>
@@ -3913,7 +3913,7 @@
         <v>4.6</v>
       </c>
       <c r="H26" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="I26" t="n">
         <v>1.88</v>
@@ -3946,25 +3946,25 @@
         <v>1.42</v>
       </c>
       <c r="S26" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="T26" t="n">
         <v>1.83</v>
       </c>
       <c r="U26" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V26" t="n">
         <v>2.12</v>
       </c>
       <c r="W26" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="X26" t="n">
         <v>16.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z26" t="n">
         <v>11.5</v>
@@ -4042,28 +4042,28 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="G27" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="H27" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I27" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="J27" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K27" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L27" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M27" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N27" t="n">
         <v>3.4</v>
@@ -4075,67 +4075,67 @@
         <v>1.87</v>
       </c>
       <c r="Q27" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R27" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="S27" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T27" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U27" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V27" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="W27" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="X27" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y27" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA27" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AB27" t="n">
         <v>9</v>
       </c>
       <c r="AC27" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF27" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG27" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI27" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ27" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AK27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL27" t="n">
         <v>42</v>
@@ -4144,10 +4144,10 @@
         <v>140</v>
       </c>
       <c r="AN27" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AO27" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
@@ -4177,52 +4177,52 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="G28" t="n">
         <v>3.1</v>
       </c>
       <c r="H28" t="n">
-        <v>1.05</v>
+        <v>2.56</v>
       </c>
       <c r="I28" t="n">
         <v>2.8</v>
       </c>
       <c r="J28" t="n">
-        <v>2.84</v>
+        <v>1.2</v>
       </c>
       <c r="K28" t="n">
-        <v>950</v>
+        <v>5.1</v>
       </c>
       <c r="L28" t="n">
         <v>1.3</v>
       </c>
       <c r="M28" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N28" t="n">
-        <v>2.42</v>
+        <v>4.3</v>
       </c>
       <c r="O28" t="n">
         <v>1.21</v>
       </c>
       <c r="P28" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="R28" t="n">
-        <v>1.45</v>
+        <v>1.59</v>
       </c>
       <c r="S28" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="T28" t="n">
-        <v>1.36</v>
+        <v>1.51</v>
       </c>
       <c r="U28" t="n">
-        <v>2.06</v>
+        <v>2.32</v>
       </c>
       <c r="V28" t="n">
         <v>1.55</v>
@@ -4231,58 +4231,58 @@
         <v>1.48</v>
       </c>
       <c r="X28" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB28" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC28" t="n">
         <v>970</v>
       </c>
       <c r="AD28" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG28" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH28" t="n">
         <v>970</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="29">
@@ -4312,19 +4312,19 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="G29" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="H29" t="n">
         <v>4.7</v>
       </c>
       <c r="I29" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J29" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K29" t="n">
         <v>3.65</v>
@@ -4333,43 +4333,43 @@
         <v>1.52</v>
       </c>
       <c r="M29" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N29" t="n">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="O29" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="P29" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="R29" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S29" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="T29" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="U29" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="V29" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W29" t="n">
         <v>2.02</v>
       </c>
       <c r="X29" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z29" t="n">
         <v>34</v>
@@ -4378,43 +4378,43 @@
         <v>130</v>
       </c>
       <c r="AB29" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AF29" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AG29" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI29" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AJ29" t="n">
         <v>22</v>
       </c>
       <c r="AK29" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL29" t="n">
         <v>55</v>
       </c>
       <c r="AM29" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AN29" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AO29" t="n">
         <v>120</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="G30" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="H30" t="n">
-        <v>1.82</v>
+        <v>1.76</v>
       </c>
       <c r="I30" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="J30" t="n">
         <v>3.9</v>
       </c>
       <c r="K30" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L30" t="n">
         <v>1.43</v>
@@ -4471,34 +4471,34 @@
         <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O30" t="n">
         <v>1.34</v>
       </c>
       <c r="P30" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="R30" t="n">
         <v>1.34</v>
       </c>
       <c r="S30" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="T30" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="U30" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V30" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="W30" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="X30" t="n">
         <v>14.5</v>
@@ -4513,25 +4513,25 @@
         <v>19</v>
       </c>
       <c r="AB30" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AC30" t="n">
         <v>8.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE30" t="n">
         <v>19.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AG30" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AH30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI30" t="n">
         <v>38</v>
@@ -4540,19 +4540,19 @@
         <v>140</v>
       </c>
       <c r="AK30" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AL30" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN30" t="n">
         <v>90</v>
       </c>
-      <c r="AM30" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>80</v>
-      </c>
       <c r="AO30" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
@@ -4582,19 +4582,19 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="G31" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="H31" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="I31" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="J31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K31" t="n">
         <v>8</v>
@@ -4606,88 +4606,88 @@
         <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>1.1</v>
+        <v>6.2</v>
       </c>
       <c r="O31" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P31" t="n">
-        <v>1.25</v>
+        <v>2.78</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.15</v>
+        <v>1.47</v>
       </c>
       <c r="R31" t="n">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="S31" t="n">
-        <v>1.85</v>
+        <v>2.14</v>
       </c>
       <c r="T31" t="n">
-        <v>1.04</v>
+        <v>2.06</v>
       </c>
       <c r="U31" t="n">
-        <v>1.04</v>
+        <v>1.8</v>
       </c>
       <c r="V31" t="n">
         <v>1.06</v>
       </c>
       <c r="W31" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="Y31" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AA31" t="n">
         <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AC31" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AD31" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AF31" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AG31" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AJ31" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="AL31" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN31" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
     </row>
     <row r="32">
@@ -4717,16 +4717,16 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.66</v>
+        <v>2.76</v>
       </c>
       <c r="G32" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H32" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="I32" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="J32" t="n">
         <v>3.2</v>
@@ -4738,55 +4738,55 @@
         <v>1.53</v>
       </c>
       <c r="M32" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N32" t="n">
-        <v>2.82</v>
+        <v>2.96</v>
       </c>
       <c r="O32" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P32" t="n">
         <v>1.63</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R32" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="S32" t="n">
         <v>4.7</v>
       </c>
       <c r="T32" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U32" t="n">
         <v>1.88</v>
       </c>
       <c r="V32" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W32" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="X32" t="n">
         <v>10</v>
       </c>
       <c r="Y32" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z32" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA32" t="n">
         <v>55</v>
       </c>
       <c r="AB32" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC32" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD32" t="n">
         <v>13.5</v>
@@ -4795,7 +4795,7 @@
         <v>42</v>
       </c>
       <c r="AF32" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG32" t="n">
         <v>13</v>
@@ -4807,7 +4807,7 @@
         <v>65</v>
       </c>
       <c r="AJ32" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AK32" t="n">
         <v>38</v>
@@ -4819,7 +4819,7 @@
         <v>150</v>
       </c>
       <c r="AN32" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AO32" t="n">
         <v>48</v>
@@ -4852,55 +4852,55 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.26</v>
+        <v>2.48</v>
       </c>
       <c r="G33" t="n">
-        <v>3.2</v>
+        <v>2.82</v>
       </c>
       <c r="H33" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="J33" t="n">
-        <v>2.34</v>
+        <v>2.78</v>
       </c>
       <c r="K33" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M33" t="n">
         <v>1.09</v>
       </c>
       <c r="N33" t="n">
-        <v>2.48</v>
+        <v>2.66</v>
       </c>
       <c r="O33" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P33" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.16</v>
+        <v>2.38</v>
       </c>
       <c r="R33" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S33" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="T33" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="U33" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="V33" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W33" t="n">
         <v>1.54</v>
@@ -4987,19 +4987,19 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="G34" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H34" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="I34" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="J34" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K34" t="n">
         <v>3.45</v>
@@ -5011,16 +5011,16 @@
         <v>1.08</v>
       </c>
       <c r="N34" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="O34" t="n">
         <v>1.44</v>
       </c>
       <c r="P34" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="R34" t="n">
         <v>1.24</v>
@@ -5029,10 +5029,10 @@
         <v>4.4</v>
       </c>
       <c r="T34" t="n">
-        <v>1.04</v>
+        <v>1.94</v>
       </c>
       <c r="U34" t="n">
-        <v>1.04</v>
+        <v>1.92</v>
       </c>
       <c r="V34" t="n">
         <v>1.62</v>
@@ -5041,58 +5041,58 @@
         <v>1.4</v>
       </c>
       <c r="X34" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="Y34" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AA34" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI34" t="n">
         <v>55</v>
       </c>
-      <c r="AB34" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>75</v>
-      </c>
       <c r="AJ34" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AK34" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL34" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM34" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN34" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AO34" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35">
@@ -5122,49 +5122,49 @@
         </is>
       </c>
       <c r="F35" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G35" t="n">
         <v>1.3</v>
       </c>
-      <c r="G35" t="n">
-        <v>1.31</v>
-      </c>
       <c r="H35" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="I35" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="J35" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="K35" t="n">
         <v>6.6</v>
       </c>
       <c r="L35" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M35" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N35" t="n">
         <v>4.5</v>
       </c>
       <c r="O35" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P35" t="n">
         <v>2.22</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="R35" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S35" t="n">
-        <v>2.7</v>
+        <v>2.86</v>
       </c>
       <c r="T35" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="U35" t="n">
         <v>1.62</v>
@@ -5173,19 +5173,19 @@
         <v>1.07</v>
       </c>
       <c r="W35" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="X35" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Y35" t="n">
         <v>40</v>
       </c>
       <c r="Z35" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AA35" t="n">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="AB35" t="n">
         <v>8.199999999999999</v>
@@ -5197,10 +5197,10 @@
         <v>55</v>
       </c>
       <c r="AE35" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AF35" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AG35" t="n">
         <v>12</v>
@@ -5209,10 +5209,10 @@
         <v>42</v>
       </c>
       <c r="AI35" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK35" t="n">
         <v>15.5</v>
@@ -5221,13 +5221,13 @@
         <v>50</v>
       </c>
       <c r="AM35" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AN35" t="n">
         <v>5.1</v>
       </c>
       <c r="AO35" t="n">
-        <v>460</v>
+        <v>450</v>
       </c>
     </row>
     <row r="36">
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="G36" t="n">
         <v>2.64</v>
@@ -5266,43 +5266,43 @@
         <v>2.98</v>
       </c>
       <c r="I36" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="J36" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K36" t="n">
         <v>3.5</v>
       </c>
       <c r="L36" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="M36" t="n">
         <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>3.95</v>
+        <v>3.2</v>
       </c>
       <c r="O36" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P36" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="Q36" t="n">
         <v>1.98</v>
       </c>
       <c r="R36" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S36" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="T36" t="n">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="U36" t="n">
-        <v>2.22</v>
+        <v>1.98</v>
       </c>
       <c r="V36" t="n">
         <v>1.46</v>
@@ -5311,58 +5311,58 @@
         <v>1.62</v>
       </c>
       <c r="X36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD36" t="n">
         <v>19.5</v>
       </c>
-      <c r="Y36" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AE36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK36" t="n">
         <v>40</v>
       </c>
-      <c r="AF36" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>34</v>
-      </c>
       <c r="AL36" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM36" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AO36" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37">
@@ -5392,40 +5392,40 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="G37" t="n">
         <v>2.28</v>
       </c>
       <c r="H37" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="I37" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="J37" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="K37" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="L37" t="n">
         <v>1.49</v>
       </c>
       <c r="M37" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N37" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="O37" t="n">
         <v>1.44</v>
       </c>
       <c r="P37" t="n">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R37" t="n">
         <v>1.22</v>
@@ -5434,7 +5434,7 @@
         <v>4</v>
       </c>
       <c r="T37" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U37" t="n">
         <v>1.83</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
@@ -685,7 +685,7 @@
         <v>4.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -736,7 +736,7 @@
         <v>28</v>
       </c>
       <c r="AC2" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD2" t="n">
         <v>12</v>
@@ -745,7 +745,7 @@
         <v>20</v>
       </c>
       <c r="AF2" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AG2" t="n">
         <v>32</v>
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="G3" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="H3" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="I3" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="J3" t="n">
         <v>3.35</v>
       </c>
       <c r="K3" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
@@ -832,7 +832,7 @@
         <v>1.37</v>
       </c>
       <c r="P3" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="Q3" t="n">
         <v>2.1</v>
@@ -844,16 +844,16 @@
         <v>3.85</v>
       </c>
       <c r="T3" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U3" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="V3" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="W3" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="X3" t="n">
         <v>13</v>
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AH3" t="n">
         <v>29</v>
@@ -898,13 +898,13 @@
         <v>120</v>
       </c>
       <c r="AL3" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AO3" t="n">
         <v>970</v>
@@ -961,10 +961,10 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="P4" t="n">
         <v>1.86</v>
@@ -979,10 +979,10 @@
         <v>3.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U4" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="V4" t="n">
         <v>1.09</v>
@@ -1075,22 +1075,22 @@
         <v>7.4</v>
       </c>
       <c r="G5" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="H5" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="I5" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="J5" t="n">
         <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
@@ -1102,82 +1102,82 @@
         <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q5" t="n">
         <v>1.59</v>
       </c>
       <c r="R5" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S5" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="T5" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="V5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W5" t="n">
         <v>1.13</v>
       </c>
       <c r="X5" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AA5" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AB5" t="n">
         <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AH5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AO5" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="6">
@@ -1252,7 +1252,7 @@
         <v>1.81</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V6" t="n">
         <v>1.11</v>
@@ -1378,7 +1378,7 @@
         <v>1.74</v>
       </c>
       <c r="R7" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S7" t="n">
         <v>2.84</v>
@@ -1387,10 +1387,10 @@
         <v>1.64</v>
       </c>
       <c r="U7" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V7" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="W7" t="n">
         <v>1.35</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="G8" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="J8" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K8" t="n">
         <v>4.3</v>
@@ -1501,46 +1501,46 @@
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.23</v>
       </c>
       <c r="P8" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R8" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S8" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="T8" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U8" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V8" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W8" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="X8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z8" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA8" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AB8" t="n">
         <v>14.5</v>
@@ -1549,13 +1549,13 @@
         <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AE8" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AF8" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG8" t="n">
         <v>13.5</v>
@@ -1570,7 +1570,7 @@
         <v>32</v>
       </c>
       <c r="AK8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL8" t="n">
         <v>38</v>
@@ -1579,7 +1579,7 @@
         <v>85</v>
       </c>
       <c r="AN8" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO8" t="n">
         <v>38</v>
@@ -1612,58 +1612,58 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="G9" t="n">
         <v>4.6</v>
       </c>
       <c r="H9" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I9" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="J9" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="K9" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="L9" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="O9" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P9" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S9" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="T9" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U9" t="n">
         <v>1.89</v>
       </c>
       <c r="V9" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="W9" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1672,7 +1672,7 @@
         <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1750,16 +1750,16 @@
         <v>6</v>
       </c>
       <c r="G10" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="H10" t="n">
         <v>1.5</v>
       </c>
       <c r="I10" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="J10" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K10" t="n">
         <v>5.3</v>
@@ -1771,34 +1771,34 @@
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R10" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="S10" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="T10" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="U10" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V10" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="W10" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="X10" t="n">
         <v>29</v>
@@ -1810,7 +1810,7 @@
         <v>13.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AB10" t="n">
         <v>34</v>
@@ -1822,10 +1822,10 @@
         <v>12</v>
       </c>
       <c r="AE10" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF10" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG10" t="n">
         <v>29</v>
@@ -1852,7 +1852,7 @@
         <v>95</v>
       </c>
       <c r="AO10" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="11">
@@ -1885,7 +1885,7 @@
         <v>13.5</v>
       </c>
       <c r="G11" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="H11" t="n">
         <v>1.29</v>
@@ -1900,7 +1900,7 @@
         <v>6.2</v>
       </c>
       <c r="L11" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
@@ -1915,7 +1915,7 @@
         <v>1.87</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="R11" t="n">
         <v>1.32</v>
@@ -1936,7 +1936,7 @@
         <v>1.06</v>
       </c>
       <c r="X11" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="Y11" t="n">
         <v>6.8</v>
@@ -1948,7 +1948,7 @@
         <v>10.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
         <v>14</v>
@@ -2158,10 +2158,10 @@
         <v>4.6</v>
       </c>
       <c r="H13" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="I13" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="J13" t="n">
         <v>4.2</v>
@@ -2194,10 +2194,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U13" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>10</v>
       </c>
       <c r="Z13" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AA13" t="n">
         <v>20</v>
@@ -2296,13 +2296,13 @@
         <v>11</v>
       </c>
       <c r="I14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="J14" t="n">
         <v>6.2</v>
       </c>
       <c r="K14" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="L14" t="n">
         <v>1.21</v>
@@ -2311,22 +2311,22 @@
         <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O14" t="n">
         <v>1.15</v>
       </c>
       <c r="P14" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="Q14" t="n">
         <v>1.44</v>
       </c>
       <c r="R14" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="S14" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="T14" t="n">
         <v>1.86</v>
@@ -2335,7 +2335,7 @@
         <v>1.9</v>
       </c>
       <c r="V14" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W14" t="n">
         <v>4</v>
@@ -2458,7 +2458,7 @@
         <v>2.18</v>
       </c>
       <c r="R15" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S15" t="n">
         <v>4</v>
@@ -2488,7 +2488,7 @@
         <v>32</v>
       </c>
       <c r="AB15" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC15" t="n">
         <v>7.4</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="G16" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="H16" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="I16" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J16" t="n">
         <v>3.65</v>
@@ -2575,7 +2575,7 @@
         <v>3.7</v>
       </c>
       <c r="L16" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="M16" t="n">
         <v>1.07</v>
@@ -2584,7 +2584,7 @@
         <v>4</v>
       </c>
       <c r="O16" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P16" t="n">
         <v>2.04</v>
@@ -2593,34 +2593,34 @@
         <v>1.93</v>
       </c>
       <c r="R16" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S16" t="n">
         <v>3.3</v>
       </c>
       <c r="T16" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="U16" t="n">
         <v>2.26</v>
       </c>
       <c r="V16" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="W16" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="X16" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y16" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA16" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB16" t="n">
         <v>10.5</v>
@@ -2629,16 +2629,16 @@
         <v>8</v>
       </c>
       <c r="AD16" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AF16" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH16" t="n">
         <v>16.5</v>
@@ -2647,7 +2647,7 @@
         <v>48</v>
       </c>
       <c r="AJ16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK16" t="n">
         <v>22</v>
@@ -2659,7 +2659,7 @@
         <v>80</v>
       </c>
       <c r="AN16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO16" t="n">
         <v>38</v>
@@ -2710,34 +2710,34 @@
         <v>5.5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O17" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P17" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="R17" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S17" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T17" t="n">
         <v>2.16</v>
       </c>
       <c r="U17" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="V17" t="n">
         <v>1.1</v>
@@ -2749,7 +2749,7 @@
         <v>19</v>
       </c>
       <c r="Y17" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z17" t="n">
         <v>95</v>
@@ -2758,7 +2758,7 @@
         <v>400</v>
       </c>
       <c r="AB17" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC17" t="n">
         <v>12</v>
@@ -2767,7 +2767,7 @@
         <v>38</v>
       </c>
       <c r="AE17" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AF17" t="n">
         <v>7.8</v>
@@ -2776,25 +2776,25 @@
         <v>10</v>
       </c>
       <c r="AH17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI17" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AJ17" t="n">
         <v>11</v>
       </c>
       <c r="AK17" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AL17" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM17" t="n">
         <v>180</v>
       </c>
       <c r="AN17" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AO17" t="n">
         <v>250</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="G18" t="n">
         <v>1.74</v>
@@ -2863,7 +2863,7 @@
         <v>1.81</v>
       </c>
       <c r="R18" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S18" t="n">
         <v>3.05</v>
@@ -2875,7 +2875,7 @@
         <v>2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W18" t="n">
         <v>2.34</v>
@@ -2884,7 +2884,7 @@
         <v>20</v>
       </c>
       <c r="Y18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z18" t="n">
         <v>60</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="G19" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="H19" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="I19" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="J19" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L19" t="n">
         <v>1.35</v>
@@ -2986,13 +2986,13 @@
         <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O19" t="n">
         <v>1.36</v>
       </c>
       <c r="P19" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q19" t="n">
         <v>2.06</v>
@@ -3004,58 +3004,58 @@
         <v>3.8</v>
       </c>
       <c r="T19" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="U19" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="V19" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="W19" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="X19" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y19" t="n">
         <v>8</v>
       </c>
       <c r="Z19" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AA19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB19" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD19" t="n">
         <v>10</v>
       </c>
       <c r="AE19" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AG19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI19" t="n">
         <v>38</v>
       </c>
       <c r="AJ19" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AK19" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AL19" t="n">
         <v>80</v>
@@ -3064,10 +3064,10 @@
         <v>130</v>
       </c>
       <c r="AN19" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AO19" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="20">
@@ -3106,13 +3106,13 @@
         <v>2.68</v>
       </c>
       <c r="I20" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="J20" t="n">
         <v>3.4</v>
       </c>
       <c r="K20" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L20" t="n">
         <v>1.39</v>
@@ -3142,7 +3142,7 @@
         <v>1.71</v>
       </c>
       <c r="U20" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="V20" t="n">
         <v>1.54</v>
@@ -3238,16 +3238,16 @@
         <v>5</v>
       </c>
       <c r="H21" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="I21" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="J21" t="n">
         <v>4.1</v>
       </c>
       <c r="K21" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L21" t="n">
         <v>1.36</v>
@@ -3280,13 +3280,13 @@
         <v>2.12</v>
       </c>
       <c r="V21" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="W21" t="n">
         <v>1.25</v>
       </c>
       <c r="X21" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y21" t="n">
         <v>9.800000000000001</v>
@@ -3310,7 +3310,7 @@
         <v>18</v>
       </c>
       <c r="AF21" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AG21" t="n">
         <v>980</v>
@@ -3328,7 +3328,7 @@
         <v>65</v>
       </c>
       <c r="AL21" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM21" t="n">
         <v>100</v>
@@ -3373,13 +3373,13 @@
         <v>1.44</v>
       </c>
       <c r="H22" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="I22" t="n">
         <v>10</v>
       </c>
       <c r="J22" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K22" t="n">
         <v>5.2</v>
@@ -3409,10 +3409,10 @@
         <v>3.1</v>
       </c>
       <c r="T22" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U22" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="V22" t="n">
         <v>1.11</v>
@@ -3421,10 +3421,10 @@
         <v>3.25</v>
       </c>
       <c r="X22" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z22" t="n">
         <v>1000</v>
@@ -3439,7 +3439,7 @@
         <v>12</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AE22" t="n">
         <v>1000</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="G23" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="H23" t="n">
         <v>32</v>
       </c>
       <c r="I23" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J23" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="K23" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="L23" t="n">
         <v>1.17</v>
@@ -3535,25 +3535,25 @@
         <v>3.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="R23" t="n">
         <v>1.95</v>
       </c>
       <c r="S23" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="T23" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="U23" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="V23" t="n">
         <v>1.03</v>
       </c>
       <c r="W23" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X23" t="n">
         <v>65</v>
@@ -3595,7 +3595,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AK23" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL23" t="n">
         <v>60</v>
@@ -3649,13 +3649,13 @@
         <v>3.65</v>
       </c>
       <c r="J24" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K24" t="n">
         <v>3.6</v>
       </c>
       <c r="L24" t="n">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="M24" t="n">
         <v>1.07</v>
@@ -3676,7 +3676,7 @@
         <v>1.34</v>
       </c>
       <c r="S24" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T24" t="n">
         <v>1.77</v>
@@ -3778,10 +3778,10 @@
         <v>1.4</v>
       </c>
       <c r="H25" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I25" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="J25" t="n">
         <v>5.7</v>
@@ -3802,25 +3802,25 @@
         <v>1.2</v>
       </c>
       <c r="P25" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="Q25" t="n">
         <v>1.61</v>
       </c>
       <c r="R25" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="S25" t="n">
         <v>2.54</v>
       </c>
       <c r="T25" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="U25" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V25" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W25" t="n">
         <v>3.5</v>
@@ -3835,7 +3835,7 @@
         <v>85</v>
       </c>
       <c r="AA25" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AB25" t="n">
         <v>10.5</v>
@@ -3847,7 +3847,7 @@
         <v>32</v>
       </c>
       <c r="AE25" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AF25" t="n">
         <v>8.800000000000001</v>
@@ -3856,7 +3856,7 @@
         <v>10</v>
       </c>
       <c r="AH25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI25" t="n">
         <v>110</v>
@@ -3868,13 +3868,13 @@
         <v>13</v>
       </c>
       <c r="AL25" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AM25" t="n">
         <v>120</v>
       </c>
       <c r="AN25" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AO25" t="n">
         <v>130</v>
@@ -3913,16 +3913,16 @@
         <v>4.6</v>
       </c>
       <c r="H26" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="I26" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K26" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L26" t="n">
         <v>1.31</v>
@@ -3931,13 +3931,13 @@
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O26" t="n">
         <v>1.29</v>
       </c>
       <c r="P26" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q26" t="n">
         <v>1.88</v>
@@ -3946,16 +3946,16 @@
         <v>1.42</v>
       </c>
       <c r="S26" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T26" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="U26" t="n">
         <v>2.16</v>
       </c>
       <c r="V26" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="W26" t="n">
         <v>1.27</v>
@@ -3976,22 +3976,22 @@
         <v>16.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD26" t="n">
         <v>9.6</v>
       </c>
       <c r="AE26" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF26" t="n">
         <v>36</v>
       </c>
       <c r="AG26" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI26" t="n">
         <v>32</v>
@@ -4045,7 +4045,7 @@
         <v>1.95</v>
       </c>
       <c r="G27" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H27" t="n">
         <v>4.1</v>
@@ -4057,7 +4057,7 @@
         <v>3.5</v>
       </c>
       <c r="K27" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L27" t="n">
         <v>1.43</v>
@@ -4075,10 +4075,10 @@
         <v>1.87</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="R27" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S27" t="n">
         <v>3.55</v>
@@ -4093,7 +4093,7 @@
         <v>1.28</v>
       </c>
       <c r="W27" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="X27" t="n">
         <v>14</v>
@@ -4180,7 +4180,7 @@
         <v>2.42</v>
       </c>
       <c r="G28" t="n">
-        <v>3.1</v>
+        <v>2.82</v>
       </c>
       <c r="H28" t="n">
         <v>2.56</v>
@@ -4192,22 +4192,22 @@
         <v>1.2</v>
       </c>
       <c r="K28" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="L28" t="n">
         <v>1.3</v>
       </c>
       <c r="M28" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N28" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O28" t="n">
         <v>1.21</v>
       </c>
       <c r="P28" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Q28" t="n">
         <v>1.56</v>
@@ -4216,7 +4216,7 @@
         <v>1.59</v>
       </c>
       <c r="S28" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="T28" t="n">
         <v>1.51</v>
@@ -4228,7 +4228,7 @@
         <v>1.55</v>
       </c>
       <c r="W28" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="X28" t="n">
         <v>28</v>
@@ -4318,16 +4318,16 @@
         <v>1.97</v>
       </c>
       <c r="H29" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I29" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="J29" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K29" t="n">
         <v>3.55</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3.65</v>
       </c>
       <c r="L29" t="n">
         <v>1.52</v>
@@ -4339,13 +4339,13 @@
         <v>3.2</v>
       </c>
       <c r="O29" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P29" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R29" t="n">
         <v>1.25</v>
@@ -4354,13 +4354,13 @@
         <v>4.5</v>
       </c>
       <c r="T29" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="U29" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="V29" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W29" t="n">
         <v>2.02</v>
@@ -4417,7 +4417,7 @@
         <v>18.5</v>
       </c>
       <c r="AO29" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30">
@@ -4453,13 +4453,13 @@
         <v>5.4</v>
       </c>
       <c r="H30" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="I30" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="J30" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K30" t="n">
         <v>4.1</v>
@@ -4471,7 +4471,7 @@
         <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O30" t="n">
         <v>1.34</v>
@@ -4492,10 +4492,10 @@
         <v>1.92</v>
       </c>
       <c r="U30" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V30" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="W30" t="n">
         <v>1.23</v>
@@ -4513,7 +4513,7 @@
         <v>19</v>
       </c>
       <c r="AB30" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AC30" t="n">
         <v>8.4</v>
@@ -4525,13 +4525,13 @@
         <v>19.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AG30" t="n">
         <v>21</v>
       </c>
       <c r="AH30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI30" t="n">
         <v>38</v>
@@ -4543,7 +4543,7 @@
         <v>75</v>
       </c>
       <c r="AL30" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AM30" t="n">
         <v>130</v>
@@ -4591,7 +4591,7 @@
         <v>14</v>
       </c>
       <c r="I31" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="J31" t="n">
         <v>7</v>
@@ -4612,22 +4612,22 @@
         <v>1.15</v>
       </c>
       <c r="P31" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="Q31" t="n">
         <v>1.47</v>
       </c>
       <c r="R31" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="S31" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="T31" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="U31" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="V31" t="n">
         <v>1.06</v>
@@ -4639,7 +4639,7 @@
         <v>40</v>
       </c>
       <c r="Y31" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z31" t="n">
         <v>180</v>
@@ -4657,7 +4657,7 @@
         <v>65</v>
       </c>
       <c r="AE31" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AF31" t="n">
         <v>11</v>
@@ -4678,7 +4678,7 @@
         <v>15</v>
       </c>
       <c r="AL31" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AM31" t="n">
         <v>210</v>
@@ -4717,16 +4717,16 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="G32" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H32" t="n">
         <v>2.92</v>
       </c>
       <c r="I32" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
         <v>3.2</v>
@@ -4759,13 +4759,13 @@
         <v>4.7</v>
       </c>
       <c r="T32" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U32" t="n">
         <v>1.88</v>
       </c>
       <c r="V32" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W32" t="n">
         <v>1.53</v>
@@ -4801,7 +4801,7 @@
         <v>13</v>
       </c>
       <c r="AH32" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI32" t="n">
         <v>65</v>
@@ -4819,7 +4819,7 @@
         <v>150</v>
       </c>
       <c r="AN32" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AO32" t="n">
         <v>48</v>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G33" t="n">
         <v>2.82</v>
@@ -4867,7 +4867,7 @@
         <v>2.78</v>
       </c>
       <c r="K33" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L33" t="n">
         <v>1.51</v>
@@ -4876,7 +4876,7 @@
         <v>1.09</v>
       </c>
       <c r="N33" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="O33" t="n">
         <v>1.47</v>
@@ -4951,7 +4951,7 @@
         <v>1000</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN33" t="n">
         <v>1000</v>
@@ -4990,16 +4990,16 @@
         <v>3.2</v>
       </c>
       <c r="G34" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H34" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I34" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="J34" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K34" t="n">
         <v>3.45</v>
@@ -5017,7 +5017,7 @@
         <v>1.44</v>
       </c>
       <c r="P34" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q34" t="n">
         <v>2.3</v>
@@ -5035,10 +5035,10 @@
         <v>1.92</v>
       </c>
       <c r="V34" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="W34" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X34" t="n">
         <v>13</v>
@@ -5122,13 +5122,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="G35" t="n">
         <v>1.3</v>
       </c>
       <c r="H35" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="I35" t="n">
         <v>15.5</v>
@@ -5155,16 +5155,16 @@
         <v>2.22</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R35" t="n">
         <v>1.48</v>
       </c>
       <c r="S35" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="T35" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="U35" t="n">
         <v>1.62</v>
@@ -5179,10 +5179,10 @@
         <v>21</v>
       </c>
       <c r="Y35" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Z35" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AA35" t="n">
         <v>810</v>
@@ -5191,16 +5191,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AC35" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD35" t="n">
         <v>55</v>
       </c>
       <c r="AE35" t="n">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="AF35" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AG35" t="n">
         <v>12</v>
@@ -5221,13 +5221,13 @@
         <v>50</v>
       </c>
       <c r="AM35" t="n">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="AN35" t="n">
         <v>5.1</v>
       </c>
       <c r="AO35" t="n">
-        <v>450</v>
+        <v>490</v>
       </c>
     </row>
     <row r="36">
@@ -5263,10 +5263,10 @@
         <v>2.64</v>
       </c>
       <c r="H36" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I36" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J36" t="n">
         <v>3.35</v>
@@ -5275,16 +5275,16 @@
         <v>3.5</v>
       </c>
       <c r="L36" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M36" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N36" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="O36" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P36" t="n">
         <v>1.92</v>
@@ -5299,49 +5299,49 @@
         <v>3.45</v>
       </c>
       <c r="T36" t="n">
-        <v>1.6</v>
+        <v>1.74</v>
       </c>
       <c r="U36" t="n">
-        <v>1.98</v>
+        <v>2.16</v>
       </c>
       <c r="V36" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="W36" t="n">
         <v>1.62</v>
       </c>
       <c r="X36" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z36" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AA36" t="n">
         <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AC36" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AD36" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AE36" t="n">
         <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG36" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AH36" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI36" t="n">
         <v>1000</v>
@@ -5350,7 +5350,7 @@
         <v>1000</v>
       </c>
       <c r="AK36" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL36" t="n">
         <v>1000</v>
@@ -5359,7 +5359,7 @@
         <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO36" t="n">
         <v>1000</v>
@@ -5392,61 +5392,61 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="G37" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="H37" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I37" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3</v>
+      </c>
+      <c r="K37" t="n">
         <v>3.45</v>
       </c>
-      <c r="I37" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J37" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="K37" t="n">
-        <v>4.1</v>
-      </c>
       <c r="L37" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="M37" t="n">
         <v>1.09</v>
       </c>
       <c r="N37" t="n">
-        <v>2.78</v>
+        <v>2.66</v>
       </c>
       <c r="O37" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="P37" t="n">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.14</v>
+        <v>2.42</v>
       </c>
       <c r="R37" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="S37" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="T37" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="U37" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="V37" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="W37" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="X37" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y37" t="n">
         <v>1000</v>
@@ -5458,10 +5458,10 @@
         <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC37" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD37" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
@@ -805,19 +805,19 @@
         <v>5.1</v>
       </c>
       <c r="G3" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="H3" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="I3" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="J3" t="n">
         <v>3.35</v>
       </c>
       <c r="K3" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="L3" t="n">
         <v>1.41</v>
@@ -850,7 +850,7 @@
         <v>1.81</v>
       </c>
       <c r="V3" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="W3" t="n">
         <v>1.2</v>
@@ -883,10 +883,10 @@
         <v>55</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI3" t="n">
         <v>60</v>
@@ -895,7 +895,7 @@
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AL3" t="n">
         <v>120</v>
@@ -955,7 +955,7 @@
         <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
@@ -964,7 +964,7 @@
         <v>3.45</v>
       </c>
       <c r="O4" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
         <v>1.86</v>
@@ -982,7 +982,7 @@
         <v>2.2</v>
       </c>
       <c r="U4" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="V4" t="n">
         <v>1.09</v>
@@ -1006,10 +1006,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1018,10 +1018,10 @@
         <v>9</v>
       </c>
       <c r="AG4" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1072,61 +1072,61 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="G5" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="H5" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="I5" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="J5" t="n">
         <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="O5" t="n">
         <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="R5" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="S5" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="T5" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="U5" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V5" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="W5" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="X5" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Y5" t="n">
         <v>10.5</v>
@@ -1135,10 +1135,10 @@
         <v>9.6</v>
       </c>
       <c r="AA5" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AC5" t="n">
         <v>12.5</v>
@@ -1153,10 +1153,10 @@
         <v>110</v>
       </c>
       <c r="AG5" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI5" t="n">
         <v>34</v>
@@ -1165,19 +1165,19 @@
         <v>1000</v>
       </c>
       <c r="AK5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM5" t="n">
         <v>140</v>
       </c>
-      <c r="AL5" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN5" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1252,13 +1252,13 @@
         <v>1.81</v>
       </c>
       <c r="U6" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
         <v>1.11</v>
       </c>
       <c r="W6" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="X6" t="n">
         <v>29</v>
@@ -1345,7 +1345,7 @@
         <v>3.25</v>
       </c>
       <c r="G7" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H7" t="n">
         <v>2.1</v>
@@ -1357,7 +1357,7 @@
         <v>3.55</v>
       </c>
       <c r="K7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L7" t="n">
         <v>1.29</v>
@@ -1372,16 +1372,16 @@
         <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q7" t="n">
         <v>1.74</v>
       </c>
       <c r="R7" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S7" t="n">
-        <v>2.84</v>
+        <v>2.6</v>
       </c>
       <c r="T7" t="n">
         <v>1.64</v>
@@ -1390,10 +1390,10 @@
         <v>2.26</v>
       </c>
       <c r="V7" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="W7" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="X7" t="n">
         <v>22</v>
@@ -1402,7 +1402,7 @@
         <v>14</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AA7" t="n">
         <v>34</v>
@@ -1411,7 +1411,7 @@
         <v>19</v>
       </c>
       <c r="AC7" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD7" t="n">
         <v>13.5</v>
@@ -1444,10 +1444,10 @@
         <v>90</v>
       </c>
       <c r="AN7" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AO7" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="8">
@@ -1489,7 +1489,7 @@
         <v>3.95</v>
       </c>
       <c r="J8" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="K8" t="n">
         <v>4.3</v>
@@ -1516,7 +1516,7 @@
         <v>1.47</v>
       </c>
       <c r="S8" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="T8" t="n">
         <v>1.61</v>
@@ -1528,7 +1528,7 @@
         <v>1.33</v>
       </c>
       <c r="W8" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="X8" t="n">
         <v>25</v>
@@ -1540,7 +1540,7 @@
         <v>36</v>
       </c>
       <c r="AA8" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AB8" t="n">
         <v>14.5</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="G9" t="n">
         <v>4.6</v>
       </c>
       <c r="H9" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="I9" t="n">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="J9" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="K9" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="L9" t="n">
         <v>1.42</v>
@@ -1639,10 +1639,10 @@
         <v>2.94</v>
       </c>
       <c r="O9" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P9" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q9" t="n">
         <v>2.2</v>
@@ -1660,7 +1660,7 @@
         <v>1.89</v>
       </c>
       <c r="V9" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W9" t="n">
         <v>1.28</v>
@@ -1672,7 +1672,7 @@
         <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1780,7 +1780,7 @@
         <v>2.52</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R10" t="n">
         <v>1.59</v>
@@ -1804,22 +1804,22 @@
         <v>29</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z10" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA10" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AB10" t="n">
         <v>34</v>
       </c>
       <c r="AC10" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AE10" t="n">
         <v>18</v>
@@ -1885,7 +1885,7 @@
         <v>13.5</v>
       </c>
       <c r="G11" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="H11" t="n">
         <v>1.29</v>
@@ -1897,7 +1897,7 @@
         <v>5.1</v>
       </c>
       <c r="K11" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L11" t="n">
         <v>1.41</v>
@@ -1924,7 +1924,7 @@
         <v>3.5</v>
       </c>
       <c r="T11" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="U11" t="n">
         <v>1.54</v>
@@ -1960,7 +1960,7 @@
         <v>18.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AG11" t="n">
         <v>1000</v>
@@ -1975,13 +1975,13 @@
         <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="AL11" t="n">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="AM11" t="n">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="AN11" t="n">
         <v>1000</v>
@@ -2056,7 +2056,7 @@
         <v>1.68</v>
       </c>
       <c r="S12" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="T12" t="n">
         <v>1.79</v>
@@ -2158,10 +2158,10 @@
         <v>4.6</v>
       </c>
       <c r="H13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="I13" t="n">
         <v>1.85</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1.86</v>
       </c>
       <c r="J13" t="n">
         <v>4.2</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U13" t="n">
         <v>2.26</v>
@@ -2209,7 +2209,7 @@
         <v>19</v>
       </c>
       <c r="Y13" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z13" t="n">
         <v>12</v>
@@ -2227,7 +2227,7 @@
         <v>10</v>
       </c>
       <c r="AE13" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF13" t="n">
         <v>36</v>
@@ -2242,7 +2242,7 @@
         <v>30</v>
       </c>
       <c r="AJ13" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AK13" t="n">
         <v>55</v>
@@ -2254,10 +2254,10 @@
         <v>85</v>
       </c>
       <c r="AN13" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO13" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -2302,10 +2302,10 @@
         <v>6.2</v>
       </c>
       <c r="K14" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="M14" t="n">
         <v>1.02</v>
@@ -2323,10 +2323,10 @@
         <v>1.44</v>
       </c>
       <c r="R14" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="S14" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T14" t="n">
         <v>1.86</v>
@@ -2338,13 +2338,13 @@
         <v>1.07</v>
       </c>
       <c r="W14" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="X14" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="Y14" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Z14" t="n">
         <v>150</v>
@@ -2353,13 +2353,13 @@
         <v>500</v>
       </c>
       <c r="AB14" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AC14" t="n">
         <v>17.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AE14" t="n">
         <v>200</v>
@@ -2368,10 +2368,10 @@
         <v>10.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AI14" t="n">
         <v>150</v>
@@ -2389,7 +2389,7 @@
         <v>160</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AO14" t="n">
         <v>220</v>
@@ -2449,7 +2449,7 @@
         <v>3.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P15" t="n">
         <v>1.82</v>
@@ -2476,7 +2476,7 @@
         <v>1.41</v>
       </c>
       <c r="X15" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y15" t="n">
         <v>9.199999999999999</v>
@@ -2560,7 +2560,7 @@
         <v>2.16</v>
       </c>
       <c r="G16" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H16" t="n">
         <v>3.75</v>
@@ -2569,10 +2569,10 @@
         <v>3.8</v>
       </c>
       <c r="J16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K16" t="n">
         <v>3.65</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.7</v>
       </c>
       <c r="L16" t="n">
         <v>1.39</v>
@@ -2590,7 +2590,7 @@
         <v>2.04</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R16" t="n">
         <v>1.41</v>
@@ -2608,10 +2608,10 @@
         <v>1.35</v>
       </c>
       <c r="W16" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="X16" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y16" t="n">
         <v>15</v>
@@ -2719,10 +2719,10 @@
         <v>4.3</v>
       </c>
       <c r="O17" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P17" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q17" t="n">
         <v>1.84</v>
@@ -2737,7 +2737,7 @@
         <v>2.16</v>
       </c>
       <c r="U17" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V17" t="n">
         <v>1.1</v>
@@ -2752,34 +2752,34 @@
         <v>30</v>
       </c>
       <c r="Z17" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AA17" t="n">
         <v>400</v>
       </c>
       <c r="AB17" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AE17" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AF17" t="n">
         <v>7.8</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI17" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AJ17" t="n">
         <v>11</v>
@@ -2794,7 +2794,7 @@
         <v>180</v>
       </c>
       <c r="AN17" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AO17" t="n">
         <v>250</v>
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="G18" t="n">
         <v>1.74</v>
       </c>
       <c r="H18" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="I18" t="n">
         <v>6.4</v>
@@ -2869,13 +2869,13 @@
         <v>3.05</v>
       </c>
       <c r="T18" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V18" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W18" t="n">
         <v>2.34</v>
@@ -2887,7 +2887,7 @@
         <v>22</v>
       </c>
       <c r="Z18" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
@@ -2905,10 +2905,10 @@
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH18" t="n">
         <v>21</v>
@@ -2962,19 +2962,19 @@
         </is>
       </c>
       <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
         <v>5.1</v>
       </c>
-      <c r="G19" t="n">
-        <v>5.2</v>
-      </c>
       <c r="H19" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="I19" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K19" t="n">
         <v>4.1</v>
@@ -2998,22 +2998,22 @@
         <v>2.06</v>
       </c>
       <c r="R19" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S19" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="T19" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="U19" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="V19" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="W19" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="X19" t="n">
         <v>13.5</v>
@@ -3025,7 +3025,7 @@
         <v>9.6</v>
       </c>
       <c r="AA19" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AB19" t="n">
         <v>16</v>
@@ -3043,7 +3043,7 @@
         <v>38</v>
       </c>
       <c r="AG19" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AH19" t="n">
         <v>22</v>
@@ -3055,7 +3055,7 @@
         <v>130</v>
       </c>
       <c r="AK19" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AL19" t="n">
         <v>80</v>
@@ -3067,7 +3067,7 @@
         <v>90</v>
       </c>
       <c r="AO19" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -3106,7 +3106,7 @@
         <v>2.68</v>
       </c>
       <c r="I20" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="J20" t="n">
         <v>3.4</v>
@@ -3133,7 +3133,7 @@
         <v>1.87</v>
       </c>
       <c r="R20" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S20" t="n">
         <v>3.2</v>
@@ -3145,10 +3145,10 @@
         <v>2.28</v>
       </c>
       <c r="V20" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="W20" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X20" t="n">
         <v>18.5</v>
@@ -3166,7 +3166,7 @@
         <v>14.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD20" t="n">
         <v>15.5</v>
@@ -3286,7 +3286,7 @@
         <v>1.25</v>
       </c>
       <c r="X21" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y21" t="n">
         <v>9.800000000000001</v>
@@ -3301,7 +3301,7 @@
         <v>22</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD21" t="n">
         <v>10</v>
@@ -3310,7 +3310,7 @@
         <v>18</v>
       </c>
       <c r="AF21" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AG21" t="n">
         <v>980</v>
@@ -3373,7 +3373,7 @@
         <v>1.44</v>
       </c>
       <c r="H22" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I22" t="n">
         <v>10</v>
@@ -3448,7 +3448,7 @@
         <v>9.6</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH22" t="n">
         <v>34</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="G23" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="H23" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I23" t="n">
         <v>36</v>
@@ -3517,7 +3517,7 @@
         <v>12.5</v>
       </c>
       <c r="K23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L23" t="n">
         <v>1.17</v>
@@ -3526,25 +3526,25 @@
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O23" t="n">
         <v>1.12</v>
       </c>
       <c r="P23" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q23" t="n">
         <v>1.35</v>
       </c>
       <c r="R23" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S23" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="T23" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="U23" t="n">
         <v>1.62</v>
@@ -3553,7 +3553,7 @@
         <v>1.03</v>
       </c>
       <c r="W23" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X23" t="n">
         <v>65</v>
@@ -3568,10 +3568,10 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AC23" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
         <v>1000</v>
@@ -3643,19 +3643,19 @@
         <v>2.38</v>
       </c>
       <c r="H24" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I24" t="n">
         <v>3.65</v>
       </c>
       <c r="J24" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K24" t="n">
         <v>3.6</v>
       </c>
       <c r="L24" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M24" t="n">
         <v>1.07</v>
@@ -3670,7 +3670,7 @@
         <v>1.88</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="R24" t="n">
         <v>1.34</v>
@@ -3679,13 +3679,13 @@
         <v>3.45</v>
       </c>
       <c r="T24" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U24" t="n">
         <v>2.12</v>
       </c>
       <c r="V24" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W24" t="n">
         <v>1.72</v>
@@ -3697,10 +3697,10 @@
         <v>16.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB24" t="n">
         <v>11</v>
@@ -3718,13 +3718,13 @@
         <v>18</v>
       </c>
       <c r="AG24" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH24" t="n">
         <v>21</v>
       </c>
       <c r="AI24" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ24" t="n">
         <v>38</v>
@@ -3739,10 +3739,10 @@
         <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO24" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25">
@@ -3778,40 +3778,40 @@
         <v>1.4</v>
       </c>
       <c r="H25" t="n">
+        <v>9</v>
+      </c>
+      <c r="I25" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="I25" t="n">
-        <v>9.4</v>
-      </c>
       <c r="J25" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="K25" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="L25" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M25" t="n">
         <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P25" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="Q25" t="n">
         <v>1.61</v>
       </c>
       <c r="R25" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="S25" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="T25" t="n">
         <v>1.92</v>
@@ -3820,7 +3820,7 @@
         <v>2.02</v>
       </c>
       <c r="V25" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W25" t="n">
         <v>3.5</v>
@@ -3829,7 +3829,7 @@
         <v>26</v>
       </c>
       <c r="Y25" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Z25" t="n">
         <v>85</v>
@@ -3913,16 +3913,16 @@
         <v>4.6</v>
       </c>
       <c r="H26" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="I26" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="J26" t="n">
         <v>4.1</v>
       </c>
       <c r="K26" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L26" t="n">
         <v>1.31</v>
@@ -3943,10 +3943,10 @@
         <v>1.88</v>
       </c>
       <c r="R26" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S26" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T26" t="n">
         <v>1.81</v>
@@ -3961,10 +3961,10 @@
         <v>1.27</v>
       </c>
       <c r="X26" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y26" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z26" t="n">
         <v>11.5</v>
@@ -3982,7 +3982,7 @@
         <v>9.6</v>
       </c>
       <c r="AE26" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF26" t="n">
         <v>36</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="G27" t="n">
         <v>2.04</v>
@@ -4054,10 +4054,10 @@
         <v>4.6</v>
       </c>
       <c r="J27" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K27" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L27" t="n">
         <v>1.43</v>
@@ -4180,7 +4180,7 @@
         <v>2.42</v>
       </c>
       <c r="G28" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="H28" t="n">
         <v>2.56</v>
@@ -4189,16 +4189,16 @@
         <v>2.8</v>
       </c>
       <c r="J28" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="K28" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="L28" t="n">
         <v>1.3</v>
       </c>
       <c r="M28" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N28" t="n">
         <v>4.5</v>
@@ -4207,19 +4207,19 @@
         <v>1.21</v>
       </c>
       <c r="P28" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R28" t="n">
         <v>1.59</v>
       </c>
       <c r="S28" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="T28" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="U28" t="n">
         <v>2.32</v>
@@ -4228,7 +4228,7 @@
         <v>1.55</v>
       </c>
       <c r="W28" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="X28" t="n">
         <v>28</v>
@@ -4255,7 +4255,7 @@
         <v>32</v>
       </c>
       <c r="AF28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG28" t="n">
         <v>970</v>
@@ -4312,25 +4312,25 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="G29" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="H29" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I29" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J29" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K29" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="L29" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="M29" t="n">
         <v>1.09</v>
@@ -4348,13 +4348,13 @@
         <v>2.28</v>
       </c>
       <c r="R29" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S29" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="T29" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U29" t="n">
         <v>1.87</v>
@@ -4363,7 +4363,7 @@
         <v>1.25</v>
       </c>
       <c r="W29" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="X29" t="n">
         <v>10.5</v>
@@ -4384,10 +4384,10 @@
         <v>7.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE29" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AF29" t="n">
         <v>9.800000000000001</v>
@@ -4396,10 +4396,10 @@
         <v>10.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI29" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AJ29" t="n">
         <v>22</v>
@@ -4408,7 +4408,7 @@
         <v>23</v>
       </c>
       <c r="AL29" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM29" t="n">
         <v>160</v>
@@ -4417,7 +4417,7 @@
         <v>18.5</v>
       </c>
       <c r="AO29" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
@@ -4447,13 +4447,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="G30" t="n">
         <v>5.4</v>
       </c>
       <c r="H30" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="I30" t="n">
         <v>1.79</v>
@@ -4486,7 +4486,7 @@
         <v>1.34</v>
       </c>
       <c r="S30" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="T30" t="n">
         <v>1.92</v>
@@ -4498,7 +4498,7 @@
         <v>2.26</v>
       </c>
       <c r="W30" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X30" t="n">
         <v>14.5</v>
@@ -4525,7 +4525,7 @@
         <v>19.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AG30" t="n">
         <v>21</v>
@@ -4552,7 +4552,7 @@
         <v>90</v>
       </c>
       <c r="AO30" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="31">
@@ -4582,16 +4582,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="G31" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="H31" t="n">
         <v>14</v>
       </c>
       <c r="I31" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="J31" t="n">
         <v>7</v>
@@ -4618,22 +4618,22 @@
         <v>1.47</v>
       </c>
       <c r="R31" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="S31" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="T31" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U31" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V31" t="n">
         <v>1.06</v>
       </c>
       <c r="W31" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="X31" t="n">
         <v>40</v>
@@ -4672,7 +4672,7 @@
         <v>200</v>
       </c>
       <c r="AJ31" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AK31" t="n">
         <v>15</v>
@@ -4717,16 +4717,16 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="G32" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="H32" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J32" t="n">
         <v>3.2</v>
@@ -4759,22 +4759,22 @@
         <v>4.7</v>
       </c>
       <c r="T32" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U32" t="n">
         <v>1.88</v>
       </c>
       <c r="V32" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="W32" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="X32" t="n">
         <v>10</v>
       </c>
       <c r="Y32" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z32" t="n">
         <v>18</v>
@@ -4807,7 +4807,7 @@
         <v>65</v>
       </c>
       <c r="AJ32" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AK32" t="n">
         <v>38</v>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G33" t="n">
         <v>2.82</v>
@@ -4864,10 +4864,10 @@
         <v>3.5</v>
       </c>
       <c r="J33" t="n">
-        <v>2.78</v>
+        <v>2.94</v>
       </c>
       <c r="K33" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L33" t="n">
         <v>1.51</v>
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G34" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H34" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="I34" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="J34" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K34" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L34" t="n">
         <v>1.51</v>
@@ -5020,7 +5020,7 @@
         <v>1.67</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R34" t="n">
         <v>1.24</v>
@@ -5032,67 +5032,67 @@
         <v>1.94</v>
       </c>
       <c r="U34" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V34" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="W34" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X34" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="Z34" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AA34" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AB34" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC34" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD34" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AF34" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AG34" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH34" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI34" t="n">
         <v>55</v>
       </c>
       <c r="AJ34" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AK34" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL34" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM34" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN34" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AO34" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35">
@@ -5143,31 +5143,31 @@
         <v>1.33</v>
       </c>
       <c r="M35" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O35" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P35" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="R35" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S35" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="T35" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="U35" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="V35" t="n">
         <v>1.07</v>
@@ -5176,7 +5176,7 @@
         <v>4.3</v>
       </c>
       <c r="X35" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y35" t="n">
         <v>42</v>
@@ -5188,7 +5188,7 @@
         <v>810</v>
       </c>
       <c r="AB35" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC35" t="n">
         <v>14</v>
@@ -5197,10 +5197,10 @@
         <v>55</v>
       </c>
       <c r="AE35" t="n">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="AF35" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AG35" t="n">
         <v>12</v>
@@ -5209,7 +5209,7 @@
         <v>42</v>
       </c>
       <c r="AI35" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AJ35" t="n">
         <v>9.199999999999999</v>
@@ -5221,13 +5221,13 @@
         <v>50</v>
       </c>
       <c r="AM35" t="n">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="AN35" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AO35" t="n">
-        <v>490</v>
+        <v>450</v>
       </c>
     </row>
     <row r="36">
@@ -5257,10 +5257,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="G36" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="H36" t="n">
         <v>3</v>
@@ -5305,10 +5305,10 @@
         <v>2.16</v>
       </c>
       <c r="V36" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W36" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="X36" t="n">
         <v>17.5</v>
@@ -5401,7 +5401,7 @@
         <v>3.65</v>
       </c>
       <c r="I37" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J37" t="n">
         <v>3</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
@@ -673,7 +673,7 @@
         <v>7.4</v>
       </c>
       <c r="H2" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="I2" t="n">
         <v>1.64</v>
@@ -718,16 +718,16 @@
         <v>2.56</v>
       </c>
       <c r="W2" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="X2" t="n">
         <v>22</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA2" t="n">
         <v>18</v>
@@ -772,7 +772,7 @@
         <v>140</v>
       </c>
       <c r="AO2" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
         <v>5.9</v>
       </c>
       <c r="H3" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="I3" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="J3" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="K3" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="L3" t="n">
         <v>1.41</v>
@@ -826,37 +826,37 @@
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>2.82</v>
+        <v>3.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="P3" t="n">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="R3" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="S3" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="T3" t="n">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="U3" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="V3" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="W3" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="X3" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="Y3" t="n">
         <v>8.199999999999999</v>
@@ -865,7 +865,7 @@
         <v>12</v>
       </c>
       <c r="AA3" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AB3" t="n">
         <v>970</v>
@@ -874,40 +874,40 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AE3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH3" t="n">
         <v>24</v>
       </c>
-      <c r="AF3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>28</v>
-      </c>
       <c r="AI3" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AK3" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AL3" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN3" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="AO3" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="4">
@@ -955,7 +955,7 @@
         <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
@@ -982,7 +982,7 @@
         <v>2.2</v>
       </c>
       <c r="U4" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="V4" t="n">
         <v>1.09</v>
@@ -1084,10 +1084,10 @@
         <v>1.47</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="K5" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="L5" t="n">
         <v>1.25</v>
@@ -1105,19 +1105,19 @@
         <v>2.36</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="R5" t="n">
         <v>1.53</v>
       </c>
       <c r="S5" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="T5" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U5" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V5" t="n">
         <v>3.1</v>
@@ -1138,7 +1138,7 @@
         <v>13</v>
       </c>
       <c r="AB5" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AC5" t="n">
         <v>12.5</v>
@@ -1159,7 +1159,7 @@
         <v>25</v>
       </c>
       <c r="AI5" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="G6" t="n">
         <v>1.51</v>
@@ -1219,10 +1219,10 @@
         <v>10.5</v>
       </c>
       <c r="J6" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="K6" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L6" t="n">
         <v>1.29</v>
@@ -1246,10 +1246,10 @@
         <v>1.53</v>
       </c>
       <c r="S6" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="T6" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U6" t="n">
         <v>2.1</v>
@@ -1258,10 +1258,10 @@
         <v>1.11</v>
       </c>
       <c r="W6" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="X6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y6" t="n">
         <v>36</v>
@@ -1351,7 +1351,7 @@
         <v>2.1</v>
       </c>
       <c r="I7" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="J7" t="n">
         <v>3.55</v>
@@ -1375,49 +1375,49 @@
         <v>2.08</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R7" t="n">
         <v>1.43</v>
       </c>
       <c r="S7" t="n">
-        <v>2.6</v>
+        <v>2.74</v>
       </c>
       <c r="T7" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U7" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V7" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="W7" t="n">
         <v>1.37</v>
       </c>
       <c r="X7" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA7" t="n">
         <v>34</v>
       </c>
       <c r="AB7" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC7" t="n">
         <v>10.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AF7" t="n">
         <v>32</v>
@@ -1426,28 +1426,28 @@
         <v>18</v>
       </c>
       <c r="AH7" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
         <v>40</v>
       </c>
       <c r="AJ7" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK7" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL7" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM7" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN7" t="n">
         <v>38</v>
       </c>
       <c r="AO7" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G8" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="K8" t="n">
         <v>4.3</v>
@@ -1513,25 +1513,25 @@
         <v>1.67</v>
       </c>
       <c r="R8" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S8" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T8" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U8" t="n">
         <v>2.32</v>
       </c>
       <c r="V8" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W8" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="X8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y8" t="n">
         <v>21</v>
@@ -1549,7 +1549,7 @@
         <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE8" t="n">
         <v>48</v>
@@ -1558,7 +1558,7 @@
         <v>18</v>
       </c>
       <c r="AG8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
         <v>19.5</v>
@@ -1576,7 +1576,7 @@
         <v>38</v>
       </c>
       <c r="AM8" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN8" t="n">
         <v>14.5</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="G9" t="n">
         <v>4.6</v>
@@ -1642,7 +1642,7 @@
         <v>1.42</v>
       </c>
       <c r="P9" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q9" t="n">
         <v>2.2</v>
@@ -1660,7 +1660,7 @@
         <v>1.89</v>
       </c>
       <c r="V9" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="W9" t="n">
         <v>1.28</v>
@@ -1750,13 +1750,13 @@
         <v>6</v>
       </c>
       <c r="G10" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="H10" t="n">
         <v>1.5</v>
       </c>
       <c r="I10" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="J10" t="n">
         <v>4.6</v>
@@ -1765,13 +1765,13 @@
         <v>5.3</v>
       </c>
       <c r="L10" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O10" t="n">
         <v>1.2</v>
@@ -1789,13 +1789,13 @@
         <v>2.38</v>
       </c>
       <c r="T10" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U10" t="n">
         <v>2.16</v>
       </c>
       <c r="V10" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="W10" t="n">
         <v>1.15</v>
@@ -1819,7 +1819,7 @@
         <v>13.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
         <v>18</v>
@@ -1897,10 +1897,10 @@
         <v>5.1</v>
       </c>
       <c r="K11" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L11" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
@@ -1912,7 +1912,7 @@
         <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q11" t="n">
         <v>1.98</v>
@@ -2020,7 +2020,7 @@
         <v>1.35</v>
       </c>
       <c r="G12" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="H12" t="n">
         <v>8</v>
@@ -2041,13 +2041,13 @@
         <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="O12" t="n">
         <v>1.16</v>
       </c>
       <c r="P12" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="Q12" t="n">
         <v>1.49</v>
@@ -2056,19 +2056,19 @@
         <v>1.68</v>
       </c>
       <c r="S12" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U12" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V12" t="n">
         <v>1.11</v>
       </c>
       <c r="W12" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="X12" t="n">
         <v>38</v>
@@ -2119,7 +2119,7 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2161,10 +2161,10 @@
         <v>1.83</v>
       </c>
       <c r="I13" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="J13" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K13" t="n">
         <v>4.4</v>
@@ -2185,7 +2185,7 @@
         <v>2.22</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2194,10 +2194,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="U13" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2209,19 +2209,19 @@
         <v>19</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AB13" t="n">
         <v>18.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AD13" t="n">
         <v>10</v>
@@ -2242,7 +2242,7 @@
         <v>30</v>
       </c>
       <c r="AJ13" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="n">
         <v>55</v>
@@ -2305,7 +2305,7 @@
         <v>7.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="M14" t="n">
         <v>1.02</v>
@@ -2317,19 +2317,19 @@
         <v>1.15</v>
       </c>
       <c r="P14" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="Q14" t="n">
         <v>1.44</v>
       </c>
       <c r="R14" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="S14" t="n">
         <v>2.08</v>
       </c>
       <c r="T14" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U14" t="n">
         <v>1.9</v>
@@ -2353,13 +2353,13 @@
         <v>500</v>
       </c>
       <c r="AB14" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC14" t="n">
         <v>17.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AE14" t="n">
         <v>200</v>
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G15" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H15" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I15" t="n">
         <v>2.38</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.4</v>
       </c>
       <c r="J15" t="n">
         <v>3.5</v>
@@ -2440,7 +2440,7 @@
         <v>3.55</v>
       </c>
       <c r="L15" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M15" t="n">
         <v>1.09</v>
@@ -2467,19 +2467,19 @@
         <v>1.91</v>
       </c>
       <c r="U15" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V15" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W15" t="n">
         <v>1.41</v>
       </c>
       <c r="X15" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Z15" t="n">
         <v>14</v>
@@ -2518,7 +2518,7 @@
         <v>44</v>
       </c>
       <c r="AL15" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM15" t="n">
         <v>120</v>
@@ -2560,7 +2560,7 @@
         <v>2.16</v>
       </c>
       <c r="G16" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H16" t="n">
         <v>3.75</v>
@@ -2569,10 +2569,10 @@
         <v>3.8</v>
       </c>
       <c r="J16" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K16" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L16" t="n">
         <v>1.39</v>
@@ -2587,19 +2587,19 @@
         <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="R16" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S16" t="n">
         <v>3.3</v>
       </c>
       <c r="T16" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U16" t="n">
         <v>2.26</v>
@@ -2608,7 +2608,7 @@
         <v>1.35</v>
       </c>
       <c r="W16" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="X16" t="n">
         <v>15.5</v>
@@ -2704,10 +2704,10 @@
         <v>10.5</v>
       </c>
       <c r="J17" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K17" t="n">
         <v>5.4</v>
-      </c>
-      <c r="K17" t="n">
-        <v>5.5</v>
       </c>
       <c r="L17" t="n">
         <v>1.36</v>
@@ -2719,13 +2719,13 @@
         <v>4.3</v>
       </c>
       <c r="O17" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P17" t="n">
         <v>2.16</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R17" t="n">
         <v>1.45</v>
@@ -2734,10 +2734,10 @@
         <v>3.1</v>
       </c>
       <c r="T17" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="U17" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="V17" t="n">
         <v>1.1</v>
@@ -2755,16 +2755,16 @@
         <v>90</v>
       </c>
       <c r="AA17" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="AB17" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AC17" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD17" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE17" t="n">
         <v>170</v>
@@ -2794,7 +2794,7 @@
         <v>180</v>
       </c>
       <c r="AN17" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AO17" t="n">
         <v>250</v>
@@ -2830,7 +2830,7 @@
         <v>1.66</v>
       </c>
       <c r="G18" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="H18" t="n">
         <v>5.3</v>
@@ -2869,16 +2869,16 @@
         <v>3.05</v>
       </c>
       <c r="T18" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="U18" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W18" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="X18" t="n">
         <v>20</v>
@@ -2977,7 +2977,7 @@
         <v>3.95</v>
       </c>
       <c r="K19" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L19" t="n">
         <v>1.35</v>
@@ -2986,7 +2986,7 @@
         <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O19" t="n">
         <v>1.36</v>
@@ -3067,7 +3067,7 @@
         <v>90</v>
       </c>
       <c r="AO19" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="20">
@@ -3106,13 +3106,13 @@
         <v>2.68</v>
       </c>
       <c r="I20" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="J20" t="n">
         <v>3.4</v>
       </c>
       <c r="K20" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L20" t="n">
         <v>1.39</v>
@@ -3166,7 +3166,7 @@
         <v>14.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD20" t="n">
         <v>15.5</v>
@@ -3202,7 +3202,7 @@
         <v>30</v>
       </c>
       <c r="AO20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -3238,16 +3238,16 @@
         <v>5</v>
       </c>
       <c r="H21" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="I21" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="J21" t="n">
         <v>4.1</v>
       </c>
       <c r="K21" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L21" t="n">
         <v>1.36</v>
@@ -3259,46 +3259,46 @@
         <v>4.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P21" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q21" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T21" t="n">
         <v>1.82</v>
       </c>
-      <c r="R21" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.8</v>
-      </c>
       <c r="U21" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V21" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="W21" t="n">
         <v>1.25</v>
       </c>
       <c r="X21" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z21" t="n">
         <v>11.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AB21" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AC21" t="n">
         <v>9</v>
@@ -3328,10 +3328,10 @@
         <v>65</v>
       </c>
       <c r="AL21" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM21" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN21" t="n">
         <v>65</v>
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="G22" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="H22" t="n">
         <v>9.199999999999999</v>
@@ -3379,10 +3379,10 @@
         <v>10</v>
       </c>
       <c r="J22" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L22" t="n">
         <v>1.35</v>
@@ -3418,61 +3418,61 @@
         <v>1.11</v>
       </c>
       <c r="W22" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="X22" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="AB22" t="n">
         <v>9.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AF22" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>12.5</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>13.5</v>
       </c>
       <c r="AK22" t="n">
         <v>19.5</v>
       </c>
       <c r="AL22" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23">
@@ -3526,13 +3526,13 @@
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O23" t="n">
         <v>1.12</v>
       </c>
       <c r="P23" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q23" t="n">
         <v>1.35</v>
@@ -3547,7 +3547,7 @@
         <v>2.42</v>
       </c>
       <c r="U23" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="V23" t="n">
         <v>1.03</v>
@@ -3556,7 +3556,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="X23" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="Y23" t="n">
         <v>1000</v>
@@ -3580,7 +3580,7 @@
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG23" t="n">
         <v>14.5</v>
@@ -3598,7 +3598,7 @@
         <v>18</v>
       </c>
       <c r="AL23" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
         <v>1000</v>
@@ -3643,7 +3643,7 @@
         <v>2.38</v>
       </c>
       <c r="H24" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I24" t="n">
         <v>3.65</v>
@@ -3670,13 +3670,13 @@
         <v>1.88</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R24" t="n">
         <v>1.34</v>
       </c>
       <c r="S24" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T24" t="n">
         <v>1.78</v>
@@ -3694,16 +3694,16 @@
         <v>17</v>
       </c>
       <c r="Y24" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z24" t="n">
         <v>30</v>
       </c>
       <c r="AA24" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC24" t="n">
         <v>9</v>
@@ -3724,7 +3724,7 @@
         <v>21</v>
       </c>
       <c r="AI24" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
         <v>38</v>
@@ -3784,22 +3784,22 @@
         <v>9.199999999999999</v>
       </c>
       <c r="J25" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="K25" t="n">
         <v>5.9</v>
       </c>
       <c r="L25" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="M25" t="n">
         <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O25" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P25" t="n">
         <v>2.56</v>
@@ -3808,16 +3808,16 @@
         <v>1.61</v>
       </c>
       <c r="R25" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S25" t="n">
         <v>2.58</v>
       </c>
       <c r="T25" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="U25" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V25" t="n">
         <v>1.12</v>
@@ -3835,7 +3835,7 @@
         <v>85</v>
       </c>
       <c r="AA25" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AB25" t="n">
         <v>10.5</v>
@@ -3850,10 +3850,10 @@
         <v>130</v>
       </c>
       <c r="AF25" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH25" t="n">
         <v>25</v>
@@ -3877,7 +3877,7 @@
         <v>5.2</v>
       </c>
       <c r="AO25" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26">
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="G26" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H26" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="I26" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="J26" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K26" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L26" t="n">
         <v>1.31</v>
@@ -3943,7 +3943,7 @@
         <v>1.88</v>
       </c>
       <c r="R26" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S26" t="n">
         <v>3.25</v>
@@ -3955,13 +3955,13 @@
         <v>2.16</v>
       </c>
       <c r="V26" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="W26" t="n">
         <v>1.27</v>
       </c>
       <c r="X26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y26" t="n">
         <v>9.199999999999999</v>
@@ -3973,7 +3973,7 @@
         <v>19</v>
       </c>
       <c r="AB26" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC26" t="n">
         <v>9</v>
@@ -3982,16 +3982,16 @@
         <v>9.6</v>
       </c>
       <c r="AE26" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF26" t="n">
         <v>36</v>
       </c>
       <c r="AG26" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI26" t="n">
         <v>32</v>
@@ -4000,19 +4000,19 @@
         <v>95</v>
       </c>
       <c r="AK26" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL26" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM26" t="n">
         <v>95</v>
       </c>
       <c r="AN26" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO26" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -4057,7 +4057,7 @@
         <v>3.6</v>
       </c>
       <c r="K27" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L27" t="n">
         <v>1.43</v>
@@ -4078,7 +4078,7 @@
         <v>2.12</v>
       </c>
       <c r="R27" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S27" t="n">
         <v>3.55</v>
@@ -4135,7 +4135,7 @@
         <v>25</v>
       </c>
       <c r="AK27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL27" t="n">
         <v>42</v>
@@ -4177,10 +4177,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G28" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="H28" t="n">
         <v>2.56</v>
@@ -4189,10 +4189,10 @@
         <v>2.8</v>
       </c>
       <c r="J28" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K28" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L28" t="n">
         <v>1.3</v>
@@ -4204,7 +4204,7 @@
         <v>4.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="P28" t="n">
         <v>2.32</v>
@@ -4225,10 +4225,10 @@
         <v>2.32</v>
       </c>
       <c r="V28" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W28" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="X28" t="n">
         <v>28</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="G29" t="n">
         <v>1.94</v>
@@ -4330,19 +4330,19 @@
         <v>3.65</v>
       </c>
       <c r="L29" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M29" t="n">
         <v>1.09</v>
       </c>
       <c r="N29" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O29" t="n">
         <v>1.41</v>
       </c>
       <c r="P29" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Q29" t="n">
         <v>2.28</v>
@@ -4351,10 +4351,10 @@
         <v>1.26</v>
       </c>
       <c r="S29" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T29" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U29" t="n">
         <v>1.87</v>
@@ -4366,7 +4366,7 @@
         <v>2.06</v>
       </c>
       <c r="X29" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y29" t="n">
         <v>14.5</v>
@@ -4447,13 +4447,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="G30" t="n">
         <v>5.4</v>
       </c>
       <c r="H30" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="I30" t="n">
         <v>1.79</v>
@@ -4486,10 +4486,10 @@
         <v>1.34</v>
       </c>
       <c r="S30" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T30" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="U30" t="n">
         <v>1.99</v>
@@ -4513,7 +4513,7 @@
         <v>19</v>
       </c>
       <c r="AB30" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AC30" t="n">
         <v>8.4</v>
@@ -4582,13 +4582,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="G31" t="n">
         <v>1.26</v>
       </c>
       <c r="H31" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="I31" t="n">
         <v>17.5</v>
@@ -4597,7 +4597,7 @@
         <v>7</v>
       </c>
       <c r="K31" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L31" t="n">
         <v>1.25</v>
@@ -4618,16 +4618,16 @@
         <v>1.47</v>
       </c>
       <c r="R31" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="S31" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="T31" t="n">
         <v>2.06</v>
       </c>
       <c r="U31" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="V31" t="n">
         <v>1.06</v>
@@ -4660,7 +4660,7 @@
         <v>280</v>
       </c>
       <c r="AF31" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG31" t="n">
         <v>14.5</v>
@@ -4675,7 +4675,7 @@
         <v>10</v>
       </c>
       <c r="AK31" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL31" t="n">
         <v>40</v>
@@ -4684,7 +4684,7 @@
         <v>210</v>
       </c>
       <c r="AN31" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="AO31" t="n">
         <v>350</v>
@@ -4765,7 +4765,7 @@
         <v>1.88</v>
       </c>
       <c r="V32" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="W32" t="n">
         <v>1.55</v>
@@ -4774,7 +4774,7 @@
         <v>10</v>
       </c>
       <c r="Y32" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z32" t="n">
         <v>18</v>
@@ -4885,7 +4885,7 @@
         <v>1.58</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="R33" t="n">
         <v>1.21</v>
@@ -4987,19 +4987,19 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="G34" t="n">
         <v>3.5</v>
       </c>
       <c r="H34" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="I34" t="n">
         <v>2.52</v>
       </c>
       <c r="J34" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K34" t="n">
         <v>3.4</v>
@@ -5047,10 +5047,10 @@
         <v>9.4</v>
       </c>
       <c r="Z34" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA34" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB34" t="n">
         <v>12.5</v>
@@ -5092,7 +5092,7 @@
         <v>65</v>
       </c>
       <c r="AO34" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
@@ -5125,7 +5125,7 @@
         <v>1.28</v>
       </c>
       <c r="G35" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="H35" t="n">
         <v>14</v>
@@ -5170,7 +5170,7 @@
         <v>1.64</v>
       </c>
       <c r="V35" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W35" t="n">
         <v>4.3</v>
@@ -5203,19 +5203,19 @@
         <v>7.4</v>
       </c>
       <c r="AG35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH35" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AI35" t="n">
         <v>230</v>
       </c>
       <c r="AJ35" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK35" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL35" t="n">
         <v>50</v>
@@ -5257,13 +5257,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="G36" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="I36" t="n">
         <v>3.25</v>
@@ -5287,7 +5287,7 @@
         <v>1.32</v>
       </c>
       <c r="P36" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q36" t="n">
         <v>1.98</v>
@@ -5416,19 +5416,19 @@
         <v>1.09</v>
       </c>
       <c r="N37" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="O37" t="n">
         <v>1.48</v>
       </c>
       <c r="P37" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="Q37" t="n">
         <v>2.42</v>
       </c>
       <c r="R37" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S37" t="n">
         <v>4.4</v>
@@ -5437,7 +5437,7 @@
         <v>2</v>
       </c>
       <c r="U37" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V37" t="n">
         <v>1.3</v>
@@ -5446,7 +5446,7 @@
         <v>1.76</v>
       </c>
       <c r="X37" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y37" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO37"/>
+  <dimension ref="A1:AO43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,126 +788,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Beroe Stara Za</t>
+          <t>Rudar Prijedor</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Cherno More</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="G3" t="n">
-        <v>5.9</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>1.77</v>
+        <v>1.42</v>
       </c>
       <c r="I3" t="n">
-        <v>1.89</v>
+        <v>1.54</v>
       </c>
       <c r="J3" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="K3" t="n">
-        <v>3.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L3" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="R3" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>3.75</v>
+        <v>2.74</v>
       </c>
       <c r="T3" t="n">
-        <v>1.88</v>
+        <v>1.04</v>
       </c>
       <c r="U3" t="n">
-        <v>1.77</v>
+        <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>2.12</v>
+        <v>2.8</v>
       </c>
       <c r="W3" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CSKA Sofia</t>
+          <t>Beroe Stara Za</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Lokomotiv Plovdiv</t>
+          <t>Cherno More</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.41</v>
+        <v>4.7</v>
       </c>
       <c r="G4" t="n">
-        <v>1.48</v>
+        <v>5.6</v>
       </c>
       <c r="H4" t="n">
-        <v>9.6</v>
+        <v>1.79</v>
       </c>
       <c r="I4" t="n">
-        <v>12</v>
+        <v>1.93</v>
       </c>
       <c r="J4" t="n">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="L4" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="P4" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="R4" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="S4" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="T4" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="U4" t="n">
-        <v>1.66</v>
+        <v>1.9</v>
       </c>
       <c r="V4" t="n">
-        <v>1.09</v>
+        <v>2.06</v>
       </c>
       <c r="W4" t="n">
-        <v>3.05</v>
+        <v>1.22</v>
       </c>
       <c r="X4" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Y4" t="n">
-        <v>34</v>
+        <v>8.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>8.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AC4" t="n">
-        <v>11.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ4" t="n">
-        <v>14.5</v>
+        <v>170</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="AL4" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN4" t="n">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,105 +1058,105 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Kazincbarcika</t>
+          <t>Radnik Bijeljina</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Gyori</t>
+          <t>Borac Banja Luka</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7.8</v>
+        <v>6.2</v>
       </c>
       <c r="G5" t="n">
-        <v>9</v>
+        <v>600</v>
       </c>
       <c r="H5" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="I5" t="n">
-        <v>1.47</v>
+        <v>1.65</v>
       </c>
       <c r="J5" t="n">
-        <v>4.9</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
-        <v>5.6</v>
+        <v>8.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T5" t="n">
         <v>1.04</v>
       </c>
-      <c r="N5" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.84</v>
-      </c>
       <c r="U5" t="n">
-        <v>1.99</v>
+        <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>3.1</v>
+        <v>2.56</v>
       </c>
       <c r="W5" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1171,19 +1171,19 @@
         <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
         <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Slovakian Super League</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,78 +1193,78 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>CSKA Sofia</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ruzomberok</t>
+          <t>Lokomotiv Plovdiv</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="G6" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="H6" t="n">
-        <v>7.2</v>
+        <v>9.6</v>
       </c>
       <c r="I6" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="J6" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="K6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>4.9</v>
+        <v>3.45</v>
       </c>
       <c r="O6" t="n">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="P6" t="n">
-        <v>2.34</v>
+        <v>1.86</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.61</v>
+        <v>1.96</v>
       </c>
       <c r="R6" t="n">
-        <v>1.53</v>
+        <v>1.32</v>
       </c>
       <c r="S6" t="n">
-        <v>2.52</v>
+        <v>3.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.82</v>
+        <v>2.24</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>1.66</v>
       </c>
       <c r="V6" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="W6" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="X6" t="n">
-        <v>28</v>
+        <v>17.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
@@ -1273,43 +1273,43 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>12.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>14.5</v>
       </c>
-      <c r="AD6" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>16</v>
-      </c>
       <c r="AK6" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>7.2</v>
+        <v>10</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Slovakian Super League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Podbrezova</t>
+          <t>Casertana</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Spartak Trnava</t>
+          <t>Atalanta B</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.25</v>
+        <v>2.44</v>
       </c>
       <c r="G7" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H7" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="I7" t="n">
-        <v>2.32</v>
+        <v>3.4</v>
       </c>
       <c r="J7" t="n">
-        <v>3.55</v>
+        <v>2.82</v>
       </c>
       <c r="K7" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4.2</v>
+        <v>2.94</v>
       </c>
       <c r="O7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R7" t="n">
         <v>1.25</v>
       </c>
-      <c r="P7" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.43</v>
-      </c>
       <c r="S7" t="n">
-        <v>2.74</v>
+        <v>2.6</v>
       </c>
       <c r="T7" t="n">
-        <v>1.65</v>
+        <v>1.04</v>
       </c>
       <c r="U7" t="n">
-        <v>2.28</v>
+        <v>1.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.75</v>
+        <v>1.41</v>
       </c>
       <c r="W7" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X7" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Maccabi Netanya</t>
+          <t>Kazincbarcika</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FC Ashdod</t>
+          <t>Gyori</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.04</v>
+        <v>7.4</v>
       </c>
       <c r="G8" t="n">
-        <v>2.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>1.43</v>
       </c>
       <c r="I8" t="n">
-        <v>3.9</v>
+        <v>1.49</v>
       </c>
       <c r="J8" t="n">
-        <v>3.7</v>
+        <v>5.1</v>
       </c>
       <c r="K8" t="n">
-        <v>4.3</v>
+        <v>5.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P8" t="n">
-        <v>2.2</v>
+        <v>2.34</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R8" t="n">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="S8" t="n">
-        <v>2.68</v>
+        <v>2.54</v>
       </c>
       <c r="T8" t="n">
-        <v>1.62</v>
+        <v>1.84</v>
       </c>
       <c r="U8" t="n">
-        <v>2.32</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.34</v>
+        <v>3.05</v>
       </c>
       <c r="W8" t="n">
-        <v>1.83</v>
+        <v>1.13</v>
       </c>
       <c r="X8" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>30</v>
+      </c>
+      <c r="AH8" t="n">
         <v>24</v>
       </c>
-      <c r="Y8" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AI8" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AN8" t="n">
-        <v>14.5</v>
+        <v>130</v>
       </c>
       <c r="AO8" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Slovakian Super League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,78 +1598,78 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SSD Dolomiti Bellunesi</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Ruzomberok</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.85</v>
+        <v>1.44</v>
       </c>
       <c r="G9" t="n">
-        <v>4.6</v>
+        <v>1.51</v>
       </c>
       <c r="H9" t="n">
-        <v>2.08</v>
+        <v>7.2</v>
       </c>
       <c r="I9" t="n">
-        <v>2.34</v>
+        <v>10.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.9</v>
+        <v>4.9</v>
       </c>
       <c r="K9" t="n">
-        <v>3.55</v>
+        <v>5.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>2.94</v>
+        <v>4.9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.42</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>1.66</v>
+        <v>2.36</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.2</v>
+        <v>1.61</v>
       </c>
       <c r="R9" t="n">
-        <v>1.24</v>
+        <v>1.54</v>
       </c>
       <c r="S9" t="n">
-        <v>3.75</v>
+        <v>2.52</v>
       </c>
       <c r="T9" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="U9" t="n">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="V9" t="n">
-        <v>1.74</v>
+        <v>1.11</v>
       </c>
       <c r="W9" t="n">
-        <v>1.28</v>
+        <v>2.96</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
@@ -1678,43 +1678,43 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Slovakian Super League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Ironi Tiberias</t>
+          <t>Podbrezova</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Spartak Trnava</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="G10" t="n">
-        <v>8</v>
+        <v>3.7</v>
       </c>
       <c r="H10" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="I10" t="n">
-        <v>1.59</v>
+        <v>2.32</v>
       </c>
       <c r="J10" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="n">
-        <v>5.3</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
         <v>1.29</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>5.3</v>
+        <v>4.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>2.52</v>
+        <v>2.08</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.54</v>
+        <v>1.74</v>
       </c>
       <c r="R10" t="n">
-        <v>1.59</v>
+        <v>1.44</v>
       </c>
       <c r="S10" t="n">
-        <v>2.38</v>
+        <v>2.86</v>
       </c>
       <c r="T10" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="U10" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="V10" t="n">
-        <v>2.68</v>
+        <v>1.75</v>
       </c>
       <c r="W10" t="n">
-        <v>1.15</v>
+        <v>1.37</v>
       </c>
       <c r="X10" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="Y10" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>13</v>
+        <v>18.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>16.5</v>
+        <v>34</v>
       </c>
       <c r="AB10" t="n">
-        <v>34</v>
+        <v>18.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG10" t="n">
         <v>18</v>
       </c>
-      <c r="AF10" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>29</v>
-      </c>
       <c r="AH10" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AJ10" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="AK10" t="n">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="AL10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM10" t="n">
         <v>85</v>
       </c>
-      <c r="AM10" t="n">
-        <v>110</v>
-      </c>
       <c r="AN10" t="n">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AO10" t="n">
-        <v>7.4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,99 +1868,99 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Kahraba Ismailia</t>
+          <t>SSD Dolomiti Bellunesi</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Pyramids</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>13.5</v>
+        <v>4.1</v>
       </c>
       <c r="G11" t="n">
-        <v>16.5</v>
+        <v>4.8</v>
       </c>
       <c r="H11" t="n">
-        <v>1.29</v>
+        <v>1.99</v>
       </c>
       <c r="I11" t="n">
-        <v>1.35</v>
+        <v>2.22</v>
       </c>
       <c r="J11" t="n">
-        <v>5.1</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>5.9</v>
+        <v>3.7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>3.55</v>
+        <v>3.05</v>
       </c>
       <c r="O11" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="P11" t="n">
-        <v>1.88</v>
+        <v>1.69</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="R11" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="S11" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T11" t="n">
-        <v>2.58</v>
+        <v>1.9</v>
       </c>
       <c r="U11" t="n">
-        <v>1.54</v>
+        <v>1.89</v>
       </c>
       <c r="V11" t="n">
-        <v>3.85</v>
+        <v>1.83</v>
       </c>
       <c r="W11" t="n">
-        <v>1.06</v>
+        <v>1.27</v>
       </c>
       <c r="X11" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
         <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
         <v>1000</v>
@@ -1975,25 +1975,25 @@
         <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>460</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>440</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,123 +2003,123 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Zeljeznicar</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>Siroki Brijeg</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.35</v>
+        <v>1.55</v>
       </c>
       <c r="G12" t="n">
-        <v>1.41</v>
+        <v>2.02</v>
       </c>
       <c r="H12" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I12" t="n">
         <v>8</v>
       </c>
-      <c r="I12" t="n">
-        <v>9.6</v>
-      </c>
       <c r="J12" t="n">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="K12" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>5.9</v>
+        <v>2.36</v>
       </c>
       <c r="O12" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="P12" t="n">
-        <v>2.7</v>
+        <v>1.52</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.49</v>
+        <v>2.04</v>
       </c>
       <c r="R12" t="n">
-        <v>1.68</v>
+        <v>1.18</v>
       </c>
       <c r="S12" t="n">
-        <v>2.2</v>
+        <v>2.96</v>
       </c>
       <c r="T12" t="n">
-        <v>1.78</v>
+        <v>1.04</v>
       </c>
       <c r="U12" t="n">
-        <v>2.04</v>
+        <v>1.04</v>
       </c>
       <c r="V12" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="W12" t="n">
-        <v>3.3</v>
+        <v>1.98</v>
       </c>
       <c r="X12" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Maccabi Netanya</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>FC Ashdod</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.4</v>
+        <v>2.04</v>
       </c>
       <c r="G13" t="n">
-        <v>4.6</v>
+        <v>2.2</v>
       </c>
       <c r="H13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="W13" t="n">
         <v>1.83</v>
       </c>
-      <c r="I13" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
       <c r="X13" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Y13" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="Z13" t="n">
-        <v>11.5</v>
+        <v>36</v>
       </c>
       <c r="AA13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH13" t="n">
         <v>19.5</v>
       </c>
-      <c r="AB13" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF13" t="n">
+      <c r="AI13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL13" t="n">
         <v>36</v>
       </c>
-      <c r="AG13" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>100</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>55</v>
-      </c>
       <c r="AM13" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AN13" t="n">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="AO13" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Blooming Santa Cruz</t>
+          <t>Ironi Tiberias</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Academia de Balompie Bolivi</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.25</v>
+        <v>6</v>
       </c>
       <c r="G14" t="n">
-        <v>1.32</v>
+        <v>8</v>
       </c>
       <c r="H14" t="n">
-        <v>11</v>
+        <v>1.5</v>
       </c>
       <c r="I14" t="n">
-        <v>14.5</v>
+        <v>1.59</v>
       </c>
       <c r="J14" t="n">
-        <v>6.2</v>
+        <v>4.6</v>
       </c>
       <c r="K14" t="n">
-        <v>7.8</v>
+        <v>5.3</v>
       </c>
       <c r="L14" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="M14" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="O14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="W14" t="n">
         <v>1.15</v>
       </c>
-      <c r="P14" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W14" t="n">
-        <v>4.1</v>
-      </c>
       <c r="X14" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI14" t="n">
         <v>36</v>
       </c>
-      <c r="Y14" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>150</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>48</v>
-      </c>
-      <c r="AE14" t="n">
+      <c r="AJ14" t="n">
         <v>200</v>
       </c>
-      <c r="AF14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AK14" t="n">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="AL14" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="AM14" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.1</v>
+        <v>95</v>
       </c>
       <c r="AO14" t="n">
-        <v>220</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Kahraba Ismailia</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Pyramids</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.4</v>
+        <v>13.5</v>
       </c>
       <c r="G15" t="n">
-        <v>3.45</v>
+        <v>16.5</v>
       </c>
       <c r="H15" t="n">
-        <v>2.36</v>
+        <v>1.29</v>
       </c>
       <c r="I15" t="n">
-        <v>2.38</v>
+        <v>1.34</v>
       </c>
       <c r="J15" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S15" t="n">
         <v>3.5</v>
       </c>
-      <c r="K15" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S15" t="n">
-        <v>4</v>
-      </c>
       <c r="T15" t="n">
-        <v>1.91</v>
+        <v>2.58</v>
       </c>
       <c r="U15" t="n">
-        <v>2.04</v>
+        <v>1.54</v>
       </c>
       <c r="V15" t="n">
-        <v>1.72</v>
+        <v>3.9</v>
       </c>
       <c r="W15" t="n">
-        <v>1.41</v>
+        <v>1.06</v>
       </c>
       <c r="X15" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD15" t="n">
         <v>12</v>
       </c>
-      <c r="Y15" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC15" t="n">
+      <c r="AE15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>180</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>460</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>350</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>440</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO15" t="n">
         <v>7.4</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>46</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.16</v>
+        <v>1.35</v>
       </c>
       <c r="G16" t="n">
-        <v>2.18</v>
+        <v>1.41</v>
       </c>
       <c r="H16" t="n">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="I16" t="n">
-        <v>3.8</v>
+        <v>9.6</v>
       </c>
       <c r="J16" t="n">
-        <v>3.65</v>
+        <v>5.5</v>
       </c>
       <c r="K16" t="n">
-        <v>3.7</v>
+        <v>6.6</v>
       </c>
       <c r="L16" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>4</v>
+        <v>5.9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="P16" t="n">
-        <v>2.06</v>
+        <v>2.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.91</v>
+        <v>1.49</v>
       </c>
       <c r="R16" t="n">
-        <v>1.4</v>
+        <v>1.68</v>
       </c>
       <c r="S16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W16" t="n">
         <v>3.3</v>
       </c>
-      <c r="T16" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.85</v>
-      </c>
       <c r="X16" t="n">
-        <v>15.5</v>
+        <v>38</v>
       </c>
       <c r="Y16" t="n">
+        <v>38</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK16" t="n">
         <v>15</v>
       </c>
-      <c r="Z16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>22</v>
-      </c>
       <c r="AL16" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM16" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>15</v>
+        <v>4.8</v>
       </c>
       <c r="AO16" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.39</v>
+        <v>4.6</v>
       </c>
       <c r="G17" t="n">
-        <v>1.4</v>
+        <v>4.7</v>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>1.82</v>
       </c>
       <c r="I17" t="n">
-        <v>10.5</v>
+        <v>1.83</v>
       </c>
       <c r="J17" t="n">
-        <v>5.3</v>
+        <v>4.2</v>
       </c>
       <c r="K17" t="n">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
       <c r="L17" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="R17" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>2.14</v>
+        <v>1.75</v>
       </c>
       <c r="U17" t="n">
-        <v>1.84</v>
+        <v>2.24</v>
       </c>
       <c r="V17" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>19</v>
       </c>
       <c r="Y17" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI17" t="n">
         <v>30</v>
       </c>
-      <c r="Z17" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>380</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>38</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>170</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>140</v>
-      </c>
       <c r="AJ17" t="n">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="AK17" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="AL17" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AM17" t="n">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="AN17" t="n">
-        <v>6.4</v>
+        <v>50</v>
       </c>
       <c r="AO17" t="n">
-        <v>250</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Austrian Bundesliga</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,126 +2813,126 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Blooming Santa Cruz</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>WSG Wattens</t>
+          <t>Academia de Balompie Bolivi</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.66</v>
+        <v>1.29</v>
       </c>
       <c r="G18" t="n">
-        <v>1.73</v>
+        <v>1.36</v>
       </c>
       <c r="H18" t="n">
-        <v>5.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>6.4</v>
+        <v>12.5</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>5.8</v>
       </c>
       <c r="K18" t="n">
-        <v>4.4</v>
+        <v>7.2</v>
       </c>
       <c r="L18" t="n">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.27</v>
+        <v>1.15</v>
       </c>
       <c r="P18" t="n">
-        <v>2.04</v>
+        <v>2.76</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.81</v>
+        <v>1.46</v>
       </c>
       <c r="R18" t="n">
-        <v>1.41</v>
+        <v>1.71</v>
       </c>
       <c r="S18" t="n">
-        <v>3.05</v>
+        <v>2.12</v>
       </c>
       <c r="T18" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="V18" t="n">
-        <v>1.19</v>
+        <v>1.09</v>
       </c>
       <c r="W18" t="n">
-        <v>2.36</v>
+        <v>3.7</v>
       </c>
       <c r="X18" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="Y18" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="Z18" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AB18" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>11.5</v>
+        <v>16</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AF18" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH18" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AI18" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AJ18" t="n">
-        <v>21</v>
+        <v>13.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN18" t="n">
-        <v>9.800000000000001</v>
+        <v>4.9</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>1.39</v>
       </c>
       <c r="G19" t="n">
-        <v>5.1</v>
+        <v>1.4</v>
       </c>
       <c r="H19" t="n">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="I19" t="n">
-        <v>1.81</v>
+        <v>10.5</v>
       </c>
       <c r="J19" t="n">
-        <v>3.95</v>
+        <v>5.3</v>
       </c>
       <c r="K19" t="n">
-        <v>4</v>
+        <v>5.4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="O19" t="n">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="P19" t="n">
-        <v>1.91</v>
+        <v>2.16</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.06</v>
+        <v>1.84</v>
       </c>
       <c r="R19" t="n">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="S19" t="n">
-        <v>3.75</v>
+        <v>3.15</v>
       </c>
       <c r="T19" t="n">
-        <v>1.98</v>
+        <v>2.16</v>
       </c>
       <c r="U19" t="n">
-        <v>1.97</v>
+        <v>1.82</v>
       </c>
       <c r="V19" t="n">
-        <v>2.22</v>
+        <v>1.1</v>
       </c>
       <c r="W19" t="n">
-        <v>1.24</v>
+        <v>3.5</v>
       </c>
       <c r="X19" t="n">
-        <v>13.5</v>
+        <v>19</v>
       </c>
       <c r="Y19" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="Z19" t="n">
-        <v>9.6</v>
+        <v>90</v>
       </c>
       <c r="AA19" t="n">
-        <v>18.5</v>
+        <v>380</v>
       </c>
       <c r="AB19" t="n">
-        <v>16</v>
+        <v>7.4</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.6</v>
+        <v>12</v>
       </c>
       <c r="AD19" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="AE19" t="n">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="AF19" t="n">
-        <v>38</v>
+        <v>7.8</v>
       </c>
       <c r="AG19" t="n">
-        <v>19.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH19" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AI19" t="n">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="AJ19" t="n">
-        <v>130</v>
+        <v>11.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="AL19" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AM19" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="AN19" t="n">
-        <v>90</v>
+        <v>6.4</v>
       </c>
       <c r="AO19" t="n">
-        <v>12.5</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.76</v>
+        <v>2.14</v>
       </c>
       <c r="G20" t="n">
-        <v>2.9</v>
+        <v>2.16</v>
       </c>
       <c r="H20" t="n">
-        <v>2.68</v>
+        <v>3.75</v>
       </c>
       <c r="I20" t="n">
-        <v>2.86</v>
+        <v>3.8</v>
       </c>
       <c r="J20" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="K20" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="L20" t="n">
         <v>1.39</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="O20" t="n">
         <v>1.3</v>
       </c>
       <c r="P20" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="R20" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S20" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="T20" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="U20" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V20" t="n">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="W20" t="n">
-        <v>1.52</v>
+        <v>1.86</v>
       </c>
       <c r="X20" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA20" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AB20" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD20" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE20" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AF20" t="n">
-        <v>23</v>
+        <v>13.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>15.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AI20" t="n">
         <v>48</v>
       </c>
       <c r="AJ20" t="n">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="AK20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO20" t="n">
         <v>38</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>30</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="G21" t="n">
-        <v>5</v>
+        <v>3.45</v>
       </c>
       <c r="H21" t="n">
-        <v>1.77</v>
+        <v>2.36</v>
       </c>
       <c r="I21" t="n">
-        <v>1.78</v>
+        <v>2.38</v>
       </c>
       <c r="J21" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="K21" t="n">
-        <v>4.2</v>
+        <v>3.55</v>
       </c>
       <c r="L21" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N21" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="P21" t="n">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.87</v>
+        <v>2.22</v>
       </c>
       <c r="R21" t="n">
-        <v>1.41</v>
+        <v>1.31</v>
       </c>
       <c r="S21" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="T21" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="U21" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="V21" t="n">
-        <v>2.28</v>
+        <v>1.72</v>
       </c>
       <c r="W21" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="X21" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="Z21" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB21" t="n">
         <v>11.5</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AC21" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH21" t="n">
         <v>19</v>
       </c>
-      <c r="AB21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF21" t="n">
+      <c r="AI21" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN21" t="n">
         <v>46</v>
       </c>
-      <c r="AG21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>65</v>
-      </c>
       <c r="AO21" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Austrian Bundesliga</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,45 +3353,45 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>WSG Wattens</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.41</v>
+        <v>1.67</v>
       </c>
       <c r="G22" t="n">
-        <v>1.43</v>
+        <v>1.73</v>
       </c>
       <c r="H22" t="n">
-        <v>9.199999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="I22" t="n">
-        <v>10</v>
+        <v>6.2</v>
       </c>
       <c r="J22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
-        <v>5.3</v>
+        <v>4.4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="M22" t="n">
         <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O22" t="n">
         <v>1.27</v>
@@ -3400,85 +3400,85 @@
         <v>2.04</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="R22" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="S22" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T22" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="U22" t="n">
-        <v>1.78</v>
+        <v>2.04</v>
       </c>
       <c r="V22" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="W22" t="n">
-        <v>3.3</v>
+        <v>2.36</v>
       </c>
       <c r="X22" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y22" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="Z22" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="AA22" t="n">
-        <v>440</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="AC22" t="n">
         <v>11.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="AE22" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>8.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH22" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AI22" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AJ22" t="n">
-        <v>12.5</v>
+        <v>21</v>
       </c>
       <c r="AK22" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AL22" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>7.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO22" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,126 +3488,126 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.12</v>
+        <v>5.1</v>
       </c>
       <c r="G23" t="n">
-        <v>1.13</v>
+        <v>5.2</v>
       </c>
       <c r="H23" t="n">
-        <v>30</v>
+        <v>1.79</v>
       </c>
       <c r="I23" t="n">
-        <v>36</v>
+        <v>1.8</v>
       </c>
       <c r="J23" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>90</v>
+      </c>
+      <c r="AO23" t="n">
         <v>12.5</v>
-      </c>
-      <c r="K23" t="n">
-        <v>14</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N23" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="W23" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="X23" t="n">
-        <v>70</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="24">
@@ -3628,127 +3628,127 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.26</v>
+        <v>2.76</v>
       </c>
       <c r="G24" t="n">
-        <v>2.38</v>
+        <v>2.94</v>
       </c>
       <c r="H24" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="I24" t="n">
-        <v>3.65</v>
+        <v>2.86</v>
       </c>
       <c r="J24" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K24" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L24" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="O24" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P24" t="n">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.99</v>
+        <v>1.87</v>
       </c>
       <c r="R24" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="S24" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="T24" t="n">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="U24" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="V24" t="n">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="W24" t="n">
-        <v>1.72</v>
+        <v>1.52</v>
       </c>
       <c r="X24" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="Y24" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD24" t="n">
         <v>15.5</v>
       </c>
-      <c r="Z24" t="n">
+      <c r="AE24" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN24" t="n">
         <v>30</v>
       </c>
-      <c r="AA24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>23</v>
-      </c>
       <c r="AO24" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.39</v>
+        <v>4.8</v>
       </c>
       <c r="G25" t="n">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="H25" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J25" t="n">
+        <v>4</v>
+      </c>
+      <c r="K25" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N25" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X25" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC25" t="n">
         <v>9</v>
       </c>
-      <c r="I25" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="J25" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="K25" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N25" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S25" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="W25" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="X25" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>85</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>280</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AD25" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="AE25" t="n">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="AF25" t="n">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="AG25" t="n">
-        <v>9.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="AH25" t="n">
-        <v>25</v>
+        <v>19.5</v>
       </c>
       <c r="AI25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM25" t="n">
         <v>110</v>
       </c>
-      <c r="AJ25" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>120</v>
-      </c>
       <c r="AN25" t="n">
-        <v>5.2</v>
+        <v>65</v>
       </c>
       <c r="AO25" t="n">
-        <v>120</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>4.6</v>
+        <v>1.41</v>
       </c>
       <c r="G26" t="n">
-        <v>4.7</v>
+        <v>1.43</v>
       </c>
       <c r="H26" t="n">
-        <v>1.81</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I26" t="n">
-        <v>1.82</v>
+        <v>10</v>
       </c>
       <c r="J26" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="K26" t="n">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="L26" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O26" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P26" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T26" t="n">
         <v>2.12</v>
       </c>
-      <c r="Q26" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S26" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.81</v>
-      </c>
       <c r="U26" t="n">
-        <v>2.16</v>
+        <v>1.78</v>
       </c>
       <c r="V26" t="n">
-        <v>2.2</v>
+        <v>1.11</v>
       </c>
       <c r="W26" t="n">
-        <v>1.27</v>
+        <v>3.3</v>
       </c>
       <c r="X26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y26" t="n">
-        <v>9.199999999999999</v>
+        <v>29</v>
       </c>
       <c r="Z26" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>440</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC26" t="n">
         <v>11.5</v>
       </c>
-      <c r="AA26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>9</v>
-      </c>
       <c r="AD26" t="n">
-        <v>9.6</v>
+        <v>38</v>
       </c>
       <c r="AE26" t="n">
-        <v>17.5</v>
+        <v>180</v>
       </c>
       <c r="AF26" t="n">
-        <v>36</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG26" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AH26" t="n">
-        <v>19.5</v>
+        <v>30</v>
       </c>
       <c r="AI26" t="n">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="AJ26" t="n">
-        <v>95</v>
+        <v>11.5</v>
       </c>
       <c r="AK26" t="n">
-        <v>60</v>
+        <v>15.5</v>
       </c>
       <c r="AL26" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AM26" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>60</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO26" t="n">
-        <v>11</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>EC Vitoria Salvador</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.96</v>
+        <v>1.11</v>
       </c>
       <c r="G27" t="n">
-        <v>2.04</v>
+        <v>1.13</v>
       </c>
       <c r="H27" t="n">
-        <v>4.1</v>
+        <v>30</v>
       </c>
       <c r="I27" t="n">
-        <v>4.6</v>
+        <v>36</v>
       </c>
       <c r="J27" t="n">
-        <v>3.6</v>
+        <v>13</v>
       </c>
       <c r="K27" t="n">
-        <v>3.85</v>
+        <v>14.5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.43</v>
+        <v>1.17</v>
       </c>
       <c r="M27" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>3.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O27" t="n">
-        <v>1.35</v>
+        <v>1.11</v>
       </c>
       <c r="P27" t="n">
-        <v>1.87</v>
+        <v>3.45</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.12</v>
+        <v>1.37</v>
       </c>
       <c r="R27" t="n">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="S27" t="n">
-        <v>3.55</v>
+        <v>1.94</v>
       </c>
       <c r="T27" t="n">
-        <v>1.83</v>
+        <v>2.42</v>
       </c>
       <c r="U27" t="n">
-        <v>1.98</v>
+        <v>1.65</v>
       </c>
       <c r="V27" t="n">
-        <v>1.28</v>
+        <v>1.03</v>
       </c>
       <c r="W27" t="n">
-        <v>1.96</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X27" t="n">
+        <v>70</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB27" t="n">
         <v>14</v>
       </c>
-      <c r="Y27" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>9</v>
-      </c>
       <c r="AC27" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD27" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>13</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG27" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI27" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>25</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AK27" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AL27" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AM27" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>17</v>
+        <v>2.72</v>
       </c>
       <c r="AO27" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Real Tomayapo</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Oriente Petrolero</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.44</v>
+        <v>2.28</v>
       </c>
       <c r="G28" t="n">
-        <v>2.76</v>
+        <v>2.38</v>
       </c>
       <c r="H28" t="n">
-        <v>2.56</v>
+        <v>3.35</v>
       </c>
       <c r="I28" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="J28" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="K28" t="n">
-        <v>4.8</v>
+        <v>3.55</v>
       </c>
       <c r="L28" t="n">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
       <c r="M28" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>4.5</v>
+        <v>3.55</v>
       </c>
       <c r="O28" t="n">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="P28" t="n">
-        <v>2.32</v>
+        <v>1.88</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.57</v>
+        <v>2.02</v>
       </c>
       <c r="R28" t="n">
-        <v>1.59</v>
+        <v>1.34</v>
       </c>
       <c r="S28" t="n">
-        <v>2.32</v>
+        <v>3.55</v>
       </c>
       <c r="T28" t="n">
-        <v>1.52</v>
+        <v>1.83</v>
       </c>
       <c r="U28" t="n">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="V28" t="n">
-        <v>1.56</v>
+        <v>1.38</v>
       </c>
       <c r="W28" t="n">
-        <v>1.57</v>
+        <v>1.72</v>
       </c>
       <c r="X28" t="n">
-        <v>28</v>
+        <v>16.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="Z28" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AA28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE28" t="n">
         <v>55</v>
       </c>
-      <c r="AB28" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>970</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>32</v>
-      </c>
       <c r="AF28" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AG28" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AH28" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AI28" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AK28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL28" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AM28" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AO28" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Fortaleza EC</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="F29" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+      <c r="I29" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="J29" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K29" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N29" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="T29" t="n">
         <v>1.91</v>
       </c>
-      <c r="G29" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="H29" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="I29" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N29" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S29" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T29" t="n">
+      <c r="U29" t="n">
         <v>2.04</v>
       </c>
-      <c r="U29" t="n">
-        <v>1.87</v>
-      </c>
       <c r="V29" t="n">
-        <v>1.25</v>
+        <v>1.12</v>
       </c>
       <c r="W29" t="n">
-        <v>2.06</v>
+        <v>3.45</v>
       </c>
       <c r="X29" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="Y29" t="n">
-        <v>14.5</v>
+        <v>32</v>
       </c>
       <c r="Z29" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>270</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL29" t="n">
         <v>34</v>
       </c>
-      <c r="AA29" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>48</v>
-      </c>
       <c r="AM29" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AN29" t="n">
-        <v>18.5</v>
+        <v>5.2</v>
       </c>
       <c r="AO29" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,126 +4433,126 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="G30" t="n">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="H30" t="n">
-        <v>1.76</v>
+        <v>1.88</v>
       </c>
       <c r="I30" t="n">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="J30" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K30" t="n">
         <v>4.1</v>
       </c>
       <c r="L30" t="n">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="M30" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="O30" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="P30" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="R30" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="S30" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="T30" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="U30" t="n">
-        <v>1.99</v>
+        <v>2.16</v>
       </c>
       <c r="V30" t="n">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="W30" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="X30" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="Z30" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB30" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD30" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AE30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH30" t="n">
         <v>19.5</v>
       </c>
-      <c r="AF30" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>21</v>
-      </c>
       <c r="AI30" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AJ30" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AL30" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AM30" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AN30" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AO30" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="31">
@@ -4568,126 +4568,126 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Fortaleza EC</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.23</v>
+        <v>1.88</v>
       </c>
       <c r="G31" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R31" t="n">
         <v>1.26</v>
       </c>
-      <c r="H31" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="I31" t="n">
+      <c r="S31" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="W31" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="X31" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN31" t="n">
         <v>17.5</v>
       </c>
-      <c r="J31" t="n">
-        <v>7</v>
-      </c>
-      <c r="K31" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N31" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P31" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S31" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="T31" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W31" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="X31" t="n">
-        <v>40</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>180</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>20</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>65</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>280</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>200</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>210</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>4.3</v>
-      </c>
       <c r="AO31" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32">
@@ -4703,132 +4703,132 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>EC Vitoria Salvador</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.76</v>
+        <v>1.95</v>
       </c>
       <c r="G32" t="n">
-        <v>2.82</v>
+        <v>2.04</v>
       </c>
       <c r="H32" t="n">
-        <v>2.98</v>
+        <v>4.1</v>
       </c>
       <c r="I32" t="n">
-        <v>3.05</v>
+        <v>4.5</v>
       </c>
       <c r="J32" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="K32" t="n">
-        <v>3.3</v>
+        <v>3.85</v>
       </c>
       <c r="L32" t="n">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="M32" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N32" t="n">
-        <v>2.96</v>
+        <v>3.45</v>
       </c>
       <c r="O32" t="n">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
       <c r="P32" t="n">
-        <v>1.63</v>
+        <v>1.86</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.4</v>
+        <v>2.12</v>
       </c>
       <c r="R32" t="n">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="S32" t="n">
-        <v>4.7</v>
+        <v>3.85</v>
       </c>
       <c r="T32" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U32" t="n">
         <v>2</v>
       </c>
-      <c r="U32" t="n">
-        <v>1.88</v>
-      </c>
       <c r="V32" t="n">
-        <v>1.48</v>
+        <v>1.28</v>
       </c>
       <c r="W32" t="n">
-        <v>1.55</v>
+        <v>1.96</v>
       </c>
       <c r="X32" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Y32" t="n">
-        <v>9.6</v>
+        <v>15</v>
       </c>
       <c r="Z32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD32" t="n">
         <v>18</v>
       </c>
-      <c r="AA32" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AE32" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AF32" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="AG32" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH32" t="n">
         <v>21</v>
       </c>
       <c r="AI32" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ32" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="AK32" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="AL32" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AM32" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN32" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="AO32" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,126 +4838,126 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>20:20:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>Real Tomayapo</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Oriente Petrolero</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="G33" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2.56</v>
       </c>
       <c r="I33" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="J33" t="n">
-        <v>2.94</v>
+        <v>3.85</v>
       </c>
       <c r="K33" t="n">
-        <v>3.65</v>
+        <v>4.5</v>
       </c>
       <c r="L33" t="n">
-        <v>1.51</v>
+        <v>1.3</v>
       </c>
       <c r="M33" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="N33" t="n">
-        <v>2.74</v>
+        <v>4.5</v>
       </c>
       <c r="O33" t="n">
-        <v>1.47</v>
+        <v>1.21</v>
       </c>
       <c r="P33" t="n">
-        <v>1.58</v>
+        <v>2.42</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.36</v>
+        <v>1.57</v>
       </c>
       <c r="R33" t="n">
-        <v>1.21</v>
+        <v>1.59</v>
       </c>
       <c r="S33" t="n">
-        <v>4.7</v>
+        <v>2.32</v>
       </c>
       <c r="T33" t="n">
-        <v>1.97</v>
+        <v>1.52</v>
       </c>
       <c r="U33" t="n">
-        <v>1.85</v>
+        <v>2.32</v>
       </c>
       <c r="V33" t="n">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="W33" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="X33" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y33" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z33" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AA33" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB33" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC33" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD33" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE33" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF33" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG33" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH33" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI33" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AK33" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL33" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM33" t="n">
-        <v>180</v>
+        <v>65</v>
       </c>
       <c r="AN33" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="34">
@@ -4973,126 +4973,126 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SE Palmeiras</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.35</v>
+        <v>5.2</v>
       </c>
       <c r="G34" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="H34" t="n">
-        <v>2.38</v>
+        <v>1.76</v>
       </c>
       <c r="I34" t="n">
-        <v>2.52</v>
+        <v>1.78</v>
       </c>
       <c r="J34" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="K34" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="L34" t="n">
-        <v>1.51</v>
+        <v>1.43</v>
       </c>
       <c r="M34" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N34" t="n">
-        <v>2.94</v>
+        <v>3.6</v>
       </c>
       <c r="O34" t="n">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="P34" t="n">
-        <v>1.67</v>
+        <v>1.93</v>
       </c>
       <c r="Q34" t="n">
+        <v>2</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V34" t="n">
         <v>2.28</v>
       </c>
-      <c r="R34" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S34" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.66</v>
-      </c>
       <c r="W34" t="n">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="X34" t="n">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z34" t="n">
-        <v>16.5</v>
+        <v>10.5</v>
       </c>
       <c r="AA34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF34" t="n">
         <v>40</v>
       </c>
-      <c r="AB34" t="n">
+      <c r="AG34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>140</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>95</v>
+      </c>
+      <c r="AO34" t="n">
         <v>12.5</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>65</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="35">
@@ -5108,132 +5108,132 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Ceara SC Fortaleza</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="G35" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="H35" t="n">
         <v>14</v>
       </c>
       <c r="I35" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="J35" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="K35" t="n">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="L35" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="M35" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N35" t="n">
-        <v>4.7</v>
+        <v>6.2</v>
       </c>
       <c r="O35" t="n">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="P35" t="n">
-        <v>2.26</v>
+        <v>2.8</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.7</v>
+        <v>1.47</v>
       </c>
       <c r="R35" t="n">
-        <v>1.49</v>
+        <v>1.73</v>
       </c>
       <c r="S35" t="n">
-        <v>2.8</v>
+        <v>2.14</v>
       </c>
       <c r="T35" t="n">
-        <v>2.4</v>
+        <v>2.06</v>
       </c>
       <c r="U35" t="n">
-        <v>1.64</v>
+        <v>1.76</v>
       </c>
       <c r="V35" t="n">
         <v>1.06</v>
       </c>
       <c r="W35" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="X35" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="Y35" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="Z35" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AA35" t="n">
-        <v>810</v>
+        <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>8.4</v>
+        <v>12</v>
       </c>
       <c r="AC35" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AD35" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AE35" t="n">
         <v>280</v>
       </c>
       <c r="AF35" t="n">
-        <v>7.4</v>
+        <v>10.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AI35" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="AJ35" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AK35" t="n">
         <v>14.5</v>
       </c>
       <c r="AL35" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AM35" t="n">
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="AN35" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="AO35" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,260 +5243,1070 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Cruz Azul</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.5</v>
+        <v>2.78</v>
       </c>
       <c r="G36" t="n">
-        <v>2.64</v>
+        <v>2.82</v>
       </c>
       <c r="H36" t="n">
         <v>2.98</v>
       </c>
       <c r="I36" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="J36" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="K36" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L36" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="M36" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N36" t="n">
-        <v>3.7</v>
+        <v>2.96</v>
       </c>
       <c r="O36" t="n">
-        <v>1.32</v>
+        <v>1.47</v>
       </c>
       <c r="P36" t="n">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.98</v>
+        <v>2.4</v>
       </c>
       <c r="R36" t="n">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="S36" t="n">
-        <v>3.45</v>
+        <v>4.7</v>
       </c>
       <c r="T36" t="n">
-        <v>1.74</v>
+        <v>1.99</v>
       </c>
       <c r="U36" t="n">
-        <v>2.16</v>
+        <v>1.9</v>
       </c>
       <c r="V36" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="W36" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="X36" t="n">
-        <v>17.5</v>
+        <v>9.6</v>
       </c>
       <c r="Y36" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="Z36" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA36" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB36" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AC36" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD36" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF36" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH36" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI36" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK36" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL36" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM36" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN36" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO36" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>Chilean Primera B</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Deportes Concepcion</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Cobreloa Calama</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I37" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K37" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>20:20:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Fortaleza FC</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Bolivian Liga de Futbol Profesional</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Jorge Wilstermann</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>CDT Real Oruro</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K39" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N39" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Atletico MG</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>SE Palmeiras</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K40" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X40" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Ceara SC Fortaleza</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H41" t="n">
+        <v>14</v>
+      </c>
+      <c r="I41" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J41" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K41" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N41" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T41" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="W41" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="X41" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>42</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>140</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>800</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>280</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>220</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>260</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Cruz Azul</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Tigres</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N42" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X42" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
         <is>
           <t>22:30:00</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>Atletico Bucaramanga</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>Tolima</t>
         </is>
       </c>
-      <c r="F37" t="n">
+      <c r="F43" t="n">
         <v>2.2</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G43" t="n">
         <v>2.3</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H43" t="n">
         <v>3.65</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I43" t="n">
         <v>4.3</v>
       </c>
-      <c r="J37" t="n">
-        <v>3</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J43" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K43" t="n">
         <v>3.45</v>
       </c>
-      <c r="L37" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M37" t="n">
+      <c r="L43" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M43" t="n">
         <v>1.09</v>
       </c>
-      <c r="N37" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="O37" t="n">
+      <c r="N43" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="O43" t="n">
         <v>1.48</v>
       </c>
-      <c r="P37" t="n">
+      <c r="P43" t="n">
         <v>1.58</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="Q43" t="n">
         <v>2.42</v>
       </c>
-      <c r="R37" t="n">
+      <c r="R43" t="n">
         <v>1.21</v>
       </c>
-      <c r="S37" t="n">
+      <c r="S43" t="n">
         <v>4.4</v>
       </c>
-      <c r="T37" t="n">
+      <c r="T43" t="n">
         <v>2</v>
       </c>
-      <c r="U37" t="n">
+      <c r="U43" t="n">
         <v>1.8</v>
       </c>
-      <c r="V37" t="n">
+      <c r="V43" t="n">
         <v>1.3</v>
       </c>
-      <c r="W37" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="X37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB37" t="n">
+      <c r="W43" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB43" t="n">
         <v>9</v>
       </c>
-      <c r="AC37" t="n">
+      <c r="AC43" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AD37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO37" t="n">
+      <c r="AD43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO43" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO43"/>
+  <dimension ref="A1:AO44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="G2" t="n">
         <v>7.4</v>
       </c>
       <c r="H2" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="I2" t="n">
         <v>1.64</v>
       </c>
       <c r="J2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K2" t="n">
         <v>4.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -694,22 +694,22 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P2" t="n">
         <v>2.06</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R2" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S2" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="T2" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="U2" t="n">
         <v>1.96</v>
@@ -730,13 +730,13 @@
         <v>11.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AB2" t="n">
         <v>28</v>
       </c>
       <c r="AC2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
         <v>12</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="G3" t="n">
         <v>1000</v>
@@ -814,22 +814,22 @@
         <v>1.54</v>
       </c>
       <c r="J3" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>1.1</v>
+        <v>2.06</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="P3" t="n">
         <v>1.57</v>
@@ -853,7 +853,7 @@
         <v>2.8</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -937,109 +937,109 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="G4" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="H4" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="I4" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="J4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K4" t="n">
         <v>3.6</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.9</v>
       </c>
       <c r="L4" t="n">
         <v>1.37</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="P4" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R4" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S4" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="T4" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U4" t="n">
         <v>1.9</v>
       </c>
       <c r="V4" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="W4" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X4" t="n">
         <v>16</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="Z4" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="AB4" t="n">
-        <v>970</v>
+        <v>28</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="AD4" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AF4" t="n">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="AH4" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="AI4" t="n">
-        <v>44</v>
+        <v>250</v>
       </c>
       <c r="AJ4" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AK4" t="n">
-        <v>90</v>
+        <v>430</v>
       </c>
       <c r="AL4" t="n">
-        <v>95</v>
+        <v>340</v>
       </c>
       <c r="AM4" t="n">
-        <v>170</v>
+        <v>470</v>
       </c>
       <c r="AN4" t="n">
-        <v>130</v>
+        <v>440</v>
       </c>
       <c r="AO4" t="n">
         <v>970</v>
@@ -1075,43 +1075,43 @@
         <v>6.2</v>
       </c>
       <c r="G5" t="n">
-        <v>600</v>
+        <v>19</v>
       </c>
       <c r="H5" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="I5" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K5" t="n">
-        <v>8.6</v>
+        <v>11.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="O5" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="P5" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="Q5" t="n">
         <v>1.81</v>
       </c>
       <c r="R5" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="S5" t="n">
-        <v>2.8</v>
+        <v>2.42</v>
       </c>
       <c r="T5" t="n">
         <v>1.04</v>
@@ -1120,10 +1120,10 @@
         <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>2.56</v>
+        <v>2.38</v>
       </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1213,10 +1213,10 @@
         <v>1.48</v>
       </c>
       <c r="H6" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="J6" t="n">
         <v>4.4</v>
@@ -1225,34 +1225,34 @@
         <v>5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.32</v>
       </c>
       <c r="P6" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="R6" t="n">
         <v>1.32</v>
       </c>
       <c r="S6" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T6" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="U6" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="V6" t="n">
         <v>1.09</v>
@@ -1261,10 +1261,10 @@
         <v>3.05</v>
       </c>
       <c r="X6" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y6" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
@@ -1273,43 +1273,43 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AC6" t="n">
         <v>11.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG6" t="n">
         <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AK6" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AL6" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="G7" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H7" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I7" t="n">
         <v>3.4</v>
@@ -1357,43 +1357,43 @@
         <v>2.82</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="O7" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="P7" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R7" t="n">
         <v>1.25</v>
       </c>
       <c r="S7" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U7" t="n">
         <v>1.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W7" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1411,7 +1411,7 @@
         <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD7" t="n">
         <v>1000</v>
@@ -1480,10 +1480,10 @@
         <v>7.4</v>
       </c>
       <c r="G8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="H8" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="I8" t="n">
         <v>1.49</v>
@@ -1492,7 +1492,7 @@
         <v>5.1</v>
       </c>
       <c r="K8" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L8" t="n">
         <v>1.25</v>
@@ -1510,7 +1510,7 @@
         <v>2.34</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R8" t="n">
         <v>1.54</v>
@@ -1531,13 +1531,13 @@
         <v>1.13</v>
       </c>
       <c r="X8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
         <v>10.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA8" t="n">
         <v>13</v>
@@ -1549,10 +1549,10 @@
         <v>12.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE8" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
         <v>1000</v>
@@ -1576,10 +1576,10 @@
         <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AO8" t="n">
         <v>6</v>
@@ -1615,16 +1615,16 @@
         <v>1.44</v>
       </c>
       <c r="G9" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="H9" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="I9" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="J9" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="K9" t="n">
         <v>5.4</v>
@@ -1654,22 +1654,22 @@
         <v>2.52</v>
       </c>
       <c r="T9" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="U9" t="n">
         <v>2.1</v>
       </c>
       <c r="V9" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W9" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="X9" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Y9" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
@@ -1681,19 +1681,19 @@
         <v>12.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
         <v>28</v>
@@ -1702,13 +1702,13 @@
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AK9" t="n">
         <v>18</v>
       </c>
       <c r="AL9" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
@@ -1753,16 +1753,16 @@
         <v>3.7</v>
       </c>
       <c r="H10" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="I10" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="J10" t="n">
         <v>3.6</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L10" t="n">
         <v>1.29</v>
@@ -1777,34 +1777,34 @@
         <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q10" t="n">
         <v>1.74</v>
       </c>
       <c r="R10" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S10" t="n">
-        <v>2.86</v>
+        <v>2.74</v>
       </c>
       <c r="T10" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U10" t="n">
         <v>2.28</v>
       </c>
       <c r="V10" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="W10" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X10" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z10" t="n">
         <v>18.5</v>
@@ -1822,7 +1822,7 @@
         <v>12</v>
       </c>
       <c r="AE10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF10" t="n">
         <v>32</v>
@@ -1837,22 +1837,22 @@
         <v>40</v>
       </c>
       <c r="AJ10" t="n">
-        <v>70</v>
+        <v>470</v>
       </c>
       <c r="AK10" t="n">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AL10" t="n">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="AM10" t="n">
-        <v>85</v>
+        <v>330</v>
       </c>
       <c r="AN10" t="n">
         <v>38</v>
       </c>
       <c r="AO10" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="11">
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
         <v>4.8</v>
       </c>
       <c r="H11" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="I11" t="n">
         <v>2.22</v>
@@ -1924,7 +1924,7 @@
         <v>3.75</v>
       </c>
       <c r="T11" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U11" t="n">
         <v>1.89</v>
@@ -1936,25 +1936,25 @@
         <v>1.27</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB11" t="n">
         <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
@@ -2020,7 +2020,7 @@
         <v>1.55</v>
       </c>
       <c r="G12" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
         <v>4.4</v>
@@ -2038,13 +2038,13 @@
         <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
         <v>2.36</v>
       </c>
       <c r="O12" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="P12" t="n">
         <v>1.52</v>
@@ -2068,7 +2068,7 @@
         <v>1.14</v>
       </c>
       <c r="W12" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2185,7 +2185,7 @@
         <v>2.32</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R13" t="n">
         <v>1.48</v>
@@ -2194,7 +2194,7 @@
         <v>2.68</v>
       </c>
       <c r="T13" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U13" t="n">
         <v>2.44</v>
@@ -2236,7 +2236,7 @@
         <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
         <v>55</v>
@@ -2251,7 +2251,7 @@
         <v>36</v>
       </c>
       <c r="AM13" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="AN13" t="n">
         <v>14</v>
@@ -2305,7 +2305,7 @@
         <v>5.3</v>
       </c>
       <c r="L14" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2365,7 +2365,7 @@
         <v>18</v>
       </c>
       <c r="AF14" t="n">
-        <v>65</v>
+        <v>450</v>
       </c>
       <c r="AG14" t="n">
         <v>29</v>
@@ -2380,16 +2380,16 @@
         <v>200</v>
       </c>
       <c r="AK14" t="n">
-        <v>95</v>
+        <v>510</v>
       </c>
       <c r="AL14" t="n">
-        <v>85</v>
+        <v>400</v>
       </c>
       <c r="AM14" t="n">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="AN14" t="n">
-        <v>95</v>
+        <v>330</v>
       </c>
       <c r="AO14" t="n">
         <v>7.4</v>
@@ -2431,7 +2431,7 @@
         <v>1.29</v>
       </c>
       <c r="I15" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="J15" t="n">
         <v>5.3</v>
@@ -2440,7 +2440,7 @@
         <v>5.9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
@@ -2464,7 +2464,7 @@
         <v>3.5</v>
       </c>
       <c r="T15" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="U15" t="n">
         <v>1.54</v>
@@ -2488,7 +2488,7 @@
         <v>10.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AC15" t="n">
         <v>14</v>
@@ -2569,7 +2569,7 @@
         <v>9.6</v>
       </c>
       <c r="J16" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K16" t="n">
         <v>6.6</v>
@@ -2590,7 +2590,7 @@
         <v>2.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="R16" t="n">
         <v>1.68</v>
@@ -2599,7 +2599,7 @@
         <v>2.2</v>
       </c>
       <c r="T16" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="U16" t="n">
         <v>2.04</v>
@@ -2614,7 +2614,7 @@
         <v>38</v>
       </c>
       <c r="Y16" t="n">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="Z16" t="n">
         <v>100</v>
@@ -2626,10 +2626,10 @@
         <v>14.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD16" t="n">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="AE16" t="n">
         <v>1000</v>
@@ -2641,7 +2641,7 @@
         <v>13.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AI16" t="n">
         <v>1000</v>
@@ -2698,10 +2698,10 @@
         <v>4.7</v>
       </c>
       <c r="H17" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="I17" t="n">
         <v>1.82</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1.83</v>
       </c>
       <c r="J17" t="n">
         <v>4.2</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U17" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>19</v>
       </c>
       <c r="AB17" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD17" t="n">
         <v>10</v>
@@ -2797,7 +2797,7 @@
         <v>50</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -2827,112 +2827,112 @@
         </is>
       </c>
       <c r="F18" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G18" t="n">
         <v>1.29</v>
       </c>
-      <c r="G18" t="n">
-        <v>1.36</v>
-      </c>
       <c r="H18" t="n">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="I18" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="J18" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="K18" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L18" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="M18" t="n">
         <v>1.02</v>
       </c>
       <c r="N18" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P18" t="n">
-        <v>2.76</v>
+        <v>2.9</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="R18" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="S18" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="T18" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="U18" t="n">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="V18" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="W18" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="X18" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="Y18" t="n">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="Z18" t="n">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="AA18" t="n">
-        <v>420</v>
+        <v>590</v>
       </c>
       <c r="AB18" t="n">
         <v>12.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="AE18" t="n">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="AF18" t="n">
         <v>10.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="AI18" t="n">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="AJ18" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AK18" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL18" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="AM18" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.9</v>
+        <v>3.8</v>
       </c>
       <c r="AO18" t="n">
-        <v>180</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="F19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O19" t="n">
         <v>1.39</v>
       </c>
-      <c r="G19" t="n">
+      <c r="P19" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="W19" t="n">
         <v>1.4</v>
       </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="J19" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="K19" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N19" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W19" t="n">
-        <v>3.5</v>
-      </c>
       <c r="X19" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH19" t="n">
         <v>19</v>
       </c>
-      <c r="Y19" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>380</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>170</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>30</v>
-      </c>
       <c r="AI19" t="n">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="AJ19" t="n">
-        <v>11.5</v>
+        <v>65</v>
       </c>
       <c r="AK19" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="AL19" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AM19" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="AN19" t="n">
-        <v>6.4</v>
+        <v>46</v>
       </c>
       <c r="AO19" t="n">
-        <v>250</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G20" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H20" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I20" t="n">
         <v>3.75</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3.8</v>
       </c>
       <c r="J20" t="n">
         <v>3.65</v>
@@ -3121,7 +3121,7 @@
         <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O20" t="n">
         <v>1.3</v>
@@ -3133,10 +3133,10 @@
         <v>1.91</v>
       </c>
       <c r="R20" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S20" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T20" t="n">
         <v>1.76</v>
@@ -3145,10 +3145,10 @@
         <v>2.26</v>
       </c>
       <c r="V20" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W20" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="X20" t="n">
         <v>15.5</v>
@@ -3190,13 +3190,13 @@
         <v>27</v>
       </c>
       <c r="AK20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL20" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM20" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN20" t="n">
         <v>15</v>
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.4</v>
+        <v>1.39</v>
       </c>
       <c r="G21" t="n">
-        <v>3.45</v>
+        <v>1.4</v>
       </c>
       <c r="H21" t="n">
-        <v>2.36</v>
+        <v>10</v>
       </c>
       <c r="I21" t="n">
-        <v>2.38</v>
+        <v>10.5</v>
       </c>
       <c r="J21" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K21" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W21" t="n">
         <v>3.5</v>
       </c>
-      <c r="K21" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S21" t="n">
-        <v>4</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.4</v>
-      </c>
       <c r="X21" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>400</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC21" t="n">
         <v>12</v>
       </c>
-      <c r="Y21" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AD21" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>180</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>11</v>
       </c>
-      <c r="AE21" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>65</v>
-      </c>
       <c r="AK21" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="AL21" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AM21" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="AN21" t="n">
-        <v>46</v>
+        <v>6.4</v>
       </c>
       <c r="AO21" t="n">
-        <v>23</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22">
@@ -3367,25 +3367,25 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="G22" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="H22" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="I22" t="n">
         <v>6.2</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K22" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M22" t="n">
         <v>1.06</v>
@@ -3409,7 +3409,7 @@
         <v>3.05</v>
       </c>
       <c r="T22" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U22" t="n">
         <v>2.04</v>
@@ -3418,16 +3418,16 @@
         <v>1.2</v>
       </c>
       <c r="W22" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="X22" t="n">
         <v>20</v>
       </c>
       <c r="Y22" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Z22" t="n">
-        <v>55</v>
+        <v>240</v>
       </c>
       <c r="AA22" t="n">
         <v>1000</v>
@@ -3439,7 +3439,7 @@
         <v>11.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE22" t="n">
         <v>1000</v>
@@ -3454,16 +3454,16 @@
         <v>21</v>
       </c>
       <c r="AI22" t="n">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="AJ22" t="n">
         <v>21</v>
       </c>
       <c r="AK22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
@@ -3514,13 +3514,13 @@
         <v>1.8</v>
       </c>
       <c r="J23" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K23" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L23" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M23" t="n">
         <v>1.08</v>
@@ -3532,22 +3532,22 @@
         <v>1.36</v>
       </c>
       <c r="P23" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R23" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S23" t="n">
         <v>3.75</v>
       </c>
       <c r="T23" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U23" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="V23" t="n">
         <v>2.24</v>
@@ -3574,7 +3574,7 @@
         <v>8.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE23" t="n">
         <v>19</v>
@@ -3595,7 +3595,7 @@
         <v>130</v>
       </c>
       <c r="AK23" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AL23" t="n">
         <v>80</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="H24" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="I24" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="J24" t="n">
         <v>3.45</v>
@@ -3661,7 +3661,7 @@
         <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="O24" t="n">
         <v>1.3</v>
@@ -3670,13 +3670,13 @@
         <v>2.02</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="R24" t="n">
         <v>1.39</v>
       </c>
       <c r="S24" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T24" t="n">
         <v>1.71</v>
@@ -3688,7 +3688,7 @@
         <v>1.54</v>
       </c>
       <c r="W24" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="X24" t="n">
         <v>18.5</v>
@@ -3733,10 +3733,10 @@
         <v>38</v>
       </c>
       <c r="AL24" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM24" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AN24" t="n">
         <v>30</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="G25" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="H25" t="n">
-        <v>1.77</v>
+        <v>1.9</v>
       </c>
       <c r="I25" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="K25" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="L25" t="n">
         <v>1.36</v>
@@ -3802,82 +3802,82 @@
         <v>1.29</v>
       </c>
       <c r="P25" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R25" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S25" t="n">
         <v>3.1</v>
       </c>
       <c r="T25" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="U25" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V25" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="W25" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="X25" t="n">
         <v>16</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB25" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AC25" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD25" t="n">
         <v>10</v>
       </c>
       <c r="AE25" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="AF25" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AG25" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI25" t="n">
         <v>34</v>
       </c>
       <c r="AJ25" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="n">
-        <v>65</v>
+        <v>330</v>
       </c>
       <c r="AL25" t="n">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="AM25" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN25" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AO25" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="26">
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="G26" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="H26" t="n">
         <v>9.199999999999999</v>
@@ -3919,10 +3919,10 @@
         <v>10</v>
       </c>
       <c r="J26" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="K26" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L26" t="n">
         <v>1.35</v>
@@ -3943,13 +3943,13 @@
         <v>1.83</v>
       </c>
       <c r="R26" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S26" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T26" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U26" t="n">
         <v>1.78</v>
@@ -3958,10 +3958,10 @@
         <v>1.11</v>
       </c>
       <c r="W26" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="X26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y26" t="n">
         <v>29</v>
@@ -3988,7 +3988,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AG26" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH26" t="n">
         <v>30</v>
@@ -4003,7 +4003,7 @@
         <v>15.5</v>
       </c>
       <c r="AL26" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AM26" t="n">
         <v>1000</v>
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="G27" t="n">
         <v>1.13</v>
       </c>
       <c r="H27" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I27" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J27" t="n">
         <v>13</v>
       </c>
       <c r="K27" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="L27" t="n">
         <v>1.17</v>
@@ -4066,7 +4066,7 @@
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="O27" t="n">
         <v>1.11</v>
@@ -4081,22 +4081,22 @@
         <v>2</v>
       </c>
       <c r="S27" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="T27" t="n">
         <v>2.42</v>
       </c>
       <c r="U27" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="V27" t="n">
         <v>1.03</v>
       </c>
       <c r="W27" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="X27" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="Y27" t="n">
         <v>1000</v>
@@ -4108,10 +4108,10 @@
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AD27" t="n">
         <v>1000</v>
@@ -4123,19 +4123,19 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AG27" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AI27" t="n">
         <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AK27" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL27" t="n">
         <v>55</v>
@@ -4144,7 +4144,7 @@
         <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>
@@ -4177,13 +4177,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="G28" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="H28" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="I28" t="n">
         <v>3.6</v>
@@ -4195,7 +4195,7 @@
         <v>3.55</v>
       </c>
       <c r="L28" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M28" t="n">
         <v>1.07</v>
@@ -4210,7 +4210,7 @@
         <v>1.88</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R28" t="n">
         <v>1.34</v>
@@ -4228,7 +4228,7 @@
         <v>1.38</v>
       </c>
       <c r="W28" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="X28" t="n">
         <v>16.5</v>
@@ -4240,13 +4240,13 @@
         <v>29</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB28" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC28" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD28" t="n">
         <v>18.5</v>
@@ -4261,10 +4261,10 @@
         <v>13</v>
       </c>
       <c r="AH28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AJ28" t="n">
         <v>36</v>
@@ -4273,16 +4273,16 @@
         <v>30</v>
       </c>
       <c r="AL28" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AN28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO28" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29">
@@ -4324,10 +4324,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="J29" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K29" t="n">
         <v>5.7</v>
-      </c>
-      <c r="K29" t="n">
-        <v>5.8</v>
       </c>
       <c r="L29" t="n">
         <v>1.29</v>
@@ -4336,7 +4336,7 @@
         <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O29" t="n">
         <v>1.2</v>
@@ -4348,13 +4348,13 @@
         <v>1.61</v>
       </c>
       <c r="R29" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="S29" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="T29" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="U29" t="n">
         <v>2.04</v>
@@ -4375,13 +4375,13 @@
         <v>85</v>
       </c>
       <c r="AA29" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="AB29" t="n">
         <v>10.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD29" t="n">
         <v>32</v>
@@ -4390,13 +4390,13 @@
         <v>130</v>
       </c>
       <c r="AF29" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AG29" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI29" t="n">
         <v>100</v>
@@ -4414,10 +4414,10 @@
         <v>120</v>
       </c>
       <c r="AN29" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AO29" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
@@ -4453,16 +4453,16 @@
         <v>4.5</v>
       </c>
       <c r="H30" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="I30" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="J30" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K30" t="n">
         <v>4</v>
-      </c>
-      <c r="K30" t="n">
-        <v>4.1</v>
       </c>
       <c r="L30" t="n">
         <v>1.31</v>
@@ -4474,10 +4474,10 @@
         <v>4.1</v>
       </c>
       <c r="O30" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P30" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q30" t="n">
         <v>1.89</v>
@@ -4486,34 +4486,34 @@
         <v>1.42</v>
       </c>
       <c r="S30" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T30" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="U30" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V30" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="W30" t="n">
         <v>1.28</v>
       </c>
       <c r="X30" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z30" t="n">
         <v>11.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB30" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC30" t="n">
         <v>8.800000000000001</v>
@@ -4522,43 +4522,43 @@
         <v>10</v>
       </c>
       <c r="AE30" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AG30" t="n">
         <v>17</v>
       </c>
       <c r="AH30" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI30" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ30" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AK30" t="n">
         <v>55</v>
       </c>
       <c r="AL30" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM30" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN30" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO30" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,126 +4568,126 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Fortaleza EC</t>
+          <t>Genesis Huracan</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Juticalpa</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="G31" t="n">
-        <v>1.89</v>
+        <v>2.7</v>
       </c>
       <c r="H31" t="n">
-        <v>5</v>
+        <v>2.94</v>
       </c>
       <c r="I31" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="J31" t="n">
-        <v>3.65</v>
+        <v>2.84</v>
       </c>
       <c r="K31" t="n">
-        <v>3.7</v>
+        <v>7</v>
       </c>
       <c r="L31" t="n">
-        <v>1.51</v>
+        <v>1.3</v>
       </c>
       <c r="M31" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>3.15</v>
+        <v>1.1</v>
       </c>
       <c r="O31" t="n">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="P31" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.26</v>
+        <v>1.74</v>
       </c>
       <c r="R31" t="n">
         <v>1.26</v>
       </c>
       <c r="S31" t="n">
-        <v>4.4</v>
+        <v>2.48</v>
       </c>
       <c r="T31" t="n">
-        <v>2.08</v>
+        <v>1.04</v>
       </c>
       <c r="U31" t="n">
-        <v>1.85</v>
+        <v>1.04</v>
       </c>
       <c r="V31" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W31" t="n">
-        <v>2.12</v>
+        <v>1.58</v>
       </c>
       <c r="X31" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y31" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z31" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA31" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD31" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE31" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AG31" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH31" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI31" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL31" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
@@ -4717,13 +4717,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="G32" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="I32" t="n">
         <v>4.5</v>
@@ -4732,7 +4732,7 @@
         <v>3.6</v>
       </c>
       <c r="K32" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L32" t="n">
         <v>1.43</v>
@@ -4741,16 +4741,16 @@
         <v>1.08</v>
       </c>
       <c r="N32" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O32" t="n">
         <v>1.35</v>
       </c>
       <c r="P32" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="R32" t="n">
         <v>1.32</v>
@@ -4768,7 +4768,7 @@
         <v>1.28</v>
       </c>
       <c r="W32" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="X32" t="n">
         <v>14</v>
@@ -4777,13 +4777,13 @@
         <v>15</v>
       </c>
       <c r="Z32" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="AA32" t="n">
         <v>120</v>
       </c>
       <c r="AB32" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC32" t="n">
         <v>8.6</v>
@@ -4792,7 +4792,7 @@
         <v>18</v>
       </c>
       <c r="AE32" t="n">
-        <v>60</v>
+        <v>330</v>
       </c>
       <c r="AF32" t="n">
         <v>13</v>
@@ -4804,7 +4804,7 @@
         <v>21</v>
       </c>
       <c r="AI32" t="n">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="AJ32" t="n">
         <v>25</v>
@@ -4816,19 +4816,19 @@
         <v>42</v>
       </c>
       <c r="AM32" t="n">
-        <v>140</v>
+        <v>470</v>
       </c>
       <c r="AN32" t="n">
         <v>17</v>
       </c>
       <c r="AO32" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4843,127 +4843,127 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Real Tomayapo</t>
+          <t>Fortaleza EC</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Oriente Petrolero</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.44</v>
+        <v>1.85</v>
       </c>
       <c r="G33" t="n">
-        <v>2.76</v>
+        <v>1.87</v>
       </c>
       <c r="H33" t="n">
-        <v>2.56</v>
+        <v>5.3</v>
       </c>
       <c r="I33" t="n">
-        <v>2.8</v>
+        <v>5.4</v>
       </c>
       <c r="J33" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="K33" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="L33" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="N33" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="O33" t="n">
-        <v>1.21</v>
+        <v>1.41</v>
       </c>
       <c r="P33" t="n">
-        <v>2.42</v>
+        <v>1.72</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.57</v>
+        <v>2.26</v>
       </c>
       <c r="R33" t="n">
-        <v>1.59</v>
+        <v>1.26</v>
       </c>
       <c r="S33" t="n">
-        <v>2.32</v>
+        <v>4.3</v>
       </c>
       <c r="T33" t="n">
-        <v>1.52</v>
+        <v>2.08</v>
       </c>
       <c r="U33" t="n">
-        <v>2.32</v>
+        <v>1.86</v>
       </c>
       <c r="V33" t="n">
-        <v>1.56</v>
+        <v>1.22</v>
       </c>
       <c r="W33" t="n">
-        <v>1.57</v>
+        <v>2.14</v>
       </c>
       <c r="X33" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="Y33" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="AA33" t="n">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="AB33" t="n">
-        <v>970</v>
+        <v>7.4</v>
       </c>
       <c r="AC33" t="n">
-        <v>970</v>
+        <v>8</v>
       </c>
       <c r="AD33" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AE33" t="n">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="AF33" t="n">
-        <v>25</v>
+        <v>9.6</v>
       </c>
       <c r="AG33" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AI33" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="AJ33" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="AK33" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AL33" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AM33" t="n">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="AN33" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="AO33" t="n">
-        <v>970</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,126 +4973,126 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Real Tomayapo</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Oriente Petrolero</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>5.2</v>
+        <v>2.48</v>
       </c>
       <c r="G34" t="n">
-        <v>5.5</v>
+        <v>2.68</v>
       </c>
       <c r="H34" t="n">
-        <v>1.76</v>
+        <v>2.58</v>
       </c>
       <c r="I34" t="n">
-        <v>1.78</v>
+        <v>2.96</v>
       </c>
       <c r="J34" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="K34" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L34" t="n">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="M34" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O34" t="n">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="P34" t="n">
-        <v>1.93</v>
+        <v>2.42</v>
       </c>
       <c r="Q34" t="n">
-        <v>2</v>
+        <v>1.58</v>
       </c>
       <c r="R34" t="n">
-        <v>1.34</v>
+        <v>1.59</v>
       </c>
       <c r="S34" t="n">
-        <v>3.6</v>
+        <v>2.32</v>
       </c>
       <c r="T34" t="n">
-        <v>1.92</v>
+        <v>1.52</v>
       </c>
       <c r="U34" t="n">
-        <v>1.99</v>
+        <v>2.32</v>
       </c>
       <c r="V34" t="n">
-        <v>2.28</v>
+        <v>1.56</v>
       </c>
       <c r="W34" t="n">
-        <v>1.22</v>
+        <v>1.6</v>
       </c>
       <c r="X34" t="n">
-        <v>14.5</v>
+        <v>90</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="Z34" t="n">
-        <v>10.5</v>
+        <v>60</v>
       </c>
       <c r="AA34" t="n">
-        <v>19</v>
+        <v>900</v>
       </c>
       <c r="AB34" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AC34" t="n">
-        <v>8.4</v>
+        <v>42</v>
       </c>
       <c r="AD34" t="n">
-        <v>9.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AE34" t="n">
-        <v>19.5</v>
+        <v>80</v>
       </c>
       <c r="AF34" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AG34" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AH34" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="AI34" t="n">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ34" t="n">
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="AK34" t="n">
         <v>75</v>
       </c>
       <c r="AL34" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM34" t="n">
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="AN34" t="n">
-        <v>95</v>
+        <v>970</v>
       </c>
       <c r="AO34" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
     </row>
     <row r="35">
@@ -5108,126 +5108,126 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="F35" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="G35" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4</v>
+      </c>
+      <c r="K35" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N35" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V35" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="W35" t="n">
         <v>1.22</v>
       </c>
-      <c r="G35" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="H35" t="n">
-        <v>14</v>
-      </c>
-      <c r="I35" t="n">
-        <v>17</v>
-      </c>
-      <c r="J35" t="n">
-        <v>7</v>
-      </c>
-      <c r="K35" t="n">
-        <v>8</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N35" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P35" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S35" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="T35" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W35" t="n">
-        <v>4.8</v>
-      </c>
       <c r="X35" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF35" t="n">
         <v>40</v>
       </c>
-      <c r="Y35" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>180</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>20</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>65</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>280</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AG35" t="n">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="AH35" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="AI35" t="n">
-        <v>200</v>
+        <v>38</v>
       </c>
       <c r="AJ35" t="n">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="AK35" t="n">
-        <v>14.5</v>
+        <v>75</v>
       </c>
       <c r="AL35" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AM35" t="n">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="AN35" t="n">
-        <v>4.3</v>
+        <v>95</v>
       </c>
       <c r="AO35" t="n">
-        <v>350</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="36">
@@ -5248,127 +5248,127 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.78</v>
+        <v>1.22</v>
       </c>
       <c r="G36" t="n">
-        <v>2.82</v>
+        <v>1.24</v>
       </c>
       <c r="H36" t="n">
-        <v>2.98</v>
+        <v>15</v>
       </c>
       <c r="I36" t="n">
-        <v>3.05</v>
+        <v>18</v>
       </c>
       <c r="J36" t="n">
-        <v>3.2</v>
+        <v>7.6</v>
       </c>
       <c r="K36" t="n">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="L36" t="n">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="M36" t="n">
-        <v>1.11</v>
+        <v>1.03</v>
       </c>
       <c r="N36" t="n">
-        <v>2.96</v>
+        <v>6.2</v>
       </c>
       <c r="O36" t="n">
-        <v>1.47</v>
+        <v>1.15</v>
       </c>
       <c r="P36" t="n">
-        <v>1.63</v>
+        <v>2.84</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.4</v>
+        <v>1.46</v>
       </c>
       <c r="R36" t="n">
-        <v>1.23</v>
+        <v>1.73</v>
       </c>
       <c r="S36" t="n">
-        <v>4.7</v>
+        <v>2.16</v>
       </c>
       <c r="T36" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="U36" t="n">
-        <v>1.9</v>
+        <v>1.77</v>
       </c>
       <c r="V36" t="n">
-        <v>1.49</v>
+        <v>1.06</v>
       </c>
       <c r="W36" t="n">
-        <v>1.54</v>
+        <v>5.1</v>
       </c>
       <c r="X36" t="n">
-        <v>9.6</v>
+        <v>40</v>
       </c>
       <c r="Y36" t="n">
-        <v>9.4</v>
+        <v>270</v>
       </c>
       <c r="Z36" t="n">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="AA36" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AD36" t="n">
-        <v>13.5</v>
+        <v>320</v>
       </c>
       <c r="AE36" t="n">
-        <v>42</v>
+        <v>280</v>
       </c>
       <c r="AF36" t="n">
-        <v>16.5</v>
+        <v>10</v>
       </c>
       <c r="AG36" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="AI36" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="AJ36" t="n">
-        <v>44</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK36" t="n">
-        <v>38</v>
+        <v>14.5</v>
       </c>
       <c r="AL36" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AM36" t="n">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="AN36" t="n">
-        <v>40</v>
+        <v>3.8</v>
       </c>
       <c r="AO36" t="n">
-        <v>48</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5383,127 +5383,127 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Deportes Concepcion</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Cobreloa Calama</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.72</v>
+        <v>2.8</v>
       </c>
       <c r="G37" t="n">
-        <v>2.22</v>
+        <v>2.82</v>
       </c>
       <c r="H37" t="n">
-        <v>3.5</v>
+        <v>2.94</v>
       </c>
       <c r="I37" t="n">
-        <v>6.2</v>
+        <v>3</v>
       </c>
       <c r="J37" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K37" t="n">
-        <v>7.6</v>
+        <v>3.35</v>
       </c>
       <c r="L37" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M37" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N37" t="n">
-        <v>2.66</v>
+        <v>2.94</v>
       </c>
       <c r="O37" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="P37" t="n">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.78</v>
+        <v>2.4</v>
       </c>
       <c r="R37" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="S37" t="n">
-        <v>2.58</v>
+        <v>4.7</v>
       </c>
       <c r="T37" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="U37" t="n">
-        <v>1.04</v>
+        <v>1.9</v>
       </c>
       <c r="V37" t="n">
-        <v>1.19</v>
+        <v>1.5</v>
       </c>
       <c r="W37" t="n">
-        <v>1.81</v>
+        <v>1.54</v>
       </c>
       <c r="X37" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Y37" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Z37" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA37" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB37" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC37" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AD37" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF37" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG37" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH37" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI37" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK37" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL37" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM37" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN37" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,72 +5513,72 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>20:20:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>Deportes Concepcion</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Cobreloa Calama</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.52</v>
+        <v>1.92</v>
       </c>
       <c r="G38" t="n">
-        <v>2.82</v>
+        <v>2.62</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I38" t="n">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="J38" t="n">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="K38" t="n">
-        <v>3.65</v>
+        <v>950</v>
       </c>
       <c r="L38" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="M38" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N38" t="n">
-        <v>2.74</v>
+        <v>2.9</v>
       </c>
       <c r="O38" t="n">
-        <v>1.47</v>
+        <v>1.29</v>
       </c>
       <c r="P38" t="n">
-        <v>1.58</v>
+        <v>1.73</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.36</v>
+        <v>1.8</v>
       </c>
       <c r="R38" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="S38" t="n">
-        <v>4.7</v>
+        <v>2.66</v>
       </c>
       <c r="T38" t="n">
-        <v>1.97</v>
+        <v>1.04</v>
       </c>
       <c r="U38" t="n">
-        <v>1.85</v>
+        <v>1.04</v>
       </c>
       <c r="V38" t="n">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="W38" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="X38" t="n">
         <v>1000</v>
@@ -5626,7 +5626,7 @@
         <v>1000</v>
       </c>
       <c r="AM38" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN38" t="n">
         <v>1000</v>
@@ -5638,7 +5638,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,105 +5648,105 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>20:20:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Jorge Wilstermann</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>CDT Real Oruro</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="G39" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="H39" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="I39" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="J39" t="n">
-        <v>3.7</v>
+        <v>2.98</v>
       </c>
       <c r="K39" t="n">
-        <v>5.4</v>
+        <v>3.65</v>
       </c>
       <c r="L39" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M39" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="N39" t="n">
-        <v>3.85</v>
+        <v>2.74</v>
       </c>
       <c r="O39" t="n">
-        <v>1.22</v>
+        <v>1.47</v>
       </c>
       <c r="P39" t="n">
-        <v>2.04</v>
+        <v>1.58</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.59</v>
+        <v>2.36</v>
       </c>
       <c r="R39" t="n">
-        <v>1.39</v>
+        <v>1.21</v>
       </c>
       <c r="S39" t="n">
-        <v>2.5</v>
+        <v>4.7</v>
       </c>
       <c r="T39" t="n">
-        <v>1.44</v>
+        <v>1.97</v>
       </c>
       <c r="U39" t="n">
-        <v>1.96</v>
+        <v>1.84</v>
       </c>
       <c r="V39" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="W39" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X39" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Z39" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AA39" t="n">
         <v>1000</v>
       </c>
       <c r="AB39" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AC39" t="n">
-        <v>12.5</v>
+        <v>42</v>
       </c>
       <c r="AD39" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE39" t="n">
         <v>1000</v>
       </c>
       <c r="AF39" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AG39" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AH39" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI39" t="n">
         <v>1000</v>
@@ -5761,10 +5761,10 @@
         <v>1000</v>
       </c>
       <c r="AM39" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN39" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AO39" t="n">
         <v>1000</v>
@@ -5773,7 +5773,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,126 +5783,126 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Jorge Wilstermann</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>SE Palmeiras</t>
+          <t>CDT Real Oruro</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3.25</v>
+        <v>2.42</v>
       </c>
       <c r="G40" t="n">
-        <v>3.3</v>
+        <v>2.86</v>
       </c>
       <c r="H40" t="n">
         <v>2.54</v>
       </c>
       <c r="I40" t="n">
-        <v>2.56</v>
+        <v>3.05</v>
       </c>
       <c r="J40" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="K40" t="n">
-        <v>3.35</v>
+        <v>4.3</v>
       </c>
       <c r="L40" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="M40" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N40" t="n">
-        <v>2.94</v>
+        <v>3.85</v>
       </c>
       <c r="O40" t="n">
-        <v>1.44</v>
+        <v>1.24</v>
       </c>
       <c r="P40" t="n">
-        <v>1.66</v>
+        <v>2.24</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.28</v>
+        <v>1.69</v>
       </c>
       <c r="R40" t="n">
-        <v>1.24</v>
+        <v>1.39</v>
       </c>
       <c r="S40" t="n">
-        <v>4.4</v>
+        <v>2.52</v>
       </c>
       <c r="T40" t="n">
-        <v>1.94</v>
+        <v>1.04</v>
       </c>
       <c r="U40" t="n">
-        <v>1.92</v>
+        <v>1.04</v>
       </c>
       <c r="V40" t="n">
-        <v>1.64</v>
+        <v>1.52</v>
       </c>
       <c r="W40" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="X40" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y40" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="Z40" t="n">
-        <v>16.5</v>
+        <v>29</v>
       </c>
       <c r="AA40" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB40" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC40" t="n">
         <v>12.5</v>
       </c>
-      <c r="AC40" t="n">
-        <v>7.8</v>
-      </c>
       <c r="AD40" t="n">
-        <v>12.5</v>
+        <v>18</v>
       </c>
       <c r="AE40" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF40" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG40" t="n">
         <v>17</v>
       </c>
       <c r="AH40" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI40" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ40" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK40" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AL40" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM40" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="AO40" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="41">
@@ -5923,127 +5923,127 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Ceara SC Fortaleza</t>
+          <t>SE Palmeiras</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.28</v>
+        <v>3.25</v>
       </c>
       <c r="G41" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="H41" t="n">
-        <v>14</v>
+        <v>2.54</v>
       </c>
       <c r="I41" t="n">
-        <v>15.5</v>
+        <v>2.58</v>
       </c>
       <c r="J41" t="n">
-        <v>6.4</v>
+        <v>3.25</v>
       </c>
       <c r="K41" t="n">
-        <v>6.6</v>
+        <v>3.35</v>
       </c>
       <c r="L41" t="n">
-        <v>1.33</v>
+        <v>1.51</v>
       </c>
       <c r="M41" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N41" t="n">
-        <v>4.7</v>
+        <v>2.94</v>
       </c>
       <c r="O41" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R41" t="n">
         <v>1.24</v>
       </c>
-      <c r="P41" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.49</v>
-      </c>
       <c r="S41" t="n">
-        <v>2.8</v>
+        <v>4.4</v>
       </c>
       <c r="T41" t="n">
-        <v>2.38</v>
+        <v>1.96</v>
       </c>
       <c r="U41" t="n">
-        <v>1.64</v>
+        <v>1.9</v>
       </c>
       <c r="V41" t="n">
-        <v>1.07</v>
+        <v>1.63</v>
       </c>
       <c r="W41" t="n">
-        <v>4.3</v>
+        <v>1.43</v>
       </c>
       <c r="X41" t="n">
-        <v>22</v>
+        <v>11.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>42</v>
+        <v>9.6</v>
       </c>
       <c r="Z41" t="n">
-        <v>140</v>
+        <v>16.5</v>
       </c>
       <c r="AA41" t="n">
-        <v>800</v>
+        <v>40</v>
       </c>
       <c r="AB41" t="n">
-        <v>8.4</v>
+        <v>12.5</v>
       </c>
       <c r="AC41" t="n">
-        <v>14</v>
+        <v>7.8</v>
       </c>
       <c r="AD41" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI41" t="n">
         <v>55</v>
       </c>
-      <c r="AE41" t="n">
-        <v>280</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>220</v>
-      </c>
       <c r="AJ41" t="n">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="AK41" t="n">
-        <v>14.5</v>
+        <v>50</v>
       </c>
       <c r="AL41" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AM41" t="n">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="AN41" t="n">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="AO41" t="n">
-        <v>400</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6053,260 +6053,395 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Cruz Azul</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Ceara SC Fortaleza</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.5</v>
+        <v>1.29</v>
       </c>
       <c r="G42" t="n">
-        <v>2.64</v>
+        <v>1.3</v>
       </c>
       <c r="H42" t="n">
-        <v>2.98</v>
+        <v>14</v>
       </c>
       <c r="I42" t="n">
-        <v>3.2</v>
+        <v>15.5</v>
       </c>
       <c r="J42" t="n">
-        <v>3.35</v>
+        <v>6</v>
       </c>
       <c r="K42" t="n">
-        <v>3.5</v>
+        <v>6.4</v>
       </c>
       <c r="L42" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="M42" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N42" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="T42" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V42" t="n">
         <v>1.07</v>
       </c>
-      <c r="N42" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S42" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T42" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U42" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V42" t="n">
-        <v>1.45</v>
-      </c>
       <c r="W42" t="n">
-        <v>1.6</v>
+        <v>4.3</v>
       </c>
       <c r="X42" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Y42" t="n">
-        <v>12.5</v>
+        <v>42</v>
       </c>
       <c r="Z42" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AA42" t="n">
-        <v>1000</v>
+        <v>770</v>
       </c>
       <c r="AB42" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>280</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AG42" t="n">
         <v>11</v>
       </c>
-      <c r="AC42" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH42" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AI42" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AJ42" t="n">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="AK42" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AL42" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM42" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AN42" t="n">
-        <v>25</v>
+        <v>4.9</v>
       </c>
       <c r="AO42" t="n">
-        <v>32</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Cruz Azul</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Tigres</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K43" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N43" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X43" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>22:30:00</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>Atletico Bucaramanga</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>Tolima</t>
         </is>
       </c>
-      <c r="F43" t="n">
+      <c r="F44" t="n">
         <v>2.2</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G44" t="n">
         <v>2.3</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H44" t="n">
         <v>3.65</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I44" t="n">
         <v>4.3</v>
       </c>
-      <c r="J43" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J44" t="n">
+        <v>3</v>
+      </c>
+      <c r="K44" t="n">
         <v>3.45</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L44" t="n">
         <v>1.53</v>
       </c>
-      <c r="M43" t="n">
+      <c r="M44" t="n">
         <v>1.09</v>
       </c>
-      <c r="N43" t="n">
+      <c r="N44" t="n">
         <v>2.66</v>
       </c>
-      <c r="O43" t="n">
+      <c r="O44" t="n">
         <v>1.48</v>
       </c>
-      <c r="P43" t="n">
+      <c r="P44" t="n">
         <v>1.58</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="Q44" t="n">
         <v>2.42</v>
       </c>
-      <c r="R43" t="n">
+      <c r="R44" t="n">
         <v>1.21</v>
       </c>
-      <c r="S43" t="n">
+      <c r="S44" t="n">
         <v>4.4</v>
       </c>
-      <c r="T43" t="n">
+      <c r="T44" t="n">
         <v>2</v>
       </c>
-      <c r="U43" t="n">
+      <c r="U44" t="n">
         <v>1.8</v>
       </c>
-      <c r="V43" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W43" t="n">
+      <c r="V44" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W44" t="n">
         <v>1.78</v>
       </c>
-      <c r="X43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB43" t="n">
+      <c r="X44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB44" t="n">
         <v>9</v>
       </c>
-      <c r="AC43" t="n">
+      <c r="AC44" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AD43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO43" t="n">
+      <c r="AD44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO44" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO44"/>
+  <dimension ref="A1:AO45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>24</v>
+      </c>
+      <c r="G2" t="n">
+        <v>28</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="J2" t="n">
         <v>6.4</v>
       </c>
-      <c r="G2" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4.2</v>
-      </c>
       <c r="K2" t="n">
-        <v>4.6</v>
+        <v>6.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>2.06</v>
+        <v>1.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.79</v>
+        <v>2.38</v>
       </c>
       <c r="R2" t="n">
-        <v>1.42</v>
+        <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>3.05</v>
+        <v>6</v>
       </c>
       <c r="T2" t="n">
-        <v>1.89</v>
+        <v>2.36</v>
       </c>
       <c r="U2" t="n">
-        <v>1.96</v>
+        <v>1.63</v>
       </c>
       <c r="V2" t="n">
-        <v>2.56</v>
+        <v>5</v>
       </c>
       <c r="W2" t="n">
-        <v>1.16</v>
+        <v>1.03</v>
       </c>
       <c r="X2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>44</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>42</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>310</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>320</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO2" t="n">
         <v>22</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>32</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>240</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>140</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -802,88 +802,88 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.7</v>
+        <v>7</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="I3" t="n">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>7.6</v>
+        <v>4.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q3" t="n">
         <v>2.06</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.96</v>
-      </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="S3" t="n">
-        <v>2.74</v>
+        <v>3.85</v>
       </c>
       <c r="T3" t="n">
-        <v>1.04</v>
+        <v>2.16</v>
       </c>
       <c r="U3" t="n">
-        <v>1.04</v>
+        <v>1.81</v>
       </c>
       <c r="V3" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="W3" t="n">
-        <v>1.06</v>
+        <v>1.15</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AH3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="G4" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="I4" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="J4" t="n">
         <v>3.5</v>
       </c>
       <c r="K4" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O4" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="P4" t="n">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="R4" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="S4" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="U4" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="V4" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="W4" t="n">
         <v>1.23</v>
       </c>
       <c r="X4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB4" t="n">
         <v>16</v>
       </c>
-      <c r="Y4" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>28</v>
-      </c>
       <c r="AC4" t="n">
-        <v>13</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="AG4" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="AH4" t="n">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="AI4" t="n">
-        <v>250</v>
+        <v>48</v>
       </c>
       <c r="AJ4" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AK4" t="n">
-        <v>430</v>
+        <v>80</v>
       </c>
       <c r="AL4" t="n">
-        <v>340</v>
+        <v>100</v>
       </c>
       <c r="AM4" t="n">
-        <v>470</v>
+        <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>440</v>
+        <v>110</v>
       </c>
       <c r="AO4" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -1072,91 +1072,91 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6.2</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H5" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="I5" t="n">
-        <v>1.73</v>
+        <v>1.45</v>
       </c>
       <c r="J5" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="K5" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="V5" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="X5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC5" t="n">
         <v>11.5</v>
       </c>
-      <c r="L5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="X5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>1000</v>
-      </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AF5" t="n">
         <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1177,7 +1177,7 @@
         <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="6">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="G6" t="n">
         <v>1.48</v>
@@ -1216,55 +1216,55 @@
         <v>9.199999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="J6" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="O6" t="n">
         <v>1.32</v>
       </c>
       <c r="P6" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R6" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="S6" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T6" t="n">
         <v>2.16</v>
       </c>
       <c r="U6" t="n">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="V6" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="W6" t="n">
         <v>3.05</v>
       </c>
       <c r="X6" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Y6" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
@@ -1279,37 +1279,37 @@
         <v>11.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK6" t="n">
         <v>18</v>
       </c>
       <c r="AL6" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G7" t="n">
-        <v>3.55</v>
+        <v>2.82</v>
       </c>
       <c r="H7" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="I7" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J7" t="n">
-        <v>2.82</v>
+        <v>3.15</v>
       </c>
       <c r="K7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N7" t="n">
         <v>3.7</v>
       </c>
-      <c r="L7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.96</v>
-      </c>
       <c r="O7" t="n">
-        <v>1.06</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="R7" t="n">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="S7" t="n">
-        <v>2.62</v>
+        <v>3.25</v>
       </c>
       <c r="T7" t="n">
-        <v>1.05</v>
+        <v>1.69</v>
       </c>
       <c r="U7" t="n">
-        <v>1.04</v>
+        <v>2.1</v>
       </c>
       <c r="V7" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="W7" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC7" t="n">
-        <v>42</v>
+        <v>8.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -1480,100 +1480,100 @@
         <v>7.4</v>
       </c>
       <c r="G8" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="I8" t="n">
         <v>1.46</v>
       </c>
-      <c r="I8" t="n">
-        <v>1.49</v>
-      </c>
       <c r="J8" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="K8" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>2.34</v>
+        <v>2.46</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="R8" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S8" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="T8" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V8" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="W8" t="n">
         <v>1.13</v>
       </c>
       <c r="X8" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Y8" t="n">
         <v>10.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AA8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AC8" t="n">
         <v>12.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AG8" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AH8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
@@ -1582,7 +1582,7 @@
         <v>120</v>
       </c>
       <c r="AO8" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="9">
@@ -1612,64 +1612,64 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="G9" t="n">
-        <v>1.49</v>
+        <v>1.35</v>
       </c>
       <c r="H9" t="n">
-        <v>7.4</v>
+        <v>10</v>
       </c>
       <c r="I9" t="n">
-        <v>9.4</v>
+        <v>12.5</v>
       </c>
       <c r="J9" t="n">
-        <v>4.7</v>
+        <v>5.9</v>
       </c>
       <c r="K9" t="n">
-        <v>5.4</v>
+        <v>7</v>
       </c>
       <c r="L9" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>4.9</v>
+        <v>6.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P9" t="n">
-        <v>2.36</v>
+        <v>2.82</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.61</v>
+        <v>1.48</v>
       </c>
       <c r="R9" t="n">
-        <v>1.54</v>
+        <v>1.75</v>
       </c>
       <c r="S9" t="n">
-        <v>2.52</v>
+        <v>2.18</v>
       </c>
       <c r="T9" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U9" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="V9" t="n">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="W9" t="n">
-        <v>2.98</v>
+        <v>3.75</v>
       </c>
       <c r="X9" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="Y9" t="n">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
@@ -1678,43 +1678,43 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC9" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AK9" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>7.2</v>
+        <v>4.5</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="G10" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="H10" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="I10" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="K10" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L10" t="n">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="O10" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="P10" t="n">
-        <v>2.1</v>
+        <v>1.96</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.74</v>
+        <v>1.96</v>
       </c>
       <c r="R10" t="n">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="S10" t="n">
-        <v>2.74</v>
+        <v>3.3</v>
       </c>
       <c r="T10" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="U10" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="V10" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="W10" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="X10" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="AB10" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="AC10" t="n">
-        <v>10.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
       </c>
       <c r="AF10" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AH10" t="n">
         <v>17</v>
       </c>
       <c r="AI10" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AJ10" t="n">
-        <v>470</v>
+        <v>230</v>
       </c>
       <c r="AK10" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AL10" t="n">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="AM10" t="n">
         <v>330</v>
       </c>
       <c r="AN10" t="n">
-        <v>38</v>
+        <v>230</v>
       </c>
       <c r="AO10" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -1882,82 +1882,82 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="G11" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="H11" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="I11" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="J11" t="n">
         <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="L11" t="n">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N11" t="n">
         <v>3.05</v>
       </c>
       <c r="O11" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="P11" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R11" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S11" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="T11" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="U11" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="V11" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="W11" t="n">
         <v>1.27</v>
       </c>
       <c r="X11" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Y11" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="Z11" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AA11" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
         <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AD11" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF11" t="n">
         <v>1000</v>
@@ -1969,7 +1969,7 @@
         <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ11" t="n">
         <v>1000</v>
@@ -1987,7 +1987,7 @@
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
@@ -2017,58 +2017,58 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.55</v>
+        <v>1.71</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="H12" t="n">
-        <v>4.4</v>
+        <v>5.3</v>
       </c>
       <c r="I12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J12" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="K12" t="n">
-        <v>7.6</v>
+        <v>4.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>2.36</v>
+        <v>3.05</v>
       </c>
       <c r="O12" t="n">
-        <v>1.06</v>
+        <v>1.46</v>
       </c>
       <c r="P12" t="n">
-        <v>1.52</v>
+        <v>1.69</v>
       </c>
       <c r="Q12" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T12" t="n">
         <v>2.04</v>
       </c>
-      <c r="R12" t="n">
+      <c r="U12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V12" t="n">
         <v>1.18</v>
       </c>
-      <c r="S12" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.14</v>
-      </c>
       <c r="W12" t="n">
-        <v>2</v>
+        <v>2.24</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2083,10 +2083,10 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD12" t="n">
         <v>1000</v>
@@ -2095,10 +2095,10 @@
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AH12" t="n">
         <v>1000</v>
@@ -2107,10 +2107,10 @@
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AL12" t="n">
         <v>1000</v>
@@ -2119,7 +2119,7 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2152,31 +2152,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="G13" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I13" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J13" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K13" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O13" t="n">
         <v>1.23</v>
@@ -2185,13 +2185,13 @@
         <v>2.32</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R13" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="S13" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="T13" t="n">
         <v>1.61</v>
@@ -2200,64 +2200,64 @@
         <v>2.44</v>
       </c>
       <c r="V13" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W13" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="X13" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="Y13" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Z13" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AA13" t="n">
-        <v>70</v>
+        <v>900</v>
       </c>
       <c r="AB13" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="AF13" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AG13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN13" t="n">
         <v>13</v>
       </c>
-      <c r="AH13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI13" t="n">
+      <c r="AO13" t="n">
         <v>55</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>38</v>
       </c>
     </row>
     <row r="14">
@@ -2287,97 +2287,97 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="G14" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="H14" t="n">
         <v>1.5</v>
       </c>
       <c r="I14" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="J14" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="K14" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="L14" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="O14" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="R14" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="S14" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="T14" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U14" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V14" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="W14" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="X14" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AA14" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="AC14" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AD14" t="n">
         <v>10</v>
       </c>
       <c r="AE14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AF14" t="n">
-        <v>450</v>
+        <v>230</v>
       </c>
       <c r="AG14" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AH14" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AI14" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AJ14" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AK14" t="n">
         <v>510</v>
@@ -2392,7 +2392,7 @@
         <v>330</v>
       </c>
       <c r="AO14" t="n">
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="15">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="G15" t="n">
         <v>16.5</v>
       </c>
       <c r="H15" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="I15" t="n">
         <v>1.33</v>
       </c>
       <c r="J15" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="K15" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L15" t="n">
         <v>1.41</v>
@@ -2446,88 +2446,88 @@
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="O15" t="n">
         <v>1.33</v>
       </c>
       <c r="P15" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R15" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="S15" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T15" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="U15" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="V15" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="W15" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="X15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="Z15" t="n">
         <v>7</v>
       </c>
       <c r="AA15" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AB15" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="AC15" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF15" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AG15" t="n">
         <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ15" t="n">
         <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="AL15" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="AM15" t="n">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="AN15" t="n">
         <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="16">
@@ -2560,46 +2560,46 @@
         <v>1.35</v>
       </c>
       <c r="G16" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="I16" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J16" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="K16" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M16" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O16" t="n">
         <v>1.16</v>
       </c>
       <c r="P16" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="R16" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="S16" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="T16" t="n">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="U16" t="n">
         <v>2.04</v>
@@ -2608,58 +2608,58 @@
         <v>1.11</v>
       </c>
       <c r="W16" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="X16" t="n">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y16" t="n">
-        <v>210</v>
+        <v>95</v>
       </c>
       <c r="Z16" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AA16" t="n">
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>520</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK16" t="n">
         <v>14.5</v>
       </c>
-      <c r="AC16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>160</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>15</v>
-      </c>
       <c r="AL16" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="AM16" t="n">
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="G17" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="H17" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="I17" t="n">
-        <v>1.82</v>
+        <v>1.76</v>
       </c>
       <c r="J17" t="n">
         <v>4.2</v>
@@ -2710,40 +2710,40 @@
         <v>4.3</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P17" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="Q17" t="n">
         <v>1.78</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="T17" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U17" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="X17" t="n">
         <v>19</v>
@@ -2752,52 +2752,52 @@
         <v>10</v>
       </c>
       <c r="Z17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB17" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AE17" t="n">
         <v>17.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AG17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH17" t="n">
         <v>17.5</v>
       </c>
-      <c r="AH17" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AI17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ17" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AK17" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL17" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM17" t="n">
         <v>85</v>
       </c>
       <c r="AN17" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AO17" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -2830,19 +2830,19 @@
         <v>1.23</v>
       </c>
       <c r="G18" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="H18" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="I18" t="n">
         <v>16</v>
       </c>
       <c r="J18" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="K18" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="L18" t="n">
         <v>1.23</v>
@@ -2851,34 +2851,34 @@
         <v>1.02</v>
       </c>
       <c r="N18" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="O18" t="n">
         <v>1.14</v>
       </c>
       <c r="P18" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="R18" t="n">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="S18" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="T18" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U18" t="n">
         <v>1.92</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.86</v>
       </c>
       <c r="V18" t="n">
         <v>1.06</v>
       </c>
       <c r="W18" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="X18" t="n">
         <v>85</v>
@@ -2887,25 +2887,25 @@
         <v>130</v>
       </c>
       <c r="Z18" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AA18" t="n">
-        <v>590</v>
+        <v>620</v>
       </c>
       <c r="AB18" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC18" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AE18" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AF18" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG18" t="n">
         <v>12.5</v>
@@ -2914,10 +2914,10 @@
         <v>80</v>
       </c>
       <c r="AI18" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ18" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK18" t="n">
         <v>14</v>
@@ -2926,13 +2926,13 @@
         <v>85</v>
       </c>
       <c r="AM18" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="AO18" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19">
@@ -2962,61 +2962,61 @@
         </is>
       </c>
       <c r="F19" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G19" t="n">
         <v>3.4</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J19" t="n">
         <v>3.45</v>
       </c>
-      <c r="H19" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>3.5</v>
       </c>
-      <c r="K19" t="n">
-        <v>3.55</v>
-      </c>
       <c r="L19" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="M19" t="n">
         <v>1.09</v>
       </c>
       <c r="N19" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O19" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P19" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="R19" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T19" t="n">
         <v>1.92</v>
       </c>
       <c r="U19" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V19" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="W19" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X19" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -3028,7 +3028,7 @@
         <v>32</v>
       </c>
       <c r="AB19" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC19" t="n">
         <v>7.6</v>
@@ -3043,13 +3043,13 @@
         <v>22</v>
       </c>
       <c r="AG19" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH19" t="n">
         <v>19</v>
       </c>
       <c r="AI19" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ19" t="n">
         <v>65</v>
@@ -3067,7 +3067,7 @@
         <v>46</v>
       </c>
       <c r="AO19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G20" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H20" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I20" t="n">
         <v>3.7</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3.75</v>
       </c>
       <c r="J20" t="n">
         <v>3.65</v>
@@ -3115,46 +3115,46 @@
         <v>3.7</v>
       </c>
       <c r="L20" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M20" t="n">
         <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O20" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P20" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="R20" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S20" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="T20" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="U20" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="V20" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W20" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="X20" t="n">
         <v>15.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z20" t="n">
         <v>26</v>
@@ -3169,10 +3169,10 @@
         <v>8</v>
       </c>
       <c r="AD20" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF20" t="n">
         <v>13.5</v>
@@ -3181,13 +3181,13 @@
         <v>10.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI20" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AJ20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK20" t="n">
         <v>21</v>
@@ -3199,10 +3199,10 @@
         <v>75</v>
       </c>
       <c r="AN20" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
@@ -3232,82 +3232,82 @@
         </is>
       </c>
       <c r="F21" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+      <c r="I21" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="J21" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L21" t="n">
         <v>1.39</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-      <c r="I21" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="K21" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.36</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P21" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="R21" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="S21" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="T21" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U21" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="V21" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="W21" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="X21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y21" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Z21" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AA21" t="n">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="AB21" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AC21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD21" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AE21" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AF21" t="n">
         <v>7.8</v>
@@ -3316,13 +3316,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI21" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AJ21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK21" t="n">
         <v>15</v>
@@ -3334,10 +3334,10 @@
         <v>170</v>
       </c>
       <c r="AN21" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="AO21" t="n">
-        <v>220</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22">
@@ -3367,76 +3367,76 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="G22" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="H22" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I22" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="J22" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="M22" t="n">
         <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="P22" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.81</v>
+        <v>1.96</v>
       </c>
       <c r="R22" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="S22" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="T22" t="n">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="U22" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="V22" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W22" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="X22" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="AA22" t="n">
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>11</v>
+        <v>8.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>11.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD22" t="n">
         <v>22</v>
@@ -3445,34 +3445,34 @@
         <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI22" t="n">
         <v>330</v>
       </c>
       <c r="AJ22" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AK22" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AL22" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="G23" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="H23" t="n">
         <v>1.79</v>
@@ -3514,100 +3514,100 @@
         <v>1.8</v>
       </c>
       <c r="J23" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K23" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L23" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N23" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="O23" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="P23" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="Q23" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T23" t="n">
         <v>2.08</v>
       </c>
-      <c r="R23" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S23" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.99</v>
-      </c>
       <c r="U23" t="n">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="V23" t="n">
         <v>2.24</v>
       </c>
       <c r="W23" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X23" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="Z23" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AB23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD23" t="n">
         <v>10.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF23" t="n">
         <v>38</v>
       </c>
       <c r="AG23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI23" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AJ23" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AK23" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AL23" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AM23" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AN23" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AO23" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.78</v>
+        <v>3.15</v>
       </c>
       <c r="G24" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="H24" t="n">
-        <v>2.74</v>
+        <v>2.46</v>
       </c>
       <c r="I24" t="n">
-        <v>2.84</v>
+        <v>2.52</v>
       </c>
       <c r="J24" t="n">
         <v>3.45</v>
@@ -3655,79 +3655,79 @@
         <v>3.55</v>
       </c>
       <c r="L24" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="O24" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="P24" t="n">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="R24" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="S24" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="T24" t="n">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="U24" t="n">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="V24" t="n">
-        <v>1.54</v>
+        <v>1.65</v>
       </c>
       <c r="W24" t="n">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="X24" t="n">
-        <v>18.5</v>
+        <v>14</v>
       </c>
       <c r="Y24" t="n">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="Z24" t="n">
-        <v>23</v>
+        <v>15.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AB24" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="AE24" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="AF24" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AG24" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AH24" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AI24" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AJ24" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK24" t="n">
         <v>38</v>
@@ -3736,13 +3736,13 @@
         <v>48</v>
       </c>
       <c r="AM24" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AN24" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="AO24" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -3772,112 +3772,112 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="G25" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="H25" t="n">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="I25" t="n">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="J25" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="K25" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="L25" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N25" t="n">
         <v>4.1</v>
       </c>
       <c r="O25" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P25" t="n">
         <v>2.04</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="R25" t="n">
         <v>1.4</v>
       </c>
       <c r="S25" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="T25" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U25" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="V25" t="n">
-        <v>2.08</v>
+        <v>1.91</v>
       </c>
       <c r="W25" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="X25" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y25" t="n">
         <v>10.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA25" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE25" t="n">
         <v>21</v>
       </c>
-      <c r="AB25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>38</v>
-      </c>
       <c r="AF25" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AG25" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH25" t="n">
         <v>17.5</v>
       </c>
-      <c r="AH25" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AI25" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AJ25" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK25" t="n">
-        <v>330</v>
+        <v>46</v>
       </c>
       <c r="AL25" t="n">
-        <v>330</v>
+        <v>55</v>
       </c>
       <c r="AM25" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN25" t="n">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="AO25" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="26">
@@ -3907,112 +3907,112 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="G26" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="H26" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="I26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J26" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="K26" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="L26" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O26" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P26" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R26" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="S26" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="T26" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="U26" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V26" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="W26" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="X26" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z26" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AA26" t="n">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="AB26" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="AC26" t="n">
         <v>11.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AE26" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AF26" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AG26" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH26" t="n">
         <v>30</v>
       </c>
       <c r="AI26" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AJ26" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK26" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL26" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN26" t="n">
-        <v>8.199999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="AO26" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27">
@@ -4042,109 +4042,109 @@
         </is>
       </c>
       <c r="F27" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H27" t="n">
+        <v>23</v>
+      </c>
+      <c r="I27" t="n">
+        <v>26</v>
+      </c>
+      <c r="J27" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N27" t="n">
+        <v>8</v>
+      </c>
+      <c r="O27" t="n">
         <v>1.12</v>
       </c>
-      <c r="G27" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="H27" t="n">
+      <c r="P27" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="W27" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="X27" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>90</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>290</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC27" t="n">
         <v>28</v>
       </c>
-      <c r="I27" t="n">
-        <v>34</v>
-      </c>
-      <c r="J27" t="n">
-        <v>13</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="AD27" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>510</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AK27" t="n">
         <v>14</v>
       </c>
-      <c r="L27" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N27" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P27" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="R27" t="n">
-        <v>2</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="T27" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="W27" t="n">
-        <v>9</v>
-      </c>
-      <c r="X27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>32</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>85</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AL27" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AM27" t="n">
         <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>2.7</v>
+        <v>2.96</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>
@@ -4177,112 +4177,112 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="G28" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I28" t="n">
         <v>3.55</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3.6</v>
       </c>
       <c r="J28" t="n">
         <v>3.45</v>
       </c>
       <c r="K28" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L28" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="M28" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="O28" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="P28" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="Q28" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="R28" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="S28" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="T28" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="U28" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="V28" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W28" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="X28" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y28" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD28" t="n">
         <v>15</v>
       </c>
-      <c r="Z28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD28" t="n">
+      <c r="AE28" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH28" t="n">
         <v>18.5</v>
       </c>
-      <c r="AE28" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>20</v>
-      </c>
       <c r="AI28" t="n">
-        <v>260</v>
+        <v>60</v>
       </c>
       <c r="AJ28" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AK28" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AL28" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AM28" t="n">
         <v>330</v>
       </c>
       <c r="AN28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO28" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29">
@@ -4318,7 +4318,7 @@
         <v>1.41</v>
       </c>
       <c r="H29" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I29" t="n">
         <v>9.199999999999999</v>
@@ -4327,34 +4327,34 @@
         <v>5.6</v>
       </c>
       <c r="K29" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L29" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="M29" t="n">
         <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="O29" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P29" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="R29" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="S29" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="T29" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U29" t="n">
         <v>2.04</v>
@@ -4363,61 +4363,61 @@
         <v>1.12</v>
       </c>
       <c r="W29" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="X29" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y29" t="n">
         <v>32</v>
       </c>
       <c r="Z29" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AA29" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="AB29" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD29" t="n">
         <v>32</v>
       </c>
       <c r="AE29" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF29" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG29" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH29" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI29" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AJ29" t="n">
         <v>11.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL29" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM29" t="n">
         <v>120</v>
       </c>
       <c r="AN29" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="AO29" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
@@ -4447,112 +4447,112 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="G30" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="H30" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="I30" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="J30" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K30" t="n">
         <v>3.95</v>
       </c>
-      <c r="K30" t="n">
-        <v>4</v>
-      </c>
       <c r="L30" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="M30" t="n">
         <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="O30" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="W30" t="n">
         <v>1.3</v>
       </c>
-      <c r="P30" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S30" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U30" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V30" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1.28</v>
-      </c>
       <c r="X30" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="Z30" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AA30" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AB30" t="n">
         <v>16.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE30" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AF30" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG30" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH30" t="n">
         <v>17</v>
       </c>
-      <c r="AH30" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AI30" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ30" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AK30" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AL30" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM30" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN30" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AO30" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="31">
@@ -4582,58 +4582,58 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="G31" t="n">
-        <v>2.7</v>
+        <v>1.93</v>
       </c>
       <c r="H31" t="n">
-        <v>2.94</v>
+        <v>4.7</v>
       </c>
       <c r="I31" t="n">
-        <v>4.9</v>
+        <v>7</v>
       </c>
       <c r="J31" t="n">
-        <v>2.84</v>
+        <v>3.35</v>
       </c>
       <c r="K31" t="n">
-        <v>7</v>
+        <v>4.6</v>
       </c>
       <c r="L31" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M31" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N31" t="n">
-        <v>1.1</v>
+        <v>3.75</v>
       </c>
       <c r="O31" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="P31" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.74</v>
+        <v>1.61</v>
       </c>
       <c r="R31" t="n">
-        <v>1.26</v>
+        <v>1.48</v>
       </c>
       <c r="S31" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T31" t="n">
-        <v>1.04</v>
+        <v>1.67</v>
       </c>
       <c r="U31" t="n">
-        <v>1.04</v>
+        <v>2.12</v>
       </c>
       <c r="V31" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="W31" t="n">
-        <v>1.58</v>
+        <v>2.08</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -4648,10 +4648,10 @@
         <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AC31" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD31" t="n">
         <v>1000</v>
@@ -4660,19 +4660,19 @@
         <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG31" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH31" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI31" t="n">
         <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AK31" t="n">
         <v>1000</v>
@@ -4684,7 +4684,7 @@
         <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -4717,112 +4717,112 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="H32" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="I32" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="J32" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K32" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L32" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="M32" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N32" t="n">
         <v>3.5</v>
       </c>
       <c r="O32" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="P32" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="R32" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S32" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="T32" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="U32" t="n">
         <v>2</v>
       </c>
       <c r="V32" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="W32" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X32" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y32" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="AA32" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB32" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC32" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD32" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE32" t="n">
-        <v>330</v>
+        <v>70</v>
       </c>
       <c r="AF32" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG32" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH32" t="n">
         <v>21</v>
       </c>
       <c r="AI32" t="n">
-        <v>330</v>
+        <v>75</v>
       </c>
       <c r="AJ32" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AK32" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL32" t="n">
         <v>42</v>
       </c>
       <c r="AM32" t="n">
-        <v>470</v>
+        <v>130</v>
       </c>
       <c r="AN32" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO32" t="n">
-        <v>140</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33">
@@ -4858,7 +4858,7 @@
         <v>1.87</v>
       </c>
       <c r="H33" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="I33" t="n">
         <v>5.4</v>
@@ -4867,37 +4867,37 @@
         <v>3.6</v>
       </c>
       <c r="K33" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L33" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M33" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N33" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="O33" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="P33" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.26</v>
+        <v>2.42</v>
       </c>
       <c r="R33" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S33" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="T33" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="U33" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="V33" t="n">
         <v>1.22</v>
@@ -4906,28 +4906,28 @@
         <v>2.14</v>
       </c>
       <c r="X33" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z33" t="n">
         <v>38</v>
       </c>
       <c r="AA33" t="n">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="AB33" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="AC33" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD33" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE33" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AF33" t="n">
         <v>9.6</v>
@@ -4936,28 +4936,28 @@
         <v>10.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI33" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AJ33" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AK33" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL33" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AM33" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AN33" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AO33" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34">
@@ -4987,55 +4987,55 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="G34" t="n">
         <v>2.68</v>
       </c>
       <c r="H34" t="n">
-        <v>2.58</v>
+        <v>2.72</v>
       </c>
       <c r="I34" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="J34" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="K34" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L34" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="M34" t="n">
         <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>4.5</v>
+        <v>6.4</v>
       </c>
       <c r="O34" t="n">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="P34" t="n">
-        <v>2.42</v>
+        <v>2.88</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
       <c r="R34" t="n">
-        <v>1.59</v>
+        <v>1.8</v>
       </c>
       <c r="S34" t="n">
-        <v>2.32</v>
+        <v>2.16</v>
       </c>
       <c r="T34" t="n">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="U34" t="n">
-        <v>2.32</v>
+        <v>2.92</v>
       </c>
       <c r="V34" t="n">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="W34" t="n">
         <v>1.6</v>
@@ -5050,7 +5050,7 @@
         <v>60</v>
       </c>
       <c r="AA34" t="n">
-        <v>900</v>
+        <v>280</v>
       </c>
       <c r="AB34" t="n">
         <v>970</v>
@@ -5074,7 +5074,7 @@
         <v>60</v>
       </c>
       <c r="AI34" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AJ34" t="n">
         <v>280</v>
@@ -5083,16 +5083,16 @@
         <v>75</v>
       </c>
       <c r="AL34" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AM34" t="n">
         <v>330</v>
       </c>
       <c r="AN34" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AO34" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35">
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="G35" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="H35" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="I35" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="J35" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="K35" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L35" t="n">
         <v>1.43</v>
@@ -5146,64 +5146,64 @@
         <v>1.07</v>
       </c>
       <c r="N35" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O35" t="n">
         <v>1.34</v>
       </c>
       <c r="P35" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q35" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R35" t="n">
         <v>1.34</v>
       </c>
       <c r="S35" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T35" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="U35" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="V35" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="W35" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X35" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z35" t="n">
         <v>10.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AB35" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD35" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AE35" t="n">
         <v>19.5</v>
       </c>
       <c r="AF35" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AG35" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AH35" t="n">
         <v>21</v>
@@ -5212,22 +5212,22 @@
         <v>38</v>
       </c>
       <c r="AJ35" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AK35" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AL35" t="n">
         <v>80</v>
       </c>
       <c r="AM35" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN35" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AO35" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="36">
@@ -5257,94 +5257,94 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="G36" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="H36" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="I36" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J36" t="n">
+        <v>7</v>
+      </c>
+      <c r="K36" t="n">
         <v>7.6</v>
       </c>
-      <c r="K36" t="n">
-        <v>8</v>
-      </c>
       <c r="L36" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="M36" t="n">
         <v>1.03</v>
       </c>
       <c r="N36" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="O36" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P36" t="n">
-        <v>2.84</v>
+        <v>2.72</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="R36" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S36" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T36" t="n">
         <v>2.16</v>
       </c>
-      <c r="T36" t="n">
-        <v>2.06</v>
-      </c>
       <c r="U36" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V36" t="n">
         <v>1.06</v>
       </c>
       <c r="W36" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="X36" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="Y36" t="n">
         <v>270</v>
       </c>
       <c r="Z36" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AA36" t="n">
         <v>1000</v>
       </c>
       <c r="AB36" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>120</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>290</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG36" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC36" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>320</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>280</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH36" t="n">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="AI36" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AJ36" t="n">
         <v>9.800000000000001</v>
@@ -5353,16 +5353,16 @@
         <v>14.5</v>
       </c>
       <c r="AL36" t="n">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="AM36" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AN36" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="AO36" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
     </row>
     <row r="37">
@@ -5392,85 +5392,85 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="G37" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="H37" t="n">
-        <v>2.94</v>
+        <v>2.78</v>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="J37" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K37" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="L37" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="M37" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N37" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="O37" t="n">
         <v>1.47</v>
       </c>
       <c r="P37" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="R37" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S37" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T37" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U37" t="n">
         <v>1.9</v>
       </c>
       <c r="V37" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="W37" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="X37" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="Y37" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z37" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA37" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AB37" t="n">
         <v>9.4</v>
       </c>
       <c r="AC37" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AD37" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AE37" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AF37" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG37" t="n">
         <v>13</v>
@@ -5479,10 +5479,10 @@
         <v>21</v>
       </c>
       <c r="AI37" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ37" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AK37" t="n">
         <v>38</v>
@@ -5491,13 +5491,13 @@
         <v>60</v>
       </c>
       <c r="AM37" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN37" t="n">
         <v>40</v>
       </c>
       <c r="AO37" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38">
@@ -5527,112 +5527,112 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="G38" t="n">
-        <v>2.62</v>
+        <v>2.16</v>
       </c>
       <c r="H38" t="n">
-        <v>3.05</v>
+        <v>3.95</v>
       </c>
       <c r="I38" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="J38" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="K38" t="n">
-        <v>950</v>
+        <v>3.75</v>
       </c>
       <c r="L38" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M38" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N38" t="n">
-        <v>2.9</v>
+        <v>3.35</v>
       </c>
       <c r="O38" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="P38" t="n">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.8</v>
+        <v>2.08</v>
       </c>
       <c r="R38" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="S38" t="n">
-        <v>2.66</v>
+        <v>3.6</v>
       </c>
       <c r="T38" t="n">
-        <v>1.04</v>
+        <v>1.81</v>
       </c>
       <c r="U38" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="V38" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="W38" t="n">
-        <v>1.61</v>
+        <v>1.87</v>
       </c>
       <c r="X38" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y38" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z38" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA38" t="n">
         <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC38" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD38" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE38" t="n">
         <v>1000</v>
       </c>
       <c r="AF38" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG38" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI38" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AK38" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL38" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AM38" t="n">
         <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AO38" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39">
@@ -5662,52 +5662,52 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="G39" t="n">
         <v>2.82</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I39" t="n">
         <v>3.45</v>
       </c>
       <c r="J39" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="K39" t="n">
-        <v>3.65</v>
+        <v>3.1</v>
       </c>
       <c r="L39" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="M39" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N39" t="n">
-        <v>2.74</v>
+        <v>3.15</v>
       </c>
       <c r="O39" t="n">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="P39" t="n">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="R39" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="S39" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="T39" t="n">
-        <v>1.97</v>
+        <v>1.86</v>
       </c>
       <c r="U39" t="n">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="V39" t="n">
         <v>1.4</v>
@@ -5716,58 +5716,58 @@
         <v>1.54</v>
       </c>
       <c r="X39" t="n">
-        <v>18.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z39" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA39" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB39" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC39" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>310</v>
+      </c>
+      <c r="AJ39" t="n">
         <v>42</v>
       </c>
-      <c r="AD39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>1000</v>
-      </c>
       <c r="AK39" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL39" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM39" t="n">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="AN39" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO39" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40">
@@ -5797,31 +5797,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="G40" t="n">
-        <v>2.86</v>
+        <v>2.72</v>
       </c>
       <c r="H40" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="I40" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="J40" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K40" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L40" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M40" t="n">
         <v>1.04</v>
       </c>
       <c r="N40" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="O40" t="n">
         <v>1.24</v>
@@ -5830,79 +5830,79 @@
         <v>2.24</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="R40" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="S40" t="n">
-        <v>2.52</v>
+        <v>2.74</v>
       </c>
       <c r="T40" t="n">
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="U40" t="n">
-        <v>1.04</v>
+        <v>2.34</v>
       </c>
       <c r="V40" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="W40" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="X40" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y40" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN40" t="n">
         <v>19</v>
       </c>
-      <c r="Z40" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>26</v>
-      </c>
       <c r="AO40" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41">
@@ -5932,112 +5932,112 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="G41" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="H41" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="I41" t="n">
         <v>2.58</v>
       </c>
       <c r="J41" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K41" t="n">
         <v>3.25</v>
       </c>
-      <c r="K41" t="n">
-        <v>3.35</v>
-      </c>
       <c r="L41" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="M41" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N41" t="n">
         <v>2.94</v>
       </c>
       <c r="O41" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="P41" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.28</v>
+        <v>2.46</v>
       </c>
       <c r="R41" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S41" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="T41" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="U41" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V41" t="n">
         <v>1.63</v>
       </c>
       <c r="W41" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="X41" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="Y41" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z41" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA41" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AB41" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AC41" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AD41" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE41" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF41" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG41" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AH41" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI41" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ41" t="n">
         <v>65</v>
       </c>
       <c r="AK41" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL41" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM41" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN41" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO41" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42">
@@ -6067,19 +6067,19 @@
         </is>
       </c>
       <c r="F42" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G42" t="n">
         <v>1.29</v>
       </c>
-      <c r="G42" t="n">
-        <v>1.3</v>
-      </c>
       <c r="H42" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I42" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="J42" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="K42" t="n">
         <v>6.4</v>
@@ -6091,49 +6091,49 @@
         <v>1.04</v>
       </c>
       <c r="N42" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="O42" t="n">
         <v>1.23</v>
       </c>
       <c r="P42" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="R42" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="S42" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="T42" t="n">
         <v>2.32</v>
       </c>
       <c r="U42" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="V42" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W42" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="X42" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y42" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Z42" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AA42" t="n">
         <v>770</v>
       </c>
       <c r="AB42" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC42" t="n">
         <v>14</v>
@@ -6142,7 +6142,7 @@
         <v>55</v>
       </c>
       <c r="AE42" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AF42" t="n">
         <v>7.4</v>
@@ -6154,25 +6154,25 @@
         <v>38</v>
       </c>
       <c r="AI42" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AJ42" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK42" t="n">
         <v>14.5</v>
       </c>
       <c r="AL42" t="n">
-        <v>48</v>
+        <v>190</v>
       </c>
       <c r="AM42" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="AN42" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AO42" t="n">
-        <v>370</v>
+        <v>390</v>
       </c>
     </row>
     <row r="43">
@@ -6202,64 +6202,64 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="G43" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="H43" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="I43" t="n">
         <v>3.2</v>
       </c>
       <c r="J43" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K43" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L43" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="M43" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N43" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="O43" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R43" t="n">
         <v>1.32</v>
       </c>
-      <c r="P43" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1.36</v>
-      </c>
       <c r="S43" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="T43" t="n">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="U43" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="V43" t="n">
         <v>1.45</v>
       </c>
       <c r="W43" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="X43" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z43" t="n">
         <v>1000</v>
@@ -6268,10 +6268,10 @@
         <v>1000</v>
       </c>
       <c r="AB43" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD43" t="n">
         <v>13.5</v>
@@ -6292,7 +6292,7 @@
         <v>1000</v>
       </c>
       <c r="AJ43" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AK43" t="n">
         <v>1000</v>
@@ -6304,10 +6304,10 @@
         <v>1000</v>
       </c>
       <c r="AN43" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO43" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44">
@@ -6337,58 +6337,58 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="G44" t="n">
         <v>2.3</v>
       </c>
       <c r="H44" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="I44" t="n">
         <v>4.3</v>
       </c>
       <c r="J44" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K44" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="L44" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="M44" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="N44" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="O44" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="P44" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="R44" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="S44" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="T44" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U44" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="V44" t="n">
         <v>1.31</v>
       </c>
       <c r="W44" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="X44" t="n">
         <v>1000</v>
@@ -6403,10 +6403,10 @@
         <v>1000</v>
       </c>
       <c r="AB44" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AC44" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD44" t="n">
         <v>1000</v>
@@ -6442,6 +6442,141 @@
         <v>1000</v>
       </c>
       <c r="AO44" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Honduras Liga Nacional</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Olancho</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>CD Olimpia</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K45" t="n">
+        <v>4</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO45" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO45"/>
+  <dimension ref="A1:AO43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,117 +653,117 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Septemvri</t>
+          <t>Beroe Stara Za</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia</t>
+          <t>Cherno More</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>24</v>
+        <v>5.2</v>
       </c>
       <c r="G2" t="n">
-        <v>28</v>
+        <v>5.6</v>
       </c>
       <c r="H2" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="P2" t="n">
         <v>1.23</v>
       </c>
-      <c r="I2" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="J2" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.7</v>
-      </c>
       <c r="Q2" t="n">
-        <v>2.38</v>
+        <v>4.9</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.06</v>
       </c>
       <c r="S2" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="T2" t="n">
-        <v>2.36</v>
+        <v>3.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.63</v>
+        <v>1.37</v>
       </c>
       <c r="V2" t="n">
-        <v>5</v>
+        <v>1.78</v>
       </c>
       <c r="W2" t="n">
-        <v>1.03</v>
+        <v>1.21</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>4.9</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>4.9</v>
+        <v>11</v>
       </c>
       <c r="AA2" t="n">
-        <v>12.5</v>
+        <v>44</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>8.800000000000001</v>
+        <v>17.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AH2" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="AI2" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AK2" t="n">
-        <v>310</v>
+        <v>230</v>
       </c>
       <c r="AL2" t="n">
-        <v>320</v>
+        <v>430</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
@@ -772,7 +772,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>22</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
@@ -788,54 +788,54 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Rudar Prijedor</t>
+          <t>Radnik Bijeljina</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>Borac Banja Luka</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>8.199999999999999</v>
+        <v>15</v>
       </c>
       <c r="H3" t="n">
-        <v>1.55</v>
+        <v>1.36</v>
       </c>
       <c r="I3" t="n">
-        <v>1.63</v>
+        <v>1.39</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="K3" t="n">
-        <v>4.6</v>
+        <v>5.7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P3" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R3" t="n">
         <v>1.33</v>
@@ -844,46 +844,46 @@
         <v>3.85</v>
       </c>
       <c r="T3" t="n">
-        <v>2.16</v>
+        <v>2.44</v>
       </c>
       <c r="U3" t="n">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="V3" t="n">
-        <v>2.6</v>
+        <v>3.55</v>
       </c>
       <c r="W3" t="n">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="X3" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>21</v>
+        <v>6.4</v>
       </c>
       <c r="Z3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB3" t="n">
         <v>40</v>
       </c>
-      <c r="AA3" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>65</v>
-      </c>
       <c r="AC3" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AD3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF3" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>29</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="4">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Beroe Stara Za</t>
+          <t>CSKA Sofia</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cherno More</t>
+          <t>Lokomotiv Plovdiv</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.8</v>
+        <v>1.61</v>
       </c>
       <c r="G4" t="n">
-        <v>5.5</v>
+        <v>1.67</v>
       </c>
       <c r="H4" t="n">
-        <v>1.88</v>
+        <v>6.4</v>
       </c>
       <c r="I4" t="n">
-        <v>1.96</v>
+        <v>7.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="K4" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="L4" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="M4" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="O4" t="n">
-        <v>1.43</v>
+        <v>1.34</v>
       </c>
       <c r="P4" t="n">
-        <v>1.71</v>
+        <v>1.87</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.24</v>
+        <v>2.02</v>
       </c>
       <c r="R4" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="S4" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="T4" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U4" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="V4" t="n">
-        <v>2.04</v>
+        <v>1.16</v>
       </c>
       <c r="W4" t="n">
-        <v>1.23</v>
+        <v>2.48</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Y4" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>230</v>
+      </c>
+      <c r="AB4" t="n">
         <v>7.6</v>
       </c>
-      <c r="Z4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>16</v>
-      </c>
       <c r="AC4" t="n">
-        <v>8.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="AF4" t="n">
-        <v>36</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AH4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI4" t="n">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="AJ4" t="n">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="AK4" t="n">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="AL4" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="AM4" t="n">
         <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>110</v>
+        <v>11.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>18</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Radnik Bijeljina</t>
+          <t>Casertana</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Borac Banja Luka</t>
+          <t>Atalanta B</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>2.4</v>
       </c>
       <c r="G5" t="n">
-        <v>13</v>
+        <v>2.76</v>
       </c>
       <c r="H5" t="n">
-        <v>1.39</v>
+        <v>2.86</v>
       </c>
       <c r="I5" t="n">
-        <v>1.45</v>
+        <v>3.3</v>
       </c>
       <c r="J5" t="n">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
-        <v>5.4</v>
+        <v>3.7</v>
       </c>
       <c r="L5" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S5" t="n">
         <v>3.25</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.9</v>
-      </c>
       <c r="T5" t="n">
-        <v>2.34</v>
+        <v>1.71</v>
       </c>
       <c r="U5" t="n">
-        <v>1.64</v>
+        <v>2.16</v>
       </c>
       <c r="V5" t="n">
-        <v>3.15</v>
+        <v>1.44</v>
       </c>
       <c r="W5" t="n">
-        <v>1.08</v>
+        <v>1.58</v>
       </c>
       <c r="X5" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y5" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y5" t="n">
-        <v>6.4</v>
-      </c>
       <c r="Z5" t="n">
-        <v>7.6</v>
+        <v>22</v>
       </c>
       <c r="AA5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG5" t="n">
         <v>12.5</v>
       </c>
-      <c r="AB5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>120</v>
-      </c>
       <c r="AH5" t="n">
-        <v>65</v>
+        <v>17.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CSKA Sofia</t>
+          <t>Kazincbarcika</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Lokomotiv Plovdiv</t>
+          <t>Gyori</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.45</v>
+        <v>7.4</v>
       </c>
       <c r="G6" t="n">
+        <v>8</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.48</v>
       </c>
-      <c r="H6" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="I6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V6" t="n">
+        <v>3</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="X6" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD6" t="n">
         <v>11</v>
       </c>
-      <c r="J6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W6" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="X6" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD6" t="n">
+      <c r="AE6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>130</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>280</v>
+      </c>
+      <c r="AK6" t="n">
         <v>100</v>
       </c>
-      <c r="AE6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>50</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>18</v>
-      </c>
       <c r="AL6" t="n">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>8.4</v>
+        <v>100</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Slovakian Super League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Casertana</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Atalanta B</t>
+          <t>Ruzomberok</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.54</v>
+        <v>1.3</v>
       </c>
       <c r="G7" t="n">
-        <v>2.82</v>
+        <v>1.35</v>
       </c>
       <c r="H7" t="n">
+        <v>10</v>
+      </c>
+      <c r="I7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P7" t="n">
         <v>2.8</v>
       </c>
-      <c r="I7" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.87</v>
-      </c>
       <c r="Q7" t="n">
-        <v>1.89</v>
+        <v>1.49</v>
       </c>
       <c r="R7" t="n">
-        <v>1.34</v>
+        <v>1.75</v>
       </c>
       <c r="S7" t="n">
-        <v>3.25</v>
+        <v>2.22</v>
       </c>
       <c r="T7" t="n">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.45</v>
+        <v>1.08</v>
       </c>
       <c r="W7" t="n">
-        <v>1.55</v>
+        <v>3.85</v>
       </c>
       <c r="X7" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC7" t="n">
         <v>15.5</v>
       </c>
-      <c r="Y7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB7" t="n">
+      <c r="AD7" t="n">
+        <v>95</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>42</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>12</v>
       </c>
-      <c r="AC7" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD7" t="n">
+      <c r="AK7" t="n">
         <v>14.5</v>
       </c>
-      <c r="AE7" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>32</v>
-      </c>
       <c r="AL7" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AM7" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>25</v>
+        <v>4.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>Slovakian Super League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Kazincbarcika</t>
+          <t>Podbrezova</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Gyori</t>
+          <t>Spartak Trnava</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>7.4</v>
+        <v>3.8</v>
       </c>
       <c r="G8" t="n">
-        <v>8.800000000000001</v>
+        <v>4.2</v>
       </c>
       <c r="H8" t="n">
-        <v>1.44</v>
+        <v>2.06</v>
       </c>
       <c r="I8" t="n">
-        <v>1.46</v>
+        <v>2.2</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>5.5</v>
+        <v>3.7</v>
       </c>
       <c r="L8" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>5.3</v>
+        <v>3.85</v>
       </c>
       <c r="O8" t="n">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="P8" t="n">
-        <v>2.46</v>
+        <v>1.96</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="R8" t="n">
-        <v>1.57</v>
+        <v>1.37</v>
       </c>
       <c r="S8" t="n">
-        <v>2.56</v>
+        <v>3.4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="U8" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="V8" t="n">
-        <v>3.15</v>
+        <v>1.83</v>
       </c>
       <c r="W8" t="n">
-        <v>1.13</v>
+        <v>1.32</v>
       </c>
       <c r="X8" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Y8" t="n">
         <v>10.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.4</v>
+        <v>14.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>12.5</v>
+        <v>48</v>
       </c>
       <c r="AB8" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="AC8" t="n">
-        <v>12.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD8" t="n">
         <v>11</v>
       </c>
       <c r="AE8" t="n">
-        <v>14.5</v>
+        <v>23</v>
       </c>
       <c r="AF8" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI8" t="n">
         <v>75</v>
       </c>
-      <c r="AG8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>32</v>
-      </c>
       <c r="AJ8" t="n">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="AK8" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="AL8" t="n">
-        <v>290</v>
+        <v>85</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AN8" t="n">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="AO8" t="n">
-        <v>5.8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Slovakian Super League</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,78 +1598,78 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Zeljeznicar</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Ruzomberok</t>
+          <t>Siroki Brijeg</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.3</v>
+        <v>1.91</v>
       </c>
       <c r="G9" t="n">
-        <v>1.35</v>
+        <v>2.06</v>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>4.1</v>
       </c>
       <c r="I9" t="n">
-        <v>12.5</v>
+        <v>5.2</v>
       </c>
       <c r="J9" t="n">
-        <v>5.9</v>
+        <v>3.25</v>
       </c>
       <c r="K9" t="n">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.26</v>
+        <v>1.52</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>6.4</v>
+        <v>2.88</v>
       </c>
       <c r="O9" t="n">
-        <v>1.17</v>
+        <v>1.48</v>
       </c>
       <c r="P9" t="n">
-        <v>2.82</v>
+        <v>1.63</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.48</v>
+        <v>2.36</v>
       </c>
       <c r="R9" t="n">
-        <v>1.75</v>
+        <v>1.22</v>
       </c>
       <c r="S9" t="n">
-        <v>2.18</v>
+        <v>4.6</v>
       </c>
       <c r="T9" t="n">
-        <v>1.81</v>
+        <v>1.04</v>
       </c>
       <c r="U9" t="n">
-        <v>2.02</v>
+        <v>1.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.09</v>
+        <v>1.24</v>
       </c>
       <c r="W9" t="n">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="X9" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
@@ -1678,43 +1678,43 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AC9" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AD9" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>11.5</v>
+        <v>40</v>
       </c>
       <c r="AH9" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.5</v>
+        <v>85</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Slovakian Super League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,126 +1733,126 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Podbrezova</t>
+          <t>Maccabi Netanya</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Spartak Trnava</t>
+          <t>FC Ashdod</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.7</v>
+        <v>2.08</v>
       </c>
       <c r="G10" t="n">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="H10" t="n">
-        <v>2.08</v>
+        <v>3.55</v>
       </c>
       <c r="I10" t="n">
-        <v>2.2</v>
+        <v>3.85</v>
       </c>
       <c r="J10" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.43</v>
+        <v>1.34</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>3.85</v>
+        <v>4.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="P10" t="n">
-        <v>1.96</v>
+        <v>2.32</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.96</v>
+        <v>1.68</v>
       </c>
       <c r="R10" t="n">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
       <c r="S10" t="n">
-        <v>3.3</v>
+        <v>2.66</v>
       </c>
       <c r="T10" t="n">
-        <v>1.73</v>
+        <v>1.59</v>
       </c>
       <c r="U10" t="n">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="V10" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W10" t="n">
         <v>1.83</v>
       </c>
-      <c r="W10" t="n">
-        <v>1.32</v>
-      </c>
       <c r="X10" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH10" t="n">
         <v>15</v>
       </c>
-      <c r="Y10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA10" t="n">
+      <c r="AI10" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>48</v>
       </c>
-      <c r="AB10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>230</v>
-      </c>
       <c r="AK10" t="n">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="AL10" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AM10" t="n">
-        <v>330</v>
+        <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>230</v>
+        <v>12</v>
       </c>
       <c r="AO10" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
@@ -1891,10 +1891,10 @@
         <v>2.08</v>
       </c>
       <c r="I11" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K11" t="n">
         <v>3.45</v>
@@ -1903,37 +1903,37 @@
         <v>1.49</v>
       </c>
       <c r="M11" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
         <v>3.05</v>
       </c>
       <c r="O11" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="P11" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R11" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="S11" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="U11" t="n">
         <v>1.92</v>
       </c>
       <c r="V11" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="W11" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X11" t="n">
         <v>20</v>
@@ -1951,25 +1951,25 @@
         <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>15</v>
+        <v>7.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE11" t="n">
         <v>75</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AH11" t="n">
         <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
         <v>1000</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Zeljeznicar</t>
+          <t>Ironi Tiberias</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Siroki Brijeg</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.71</v>
+        <v>5.9</v>
       </c>
       <c r="G12" t="n">
-        <v>1.78</v>
+        <v>6.8</v>
       </c>
       <c r="H12" t="n">
-        <v>5.3</v>
+        <v>1.5</v>
       </c>
       <c r="I12" t="n">
-        <v>7</v>
+        <v>1.56</v>
       </c>
       <c r="J12" t="n">
-        <v>3.5</v>
+        <v>4.9</v>
       </c>
       <c r="K12" t="n">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="M12" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>3.05</v>
+        <v>5.6</v>
       </c>
       <c r="O12" t="n">
-        <v>1.46</v>
+        <v>1.19</v>
       </c>
       <c r="P12" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="T12" t="n">
         <v>1.69</v>
       </c>
-      <c r="Q12" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S12" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.04</v>
-      </c>
       <c r="U12" t="n">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.18</v>
+        <v>2.74</v>
       </c>
       <c r="W12" t="n">
-        <v>2.24</v>
+        <v>1.17</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="AC12" t="n">
-        <v>42</v>
+        <v>12.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AF12" t="n">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="AG12" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ12" t="n">
-        <v>900</v>
+        <v>180</v>
       </c>
       <c r="AK12" t="n">
-        <v>120</v>
+        <v>510</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AN12" t="n">
-        <v>85</v>
+        <v>330</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,126 +2138,126 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Maccabi Netanya</t>
+          <t>Kahraba Ismailia</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FC Ashdod</t>
+          <t>Pyramids</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.08</v>
+        <v>13.5</v>
       </c>
       <c r="G13" t="n">
-        <v>2.22</v>
+        <v>15.5</v>
       </c>
       <c r="H13" t="n">
-        <v>3.55</v>
+        <v>1.32</v>
       </c>
       <c r="I13" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V13" t="n">
         <v>3.85</v>
       </c>
-      <c r="J13" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N13" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.35</v>
-      </c>
       <c r="W13" t="n">
-        <v>1.82</v>
+        <v>1.07</v>
       </c>
       <c r="X13" t="n">
-        <v>30</v>
+        <v>15.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>25</v>
+        <v>6.8</v>
       </c>
       <c r="Z13" t="n">
-        <v>48</v>
+        <v>6.6</v>
       </c>
       <c r="AA13" t="n">
-        <v>900</v>
+        <v>10</v>
       </c>
       <c r="AB13" t="n">
-        <v>12.5</v>
+        <v>36</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.199999999999999</v>
+        <v>13</v>
       </c>
       <c r="AD13" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>100</v>
+        <v>17.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>15.5</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="n">
-        <v>11.5</v>
+        <v>60</v>
       </c>
       <c r="AH13" t="n">
-        <v>16.5</v>
+        <v>46</v>
       </c>
       <c r="AI13" t="n">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="AJ13" t="n">
-        <v>46</v>
+        <v>830</v>
       </c>
       <c r="AK13" t="n">
-        <v>34</v>
+        <v>360</v>
       </c>
       <c r="AL13" t="n">
-        <v>32</v>
+        <v>300</v>
       </c>
       <c r="AM13" t="n">
-        <v>580</v>
+        <v>380</v>
       </c>
       <c r="AN13" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Ironi Tiberias</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>5.9</v>
+        <v>1.35</v>
       </c>
       <c r="G14" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H14" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="I14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>6</v>
+      </c>
+      <c r="K14" t="n">
         <v>6.8</v>
       </c>
-      <c r="H14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="K14" t="n">
-        <v>5.6</v>
-      </c>
       <c r="L14" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="P14" t="n">
-        <v>2.62</v>
+        <v>2.78</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="R14" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="S14" t="n">
-        <v>2.46</v>
+        <v>2.22</v>
       </c>
       <c r="T14" t="n">
-        <v>1.69</v>
+        <v>1.84</v>
       </c>
       <c r="U14" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="V14" t="n">
-        <v>2.72</v>
+        <v>1.11</v>
       </c>
       <c r="W14" t="n">
-        <v>1.17</v>
+        <v>3.6</v>
       </c>
       <c r="X14" t="n">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y14" t="n">
-        <v>12.5</v>
+        <v>42</v>
       </c>
       <c r="Z14" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB14" t="n">
         <v>12</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AC14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>230</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK14" t="n">
         <v>14.5</v>
       </c>
-      <c r="AB14" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>230</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>180</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>510</v>
-      </c>
       <c r="AL14" t="n">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="AM14" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>330</v>
+        <v>4.6</v>
       </c>
       <c r="AO14" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Kahraba Ismailia</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Pyramids</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>14</v>
+        <v>5.1</v>
       </c>
       <c r="G15" t="n">
-        <v>16.5</v>
+        <v>5.2</v>
       </c>
       <c r="H15" t="n">
-        <v>1.31</v>
+        <v>1.76</v>
       </c>
       <c r="I15" t="n">
-        <v>1.33</v>
+        <v>1.77</v>
       </c>
       <c r="J15" t="n">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="K15" t="n">
-        <v>6</v>
+        <v>4.3</v>
       </c>
       <c r="L15" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>3.75</v>
+        <v>4.7</v>
       </c>
       <c r="O15" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>1.94</v>
+        <v>2.26</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="R15" t="n">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="S15" t="n">
-        <v>3.6</v>
+        <v>2.94</v>
       </c>
       <c r="T15" t="n">
-        <v>2.56</v>
+        <v>1.78</v>
       </c>
       <c r="U15" t="n">
-        <v>1.56</v>
+        <v>2.22</v>
       </c>
       <c r="V15" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="W15" t="n">
-        <v>1.07</v>
+        <v>1.24</v>
       </c>
       <c r="X15" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE15" t="n">
         <v>17</v>
       </c>
-      <c r="Y15" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>48</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>18</v>
-      </c>
       <c r="AF15" t="n">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AH15" t="n">
-        <v>160</v>
+        <v>17</v>
       </c>
       <c r="AI15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM15" t="n">
         <v>85</v>
       </c>
-      <c r="AJ15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>440</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>340</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>420</v>
-      </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO15" t="n">
-        <v>7.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Blooming Santa Cruz</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>Academia de Balompie Bolivi</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="G16" t="n">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="H16" t="n">
-        <v>8.4</v>
+        <v>13.5</v>
       </c>
       <c r="I16" t="n">
+        <v>17</v>
+      </c>
+      <c r="J16" t="n">
+        <v>7</v>
+      </c>
+      <c r="K16" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N16" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="W16" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="X16" t="n">
+        <v>85</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>130</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>160</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>260</v>
+      </c>
+      <c r="AF16" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="J16" t="n">
-        <v>6</v>
-      </c>
-      <c r="K16" t="n">
-        <v>7</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N16" t="n">
-        <v>6</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W16" t="n">
+      <c r="AG16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>80</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN16" t="n">
         <v>3.55</v>
       </c>
-      <c r="X16" t="n">
-        <v>75</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>95</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>16</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>85</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>520</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>4.7</v>
-      </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Austrian Bundesliga</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>WSG Wattens</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>5.1</v>
+        <v>1.71</v>
       </c>
       <c r="G17" t="n">
-        <v>5.2</v>
+        <v>1.75</v>
       </c>
       <c r="H17" t="n">
-        <v>1.75</v>
+        <v>5.4</v>
       </c>
       <c r="I17" t="n">
-        <v>1.76</v>
+        <v>5.8</v>
       </c>
       <c r="J17" t="n">
+        <v>4</v>
+      </c>
+      <c r="K17" t="n">
         <v>4.2</v>
       </c>
-      <c r="K17" t="n">
-        <v>4.3</v>
-      </c>
       <c r="L17" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>4.7</v>
+        <v>3.95</v>
       </c>
       <c r="O17" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="P17" t="n">
-        <v>2.26</v>
+        <v>2.02</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="R17" t="n">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="S17" t="n">
-        <v>2.94</v>
+        <v>3.5</v>
       </c>
       <c r="T17" t="n">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="U17" t="n">
-        <v>2.24</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>2.3</v>
+        <v>1.21</v>
       </c>
       <c r="W17" t="n">
-        <v>1.24</v>
+        <v>2.32</v>
       </c>
       <c r="X17" t="n">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="Z17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN17" t="n">
         <v>11</v>
       </c>
-      <c r="AA17" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>60</v>
-      </c>
       <c r="AO17" t="n">
-        <v>9</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,126 +2813,126 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Blooming Santa Cruz</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Academia de Balompie Bolivi</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.23</v>
+        <v>5.3</v>
       </c>
       <c r="G18" t="n">
-        <v>1.27</v>
+        <v>5.4</v>
       </c>
       <c r="H18" t="n">
-        <v>13.5</v>
+        <v>1.79</v>
       </c>
       <c r="I18" t="n">
-        <v>16</v>
+        <v>1.8</v>
       </c>
       <c r="J18" t="n">
-        <v>7</v>
+        <v>3.85</v>
       </c>
       <c r="K18" t="n">
-        <v>8.6</v>
+        <v>3.9</v>
       </c>
       <c r="L18" t="n">
-        <v>1.23</v>
+        <v>1.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>6.8</v>
+        <v>3.35</v>
       </c>
       <c r="O18" t="n">
-        <v>1.14</v>
+        <v>1.41</v>
       </c>
       <c r="P18" t="n">
-        <v>3</v>
+        <v>1.79</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.43</v>
+        <v>2.24</v>
       </c>
       <c r="R18" t="n">
-        <v>1.82</v>
+        <v>1.3</v>
       </c>
       <c r="S18" t="n">
-        <v>2.08</v>
+        <v>4.2</v>
       </c>
       <c r="T18" t="n">
-        <v>1.93</v>
+        <v>2.12</v>
       </c>
       <c r="U18" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="V18" t="n">
-        <v>1.06</v>
+        <v>2.24</v>
       </c>
       <c r="W18" t="n">
-        <v>4.6</v>
+        <v>1.22</v>
       </c>
       <c r="X18" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK18" t="n">
         <v>85</v>
       </c>
-      <c r="Y18" t="n">
-        <v>130</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>160</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>620</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>220</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>80</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK18" t="n">
+      <c r="AL18" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>110</v>
+      </c>
+      <c r="AO18" t="n">
         <v>14</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>270</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.35</v>
+        <v>2.2</v>
       </c>
       <c r="G19" t="n">
-        <v>3.4</v>
+        <v>2.24</v>
       </c>
       <c r="H19" t="n">
-        <v>2.38</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>2.4</v>
+        <v>3.65</v>
       </c>
       <c r="J19" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="K19" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="L19" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>3.35</v>
+        <v>4.3</v>
       </c>
       <c r="O19" t="n">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="P19" t="n">
-        <v>1.79</v>
+        <v>2.12</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.22</v>
+        <v>1.86</v>
       </c>
       <c r="R19" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="S19" t="n">
-        <v>4.2</v>
+        <v>3.15</v>
       </c>
       <c r="T19" t="n">
-        <v>1.92</v>
+        <v>1.72</v>
       </c>
       <c r="U19" t="n">
-        <v>2.04</v>
+        <v>2.34</v>
       </c>
       <c r="V19" t="n">
-        <v>1.71</v>
+        <v>1.37</v>
       </c>
       <c r="W19" t="n">
-        <v>1.41</v>
+        <v>1.81</v>
       </c>
       <c r="X19" t="n">
-        <v>11.5</v>
+        <v>16</v>
       </c>
       <c r="Y19" t="n">
-        <v>9</v>
+        <v>14.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AA19" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AB19" t="n">
         <v>11</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AD19" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="AF19" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AG19" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AI19" t="n">
         <v>46</v>
       </c>
       <c r="AJ19" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="AK19" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="AL19" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AM19" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AN19" t="n">
-        <v>46</v>
+        <v>14.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.18</v>
+        <v>3.4</v>
       </c>
       <c r="G20" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q20" t="n">
         <v>2.2</v>
       </c>
-      <c r="H20" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L20" t="n">
+      <c r="R20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W20" t="n">
         <v>1.4</v>
       </c>
-      <c r="M20" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N20" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S20" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.83</v>
-      </c>
       <c r="X20" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="Y20" t="n">
-        <v>14.5</v>
+        <v>9</v>
       </c>
       <c r="Z20" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="AA20" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="AB20" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AE20" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AF20" t="n">
-        <v>13.5</v>
+        <v>22</v>
       </c>
       <c r="AG20" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AH20" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AI20" t="n">
         <v>44</v>
       </c>
       <c r="AJ20" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AK20" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="AL20" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AM20" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AN20" t="n">
-        <v>14.5</v>
+        <v>48</v>
       </c>
       <c r="AO20" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="G21" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="H21" t="n">
         <v>9</v>
@@ -3244,76 +3244,76 @@
         <v>9.199999999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="K21" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P21" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="R21" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="S21" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T21" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U21" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="V21" t="n">
         <v>1.12</v>
       </c>
       <c r="W21" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="X21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y21" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Z21" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AA21" t="n">
-        <v>430</v>
+        <v>330</v>
       </c>
       <c r="AB21" t="n">
         <v>7.4</v>
       </c>
       <c r="AC21" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AE21" t="n">
         <v>150</v>
       </c>
       <c r="AF21" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AG21" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
         <v>28</v>
@@ -3325,25 +3325,25 @@
         <v>12</v>
       </c>
       <c r="AK21" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AL21" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM21" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AN21" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AO21" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Austrian Bundesliga</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,123 +3353,123 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>WSG Wattens</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="F22" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W22" t="n">
         <v>1.7</v>
       </c>
-      <c r="G22" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="I22" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J22" t="n">
-        <v>4</v>
-      </c>
-      <c r="K22" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N22" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S22" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W22" t="n">
-        <v>2.32</v>
-      </c>
       <c r="X22" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>18.5</v>
+        <v>12</v>
       </c>
       <c r="Z22" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB22" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF22" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AI22" t="n">
-        <v>330</v>
+        <v>60</v>
       </c>
       <c r="AJ22" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="AK22" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="AL22" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN22" t="n">
-        <v>11.5</v>
+        <v>23</v>
       </c>
       <c r="AO22" t="n">
         <v>600</v>
@@ -3478,7 +3478,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,126 +3488,126 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>5.3</v>
+        <v>1.15</v>
       </c>
       <c r="G23" t="n">
-        <v>5.4</v>
+        <v>1.16</v>
       </c>
       <c r="H23" t="n">
-        <v>1.79</v>
+        <v>23</v>
       </c>
       <c r="I23" t="n">
-        <v>1.8</v>
+        <v>26</v>
       </c>
       <c r="J23" t="n">
-        <v>3.9</v>
+        <v>10.5</v>
       </c>
       <c r="K23" t="n">
-        <v>3.95</v>
+        <v>11.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.5</v>
+        <v>1.21</v>
       </c>
       <c r="M23" t="n">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="N23" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P23" t="n">
         <v>3.35</v>
       </c>
-      <c r="O23" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.79</v>
-      </c>
       <c r="Q23" t="n">
-        <v>2.24</v>
+        <v>1.39</v>
       </c>
       <c r="R23" t="n">
-        <v>1.3</v>
+        <v>1.95</v>
       </c>
       <c r="S23" t="n">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="T23" t="n">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="U23" t="n">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="V23" t="n">
-        <v>2.24</v>
+        <v>1.04</v>
       </c>
       <c r="W23" t="n">
-        <v>1.22</v>
+        <v>7.4</v>
       </c>
       <c r="X23" t="n">
-        <v>12.5</v>
+        <v>50</v>
       </c>
       <c r="Y23" t="n">
-        <v>7.2</v>
+        <v>90</v>
       </c>
       <c r="Z23" t="n">
-        <v>9.199999999999999</v>
+        <v>280</v>
       </c>
       <c r="AA23" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC23" t="n">
+        <v>25</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>510</v>
+      </c>
+      <c r="AF23" t="n">
         <v>8.4</v>
       </c>
-      <c r="AD23" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>38</v>
-      </c>
       <c r="AG23" t="n">
-        <v>21</v>
+        <v>13.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="AI23" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>150</v>
+        <v>8.4</v>
       </c>
       <c r="AK23" t="n">
-        <v>85</v>
+        <v>14.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="AM23" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>110</v>
+        <v>2.9</v>
       </c>
       <c r="AO23" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
@@ -3637,58 +3637,58 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G24" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H24" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I24" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="J24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K24" t="n">
         <v>3.45</v>
       </c>
-      <c r="K24" t="n">
-        <v>3.55</v>
-      </c>
       <c r="L24" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O24" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R24" t="n">
         <v>1.35</v>
       </c>
-      <c r="P24" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.34</v>
-      </c>
       <c r="S24" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="T24" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="U24" t="n">
         <v>2.18</v>
       </c>
       <c r="V24" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="W24" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X24" t="n">
         <v>14</v>
@@ -3697,13 +3697,13 @@
         <v>10</v>
       </c>
       <c r="Z24" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA24" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB24" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC24" t="n">
         <v>7.4</v>
@@ -3712,19 +3712,19 @@
         <v>12</v>
       </c>
       <c r="AE24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG24" t="n">
         <v>14</v>
       </c>
       <c r="AH24" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ24" t="n">
         <v>60</v>
@@ -3733,10 +3733,10 @@
         <v>38</v>
       </c>
       <c r="AL24" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM24" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN24" t="n">
         <v>38</v>
@@ -3772,28 +3772,28 @@
         </is>
       </c>
       <c r="F25" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G25" t="n">
         <v>3.9</v>
       </c>
-      <c r="G25" t="n">
-        <v>4</v>
-      </c>
       <c r="H25" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="I25" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="J25" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K25" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L25" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M25" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
         <v>4.1</v>
@@ -3802,28 +3802,28 @@
         <v>1.3</v>
       </c>
       <c r="P25" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R25" t="n">
         <v>1.4</v>
       </c>
       <c r="S25" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T25" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="U25" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V25" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W25" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X25" t="n">
         <v>15.5</v>
@@ -3835,19 +3835,19 @@
         <v>13</v>
       </c>
       <c r="AA25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB25" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD25" t="n">
         <v>10.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF25" t="n">
         <v>28</v>
@@ -3859,13 +3859,13 @@
         <v>17.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ25" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AK25" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL25" t="n">
         <v>55</v>
@@ -3874,10 +3874,10 @@
         <v>90</v>
       </c>
       <c r="AN25" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AO25" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="G26" t="n">
         <v>1.4</v>
@@ -3919,10 +3919,10 @@
         <v>12</v>
       </c>
       <c r="J26" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="K26" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L26" t="n">
         <v>1.37</v>
@@ -3931,49 +3931,49 @@
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="O26" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P26" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="R26" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="S26" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="T26" t="n">
-        <v>2.14</v>
+        <v>2.28</v>
       </c>
       <c r="U26" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="V26" t="n">
         <v>1.09</v>
       </c>
       <c r="W26" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="X26" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="Y26" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Z26" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AA26" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="AB26" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AC26" t="n">
         <v>11.5</v>
@@ -3982,43 +3982,43 @@
         <v>42</v>
       </c>
       <c r="AE26" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="AF26" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AG26" t="n">
         <v>10</v>
       </c>
       <c r="AH26" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AI26" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="AJ26" t="n">
         <v>11</v>
       </c>
       <c r="AK26" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AL26" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AM26" t="n">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="AN26" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AO26" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.15</v>
+        <v>1.39</v>
       </c>
       <c r="G27" t="n">
-        <v>1.16</v>
+        <v>1.4</v>
       </c>
       <c r="H27" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I27" t="n">
-        <v>26</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J27" t="n">
-        <v>10.5</v>
+        <v>5.6</v>
       </c>
       <c r="K27" t="n">
-        <v>11.5</v>
+        <v>5.7</v>
       </c>
       <c r="L27" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N27" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="O27" t="n">
         <v>1.21</v>
       </c>
-      <c r="M27" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N27" t="n">
-        <v>8</v>
-      </c>
-      <c r="O27" t="n">
+      <c r="P27" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V27" t="n">
         <v>1.12</v>
       </c>
-      <c r="P27" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="S27" t="n">
-        <v>2</v>
-      </c>
-      <c r="T27" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.04</v>
-      </c>
       <c r="W27" t="n">
-        <v>7.2</v>
+        <v>3.5</v>
       </c>
       <c r="X27" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="Y27" t="n">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="Z27" t="n">
-        <v>290</v>
+        <v>75</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AB27" t="n">
-        <v>13.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC27" t="n">
-        <v>28</v>
+        <v>12.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>400</v>
+        <v>30</v>
       </c>
       <c r="AE27" t="n">
-        <v>510</v>
+        <v>120</v>
       </c>
       <c r="AF27" t="n">
         <v>8.6</v>
       </c>
       <c r="AG27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK27" t="n">
         <v>13.5</v>
       </c>
-      <c r="AH27" t="n">
-        <v>65</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>14</v>
-      </c>
       <c r="AL27" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN27" t="n">
-        <v>2.96</v>
+        <v>5.4</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.32</v>
+        <v>4.2</v>
       </c>
       <c r="G28" t="n">
-        <v>2.34</v>
+        <v>4.4</v>
       </c>
       <c r="H28" t="n">
-        <v>3.5</v>
+        <v>1.94</v>
       </c>
       <c r="I28" t="n">
-        <v>3.55</v>
+        <v>1.95</v>
       </c>
       <c r="J28" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="K28" t="n">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="L28" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N28" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R28" t="n">
         <v>1.46</v>
       </c>
-      <c r="M28" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N28" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.31</v>
-      </c>
       <c r="S28" t="n">
-        <v>3.95</v>
+        <v>3.05</v>
       </c>
       <c r="T28" t="n">
-        <v>1.87</v>
+        <v>1.74</v>
       </c>
       <c r="U28" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="V28" t="n">
-        <v>1.39</v>
+        <v>2.04</v>
       </c>
       <c r="W28" t="n">
-        <v>1.74</v>
+        <v>1.29</v>
       </c>
       <c r="X28" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="Y28" t="n">
-        <v>12.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z28" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AA28" t="n">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="AB28" t="n">
-        <v>9.199999999999999</v>
+        <v>16</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE28" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="AF28" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AG28" t="n">
-        <v>11.5</v>
+        <v>16</v>
       </c>
       <c r="AH28" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AI28" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AJ28" t="n">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="AK28" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AL28" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AM28" t="n">
-        <v>330</v>
+        <v>85</v>
       </c>
       <c r="AN28" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="AO28" t="n">
-        <v>60</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Genesis Huracan</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Juticalpa</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.4</v>
+        <v>1.04</v>
       </c>
       <c r="G29" t="n">
-        <v>1.41</v>
+        <v>2.1</v>
       </c>
       <c r="H29" t="n">
-        <v>8.800000000000001</v>
+        <v>1.04</v>
       </c>
       <c r="I29" t="n">
-        <v>9.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="J29" t="n">
-        <v>5.6</v>
+        <v>2.9</v>
       </c>
       <c r="K29" t="n">
-        <v>5.8</v>
+        <v>970</v>
       </c>
       <c r="L29" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="M29" t="n">
         <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>5.6</v>
+        <v>1.02</v>
       </c>
       <c r="O29" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="P29" t="n">
-        <v>2.52</v>
+        <v>1.24</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="R29" t="n">
-        <v>1.6</v>
+        <v>1.18</v>
       </c>
       <c r="S29" t="n">
-        <v>2.62</v>
+        <v>1.01</v>
       </c>
       <c r="T29" t="n">
-        <v>1.94</v>
+        <v>1.04</v>
       </c>
       <c r="U29" t="n">
-        <v>2.04</v>
+        <v>1.04</v>
       </c>
       <c r="V29" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="W29" t="n">
-        <v>3.4</v>
+        <v>1.01</v>
       </c>
       <c r="X29" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Y29" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Z29" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AA29" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC29" t="n">
-        <v>12.5</v>
+        <v>42</v>
       </c>
       <c r="AD29" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AE29" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AH29" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI29" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>11.5</v>
+        <v>180</v>
       </c>
       <c r="AK29" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AL29" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM29" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>5.4</v>
+        <v>29</v>
       </c>
       <c r="AO29" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,132 +4433,132 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Real Tomayapo</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Oriente Petrolero</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="G30" t="n">
-        <v>4.3</v>
+        <v>2.66</v>
       </c>
       <c r="H30" t="n">
-        <v>1.96</v>
+        <v>2.72</v>
       </c>
       <c r="I30" t="n">
-        <v>1.97</v>
+        <v>2.98</v>
       </c>
       <c r="J30" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="K30" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L30" t="n">
-        <v>1.38</v>
+        <v>1.26</v>
       </c>
       <c r="M30" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>4.4</v>
+        <v>6.2</v>
       </c>
       <c r="O30" t="n">
-        <v>1.28</v>
+        <v>1.14</v>
       </c>
       <c r="P30" t="n">
-        <v>2.18</v>
+        <v>2.8</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.84</v>
+        <v>1.48</v>
       </c>
       <c r="R30" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="T30" t="n">
         <v>1.46</v>
       </c>
-      <c r="S30" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.74</v>
-      </c>
       <c r="U30" t="n">
-        <v>2.28</v>
+        <v>2.84</v>
       </c>
       <c r="V30" t="n">
-        <v>2.02</v>
+        <v>1.51</v>
       </c>
       <c r="W30" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="X30" t="n">
-        <v>17.5</v>
+        <v>90</v>
       </c>
       <c r="Y30" t="n">
-        <v>10</v>
+        <v>970</v>
       </c>
       <c r="Z30" t="n">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="AA30" t="n">
-        <v>25</v>
+        <v>280</v>
       </c>
       <c r="AB30" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.6</v>
+        <v>42</v>
       </c>
       <c r="AD30" t="n">
-        <v>9.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AE30" t="n">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="AF30" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AG30" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AH30" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AI30" t="n">
-        <v>30</v>
+        <v>190</v>
       </c>
       <c r="AJ30" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="AK30" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="AL30" t="n">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="AM30" t="n">
-        <v>85</v>
+        <v>330</v>
       </c>
       <c r="AN30" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AO30" t="n">
-        <v>11.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,126 +4568,126 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Genesis Huracan</t>
+          <t>Fortaleza EC</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Juticalpa</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.63</v>
+        <v>1.82</v>
       </c>
       <c r="G31" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="H31" t="n">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="I31" t="n">
-        <v>7</v>
+        <v>5.6</v>
       </c>
       <c r="J31" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="K31" t="n">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="L31" t="n">
-        <v>1.33</v>
+        <v>1.52</v>
       </c>
       <c r="M31" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N31" t="n">
-        <v>3.75</v>
+        <v>3.05</v>
       </c>
       <c r="O31" t="n">
-        <v>1.23</v>
+        <v>1.46</v>
       </c>
       <c r="P31" t="n">
-        <v>2.1</v>
+        <v>1.68</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.61</v>
+        <v>2.38</v>
       </c>
       <c r="R31" t="n">
-        <v>1.48</v>
+        <v>1.26</v>
       </c>
       <c r="S31" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="T31" t="n">
-        <v>1.67</v>
+        <v>2.16</v>
       </c>
       <c r="U31" t="n">
-        <v>2.12</v>
+        <v>1.8</v>
       </c>
       <c r="V31" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="W31" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB31" t="n">
-        <v>29</v>
+        <v>6.6</v>
       </c>
       <c r="AC31" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="AD31" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AF31" t="n">
-        <v>40</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG31" t="n">
-        <v>40</v>
+        <v>10.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM31" t="n">
         <v>180</v>
       </c>
-      <c r="AK31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN31" t="n">
-        <v>29</v>
+        <v>16.5</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32">
@@ -4717,10 +4717,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="G32" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="H32" t="n">
         <v>4.7</v>
@@ -4729,7 +4729,7 @@
         <v>4.9</v>
       </c>
       <c r="J32" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K32" t="n">
         <v>3.65</v>
@@ -4738,16 +4738,16 @@
         <v>1.47</v>
       </c>
       <c r="M32" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N32" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O32" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P32" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q32" t="n">
         <v>2.14</v>
@@ -4768,10 +4768,10 @@
         <v>1.26</v>
       </c>
       <c r="W32" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="X32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y32" t="n">
         <v>15.5</v>
@@ -4780,7 +4780,7 @@
         <v>34</v>
       </c>
       <c r="AA32" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AB32" t="n">
         <v>8.199999999999999</v>
@@ -4789,10 +4789,10 @@
         <v>7.8</v>
       </c>
       <c r="AD32" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF32" t="n">
         <v>11</v>
@@ -4804,10 +4804,10 @@
         <v>21</v>
       </c>
       <c r="AI32" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ32" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK32" t="n">
         <v>22</v>
@@ -4819,7 +4819,7 @@
         <v>130</v>
       </c>
       <c r="AN32" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO32" t="n">
         <v>85</v>
@@ -4838,132 +4838,132 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Fortaleza EC</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.85</v>
+        <v>5.2</v>
       </c>
       <c r="G33" t="n">
-        <v>1.87</v>
+        <v>5.3</v>
       </c>
       <c r="H33" t="n">
-        <v>5.2</v>
+        <v>1.79</v>
       </c>
       <c r="I33" t="n">
-        <v>5.4</v>
+        <v>1.8</v>
       </c>
       <c r="J33" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K33" t="n">
+        <v>4</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S33" t="n">
         <v>3.6</v>
       </c>
-      <c r="K33" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N33" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S33" t="n">
-        <v>4.6</v>
-      </c>
       <c r="T33" t="n">
-        <v>2.14</v>
+        <v>1.9</v>
       </c>
       <c r="U33" t="n">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="V33" t="n">
-        <v>1.22</v>
+        <v>2.24</v>
       </c>
       <c r="W33" t="n">
-        <v>2.14</v>
+        <v>1.23</v>
       </c>
       <c r="X33" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Z33" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y33" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z33" t="n">
+      <c r="AA33" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF33" t="n">
         <v>38</v>
       </c>
-      <c r="AA33" t="n">
-        <v>190</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AG33" t="n">
-        <v>10.5</v>
+        <v>19.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AI33" t="n">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="AJ33" t="n">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="AK33" t="n">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="AL33" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AM33" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="AN33" t="n">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="AO33" t="n">
-        <v>140</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,126 +4973,126 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Real Tomayapo</t>
+          <t>Deportes Concepcion</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Oriente Petrolero</t>
+          <t>Cobreloa Calama</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.46</v>
+        <v>1.92</v>
       </c>
       <c r="G34" t="n">
-        <v>2.68</v>
+        <v>2.06</v>
       </c>
       <c r="H34" t="n">
-        <v>2.72</v>
+        <v>4.1</v>
       </c>
       <c r="I34" t="n">
-        <v>2.98</v>
+        <v>4.9</v>
       </c>
       <c r="J34" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="K34" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="L34" t="n">
-        <v>1.26</v>
+        <v>1.45</v>
       </c>
       <c r="M34" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N34" t="n">
-        <v>6.4</v>
+        <v>3.35</v>
       </c>
       <c r="O34" t="n">
-        <v>1.15</v>
+        <v>1.36</v>
       </c>
       <c r="P34" t="n">
-        <v>2.88</v>
+        <v>1.8</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.48</v>
+        <v>2.1</v>
       </c>
       <c r="R34" t="n">
-        <v>1.8</v>
+        <v>1.29</v>
       </c>
       <c r="S34" t="n">
-        <v>2.16</v>
+        <v>3.75</v>
       </c>
       <c r="T34" t="n">
-        <v>1.46</v>
+        <v>1.04</v>
       </c>
       <c r="U34" t="n">
-        <v>2.92</v>
+        <v>1.04</v>
       </c>
       <c r="V34" t="n">
-        <v>1.51</v>
+        <v>1.25</v>
       </c>
       <c r="W34" t="n">
-        <v>1.6</v>
+        <v>1.94</v>
       </c>
       <c r="X34" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="Y34" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z34" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA34" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
       <c r="AC34" t="n">
         <v>42</v>
       </c>
       <c r="AD34" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE34" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AF34" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AG34" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH34" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AI34" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AK34" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AL34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN34" t="n">
         <v>85</v>
       </c>
-      <c r="AM34" t="n">
-        <v>330</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>55</v>
-      </c>
       <c r="AO34" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35">
@@ -5108,126 +5108,126 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>5.1</v>
+        <v>1.24</v>
       </c>
       <c r="G35" t="n">
-        <v>5.2</v>
+        <v>1.26</v>
       </c>
       <c r="H35" t="n">
-        <v>1.81</v>
+        <v>14.5</v>
       </c>
       <c r="I35" t="n">
-        <v>1.82</v>
+        <v>16</v>
       </c>
       <c r="J35" t="n">
-        <v>3.85</v>
+        <v>7.4</v>
       </c>
       <c r="K35" t="n">
-        <v>3.9</v>
+        <v>7.8</v>
       </c>
       <c r="L35" t="n">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="M35" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N35" t="n">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="O35" t="n">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="P35" t="n">
-        <v>1.92</v>
+        <v>2.7</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.04</v>
+        <v>1.56</v>
       </c>
       <c r="R35" t="n">
-        <v>1.34</v>
+        <v>1.67</v>
       </c>
       <c r="S35" t="n">
-        <v>3.7</v>
+        <v>2.42</v>
       </c>
       <c r="T35" t="n">
-        <v>1.9</v>
+        <v>2.16</v>
       </c>
       <c r="U35" t="n">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
       <c r="V35" t="n">
-        <v>2.2</v>
+        <v>1.06</v>
       </c>
       <c r="W35" t="n">
-        <v>1.23</v>
+        <v>4.8</v>
       </c>
       <c r="X35" t="n">
-        <v>13.5</v>
+        <v>29</v>
       </c>
       <c r="Y35" t="n">
-        <v>8.199999999999999</v>
+        <v>55</v>
       </c>
       <c r="Z35" t="n">
-        <v>10.5</v>
+        <v>160</v>
       </c>
       <c r="AA35" t="n">
-        <v>19.5</v>
+        <v>810</v>
       </c>
       <c r="AB35" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC35" t="n">
         <v>16.5</v>
       </c>
-      <c r="AC35" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="AD35" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>270</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ35" t="n">
         <v>9.6</v>
       </c>
-      <c r="AE35" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>130</v>
-      </c>
       <c r="AK35" t="n">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="AL35" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AM35" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="AN35" t="n">
-        <v>85</v>
+        <v>4.1</v>
       </c>
       <c r="AO35" t="n">
-        <v>13.5</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36">
@@ -5248,127 +5248,127 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F36" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R36" t="n">
         <v>1.24</v>
       </c>
-      <c r="G36" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="H36" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="I36" t="n">
-        <v>16</v>
-      </c>
-      <c r="J36" t="n">
-        <v>7</v>
-      </c>
-      <c r="K36" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N36" t="n">
-        <v>6</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P36" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.67</v>
-      </c>
       <c r="S36" t="n">
-        <v>2.4</v>
+        <v>4.7</v>
       </c>
       <c r="T36" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="U36" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="V36" t="n">
-        <v>1.06</v>
+        <v>1.53</v>
       </c>
       <c r="W36" t="n">
-        <v>4.8</v>
+        <v>1.53</v>
       </c>
       <c r="X36" t="n">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="Y36" t="n">
-        <v>270</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z36" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AA36" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB36" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AC36" t="n">
-        <v>16.5</v>
+        <v>7.4</v>
       </c>
       <c r="AD36" t="n">
-        <v>120</v>
+        <v>12.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>290</v>
+        <v>38</v>
       </c>
       <c r="AF36" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AG36" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AH36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK36" t="n">
         <v>36</v>
       </c>
-      <c r="AI36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AL36" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AM36" t="n">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="AN36" t="n">
-        <v>4.2</v>
+        <v>40</v>
       </c>
       <c r="AO36" t="n">
-        <v>380</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,132 +5378,132 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:20:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.82</v>
+        <v>2.56</v>
       </c>
       <c r="G37" t="n">
-        <v>2.88</v>
+        <v>2.68</v>
       </c>
       <c r="H37" t="n">
-        <v>2.78</v>
+        <v>3.05</v>
       </c>
       <c r="I37" t="n">
-        <v>2.84</v>
+        <v>3.25</v>
       </c>
       <c r="J37" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K37" t="n">
         <v>3.4</v>
       </c>
-      <c r="K37" t="n">
-        <v>3.45</v>
-      </c>
       <c r="L37" t="n">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="M37" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N37" t="n">
-        <v>3.05</v>
+        <v>4.2</v>
       </c>
       <c r="O37" t="n">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
       <c r="P37" t="n">
-        <v>1.69</v>
+        <v>2.08</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.38</v>
+        <v>1.87</v>
       </c>
       <c r="R37" t="n">
-        <v>1.24</v>
+        <v>1.45</v>
       </c>
       <c r="S37" t="n">
-        <v>4.8</v>
+        <v>3.15</v>
       </c>
       <c r="T37" t="n">
-        <v>2.02</v>
+        <v>1.67</v>
       </c>
       <c r="U37" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="V37" t="n">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="W37" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="X37" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>8.800000000000001</v>
+        <v>19.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AA37" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AB37" t="n">
-        <v>9.4</v>
+        <v>13</v>
       </c>
       <c r="AC37" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AD37" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AE37" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>200</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL37" t="n">
         <v>36</v>
       </c>
-      <c r="AF37" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>60</v>
-      </c>
       <c r="AM37" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AN37" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="AO37" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,132 +5513,132 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Deportes Concepcion</t>
+          <t>Jorge Wilstermann</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Cobreloa Calama</t>
+          <t>CDT Real Oruro</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.02</v>
+        <v>2.58</v>
       </c>
       <c r="G38" t="n">
-        <v>2.16</v>
+        <v>2.82</v>
       </c>
       <c r="H38" t="n">
-        <v>3.95</v>
+        <v>2.56</v>
       </c>
       <c r="I38" t="n">
-        <v>4.3</v>
+        <v>2.8</v>
       </c>
       <c r="J38" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="K38" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="L38" t="n">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="M38" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N38" t="n">
-        <v>3.35</v>
+        <v>4.5</v>
       </c>
       <c r="O38" t="n">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="P38" t="n">
-        <v>1.82</v>
+        <v>2.34</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.08</v>
+        <v>1.71</v>
       </c>
       <c r="R38" t="n">
-        <v>1.32</v>
+        <v>1.47</v>
       </c>
       <c r="S38" t="n">
-        <v>3.6</v>
+        <v>2.78</v>
       </c>
       <c r="T38" t="n">
-        <v>1.81</v>
+        <v>1.57</v>
       </c>
       <c r="U38" t="n">
-        <v>2</v>
+        <v>2.34</v>
       </c>
       <c r="V38" t="n">
-        <v>1.3</v>
+        <v>1.56</v>
       </c>
       <c r="W38" t="n">
-        <v>1.87</v>
+        <v>1.54</v>
       </c>
       <c r="X38" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD38" t="n">
         <v>14</v>
       </c>
-      <c r="Y38" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AE38" t="n">
         <v>1000</v>
       </c>
       <c r="AF38" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AG38" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AH38" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AI38" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ38" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AK38" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL38" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AM38" t="n">
         <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AO38" t="n">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,132 +5648,132 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>20:20:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>SE Palmeiras</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.62</v>
+        <v>3.3</v>
       </c>
       <c r="G39" t="n">
-        <v>2.82</v>
+        <v>3.45</v>
       </c>
       <c r="H39" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J39" t="n">
         <v>3.2</v>
       </c>
-      <c r="I39" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J39" t="n">
-        <v>2.96</v>
-      </c>
       <c r="K39" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L39" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="M39" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N39" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="O39" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="P39" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="R39" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="S39" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="T39" t="n">
-        <v>1.86</v>
+        <v>2.04</v>
       </c>
       <c r="U39" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="V39" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="W39" t="n">
         <v>1.4</v>
       </c>
-      <c r="W39" t="n">
-        <v>1.54</v>
-      </c>
       <c r="X39" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB39" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y39" t="n">
+      <c r="AC39" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF39" t="n">
         <v>21</v>
       </c>
-      <c r="Z39" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA39" t="n">
+      <c r="AG39" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN39" t="n">
         <v>60</v>
       </c>
-      <c r="AB39" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>310</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK39" t="n">
+      <c r="AO39" t="n">
         <v>34</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>600</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>48</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,132 +5783,132 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Jorge Wilstermann</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>CDT Real Oruro</t>
+          <t>Ceara SC Fortaleza</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.5</v>
+        <v>1.33</v>
       </c>
       <c r="G40" t="n">
-        <v>2.72</v>
+        <v>1.34</v>
       </c>
       <c r="H40" t="n">
-        <v>2.58</v>
+        <v>13</v>
       </c>
       <c r="I40" t="n">
-        <v>2.8</v>
+        <v>13.5</v>
       </c>
       <c r="J40" t="n">
-        <v>3.8</v>
+        <v>5.6</v>
       </c>
       <c r="K40" t="n">
-        <v>4.1</v>
+        <v>5.8</v>
       </c>
       <c r="L40" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="M40" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N40" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="O40" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P40" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="R40" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="S40" t="n">
-        <v>2.74</v>
+        <v>2.86</v>
       </c>
       <c r="T40" t="n">
-        <v>1.57</v>
+        <v>2.22</v>
       </c>
       <c r="U40" t="n">
-        <v>2.34</v>
+        <v>1.78</v>
       </c>
       <c r="V40" t="n">
-        <v>1.55</v>
+        <v>1.08</v>
       </c>
       <c r="W40" t="n">
-        <v>1.58</v>
+        <v>3.9</v>
       </c>
       <c r="X40" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.5</v>
+        <v>36</v>
       </c>
       <c r="Z40" t="n">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="AA40" t="n">
-        <v>1000</v>
+        <v>590</v>
       </c>
       <c r="AB40" t="n">
-        <v>16</v>
+        <v>8.4</v>
       </c>
       <c r="AC40" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AD40" t="n">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="AE40" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AF40" t="n">
-        <v>21</v>
+        <v>7.8</v>
       </c>
       <c r="AG40" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AI40" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AK40" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AL40" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM40" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AN40" t="n">
-        <v>19</v>
+        <v>5.3</v>
       </c>
       <c r="AO40" t="n">
-        <v>21</v>
+        <v>320</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,132 +5918,132 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Cruz Azul</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>SE Palmeiras</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3.35</v>
+        <v>2.62</v>
       </c>
       <c r="G41" t="n">
-        <v>3.45</v>
+        <v>2.72</v>
       </c>
       <c r="H41" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="I41" t="n">
-        <v>2.58</v>
+        <v>3.15</v>
       </c>
       <c r="J41" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K41" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L41" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="M41" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N41" t="n">
-        <v>2.94</v>
+        <v>3.6</v>
       </c>
       <c r="O41" t="n">
-        <v>1.49</v>
+        <v>1.37</v>
       </c>
       <c r="P41" t="n">
-        <v>1.64</v>
+        <v>1.85</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.46</v>
+        <v>2.12</v>
       </c>
       <c r="R41" t="n">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="S41" t="n">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="T41" t="n">
-        <v>2.04</v>
+        <v>1.82</v>
       </c>
       <c r="U41" t="n">
-        <v>1.89</v>
+        <v>2.08</v>
       </c>
       <c r="V41" t="n">
-        <v>1.63</v>
+        <v>1.46</v>
       </c>
       <c r="W41" t="n">
-        <v>1.41</v>
+        <v>1.58</v>
       </c>
       <c r="X41" t="n">
-        <v>10</v>
+        <v>15.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>8.4</v>
+        <v>11.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AA41" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC41" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AD41" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF41" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG41" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI41" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ41" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="AK41" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AL41" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM41" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN41" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AO41" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6053,132 +6053,132 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Atletico Bucaramanga</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Ceara SC Fortaleza</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.28</v>
+        <v>2.26</v>
       </c>
       <c r="G42" t="n">
-        <v>1.29</v>
+        <v>2.3</v>
       </c>
       <c r="H42" t="n">
-        <v>16</v>
+        <v>3.85</v>
       </c>
       <c r="I42" t="n">
-        <v>16.5</v>
+        <v>4.3</v>
       </c>
       <c r="J42" t="n">
-        <v>6.2</v>
+        <v>3.05</v>
       </c>
       <c r="K42" t="n">
-        <v>6.4</v>
+        <v>3.25</v>
       </c>
       <c r="L42" t="n">
-        <v>1.32</v>
+        <v>1.57</v>
       </c>
       <c r="M42" t="n">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="N42" t="n">
-        <v>5.1</v>
+        <v>2.66</v>
       </c>
       <c r="O42" t="n">
-        <v>1.23</v>
+        <v>1.51</v>
       </c>
       <c r="P42" t="n">
-        <v>2.38</v>
+        <v>1.54</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.67</v>
+        <v>2.62</v>
       </c>
       <c r="R42" t="n">
-        <v>1.54</v>
+        <v>1.19</v>
       </c>
       <c r="S42" t="n">
-        <v>2.74</v>
+        <v>5.2</v>
       </c>
       <c r="T42" t="n">
-        <v>2.32</v>
+        <v>2.04</v>
       </c>
       <c r="U42" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="V42" t="n">
-        <v>1.06</v>
+        <v>1.31</v>
       </c>
       <c r="W42" t="n">
-        <v>4.4</v>
+        <v>1.76</v>
       </c>
       <c r="X42" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y42" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="Z42" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AA42" t="n">
-        <v>770</v>
+        <v>1000</v>
       </c>
       <c r="AB42" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC42" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AD42" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AE42" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AF42" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AG42" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH42" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AI42" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AJ42" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AK42" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AL42" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AM42" t="n">
         <v>230</v>
       </c>
       <c r="AN42" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="AO42" t="n">
-        <v>390</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6188,78 +6188,78 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Cruz Azul</t>
+          <t>Olancho</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>CD Olimpia</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="G43" t="n">
-        <v>2.7</v>
+        <v>3.55</v>
       </c>
       <c r="H43" t="n">
-        <v>3.05</v>
+        <v>2.18</v>
       </c>
       <c r="I43" t="n">
-        <v>3.2</v>
+        <v>2.64</v>
       </c>
       <c r="J43" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K43" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="L43" t="n">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="M43" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N43" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="O43" t="n">
-        <v>1.37</v>
+        <v>1.24</v>
       </c>
       <c r="P43" t="n">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.12</v>
+        <v>1.62</v>
       </c>
       <c r="R43" t="n">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="S43" t="n">
-        <v>3.85</v>
+        <v>2.72</v>
       </c>
       <c r="T43" t="n">
-        <v>1.82</v>
+        <v>1.58</v>
       </c>
       <c r="U43" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="V43" t="n">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="W43" t="n">
-        <v>1.58</v>
+        <v>1.39</v>
       </c>
       <c r="X43" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y43" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z43" t="n">
         <v>1000</v>
@@ -6268,13 +6268,13 @@
         <v>1000</v>
       </c>
       <c r="AB43" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC43" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD43" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE43" t="n">
         <v>1000</v>
@@ -6283,7 +6283,7 @@
         <v>1000</v>
       </c>
       <c r="AG43" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH43" t="n">
         <v>1000</v>
@@ -6292,7 +6292,7 @@
         <v>1000</v>
       </c>
       <c r="AJ43" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AK43" t="n">
         <v>1000</v>
@@ -6304,279 +6304,9 @@
         <v>1000</v>
       </c>
       <c r="AN43" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AO43" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Atletico Bucaramanga</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Tolima</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="G44" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H44" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I44" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J44" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K44" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N44" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P44" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
-      <c r="T44" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U44" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="V44" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="W44" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="X44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Olancho</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>CD Olimpia</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="G45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K45" t="n">
-        <v>4</v>
-      </c>
-      <c r="L45" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N45" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P45" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S45" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="T45" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U45" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V45" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W45" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO45" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO43"/>
+  <dimension ref="A1:AO42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,117 +653,117 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Beroe Stara Za</t>
+          <t>Radnik Bijeljina</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Cherno More</t>
+          <t>Borac Banja Luka</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.2</v>
+        <v>55</v>
       </c>
       <c r="G2" t="n">
-        <v>5.6</v>
+        <v>80</v>
       </c>
       <c r="H2" t="n">
-        <v>2.18</v>
+        <v>1.14</v>
       </c>
       <c r="I2" t="n">
-        <v>2.28</v>
+        <v>1.15</v>
       </c>
       <c r="J2" t="n">
-        <v>2.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K2" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>2.78</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q2" t="n">
         <v>3.55</v>
       </c>
-      <c r="M2" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>4.9</v>
-      </c>
       <c r="R2" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="S2" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="T2" t="n">
-        <v>3.25</v>
+        <v>3.95</v>
       </c>
       <c r="U2" t="n">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="V2" t="n">
-        <v>1.78</v>
+        <v>7.8</v>
       </c>
       <c r="W2" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>4.9</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.8</v>
+        <v>2.78</v>
       </c>
       <c r="Z2" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AA2" t="n">
         <v>11</v>
       </c>
-      <c r="AA2" t="n">
-        <v>44</v>
-      </c>
       <c r="AB2" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AF2" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="AH2" t="n">
-        <v>70</v>
+        <v>990</v>
       </c>
       <c r="AI2" t="n">
-        <v>230</v>
+        <v>380</v>
       </c>
       <c r="AJ2" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>430</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
@@ -772,13 +772,13 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>85</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,114 +788,114 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Radnik Bijeljina</t>
+          <t>CSKA Sofia</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Borac Banja Luka</t>
+          <t>Lokomotiv Plovdiv</t>
         </is>
       </c>
       <c r="F3" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="X3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>990</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG3" t="n">
         <v>12</v>
       </c>
-      <c r="G3" t="n">
-        <v>15</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="V3" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="X3" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -904,16 +904,16 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CSKA Sofia</t>
+          <t>Casertana</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Lokomotiv Plovdiv</t>
+          <t>Atalanta B</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.61</v>
+        <v>2.58</v>
       </c>
       <c r="G4" t="n">
-        <v>1.67</v>
+        <v>2.74</v>
       </c>
       <c r="H4" t="n">
-        <v>6.4</v>
+        <v>2.98</v>
       </c>
       <c r="I4" t="n">
-        <v>7.8</v>
+        <v>3.2</v>
       </c>
       <c r="J4" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>4.3</v>
+        <v>3.35</v>
       </c>
       <c r="L4" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R4" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S4" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T4" t="n">
-        <v>2.04</v>
+        <v>1.76</v>
       </c>
       <c r="U4" t="n">
-        <v>1.81</v>
+        <v>2.12</v>
       </c>
       <c r="V4" t="n">
-        <v>1.16</v>
+        <v>1.46</v>
       </c>
       <c r="W4" t="n">
-        <v>2.48</v>
+        <v>1.57</v>
       </c>
       <c r="X4" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>21</v>
+        <v>12.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="AA4" t="n">
-        <v>230</v>
+        <v>55</v>
       </c>
       <c r="AB4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC4" t="n">
         <v>7.6</v>
       </c>
-      <c r="AC4" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AD4" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="AE4" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.199999999999999</v>
+        <v>18</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="AI4" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AJ4" t="n">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="AK4" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="AL4" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AM4" t="n">
-        <v>580</v>
+        <v>180</v>
       </c>
       <c r="AN4" t="n">
-        <v>11.5</v>
+        <v>28</v>
       </c>
       <c r="AO4" t="n">
-        <v>150</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Casertana</t>
+          <t>Kazincbarcika</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Atalanta B</t>
+          <t>Gyori</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.4</v>
+        <v>6.6</v>
       </c>
       <c r="G5" t="n">
-        <v>2.76</v>
+        <v>7.4</v>
       </c>
       <c r="H5" t="n">
-        <v>2.86</v>
+        <v>1.52</v>
       </c>
       <c r="I5" t="n">
-        <v>3.3</v>
+        <v>1.55</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="K5" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.41</v>
+        <v>1.31</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>3.7</v>
+        <v>5.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="P5" t="n">
-        <v>1.91</v>
+        <v>2.44</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.9</v>
+        <v>1.63</v>
       </c>
       <c r="R5" t="n">
-        <v>1.35</v>
+        <v>1.6</v>
       </c>
       <c r="S5" t="n">
-        <v>3.25</v>
+        <v>2.56</v>
       </c>
       <c r="T5" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="U5" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V5" t="n">
-        <v>1.44</v>
+        <v>2.8</v>
       </c>
       <c r="W5" t="n">
-        <v>1.58</v>
+        <v>1.16</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Y5" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>22</v>
+        <v>10.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>55</v>
+        <v>14.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>11.5</v>
+        <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE5" t="n">
         <v>14.5</v>
       </c>
-      <c r="AE5" t="n">
-        <v>80</v>
-      </c>
       <c r="AF5" t="n">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="AG5" t="n">
-        <v>12.5</v>
+        <v>26</v>
       </c>
       <c r="AH5" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="AJ5" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="AK5" t="n">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="AL5" t="n">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AM5" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="AN5" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>32</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>Slovakian Super League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,121 +1198,121 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Kazincbarcika</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Gyori</t>
+          <t>Ruzomberok</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>7.4</v>
+        <v>1.32</v>
       </c>
       <c r="G6" t="n">
-        <v>8</v>
+        <v>1.35</v>
       </c>
       <c r="H6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>12</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1.48</v>
       </c>
-      <c r="I6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N6" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.63</v>
-      </c>
       <c r="R6" t="n">
-        <v>1.58</v>
+        <v>1.76</v>
       </c>
       <c r="S6" t="n">
-        <v>2.6</v>
+        <v>2.24</v>
       </c>
       <c r="T6" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="U6" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="V6" t="n">
-        <v>3</v>
+        <v>1.09</v>
       </c>
       <c r="W6" t="n">
-        <v>1.14</v>
+        <v>3.8</v>
       </c>
       <c r="X6" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.5</v>
+        <v>50</v>
       </c>
       <c r="Z6" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="AC6" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="AE6" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>130</v>
+        <v>9.6</v>
       </c>
       <c r="AG6" t="n">
-        <v>28</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AI6" t="n">
+        <v>290</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL6" t="n">
         <v>30</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>280</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>100</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>290</v>
-      </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>100</v>
+        <v>4.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>6</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Podbrezova</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ruzomberok</t>
+          <t>Spartak Trnava</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.3</v>
+        <v>3.75</v>
       </c>
       <c r="G7" t="n">
-        <v>1.35</v>
+        <v>4.1</v>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>2.12</v>
       </c>
       <c r="I7" t="n">
-        <v>12.5</v>
+        <v>2.18</v>
       </c>
       <c r="J7" t="n">
-        <v>6</v>
+        <v>3.55</v>
       </c>
       <c r="K7" t="n">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="L7" t="n">
-        <v>1.26</v>
+        <v>1.43</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>6.4</v>
+        <v>3.85</v>
       </c>
       <c r="O7" t="n">
-        <v>1.17</v>
+        <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>2.8</v>
+        <v>1.96</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.49</v>
+        <v>1.95</v>
       </c>
       <c r="R7" t="n">
-        <v>1.75</v>
+        <v>1.37</v>
       </c>
       <c r="S7" t="n">
-        <v>2.22</v>
+        <v>3.45</v>
       </c>
       <c r="T7" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="V7" t="n">
-        <v>1.08</v>
+        <v>1.84</v>
       </c>
       <c r="W7" t="n">
-        <v>3.85</v>
+        <v>1.32</v>
       </c>
       <c r="X7" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="Y7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI7" t="n">
         <v>60</v>
       </c>
-      <c r="Z7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>95</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>42</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>1000</v>
-      </c>
       <c r="AJ7" t="n">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="AK7" t="n">
-        <v>14.5</v>
+        <v>75</v>
       </c>
       <c r="AL7" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.5</v>
+        <v>230</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Slovakian Super League</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Podbrezova</t>
+          <t>Zeljeznicar</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Spartak Trnava</t>
+          <t>Siroki Brijeg</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.8</v>
+        <v>1.63</v>
       </c>
       <c r="G8" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+      <c r="I8" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K8" t="n">
         <v>4.2</v>
       </c>
-      <c r="H8" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="L8" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q8" t="n">
         <v>2.2</v>
       </c>
-      <c r="J8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.95</v>
-      </c>
       <c r="R8" t="n">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="S8" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="T8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U8" t="n">
         <v>1.71</v>
       </c>
-      <c r="U8" t="n">
-        <v>2.18</v>
-      </c>
       <c r="V8" t="n">
-        <v>1.83</v>
+        <v>1.15</v>
       </c>
       <c r="W8" t="n">
-        <v>1.32</v>
+        <v>2.5</v>
       </c>
       <c r="X8" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.5</v>
+        <v>23</v>
       </c>
       <c r="Z8" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>15</v>
+        <v>6.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.199999999999999</v>
+        <v>12</v>
       </c>
       <c r="AD8" t="n">
+        <v>120</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG8" t="n">
         <v>11</v>
       </c>
-      <c r="AE8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AH8" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="AI8" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>230</v>
+        <v>18.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="AL8" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>600</v>
+        <v>29</v>
       </c>
       <c r="AO8" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Zeljeznicar</t>
+          <t>Maccabi Netanya</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Siroki Brijeg</t>
+          <t>FC Ashdod</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.91</v>
+        <v>2.06</v>
       </c>
       <c r="G9" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="H9" t="n">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="I9" t="n">
-        <v>5.2</v>
+        <v>3.95</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="K9" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.52</v>
+        <v>1.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>2.88</v>
+        <v>4.9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.48</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>1.63</v>
+        <v>2.42</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.36</v>
+        <v>1.66</v>
       </c>
       <c r="R9" t="n">
-        <v>1.22</v>
+        <v>1.53</v>
       </c>
       <c r="S9" t="n">
-        <v>4.6</v>
+        <v>2.64</v>
       </c>
       <c r="T9" t="n">
-        <v>1.04</v>
+        <v>1.58</v>
       </c>
       <c r="U9" t="n">
-        <v>1.04</v>
+        <v>2.58</v>
       </c>
       <c r="V9" t="n">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="W9" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AB9" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AC9" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG9" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AN9" t="n">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,118 +1738,118 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Maccabi Netanya</t>
+          <t>SSD Dolomiti Bellunesi</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FC Ashdod</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="F10" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H10" t="n">
         <v>2.08</v>
       </c>
-      <c r="G10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.55</v>
-      </c>
       <c r="I10" t="n">
-        <v>3.85</v>
+        <v>2.28</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="L10" t="n">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>4.8</v>
+        <v>3.05</v>
       </c>
       <c r="O10" t="n">
-        <v>1.23</v>
+        <v>1.43</v>
       </c>
       <c r="P10" t="n">
-        <v>2.32</v>
+        <v>1.71</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.68</v>
+        <v>2.24</v>
       </c>
       <c r="R10" t="n">
-        <v>1.52</v>
+        <v>1.26</v>
       </c>
       <c r="S10" t="n">
-        <v>2.66</v>
+        <v>4.3</v>
       </c>
       <c r="T10" t="n">
-        <v>1.59</v>
+        <v>1.93</v>
       </c>
       <c r="U10" t="n">
-        <v>2.44</v>
+        <v>1.9</v>
       </c>
       <c r="V10" t="n">
-        <v>1.35</v>
+        <v>1.78</v>
       </c>
       <c r="W10" t="n">
-        <v>1.83</v>
+        <v>1.28</v>
       </c>
       <c r="X10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y10" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="Z10" t="n">
-        <v>48</v>
+        <v>19.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="AE10" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AF10" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="AM10" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
         <v>55</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SSD Dolomiti Bellunesi</t>
+          <t>Ironi Tiberias</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.9</v>
+        <v>5.9</v>
       </c>
       <c r="G11" t="n">
-        <v>4.6</v>
+        <v>6.8</v>
       </c>
       <c r="H11" t="n">
-        <v>2.08</v>
+        <v>1.51</v>
       </c>
       <c r="I11" t="n">
-        <v>2.3</v>
+        <v>1.56</v>
       </c>
       <c r="J11" t="n">
-        <v>3.05</v>
+        <v>4.9</v>
       </c>
       <c r="K11" t="n">
-        <v>3.45</v>
+        <v>5.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.49</v>
+        <v>1.3</v>
       </c>
       <c r="M11" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>3.05</v>
+        <v>5.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.42</v>
+        <v>1.19</v>
       </c>
       <c r="P11" t="n">
-        <v>1.71</v>
+        <v>2.62</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.2</v>
+        <v>1.56</v>
       </c>
       <c r="R11" t="n">
-        <v>1.26</v>
+        <v>1.62</v>
       </c>
       <c r="S11" t="n">
-        <v>4.3</v>
+        <v>2.46</v>
       </c>
       <c r="T11" t="n">
-        <v>1.91</v>
+        <v>1.69</v>
       </c>
       <c r="U11" t="n">
-        <v>1.92</v>
+        <v>2.28</v>
       </c>
       <c r="V11" t="n">
-        <v>1.78</v>
+        <v>2.72</v>
       </c>
       <c r="W11" t="n">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="X11" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="Y11" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Z11" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.8</v>
+        <v>12.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="AF11" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="AG11" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>510</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AO11" t="n">
-        <v>85</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,126 +2003,126 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Ironi Tiberias</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5.9</v>
+        <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>6.8</v>
+        <v>5.1</v>
       </c>
       <c r="H12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N12" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R12" t="n">
         <v>1.5</v>
       </c>
-      <c r="I12" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="K12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N12" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.62</v>
-      </c>
       <c r="S12" t="n">
-        <v>2.46</v>
+        <v>2.92</v>
       </c>
       <c r="T12" t="n">
-        <v>1.69</v>
+        <v>1.77</v>
       </c>
       <c r="U12" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V12" t="n">
-        <v>2.74</v>
+        <v>2.3</v>
       </c>
       <c r="W12" t="n">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="X12" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="Y12" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>75</v>
+        <v>19.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>12.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD12" t="n">
         <v>10</v>
       </c>
       <c r="AE12" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>230</v>
+        <v>40</v>
       </c>
       <c r="AG12" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="AH12" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI12" t="n">
         <v>30</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AJ12" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN12" t="n">
         <v>70</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>180</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>510</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>400</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>330</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>330</v>
-      </c>
       <c r="AO12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -2161,7 +2161,7 @@
         <v>1.32</v>
       </c>
       <c r="I13" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="J13" t="n">
         <v>5.4</v>
@@ -2173,7 +2173,7 @@
         <v>1.41</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
         <v>3.8</v>
@@ -2185,7 +2185,7 @@
         <v>1.94</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="R13" t="n">
         <v>1.35</v>
@@ -2194,10 +2194,10 @@
         <v>3.6</v>
       </c>
       <c r="T13" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="U13" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="V13" t="n">
         <v>3.85</v>
@@ -2206,7 +2206,7 @@
         <v>1.07</v>
       </c>
       <c r="X13" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y13" t="n">
         <v>6.8</v>
@@ -2215,7 +2215,7 @@
         <v>6.6</v>
       </c>
       <c r="AA13" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AB13" t="n">
         <v>36</v>
@@ -2224,28 +2224,28 @@
         <v>13</v>
       </c>
       <c r="AD13" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF13" t="n">
         <v>160</v>
       </c>
       <c r="AG13" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AH13" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AI13" t="n">
         <v>60</v>
       </c>
       <c r="AJ13" t="n">
-        <v>830</v>
+        <v>930</v>
       </c>
       <c r="AK13" t="n">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="AL13" t="n">
         <v>300</v>
@@ -2254,7 +2254,7 @@
         <v>380</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>720</v>
       </c>
       <c r="AO13" t="n">
         <v>7</v>
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="G14" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H14" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="J14" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="K14" t="n">
         <v>6.8</v>
@@ -2317,37 +2317,37 @@
         <v>1.16</v>
       </c>
       <c r="P14" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="R14" t="n">
         <v>1.72</v>
       </c>
       <c r="S14" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="T14" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U14" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V14" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W14" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="X14" t="n">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="Y14" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="Z14" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
@@ -2356,22 +2356,22 @@
         <v>12</v>
       </c>
       <c r="AC14" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG14" t="n">
         <v>11.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AI14" t="n">
         <v>230</v>
@@ -2383,13 +2383,13 @@
         <v>14.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Blooming Santa Cruz</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Academia de Balompie Bolivi</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>5.1</v>
+        <v>1.22</v>
       </c>
       <c r="G15" t="n">
-        <v>5.2</v>
+        <v>1.26</v>
       </c>
       <c r="H15" t="n">
-        <v>1.76</v>
+        <v>13</v>
       </c>
       <c r="I15" t="n">
-        <v>1.77</v>
+        <v>16</v>
       </c>
       <c r="J15" t="n">
-        <v>4.2</v>
+        <v>7.4</v>
       </c>
       <c r="K15" t="n">
-        <v>4.3</v>
+        <v>8.6</v>
       </c>
       <c r="L15" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N15" t="n">
+        <v>8</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q15" t="n">
         <v>1.36</v>
       </c>
-      <c r="M15" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N15" t="n">
+      <c r="R15" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="W15" t="n">
         <v>4.7</v>
       </c>
-      <c r="O15" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.24</v>
-      </c>
       <c r="X15" t="n">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="Y15" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="Z15" t="n">
+        <v>200</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>550</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>220</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>46</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>11</v>
       </c>
-      <c r="AA15" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>120</v>
-      </c>
       <c r="AK15" t="n">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="AL15" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM15" t="n">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="AN15" t="n">
-        <v>65</v>
+        <v>3.25</v>
       </c>
       <c r="AO15" t="n">
-        <v>9</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Austrian Bundesliga</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Blooming Santa Cruz</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Academia de Balompie Bolivi</t>
+          <t>WSG Wattens</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.22</v>
+        <v>1.71</v>
       </c>
       <c r="G16" t="n">
-        <v>1.26</v>
+        <v>1.75</v>
       </c>
       <c r="H16" t="n">
-        <v>13.5</v>
+        <v>5.4</v>
       </c>
       <c r="I16" t="n">
-        <v>17</v>
+        <v>5.9</v>
       </c>
       <c r="J16" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="X16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB16" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="L16" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N16" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W16" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="X16" t="n">
-        <v>85</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>130</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>160</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>13</v>
-      </c>
       <c r="AC16" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK16" t="n">
         <v>18.5</v>
       </c>
-      <c r="AD16" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>260</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>80</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>14</v>
-      </c>
       <c r="AL16" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AM16" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.55</v>
+        <v>11</v>
       </c>
       <c r="AO16" t="n">
-        <v>270</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Austrian Bundesliga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>WSG Wattens</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.71</v>
+        <v>5.3</v>
       </c>
       <c r="G17" t="n">
-        <v>1.75</v>
+        <v>5.4</v>
       </c>
       <c r="H17" t="n">
-        <v>5.4</v>
+        <v>1.8</v>
       </c>
       <c r="I17" t="n">
-        <v>5.8</v>
+        <v>1.81</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="K17" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S17" t="n">
         <v>4.2</v>
       </c>
-      <c r="L17" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3.5</v>
-      </c>
       <c r="T17" t="n">
-        <v>1.91</v>
+        <v>2.12</v>
       </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="V17" t="n">
-        <v>1.21</v>
+        <v>2.22</v>
       </c>
       <c r="W17" t="n">
-        <v>2.32</v>
+        <v>1.22</v>
       </c>
       <c r="X17" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB17" t="n">
         <v>14.5</v>
       </c>
-      <c r="Y17" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AC17" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG17" t="n">
         <v>21</v>
       </c>
-      <c r="AE17" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AI17" t="n">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="AJ17" t="n">
-        <v>17.5</v>
+        <v>150</v>
       </c>
       <c r="AK17" t="n">
-        <v>18.5</v>
+        <v>85</v>
       </c>
       <c r="AL17" t="n">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AM17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN17" t="n">
         <v>120</v>
       </c>
-      <c r="AN17" t="n">
-        <v>11</v>
-      </c>
       <c r="AO17" t="n">
-        <v>95</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>5.3</v>
+        <v>2.26</v>
       </c>
       <c r="G18" t="n">
-        <v>5.4</v>
+        <v>2.28</v>
       </c>
       <c r="H18" t="n">
-        <v>1.79</v>
+        <v>3.45</v>
       </c>
       <c r="I18" t="n">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="J18" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="K18" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="L18" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>3.35</v>
+        <v>4.3</v>
       </c>
       <c r="O18" t="n">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="P18" t="n">
-        <v>1.79</v>
+        <v>2.12</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.24</v>
+        <v>1.86</v>
       </c>
       <c r="R18" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="S18" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="T18" t="n">
-        <v>2.12</v>
+        <v>1.72</v>
       </c>
       <c r="U18" t="n">
-        <v>1.87</v>
+        <v>2.36</v>
       </c>
       <c r="V18" t="n">
-        <v>2.24</v>
+        <v>1.4</v>
       </c>
       <c r="W18" t="n">
-        <v>1.22</v>
+        <v>1.78</v>
       </c>
       <c r="X18" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="Y18" t="n">
-        <v>7.2</v>
+        <v>15</v>
       </c>
       <c r="Z18" t="n">
-        <v>9.199999999999999</v>
+        <v>26</v>
       </c>
       <c r="AA18" t="n">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="AB18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN18" t="n">
         <v>15</v>
       </c>
-      <c r="AC18" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>150</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>85</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>110</v>
-      </c>
       <c r="AO18" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.2</v>
+        <v>3.35</v>
       </c>
       <c r="G19" t="n">
-        <v>2.24</v>
+        <v>3.4</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>2.42</v>
       </c>
       <c r="I19" t="n">
-        <v>3.65</v>
+        <v>2.44</v>
       </c>
       <c r="J19" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="K19" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="L19" t="n">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N19" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="O19" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R19" t="n">
         <v>1.29</v>
       </c>
-      <c r="P19" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.44</v>
-      </c>
       <c r="S19" t="n">
-        <v>3.15</v>
+        <v>4.2</v>
       </c>
       <c r="T19" t="n">
-        <v>1.72</v>
+        <v>1.94</v>
       </c>
       <c r="U19" t="n">
-        <v>2.34</v>
+        <v>2.02</v>
       </c>
       <c r="V19" t="n">
-        <v>1.37</v>
+        <v>1.69</v>
       </c>
       <c r="W19" t="n">
-        <v>1.81</v>
+        <v>1.41</v>
       </c>
       <c r="X19" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>14.5</v>
+        <v>9</v>
       </c>
       <c r="Z19" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="AA19" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="AB19" t="n">
         <v>11</v>
       </c>
       <c r="AC19" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="AF19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG19" t="n">
         <v>14</v>
       </c>
-      <c r="AG19" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH19" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="AI19" t="n">
         <v>46</v>
       </c>
       <c r="AJ19" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="AK19" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="AL19" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AM19" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AN19" t="n">
-        <v>14.5</v>
+        <v>46</v>
       </c>
       <c r="AO19" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
@@ -3088,127 +3088,127 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="F20" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+      <c r="I20" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N20" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S20" t="n">
         <v>3.4</v>
       </c>
-      <c r="G20" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N20" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S20" t="n">
-        <v>4.2</v>
-      </c>
       <c r="T20" t="n">
-        <v>1.92</v>
+        <v>2.18</v>
       </c>
       <c r="U20" t="n">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="V20" t="n">
-        <v>1.7</v>
+        <v>1.12</v>
       </c>
       <c r="W20" t="n">
-        <v>1.4</v>
+        <v>3.15</v>
       </c>
       <c r="X20" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>340</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>12</v>
       </c>
-      <c r="Y20" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>65</v>
-      </c>
       <c r="AK20" t="n">
-        <v>42</v>
+        <v>15.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AM20" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="AN20" t="n">
-        <v>48</v>
+        <v>7.2</v>
       </c>
       <c r="AO20" t="n">
-        <v>24</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,126 +3218,126 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.45</v>
+        <v>2.34</v>
       </c>
       <c r="G21" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L21" t="n">
         <v>1.46</v>
       </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="J21" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="K21" t="n">
-        <v>5</v>
-      </c>
-      <c r="L21" t="n">
+      <c r="M21" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O21" t="n">
         <v>1.4</v>
       </c>
-      <c r="M21" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N21" t="n">
-        <v>4</v>
-      </c>
-      <c r="O21" t="n">
+      <c r="P21" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R21" t="n">
         <v>1.3</v>
       </c>
-      <c r="P21" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.4</v>
-      </c>
       <c r="S21" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="T21" t="n">
-        <v>2.18</v>
+        <v>1.91</v>
       </c>
       <c r="U21" t="n">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="V21" t="n">
-        <v>1.12</v>
+        <v>1.38</v>
       </c>
       <c r="W21" t="n">
-        <v>3.15</v>
+        <v>1.73</v>
       </c>
       <c r="X21" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Y21" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z21" t="n">
         <v>24</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="AA21" t="n">
         <v>75</v>
       </c>
-      <c r="AA21" t="n">
-        <v>330</v>
-      </c>
       <c r="AB21" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC21" t="n">
         <v>7.4</v>
       </c>
-      <c r="AC21" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AD21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>32</v>
       </c>
-      <c r="AE21" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>12</v>
-      </c>
       <c r="AK21" t="n">
-        <v>15.5</v>
+        <v>27</v>
       </c>
       <c r="AL21" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AM21" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AN21" t="n">
-        <v>7.4</v>
+        <v>23</v>
       </c>
       <c r="AO21" t="n">
-        <v>210</v>
+        <v>980</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.36</v>
+        <v>1.14</v>
       </c>
       <c r="G22" t="n">
-        <v>2.42</v>
+        <v>1.15</v>
       </c>
       <c r="H22" t="n">
+        <v>23</v>
+      </c>
+      <c r="I22" t="n">
+        <v>26</v>
+      </c>
+      <c r="J22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N22" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P22" t="n">
         <v>3.4</v>
       </c>
-      <c r="I22" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N22" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.83</v>
-      </c>
       <c r="Q22" t="n">
-        <v>2.14</v>
+        <v>1.39</v>
       </c>
       <c r="R22" t="n">
-        <v>1.32</v>
+        <v>1.96</v>
       </c>
       <c r="S22" t="n">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="T22" t="n">
-        <v>1.87</v>
+        <v>2.32</v>
       </c>
       <c r="U22" t="n">
-        <v>2.12</v>
+        <v>1.72</v>
       </c>
       <c r="V22" t="n">
-        <v>1.39</v>
+        <v>1.04</v>
       </c>
       <c r="W22" t="n">
-        <v>1.7</v>
+        <v>7.6</v>
       </c>
       <c r="X22" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>90</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>290</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB22" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y22" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>9.4</v>
-      </c>
       <c r="AC22" t="n">
-        <v>7.4</v>
+        <v>25</v>
       </c>
       <c r="AD22" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AE22" t="n">
-        <v>44</v>
+        <v>510</v>
       </c>
       <c r="AF22" t="n">
-        <v>14.5</v>
+        <v>8.4</v>
       </c>
       <c r="AG22" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="AI22" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>32</v>
+        <v>8.6</v>
       </c>
       <c r="AK22" t="n">
-        <v>26</v>
+        <v>13.5</v>
       </c>
       <c r="AL22" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AM22" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>23</v>
+        <v>2.94</v>
       </c>
       <c r="AO22" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.15</v>
+        <v>3.8</v>
       </c>
       <c r="G23" t="n">
-        <v>1.16</v>
+        <v>3.9</v>
       </c>
       <c r="H23" t="n">
-        <v>23</v>
+        <v>2.1</v>
       </c>
       <c r="I23" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N23" t="n">
+        <v>4</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X23" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA23" t="n">
         <v>26</v>
       </c>
-      <c r="J23" t="n">
+      <c r="AB23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD23" t="n">
         <v>10.5</v>
       </c>
-      <c r="K23" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N23" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W23" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="X23" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>90</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>280</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>25</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>980</v>
-      </c>
       <c r="AE23" t="n">
-        <v>510</v>
+        <v>22</v>
       </c>
       <c r="AF23" t="n">
-        <v>8.4</v>
+        <v>27</v>
       </c>
       <c r="AG23" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AH23" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL23" t="n">
         <v>55</v>
       </c>
-      <c r="AI23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL23" t="n">
+      <c r="AM23" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN23" t="n">
         <v>46</v>
       </c>
-      <c r="AM23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>2.9</v>
-      </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="24">
@@ -3637,13 +3637,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="G24" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H24" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I24" t="n">
         <v>2.54</v>
@@ -3655,46 +3655,46 @@
         <v>3.45</v>
       </c>
       <c r="L24" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="M24" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="O24" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="P24" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="R24" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="S24" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="T24" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="U24" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="V24" t="n">
         <v>1.64</v>
       </c>
       <c r="W24" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X24" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z24" t="n">
         <v>15</v>
@@ -3703,16 +3703,16 @@
         <v>38</v>
       </c>
       <c r="AB24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC24" t="n">
         <v>7.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF24" t="n">
         <v>21</v>
@@ -3721,28 +3721,28 @@
         <v>14</v>
       </c>
       <c r="AH24" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ24" t="n">
         <v>60</v>
       </c>
       <c r="AK24" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL24" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM24" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN24" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AO24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
@@ -3763,34 +3763,34 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.8</v>
+        <v>1.38</v>
       </c>
       <c r="G25" t="n">
-        <v>3.9</v>
+        <v>1.39</v>
       </c>
       <c r="H25" t="n">
-        <v>2.1</v>
+        <v>10.5</v>
       </c>
       <c r="I25" t="n">
-        <v>2.14</v>
+        <v>12</v>
       </c>
       <c r="J25" t="n">
-        <v>3.6</v>
+        <v>5.2</v>
       </c>
       <c r="K25" t="n">
-        <v>3.7</v>
+        <v>5.4</v>
       </c>
       <c r="L25" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M25" t="n">
         <v>1.06</v>
@@ -3799,13 +3799,13 @@
         <v>4.1</v>
       </c>
       <c r="O25" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P25" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="R25" t="n">
         <v>1.4</v>
@@ -3814,76 +3814,76 @@
         <v>3.35</v>
       </c>
       <c r="T25" t="n">
-        <v>1.78</v>
+        <v>2.28</v>
       </c>
       <c r="U25" t="n">
-        <v>2.22</v>
+        <v>1.72</v>
       </c>
       <c r="V25" t="n">
-        <v>1.87</v>
+        <v>1.09</v>
       </c>
       <c r="W25" t="n">
-        <v>1.34</v>
+        <v>3.5</v>
       </c>
       <c r="X25" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="Y25" t="n">
-        <v>10.5</v>
+        <v>32</v>
       </c>
       <c r="Z25" t="n">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="AA25" t="n">
-        <v>26</v>
+        <v>470</v>
       </c>
       <c r="AB25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>42</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>230</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>190</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK25" t="n">
         <v>15</v>
       </c>
-      <c r="AC25" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>200</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>44</v>
-      </c>
       <c r="AL25" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AM25" t="n">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="AN25" t="n">
-        <v>42</v>
+        <v>6.8</v>
       </c>
       <c r="AO25" t="n">
-        <v>15</v>
+        <v>410</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,126 +3893,126 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="F26" t="n">
         <v>1.38</v>
       </c>
       <c r="G26" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="H26" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="I26" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="J26" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K26" t="n">
+        <v>6</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W26" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="X26" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>340</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG26" t="n">
         <v>10.5</v>
       </c>
-      <c r="I26" t="n">
-        <v>12</v>
-      </c>
-      <c r="J26" t="n">
-        <v>5</v>
-      </c>
-      <c r="K26" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N26" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S26" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W26" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="X26" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>42</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>230</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>10</v>
-      </c>
       <c r="AH26" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AI26" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="AJ26" t="n">
         <v>11</v>
       </c>
       <c r="AK26" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL26" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AM26" t="n">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c r="AN26" t="n">
-        <v>7</v>
+        <v>5.2</v>
       </c>
       <c r="AO26" t="n">
-        <v>400</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27">
@@ -4033,127 +4033,127 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.39</v>
+        <v>4.2</v>
       </c>
       <c r="G27" t="n">
-        <v>1.4</v>
+        <v>4.3</v>
       </c>
       <c r="H27" t="n">
-        <v>9</v>
+        <v>1.95</v>
       </c>
       <c r="I27" t="n">
-        <v>9.199999999999999</v>
+        <v>1.97</v>
       </c>
       <c r="J27" t="n">
-        <v>5.6</v>
+        <v>3.9</v>
       </c>
       <c r="K27" t="n">
-        <v>5.7</v>
+        <v>3.95</v>
       </c>
       <c r="L27" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="M27" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>5.4</v>
+        <v>4.4</v>
       </c>
       <c r="O27" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="P27" t="n">
-        <v>2.48</v>
+        <v>2.18</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="R27" t="n">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="S27" t="n">
-        <v>2.66</v>
+        <v>3.05</v>
       </c>
       <c r="T27" t="n">
-        <v>1.97</v>
+        <v>1.73</v>
       </c>
       <c r="U27" t="n">
-        <v>1.99</v>
+        <v>2.32</v>
       </c>
       <c r="V27" t="n">
-        <v>1.12</v>
+        <v>2.04</v>
       </c>
       <c r="W27" t="n">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="X27" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA27" t="n">
         <v>24</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="AB27" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF27" t="n">
         <v>32</v>
       </c>
-      <c r="Z27" t="n">
-        <v>75</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>270</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD27" t="n">
+      <c r="AG27" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI27" t="n">
         <v>30</v>
       </c>
-      <c r="AE27" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>90</v>
-      </c>
       <c r="AJ27" t="n">
-        <v>11.5</v>
+        <v>85</v>
       </c>
       <c r="AK27" t="n">
-        <v>13.5</v>
+        <v>46</v>
       </c>
       <c r="AL27" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AM27" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AN27" t="n">
-        <v>5.4</v>
+        <v>48</v>
       </c>
       <c r="AO27" t="n">
-        <v>130</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Genesis Huracan</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Juticalpa</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>4.2</v>
+        <v>1.04</v>
       </c>
       <c r="G28" t="n">
-        <v>4.4</v>
+        <v>2.1</v>
       </c>
       <c r="H28" t="n">
-        <v>1.94</v>
+        <v>1.04</v>
       </c>
       <c r="I28" t="n">
-        <v>1.95</v>
+        <v>970</v>
       </c>
       <c r="J28" t="n">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="K28" t="n">
-        <v>3.95</v>
+        <v>970</v>
       </c>
       <c r="L28" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>4.4</v>
+        <v>1.02</v>
       </c>
       <c r="O28" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="P28" t="n">
-        <v>2.2</v>
+        <v>1.24</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.82</v>
+        <v>1.01</v>
       </c>
       <c r="R28" t="n">
-        <v>1.46</v>
+        <v>1.18</v>
       </c>
       <c r="S28" t="n">
-        <v>3.05</v>
+        <v>1.01</v>
       </c>
       <c r="T28" t="n">
-        <v>1.74</v>
+        <v>1.04</v>
       </c>
       <c r="U28" t="n">
-        <v>2.28</v>
+        <v>1.04</v>
       </c>
       <c r="V28" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="W28" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="X28" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z28" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.6</v>
+        <v>42</v>
       </c>
       <c r="AD28" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AE28" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH28" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AI28" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="AK28" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="AO28" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Genesis Huracan</t>
+          <t>Real Tomayapo</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Juticalpa</t>
+          <t>Oriente Petrolero</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.04</v>
+        <v>2.5</v>
       </c>
       <c r="G29" t="n">
-        <v>2.1</v>
+        <v>2.64</v>
       </c>
       <c r="H29" t="n">
-        <v>1.04</v>
+        <v>2.72</v>
       </c>
       <c r="I29" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K29" t="n">
+        <v>4</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N29" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X29" t="n">
+        <v>90</v>
+      </c>
+      <c r="Y29" t="n">
         <v>970</v>
       </c>
-      <c r="J29" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="Z29" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>280</v>
+      </c>
+      <c r="AB29" t="n">
         <v>970</v>
       </c>
-      <c r="L29" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N29" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>1000</v>
-      </c>
       <c r="AC29" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF29" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH29" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AJ29" t="n">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL29" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN29" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Real Tomayapo</t>
+          <t>Fortaleza EC</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Oriente Petrolero</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.5</v>
+        <v>1.78</v>
       </c>
       <c r="G30" t="n">
-        <v>2.66</v>
+        <v>1.79</v>
       </c>
       <c r="H30" t="n">
-        <v>2.72</v>
+        <v>5.8</v>
       </c>
       <c r="I30" t="n">
-        <v>2.98</v>
+        <v>5.9</v>
       </c>
       <c r="J30" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K30" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L30" t="n">
-        <v>1.26</v>
+        <v>1.52</v>
       </c>
       <c r="M30" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="N30" t="n">
-        <v>6.2</v>
+        <v>3.05</v>
       </c>
       <c r="O30" t="n">
-        <v>1.14</v>
+        <v>1.47</v>
       </c>
       <c r="P30" t="n">
-        <v>2.8</v>
+        <v>1.67</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.48</v>
+        <v>2.4</v>
       </c>
       <c r="R30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U30" t="n">
         <v>1.79</v>
       </c>
-      <c r="S30" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="U30" t="n">
-        <v>2.84</v>
-      </c>
       <c r="V30" t="n">
-        <v>1.51</v>
+        <v>1.2</v>
       </c>
       <c r="W30" t="n">
-        <v>1.6</v>
+        <v>2.26</v>
       </c>
       <c r="X30" t="n">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="Y30" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AA30" t="n">
-        <v>280</v>
+        <v>190</v>
       </c>
       <c r="AB30" t="n">
-        <v>970</v>
+        <v>6.6</v>
       </c>
       <c r="AC30" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="AD30" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AE30" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AF30" t="n">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="AG30" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI30" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="AJ30" t="n">
-        <v>280</v>
+        <v>19.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="AL30" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AM30" t="n">
-        <v>330</v>
+        <v>580</v>
       </c>
       <c r="AN30" t="n">
-        <v>55</v>
+        <v>16.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>55</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31">
@@ -4573,121 +4573,121 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Fortaleza EC</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>EC Vitoria Salvador</t>
         </is>
       </c>
       <c r="F31" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I31" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P31" t="n">
         <v>1.82</v>
       </c>
-      <c r="G31" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="H31" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="I31" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N31" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.68</v>
-      </c>
       <c r="Q31" t="n">
-        <v>2.38</v>
+        <v>2.18</v>
       </c>
       <c r="R31" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="S31" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="T31" t="n">
-        <v>2.16</v>
+        <v>1.93</v>
       </c>
       <c r="U31" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V31" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="W31" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="X31" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="Y31" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z31" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AA31" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="AB31" t="n">
-        <v>6.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="AF31" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AG31" t="n">
         <v>10.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AI31" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AJ31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK31" t="n">
         <v>22</v>
       </c>
       <c r="AL31" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AM31" t="n">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="AN31" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AO31" t="n">
-        <v>140</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32">
@@ -4703,132 +4703,132 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>EC Vitoria Salvador</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.92</v>
+        <v>5.5</v>
       </c>
       <c r="G32" t="n">
-        <v>1.94</v>
+        <v>5.7</v>
       </c>
       <c r="H32" t="n">
-        <v>4.7</v>
+        <v>1.73</v>
       </c>
       <c r="I32" t="n">
-        <v>4.9</v>
+        <v>1.75</v>
       </c>
       <c r="J32" t="n">
+        <v>4</v>
+      </c>
+      <c r="K32" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S32" t="n">
         <v>3.6</v>
       </c>
-      <c r="K32" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N32" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S32" t="n">
-        <v>4</v>
-      </c>
       <c r="T32" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="U32" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V32" t="n">
-        <v>1.26</v>
+        <v>2.32</v>
       </c>
       <c r="W32" t="n">
-        <v>2.06</v>
+        <v>1.21</v>
       </c>
       <c r="X32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y32" t="n">
-        <v>15.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z32" t="n">
-        <v>34</v>
+        <v>9.6</v>
       </c>
       <c r="AA32" t="n">
-        <v>120</v>
+        <v>17.5</v>
       </c>
       <c r="AB32" t="n">
-        <v>8.199999999999999</v>
+        <v>18.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD32" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AE32" t="n">
         <v>18.5</v>
       </c>
-      <c r="AE32" t="n">
-        <v>65</v>
-      </c>
       <c r="AF32" t="n">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="AG32" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="AH32" t="n">
         <v>21</v>
       </c>
       <c r="AI32" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK32" t="n">
         <v>80</v>
       </c>
-      <c r="AJ32" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>22</v>
-      </c>
       <c r="AL32" t="n">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AM32" t="n">
         <v>130</v>
       </c>
       <c r="AN32" t="n">
-        <v>15.5</v>
+        <v>90</v>
       </c>
       <c r="AO32" t="n">
-        <v>85</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,132 +4838,132 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Deportes Concepcion</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Cobreloa Calama</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>5.2</v>
+        <v>2.06</v>
       </c>
       <c r="G33" t="n">
-        <v>5.3</v>
+        <v>2.18</v>
       </c>
       <c r="H33" t="n">
-        <v>1.79</v>
+        <v>3.95</v>
       </c>
       <c r="I33" t="n">
-        <v>1.8</v>
+        <v>4.4</v>
       </c>
       <c r="J33" t="n">
-        <v>3.95</v>
+        <v>3.3</v>
       </c>
       <c r="K33" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="L33" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="M33" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="O33" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P33" t="n">
-        <v>1.96</v>
+        <v>1.83</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="R33" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="S33" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="T33" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U33" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="V33" t="n">
-        <v>2.24</v>
+        <v>1.29</v>
       </c>
       <c r="W33" t="n">
-        <v>1.23</v>
+        <v>1.84</v>
       </c>
       <c r="X33" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y33" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC33" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="Z33" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>8.4</v>
-      </c>
       <c r="AD33" t="n">
-        <v>9.199999999999999</v>
+        <v>17.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="AG33" t="n">
-        <v>19.5</v>
+        <v>11</v>
       </c>
       <c r="AH33" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI33" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="AK33" t="n">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="AL33" t="n">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="AM33" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="AO33" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4978,121 +4978,121 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Deportes Concepcion</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Cobreloa Calama</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.92</v>
+        <v>1.23</v>
       </c>
       <c r="G34" t="n">
-        <v>2.06</v>
+        <v>1.25</v>
       </c>
       <c r="H34" t="n">
-        <v>4.1</v>
+        <v>14.5</v>
       </c>
       <c r="I34" t="n">
-        <v>4.9</v>
+        <v>16</v>
       </c>
       <c r="J34" t="n">
-        <v>3.45</v>
+        <v>7.2</v>
       </c>
       <c r="K34" t="n">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="L34" t="n">
-        <v>1.45</v>
+        <v>1.27</v>
       </c>
       <c r="M34" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>3.35</v>
+        <v>6</v>
       </c>
       <c r="O34" t="n">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="P34" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U34" t="n">
         <v>1.8</v>
       </c>
-      <c r="Q34" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S34" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.04</v>
-      </c>
       <c r="V34" t="n">
-        <v>1.25</v>
+        <v>1.06</v>
       </c>
       <c r="W34" t="n">
-        <v>1.94</v>
+        <v>5</v>
       </c>
       <c r="X34" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Y34" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Z34" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AA34" t="n">
-        <v>1000</v>
+        <v>780</v>
       </c>
       <c r="AB34" t="n">
-        <v>48</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC34" t="n">
-        <v>42</v>
+        <v>16.5</v>
       </c>
       <c r="AD34" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AE34" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AF34" t="n">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="AG34" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH34" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AI34" t="n">
         <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK34" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AL34" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM34" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN34" t="n">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="AO34" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35">
@@ -5113,127 +5113,127 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.24</v>
+        <v>2.84</v>
       </c>
       <c r="G35" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N35" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R35" t="n">
         <v>1.26</v>
       </c>
-      <c r="H35" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="I35" t="n">
-        <v>16</v>
-      </c>
-      <c r="J35" t="n">
+      <c r="S35" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X35" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC35" t="n">
         <v>7.4</v>
       </c>
-      <c r="K35" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N35" t="n">
-        <v>6</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P35" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S35" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="T35" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W35" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="X35" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y35" t="n">
+      <c r="AD35" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL35" t="n">
         <v>55</v>
       </c>
-      <c r="Z35" t="n">
-        <v>160</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>810</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>270</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL35" t="n">
+      <c r="AM35" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO35" t="n">
         <v>40</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>210</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>330</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,132 +5243,132 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:20:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.82</v>
+        <v>2.56</v>
       </c>
       <c r="G36" t="n">
-        <v>2.86</v>
+        <v>2.66</v>
       </c>
       <c r="H36" t="n">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="I36" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="J36" t="n">
         <v>3.3</v>
       </c>
       <c r="K36" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L36" t="n">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="M36" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N36" t="n">
-        <v>3.05</v>
+        <v>3.85</v>
       </c>
       <c r="O36" t="n">
-        <v>1.47</v>
+        <v>1.31</v>
       </c>
       <c r="P36" t="n">
-        <v>1.69</v>
+        <v>1.97</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.36</v>
+        <v>1.98</v>
       </c>
       <c r="R36" t="n">
-        <v>1.24</v>
+        <v>1.39</v>
       </c>
       <c r="S36" t="n">
-        <v>4.7</v>
+        <v>3.45</v>
       </c>
       <c r="T36" t="n">
-        <v>2</v>
+        <v>1.04</v>
       </c>
       <c r="U36" t="n">
-        <v>1.92</v>
+        <v>2.22</v>
       </c>
       <c r="V36" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="W36" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="X36" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Y36" t="n">
-        <v>8.800000000000001</v>
+        <v>13.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AA36" t="n">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="AB36" t="n">
-        <v>9.4</v>
+        <v>12</v>
       </c>
       <c r="AC36" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD36" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ36" t="n">
         <v>38</v>
       </c>
-      <c r="AF36" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>46</v>
-      </c>
       <c r="AK36" t="n">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="AL36" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AM36" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AN36" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AO36" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,132 +5378,132 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>20:20:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>Jorge Wilstermann</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>CDT Real Oruro</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.56</v>
+        <v>2.78</v>
       </c>
       <c r="G37" t="n">
-        <v>2.68</v>
+        <v>2.88</v>
       </c>
       <c r="H37" t="n">
-        <v>3.05</v>
+        <v>2.5</v>
       </c>
       <c r="I37" t="n">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="J37" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="K37" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="L37" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="M37" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N37" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="O37" t="n">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="P37" t="n">
-        <v>2.08</v>
+        <v>2.34</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.87</v>
+        <v>1.71</v>
       </c>
       <c r="R37" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="S37" t="n">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
       <c r="T37" t="n">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="U37" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="V37" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="W37" t="n">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="X37" t="n">
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ37" t="n">
         <v>50</v>
       </c>
-      <c r="AB37" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>200</v>
-      </c>
       <c r="AK37" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AL37" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM37" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO37" t="n">
-        <v>29</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,126 +5513,126 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Jorge Wilstermann</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>CDT Real Oruro</t>
+          <t>Ceara SC Fortaleza</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.58</v>
+        <v>1.33</v>
       </c>
       <c r="G38" t="n">
-        <v>2.82</v>
+        <v>1.34</v>
       </c>
       <c r="H38" t="n">
-        <v>2.56</v>
+        <v>11.5</v>
       </c>
       <c r="I38" t="n">
-        <v>2.8</v>
+        <v>12.5</v>
       </c>
       <c r="J38" t="n">
-        <v>3.65</v>
+        <v>5.8</v>
       </c>
       <c r="K38" t="n">
-        <v>4.1</v>
+        <v>5.9</v>
       </c>
       <c r="L38" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="M38" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N38" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="O38" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P38" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R38" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="S38" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="T38" t="n">
-        <v>1.57</v>
+        <v>2.18</v>
       </c>
       <c r="U38" t="n">
-        <v>2.34</v>
+        <v>1.79</v>
       </c>
       <c r="V38" t="n">
-        <v>1.56</v>
+        <v>1.08</v>
       </c>
       <c r="W38" t="n">
-        <v>1.54</v>
+        <v>3.9</v>
       </c>
       <c r="X38" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y38" t="n">
-        <v>15.5</v>
+        <v>38</v>
       </c>
       <c r="Z38" t="n">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="AA38" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB38" t="n">
-        <v>16</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC38" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>46</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>220</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG38" t="n">
         <v>10</v>
       </c>
-      <c r="AD38" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>14</v>
-      </c>
       <c r="AH38" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AI38" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AK38" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AL38" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM38" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AN38" t="n">
-        <v>19</v>
+        <v>5.4</v>
       </c>
       <c r="AO38" t="n">
-        <v>21</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39">
@@ -5665,19 +5665,19 @@
         <v>3.3</v>
       </c>
       <c r="G39" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H39" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="I39" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="J39" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K39" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L39" t="n">
         <v>1.53</v>
@@ -5689,37 +5689,37 @@
         <v>3.05</v>
       </c>
       <c r="O39" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="P39" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R39" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S39" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T39" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="U39" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="V39" t="n">
         <v>1.64</v>
       </c>
       <c r="W39" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X39" t="n">
         <v>10</v>
       </c>
       <c r="Y39" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="Z39" t="n">
         <v>14.5</v>
@@ -5764,16 +5764,16 @@
         <v>140</v>
       </c>
       <c r="AN39" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO39" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,132 +5783,132 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Cruz Azul</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Ceara SC Fortaleza</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.33</v>
+        <v>2.62</v>
       </c>
       <c r="G40" t="n">
-        <v>1.34</v>
+        <v>2.7</v>
       </c>
       <c r="H40" t="n">
-        <v>13</v>
+        <v>3.05</v>
       </c>
       <c r="I40" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K40" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N40" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X40" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD40" t="n">
         <v>13.5</v>
       </c>
-      <c r="J40" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="K40" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N40" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P40" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S40" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="T40" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W40" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="X40" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>130</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>590</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>46</v>
-      </c>
       <c r="AE40" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AF40" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AG40" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>32</v>
+        <v>18.5</v>
       </c>
       <c r="AI40" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AJ40" t="n">
-        <v>10.5</v>
+        <v>48</v>
       </c>
       <c r="AK40" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AL40" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM40" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>5.3</v>
+        <v>30</v>
       </c>
       <c r="AO40" t="n">
-        <v>320</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,78 +5918,78 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Cruz Azul</t>
+          <t>Atletico Bucaramanga</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.62</v>
+        <v>2.26</v>
       </c>
       <c r="G41" t="n">
-        <v>2.72</v>
+        <v>2.36</v>
       </c>
       <c r="H41" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I41" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J41" t="n">
         <v>3</v>
       </c>
-      <c r="I41" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3.25</v>
-      </c>
       <c r="K41" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L41" t="n">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="M41" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="N41" t="n">
-        <v>3.6</v>
+        <v>2.82</v>
       </c>
       <c r="O41" t="n">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="P41" t="n">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.12</v>
+        <v>2.5</v>
       </c>
       <c r="R41" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V41" t="n">
         <v>1.32</v>
       </c>
-      <c r="S41" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T41" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="U41" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V41" t="n">
-        <v>1.46</v>
-      </c>
       <c r="W41" t="n">
-        <v>1.58</v>
+        <v>1.73</v>
       </c>
       <c r="X41" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z41" t="n">
         <v>1000</v>
@@ -5998,13 +5998,13 @@
         <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="AC41" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD41" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE41" t="n">
         <v>1000</v>
@@ -6013,16 +6013,16 @@
         <v>1000</v>
       </c>
       <c r="AG41" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH41" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI41" t="n">
         <v>1000</v>
       </c>
       <c r="AJ41" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AK41" t="n">
         <v>1000</v>
@@ -6031,19 +6031,19 @@
         <v>1000</v>
       </c>
       <c r="AM41" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN41" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AO41" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6058,67 +6058,67 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>Olancho</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>CD Olimpia</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.26</v>
+        <v>2.68</v>
       </c>
       <c r="G42" t="n">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="H42" t="n">
-        <v>3.85</v>
+        <v>2.32</v>
       </c>
       <c r="I42" t="n">
-        <v>4.3</v>
+        <v>2.74</v>
       </c>
       <c r="J42" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="K42" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="L42" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N42" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V42" t="n">
         <v>1.57</v>
       </c>
-      <c r="M42" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N42" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="T42" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U42" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="V42" t="n">
-        <v>1.31</v>
-      </c>
       <c r="W42" t="n">
-        <v>1.76</v>
+        <v>1.45</v>
       </c>
       <c r="X42" t="n">
         <v>1000</v>
@@ -6166,147 +6166,12 @@
         <v>1000</v>
       </c>
       <c r="AM42" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AN42" t="n">
         <v>1000</v>
       </c>
       <c r="AO42" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Olancho</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>CD Olimpia</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="G43" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="I43" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="J43" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K43" t="n">
-        <v>4</v>
-      </c>
-      <c r="L43" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N43" t="n">
-        <v>4</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P43" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S43" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="T43" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="U43" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V43" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="W43" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="X43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO43" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO42"/>
+  <dimension ref="A1:AO39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Radnik Bijeljina</t>
+          <t>Casertana</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Borac Banja Luka</t>
+          <t>Atalanta B</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>55</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>1.03</v>
       </c>
       <c r="H2" t="n">
-        <v>1.14</v>
+        <v>200</v>
       </c>
       <c r="I2" t="n">
-        <v>1.15</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>8.800000000000001</v>
+        <v>34</v>
       </c>
       <c r="K2" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,31 +691,31 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.78</v>
+        <v>1.01</v>
       </c>
       <c r="O2" t="n">
-        <v>1.52</v>
+        <v>1.08</v>
       </c>
       <c r="P2" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.55</v>
+        <v>34</v>
       </c>
       <c r="R2" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="T2" t="n">
-        <v>3.95</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>7.8</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
         <v>1.01</v>
@@ -724,37 +724,37 @@
         <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.78</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>3.8</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -772,13 +772,13 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,78 +788,78 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CSKA Sofia</t>
+          <t>Kazincbarcika</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Lokomotiv Plovdiv</t>
+          <t>Gyori</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.71</v>
+        <v>60</v>
       </c>
       <c r="G3" t="n">
-        <v>1.75</v>
+        <v>80</v>
       </c>
       <c r="H3" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>6.8</v>
       </c>
-      <c r="I3" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S3" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.17</v>
-      </c>
       <c r="W3" t="n">
-        <v>2.24</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -868,52 +868,52 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>990</v>
+        <v>2.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>3.8</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>990</v>
+        <v>9.6</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AJ3" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN3" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Slovakian Super League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Casertana</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Atalanta B</t>
+          <t>Ruzomberok</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.58</v>
+        <v>1.75</v>
       </c>
       <c r="G4" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J4" t="n">
         <v>2.74</v>
       </c>
-      <c r="H4" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.2</v>
-      </c>
       <c r="K4" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG4" t="n">
         <v>3.35</v>
       </c>
-      <c r="L4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI4" t="n">
-        <v>55</v>
+        <v>990</v>
       </c>
       <c r="AJ4" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>44</v>
+        <v>7.8</v>
       </c>
       <c r="AL4" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AM4" t="n">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="AN4" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AO4" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>Slovakian Super League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Kazincbarcika</t>
+          <t>Podbrezova</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Gyori</t>
+          <t>Spartak Trnava</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6.6</v>
+        <v>21</v>
       </c>
       <c r="G5" t="n">
-        <v>7.4</v>
+        <v>23</v>
       </c>
       <c r="H5" t="n">
-        <v>1.52</v>
+        <v>1.34</v>
       </c>
       <c r="I5" t="n">
-        <v>1.55</v>
+        <v>1.37</v>
       </c>
       <c r="J5" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R5" t="n">
         <v>1.04</v>
       </c>
-      <c r="N5" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="S5" t="n">
+        <v>23</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W5" t="n">
         <v>1.21</v>
       </c>
-      <c r="P5" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.16</v>
-      </c>
       <c r="X5" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>2.3</v>
       </c>
       <c r="Z5" t="n">
-        <v>10.5</v>
+        <v>6</v>
       </c>
       <c r="AA5" t="n">
-        <v>14.5</v>
+        <v>40</v>
       </c>
       <c r="AB5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG5" t="n">
         <v>29</v>
       </c>
-      <c r="AC5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>26</v>
-      </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="AI5" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>85</v>
+        <v>310</v>
       </c>
       <c r="AL5" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
         <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>6.4</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Slovakian Super League</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,78 +1193,78 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Zeljeznicar</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ruzomberok</t>
+          <t>Siroki Brijeg</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.32</v>
+        <v>1.53</v>
       </c>
       <c r="G6" t="n">
-        <v>1.35</v>
+        <v>2.02</v>
       </c>
       <c r="H6" t="n">
-        <v>10.5</v>
+        <v>1.1</v>
       </c>
       <c r="I6" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>2.64</v>
       </c>
       <c r="K6" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>6.4</v>
+        <v>1.29</v>
       </c>
       <c r="O6" t="n">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="P6" t="n">
-        <v>2.86</v>
+        <v>1.37</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="R6" t="n">
-        <v>1.76</v>
+        <v>1.06</v>
       </c>
       <c r="S6" t="n">
-        <v>2.24</v>
+        <v>1.08</v>
       </c>
       <c r="T6" t="n">
-        <v>1.85</v>
+        <v>1.27</v>
       </c>
       <c r="U6" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="W6" t="n">
-        <v>3.8</v>
+        <v>1.98</v>
       </c>
       <c r="X6" t="n">
-        <v>32</v>
+        <v>9.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
@@ -1273,52 +1273,52 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>14.5</v>
+        <v>990</v>
       </c>
       <c r="AD6" t="n">
-        <v>40</v>
+        <v>990</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.800000000000001</v>
+        <v>990</v>
       </c>
       <c r="AH6" t="n">
-        <v>27</v>
+        <v>990</v>
       </c>
       <c r="AI6" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.4</v>
+        <v>21</v>
       </c>
       <c r="AO6" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Slovakian Super League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Podbrezova</t>
+          <t>Maccabi Netanya</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Spartak Trnava</t>
+          <t>FC Ashdod</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.75</v>
+        <v>1.09</v>
       </c>
       <c r="G7" t="n">
-        <v>4.1</v>
+        <v>1.11</v>
       </c>
       <c r="H7" t="n">
+        <v>48</v>
+      </c>
+      <c r="I7" t="n">
+        <v>60</v>
+      </c>
+      <c r="J7" t="n">
+        <v>13</v>
+      </c>
+      <c r="K7" t="n">
+        <v>15</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U7" t="n">
         <v>2.12</v>
       </c>
-      <c r="I7" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.18</v>
-      </c>
       <c r="V7" t="n">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>1.32</v>
+        <v>10.5</v>
       </c>
       <c r="X7" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="AG7" t="n">
-        <v>15.5</v>
+        <v>8.4</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="AJ7" t="n">
-        <v>130</v>
+        <v>6.2</v>
       </c>
       <c r="AK7" t="n">
-        <v>75</v>
+        <v>990</v>
       </c>
       <c r="AL7" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AM7" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="AN7" t="n">
-        <v>230</v>
+        <v>3.95</v>
       </c>
       <c r="AO7" t="n">
-        <v>17</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,73 +1468,73 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Zeljeznicar</t>
+          <t>SSD Dolomiti Bellunesi</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Siroki Brijeg</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="G8" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>8.6</v>
       </c>
       <c r="I8" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="L8" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="P8" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.2</v>
+        <v>2.56</v>
       </c>
       <c r="R8" t="n">
-        <v>1.27</v>
+        <v>1.13</v>
       </c>
       <c r="S8" t="n">
-        <v>4.1</v>
+        <v>7.2</v>
       </c>
       <c r="T8" t="n">
-        <v>2.2</v>
+        <v>1.78</v>
       </c>
       <c r="U8" t="n">
-        <v>1.71</v>
+        <v>2.08</v>
       </c>
       <c r="V8" t="n">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="W8" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="X8" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
         <v>1000</v>
@@ -1543,46 +1543,46 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>6.6</v>
+        <v>4</v>
       </c>
       <c r="AC8" t="n">
-        <v>12</v>
+        <v>4.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>120</v>
+        <v>15.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AG8" t="n">
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ8" t="n">
-        <v>18.5</v>
+        <v>32</v>
       </c>
       <c r="AK8" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>510</v>
       </c>
       <c r="AN8" t="n">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Maccabi Netanya</t>
+          <t>Ironi Tiberias</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FC Ashdod</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.06</v>
+        <v>150</v>
       </c>
       <c r="G9" t="n">
-        <v>2.18</v>
+        <v>550</v>
       </c>
       <c r="H9" t="n">
-        <v>3.55</v>
+        <v>1.01</v>
       </c>
       <c r="I9" t="n">
-        <v>3.95</v>
+        <v>1.02</v>
       </c>
       <c r="J9" t="n">
-        <v>3.65</v>
+        <v>70</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>130</v>
       </c>
       <c r="L9" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>1.53</v>
+        <v>11</v>
       </c>
       <c r="S9" t="n">
-        <v>2.64</v>
+        <v>1.09</v>
       </c>
       <c r="T9" t="n">
-        <v>1.58</v>
+        <v>1.93</v>
       </c>
       <c r="U9" t="n">
-        <v>2.58</v>
+        <v>1.98</v>
       </c>
       <c r="V9" t="n">
-        <v>1.34</v>
+        <v>50</v>
       </c>
       <c r="W9" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="X9" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>260</v>
+        <v>12</v>
       </c>
       <c r="AB9" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>100</v>
+        <v>16.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM9" t="n">
         <v>170</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>330</v>
-      </c>
       <c r="AN9" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>32</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,126 +1733,126 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SSD Dolomiti Bellunesi</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.95</v>
+        <v>15</v>
       </c>
       <c r="G10" t="n">
-        <v>4.5</v>
+        <v>15.5</v>
       </c>
       <c r="H10" t="n">
-        <v>2.08</v>
+        <v>1.3</v>
       </c>
       <c r="I10" t="n">
-        <v>2.28</v>
+        <v>1.31</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>5.8</v>
       </c>
       <c r="K10" t="n">
-        <v>3.45</v>
+        <v>5.9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>3.05</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O10" t="n">
-        <v>1.43</v>
+        <v>1.11</v>
       </c>
       <c r="P10" t="n">
-        <v>1.71</v>
+        <v>2.66</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.24</v>
+        <v>1.59</v>
       </c>
       <c r="R10" t="n">
-        <v>1.26</v>
+        <v>1.55</v>
       </c>
       <c r="S10" t="n">
-        <v>4.3</v>
+        <v>2.78</v>
       </c>
       <c r="T10" t="n">
-        <v>1.93</v>
+        <v>1.73</v>
       </c>
       <c r="U10" t="n">
-        <v>1.9</v>
+        <v>2.26</v>
       </c>
       <c r="V10" t="n">
-        <v>1.78</v>
+        <v>4.2</v>
       </c>
       <c r="W10" t="n">
-        <v>1.28</v>
+        <v>1.06</v>
       </c>
       <c r="X10" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>16</v>
+        <v>9.4</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.5</v>
+        <v>6.4</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AB10" t="n">
         <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.8</v>
+        <v>10.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>20</v>
+        <v>7.6</v>
       </c>
       <c r="AE10" t="n">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="AF10" t="n">
         <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AJ10" t="n">
         <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AL10" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AO10" t="n">
-        <v>55</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="11">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Ironi Tiberias</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5.9</v>
+        <v>1.43</v>
       </c>
       <c r="G11" t="n">
-        <v>6.8</v>
+        <v>1.45</v>
       </c>
       <c r="H11" t="n">
-        <v>1.51</v>
+        <v>9.4</v>
       </c>
       <c r="I11" t="n">
-        <v>1.56</v>
+        <v>10.5</v>
       </c>
       <c r="J11" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="K11" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="L11" t="n">
-        <v>1.3</v>
+        <v>1.82</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>5.6</v>
+        <v>3.85</v>
       </c>
       <c r="O11" t="n">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>2.62</v>
+        <v>1.98</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.56</v>
+        <v>1.96</v>
       </c>
       <c r="R11" t="n">
-        <v>1.62</v>
+        <v>1.35</v>
       </c>
       <c r="S11" t="n">
-        <v>2.46</v>
+        <v>3.65</v>
       </c>
       <c r="T11" t="n">
-        <v>1.69</v>
+        <v>2.28</v>
       </c>
       <c r="U11" t="n">
-        <v>2.28</v>
+        <v>1.7</v>
       </c>
       <c r="V11" t="n">
-        <v>2.72</v>
+        <v>1.11</v>
       </c>
       <c r="W11" t="n">
-        <v>1.17</v>
+        <v>3.15</v>
       </c>
       <c r="X11" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="Y11" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="Z11" t="n">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="AA11" t="n">
-        <v>14.5</v>
+        <v>360</v>
       </c>
       <c r="AB11" t="n">
-        <v>32</v>
+        <v>7.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="AE11" t="n">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c r="AF11" t="n">
-        <v>160</v>
+        <v>7.2</v>
       </c>
       <c r="AG11" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="AI11" t="n">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="AJ11" t="n">
-        <v>650</v>
+        <v>11</v>
       </c>
       <c r="AK11" t="n">
-        <v>510</v>
+        <v>18</v>
       </c>
       <c r="AL11" t="n">
-        <v>400</v>
+        <v>70</v>
       </c>
       <c r="AM11" t="n">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="AN11" t="n">
-        <v>330</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO11" t="n">
-        <v>6</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Kahraba Ismailia</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Pyramids</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>15.5</v>
       </c>
       <c r="G12" t="n">
-        <v>5.1</v>
+        <v>17</v>
       </c>
       <c r="H12" t="n">
-        <v>1.75</v>
+        <v>1.41</v>
       </c>
       <c r="I12" t="n">
-        <v>1.76</v>
+        <v>1.44</v>
       </c>
       <c r="J12" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K12" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.36</v>
+        <v>2.02</v>
       </c>
       <c r="M12" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S12" t="n">
+        <v>7</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="V12" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="W12" t="n">
         <v>1.05</v>
       </c>
-      <c r="N12" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.24</v>
-      </c>
       <c r="X12" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="Y12" t="n">
-        <v>10.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>10.5</v>
+        <v>5.4</v>
       </c>
       <c r="AA12" t="n">
-        <v>17.5</v>
+        <v>11</v>
       </c>
       <c r="AB12" t="n">
-        <v>19.5</v>
+        <v>28</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.6</v>
+        <v>14</v>
       </c>
       <c r="AD12" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE12" t="n">
-        <v>16.5</v>
+        <v>32</v>
       </c>
       <c r="AF12" t="n">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="AH12" t="n">
-        <v>17.5</v>
+        <v>110</v>
       </c>
       <c r="AI12" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="AJ12" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Kahraba Ismailia</t>
+          <t>Blooming Santa Cruz</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Pyramids</t>
+          <t>Academia de Balompie Bolivi</t>
         </is>
       </c>
       <c r="F13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H13" t="n">
         <v>13.5</v>
       </c>
-      <c r="G13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1.32</v>
-      </c>
       <c r="I13" t="n">
-        <v>1.34</v>
+        <v>16.5</v>
       </c>
       <c r="J13" t="n">
-        <v>5.4</v>
+        <v>8</v>
       </c>
       <c r="K13" t="n">
-        <v>5.9</v>
+        <v>10.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.41</v>
+        <v>1.18</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>3.8</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>1.33</v>
+        <v>1.09</v>
       </c>
       <c r="P13" t="n">
-        <v>1.94</v>
+        <v>4.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.99</v>
+        <v>1.28</v>
       </c>
       <c r="R13" t="n">
-        <v>1.35</v>
+        <v>2.28</v>
       </c>
       <c r="S13" t="n">
-        <v>3.6</v>
+        <v>1.74</v>
       </c>
       <c r="T13" t="n">
-        <v>2.46</v>
+        <v>1.73</v>
       </c>
       <c r="U13" t="n">
-        <v>1.58</v>
+        <v>2.12</v>
       </c>
       <c r="V13" t="n">
-        <v>3.85</v>
+        <v>1.06</v>
       </c>
       <c r="W13" t="n">
-        <v>1.07</v>
+        <v>5.3</v>
       </c>
       <c r="X13" t="n">
-        <v>14.5</v>
+        <v>60</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.8</v>
+        <v>130</v>
       </c>
       <c r="Z13" t="n">
-        <v>6.6</v>
+        <v>190</v>
       </c>
       <c r="AA13" t="n">
-        <v>10.5</v>
+        <v>540</v>
       </c>
       <c r="AB13" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="AC13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>210</v>
+      </c>
+      <c r="AF13" t="n">
         <v>13</v>
       </c>
-      <c r="AD13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>160</v>
-      </c>
       <c r="AG13" t="n">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="AH13" t="n">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="AI13" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="AJ13" t="n">
-        <v>930</v>
+        <v>23</v>
       </c>
       <c r="AK13" t="n">
-        <v>410</v>
+        <v>14</v>
       </c>
       <c r="AL13" t="n">
-        <v>300</v>
+        <v>38</v>
       </c>
       <c r="AM13" t="n">
-        <v>380</v>
+        <v>140</v>
       </c>
       <c r="AN13" t="n">
-        <v>720</v>
+        <v>2.7</v>
       </c>
       <c r="AO13" t="n">
-        <v>7</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Austrian Bundesliga</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>WSG Wattens</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.33</v>
+        <v>1.72</v>
       </c>
       <c r="G14" t="n">
-        <v>1.36</v>
+        <v>1.75</v>
       </c>
       <c r="H14" t="n">
-        <v>9.199999999999999</v>
+        <v>5.5</v>
       </c>
       <c r="I14" t="n">
-        <v>11</v>
+        <v>5.9</v>
       </c>
       <c r="J14" t="n">
-        <v>6.4</v>
+        <v>3.95</v>
       </c>
       <c r="K14" t="n">
-        <v>6.8</v>
+        <v>4.1</v>
       </c>
       <c r="L14" t="n">
-        <v>1.26</v>
+        <v>1.39</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>6.2</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.16</v>
+        <v>1.31</v>
       </c>
       <c r="P14" t="n">
-        <v>2.84</v>
+        <v>2</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.47</v>
+        <v>1.92</v>
       </c>
       <c r="R14" t="n">
-        <v>1.72</v>
+        <v>1.39</v>
       </c>
       <c r="S14" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="U14" t="n">
         <v>2.06</v>
       </c>
       <c r="V14" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="W14" t="n">
-        <v>3.8</v>
+        <v>2.34</v>
       </c>
       <c r="X14" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="Y14" t="n">
-        <v>55</v>
+        <v>19.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB14" t="n">
-        <v>12</v>
+        <v>8.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>16.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF14" t="n">
         <v>10</v>
       </c>
       <c r="AG14" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="AH14" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="n">
-        <v>12</v>
+        <v>17.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.4</v>
+        <v>11</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Blooming Santa Cruz</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Academia de Balompie Bolivi</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.22</v>
+        <v>5.6</v>
       </c>
       <c r="G15" t="n">
-        <v>1.26</v>
+        <v>5.7</v>
       </c>
       <c r="H15" t="n">
-        <v>13</v>
+        <v>1.76</v>
       </c>
       <c r="I15" t="n">
-        <v>16</v>
+        <v>1.77</v>
       </c>
       <c r="J15" t="n">
-        <v>7.4</v>
+        <v>3.9</v>
       </c>
       <c r="K15" t="n">
-        <v>8.6</v>
+        <v>3.95</v>
       </c>
       <c r="L15" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="W15" t="n">
         <v>1.21</v>
       </c>
-      <c r="M15" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N15" t="n">
-        <v>8</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W15" t="n">
-        <v>4.7</v>
-      </c>
       <c r="X15" t="n">
-        <v>85</v>
+        <v>11.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="Z15" t="n">
-        <v>200</v>
+        <v>9</v>
       </c>
       <c r="AA15" t="n">
-        <v>550</v>
+        <v>17.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC15" t="n">
-        <v>21</v>
+        <v>8.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>60</v>
+        <v>10.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="AF15" t="n">
-        <v>11.5</v>
+        <v>40</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AH15" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="AI15" t="n">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="AJ15" t="n">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="AK15" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>130</v>
+      </c>
+      <c r="AO15" t="n">
         <v>14</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>220</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Austrian Bundesliga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>WSG Wattens</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.71</v>
+        <v>2.36</v>
       </c>
       <c r="G16" t="n">
-        <v>1.75</v>
+        <v>2.38</v>
       </c>
       <c r="H16" t="n">
-        <v>5.4</v>
+        <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>5.9</v>
+        <v>3.4</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="K16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N16" t="n">
         <v>4.2</v>
       </c>
-      <c r="L16" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N16" t="n">
-        <v>4</v>
-      </c>
       <c r="O16" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="P16" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="R16" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S16" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="T16" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="U16" t="n">
-        <v>2.06</v>
+        <v>2.34</v>
       </c>
       <c r="V16" t="n">
-        <v>1.2</v>
+        <v>1.41</v>
       </c>
       <c r="W16" t="n">
-        <v>2.32</v>
+        <v>1.72</v>
       </c>
       <c r="X16" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="Z16" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="AA16" t="n">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="AB16" t="n">
-        <v>8.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>21</v>
+        <v>13.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AF16" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AG16" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="AJ16" t="n">
-        <v>17.5</v>
+        <v>32</v>
       </c>
       <c r="AK16" t="n">
-        <v>18.5</v>
+        <v>24</v>
       </c>
       <c r="AL16" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM16" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AN16" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AO16" t="n">
-        <v>95</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -2683,34 +2683,34 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>5.3</v>
+        <v>3.3</v>
       </c>
       <c r="G17" t="n">
-        <v>5.4</v>
+        <v>3.35</v>
       </c>
       <c r="H17" t="n">
-        <v>1.8</v>
+        <v>2.46</v>
       </c>
       <c r="I17" t="n">
-        <v>1.81</v>
+        <v>2.5</v>
       </c>
       <c r="J17" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="K17" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="L17" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="M17" t="n">
         <v>1.09</v>
@@ -2719,85 +2719,85 @@
         <v>3.3</v>
       </c>
       <c r="O17" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P17" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R17" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>2.12</v>
+        <v>1.94</v>
       </c>
       <c r="U17" t="n">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="V17" t="n">
-        <v>2.22</v>
+        <v>1.68</v>
       </c>
       <c r="W17" t="n">
-        <v>1.22</v>
+        <v>1.41</v>
       </c>
       <c r="X17" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z17" t="n">
-        <v>9.199999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="AB17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG17" t="n">
         <v>14.5</v>
       </c>
-      <c r="AC17" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>21</v>
-      </c>
       <c r="AH17" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ17" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AK17" t="n">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="AL17" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AM17" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AN17" t="n">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="AO17" t="n">
-        <v>14.5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
@@ -2818,127 +2818,127 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.26</v>
+        <v>1.46</v>
       </c>
       <c r="G18" t="n">
-        <v>2.28</v>
+        <v>1.47</v>
       </c>
       <c r="H18" t="n">
-        <v>3.45</v>
+        <v>8.6</v>
       </c>
       <c r="I18" t="n">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="J18" t="n">
-        <v>3.7</v>
+        <v>4.9</v>
       </c>
       <c r="K18" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M18" t="n">
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="O18" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="P18" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="Q18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U18" t="n">
         <v>1.86</v>
       </c>
-      <c r="R18" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.36</v>
-      </c>
       <c r="V18" t="n">
-        <v>1.4</v>
+        <v>1.12</v>
       </c>
       <c r="W18" t="n">
-        <v>1.78</v>
+        <v>3.15</v>
       </c>
       <c r="X18" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Z18" t="n">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="AA18" t="n">
-        <v>65</v>
+        <v>330</v>
       </c>
       <c r="AB18" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AC18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN18" t="n">
         <v>8</v>
       </c>
-      <c r="AD18" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>15</v>
-      </c>
       <c r="AO18" t="n">
-        <v>36</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="F19" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J19" t="n">
         <v>3.35</v>
-      </c>
-      <c r="G19" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.4</v>
       </c>
       <c r="K19" t="n">
         <v>3.45</v>
       </c>
       <c r="L19" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M19" t="n">
         <v>1.09</v>
       </c>
       <c r="N19" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="P19" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="R19" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S19" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T19" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="U19" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V19" t="n">
-        <v>1.69</v>
+        <v>1.37</v>
       </c>
       <c r="W19" t="n">
-        <v>1.41</v>
+        <v>1.74</v>
       </c>
       <c r="X19" t="n">
         <v>11.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Z19" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AA19" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AB19" t="n">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC19" t="n">
         <v>7.4</v>
       </c>
       <c r="AD19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG19" t="n">
         <v>11.5</v>
       </c>
-      <c r="AE19" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>14</v>
-      </c>
       <c r="AH19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI19" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AJ19" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AK19" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="AL19" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AM19" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN19" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="AO19" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,126 +3083,126 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.45</v>
+        <v>1.14</v>
       </c>
       <c r="G20" t="n">
-        <v>1.46</v>
+        <v>1.15</v>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I20" t="n">
-        <v>9.199999999999999</v>
+        <v>28</v>
       </c>
       <c r="J20" t="n">
-        <v>4.9</v>
+        <v>11.5</v>
       </c>
       <c r="K20" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L20" t="n">
-        <v>1.41</v>
+        <v>1.21</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>4.1</v>
+        <v>8.6</v>
       </c>
       <c r="O20" t="n">
-        <v>1.31</v>
+        <v>1.12</v>
       </c>
       <c r="P20" t="n">
-        <v>2.04</v>
+        <v>3.45</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.94</v>
+        <v>1.38</v>
       </c>
       <c r="R20" t="n">
-        <v>1.4</v>
+        <v>1.99</v>
       </c>
       <c r="S20" t="n">
-        <v>3.4</v>
+        <v>1.98</v>
       </c>
       <c r="T20" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="U20" t="n">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="V20" t="n">
-        <v>1.12</v>
+        <v>1.03</v>
       </c>
       <c r="W20" t="n">
-        <v>3.15</v>
+        <v>7.6</v>
       </c>
       <c r="X20" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="Y20" t="n">
-        <v>25</v>
+        <v>990</v>
       </c>
       <c r="Z20" t="n">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="AA20" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>7.2</v>
+        <v>13.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="AD20" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AE20" t="n">
-        <v>160</v>
+        <v>450</v>
       </c>
       <c r="AF20" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="AG20" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="AI20" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>12</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AK20" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM20" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>7.2</v>
+        <v>2.82</v>
       </c>
       <c r="AO20" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.34</v>
+        <v>3.95</v>
       </c>
       <c r="G21" t="n">
-        <v>2.36</v>
+        <v>4</v>
       </c>
       <c r="H21" t="n">
-        <v>3.6</v>
+        <v>2.06</v>
       </c>
       <c r="I21" t="n">
-        <v>3.65</v>
+        <v>2.08</v>
       </c>
       <c r="J21" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="K21" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L21" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="M21" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="P21" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T21" t="n">
         <v>1.78</v>
       </c>
-      <c r="Q21" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S21" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.91</v>
-      </c>
       <c r="U21" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="V21" t="n">
-        <v>1.38</v>
+        <v>1.92</v>
       </c>
       <c r="W21" t="n">
-        <v>1.73</v>
+        <v>1.33</v>
       </c>
       <c r="X21" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA21" t="n">
         <v>24</v>
       </c>
-      <c r="AA21" t="n">
-        <v>75</v>
-      </c>
       <c r="AB21" t="n">
-        <v>8.800000000000001</v>
+        <v>15</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG21" t="n">
         <v>15</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AH21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK21" t="n">
         <v>46</v>
       </c>
-      <c r="AF21" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>27</v>
-      </c>
       <c r="AL21" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AM21" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AN21" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="AO21" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.14</v>
+        <v>3.2</v>
       </c>
       <c r="G22" t="n">
-        <v>1.15</v>
+        <v>3.3</v>
       </c>
       <c r="H22" t="n">
-        <v>23</v>
+        <v>2.44</v>
       </c>
       <c r="I22" t="n">
-        <v>26</v>
+        <v>2.48</v>
       </c>
       <c r="J22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X22" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y22" t="n">
         <v>10.5</v>
       </c>
-      <c r="K22" t="n">
+      <c r="Z22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD22" t="n">
         <v>11.5</v>
       </c>
-      <c r="L22" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N22" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W22" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="X22" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>90</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>290</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC22" t="n">
+      <c r="AE22" t="n">
         <v>25</v>
       </c>
-      <c r="AD22" t="n">
-        <v>95</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>510</v>
-      </c>
       <c r="AF22" t="n">
-        <v>8.4</v>
+        <v>22</v>
       </c>
       <c r="AG22" t="n">
         <v>13.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>55</v>
+        <v>16.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ22" t="n">
-        <v>8.6</v>
+        <v>60</v>
       </c>
       <c r="AK22" t="n">
-        <v>13.5</v>
+        <v>36</v>
       </c>
       <c r="AL22" t="n">
         <v>46</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN22" t="n">
-        <v>2.94</v>
+        <v>34</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="23">
@@ -3493,127 +3493,127 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.8</v>
+        <v>1.37</v>
       </c>
       <c r="G23" t="n">
-        <v>3.9</v>
+        <v>1.38</v>
       </c>
       <c r="H23" t="n">
-        <v>2.1</v>
+        <v>11</v>
       </c>
       <c r="I23" t="n">
-        <v>2.14</v>
+        <v>12</v>
       </c>
       <c r="J23" t="n">
-        <v>3.7</v>
+        <v>5.4</v>
       </c>
       <c r="K23" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="O23" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="P23" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.94</v>
+        <v>1.81</v>
       </c>
       <c r="R23" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="S23" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="T23" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="U23" t="n">
-        <v>2.2</v>
+        <v>1.79</v>
       </c>
       <c r="V23" t="n">
-        <v>1.89</v>
+        <v>1.09</v>
       </c>
       <c r="W23" t="n">
-        <v>1.34</v>
+        <v>3.6</v>
       </c>
       <c r="X23" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.800000000000001</v>
+        <v>34</v>
       </c>
       <c r="Z23" t="n">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="AA23" t="n">
-        <v>26</v>
+        <v>440</v>
       </c>
       <c r="AB23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>42</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>190</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK23" t="n">
         <v>14.5</v>
       </c>
-      <c r="AC23" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>46</v>
-      </c>
       <c r="AL23" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AM23" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN23" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="AO23" t="n">
-        <v>15.5</v>
+        <v>370</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.15</v>
+        <v>1.39</v>
       </c>
       <c r="G24" t="n">
-        <v>3.25</v>
+        <v>1.4</v>
       </c>
       <c r="H24" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="I24" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N24" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P24" t="n">
         <v>2.5</v>
       </c>
-      <c r="I24" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N24" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.96</v>
-      </c>
       <c r="Q24" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T24" t="n">
         <v>2</v>
       </c>
-      <c r="R24" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S24" t="n">
+      <c r="U24" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="W24" t="n">
         <v>3.5</v>
       </c>
-      <c r="T24" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1.44</v>
-      </c>
       <c r="X24" t="n">
-        <v>15.5</v>
+        <v>25</v>
       </c>
       <c r="Y24" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>510</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AG24" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>14</v>
-      </c>
       <c r="AH24" t="n">
-        <v>16.5</v>
+        <v>25</v>
       </c>
       <c r="AI24" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AJ24" t="n">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="AK24" t="n">
-        <v>36</v>
+        <v>13.5</v>
       </c>
       <c r="AL24" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AM24" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AN24" t="n">
-        <v>34</v>
+        <v>5.3</v>
       </c>
       <c r="AO24" t="n">
-        <v>21</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Genesis Huracan</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Juticalpa</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.38</v>
+        <v>1.04</v>
       </c>
       <c r="G25" t="n">
-        <v>1.39</v>
+        <v>2.1</v>
       </c>
       <c r="H25" t="n">
-        <v>10.5</v>
+        <v>1.04</v>
       </c>
       <c r="I25" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="J25" t="n">
-        <v>5.2</v>
+        <v>2.9</v>
       </c>
       <c r="K25" t="n">
-        <v>5.4</v>
+        <v>970</v>
       </c>
       <c r="L25" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>4.1</v>
+        <v>1.02</v>
       </c>
       <c r="O25" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="P25" t="n">
-        <v>2.08</v>
+        <v>1.24</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="R25" t="n">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="S25" t="n">
-        <v>3.35</v>
+        <v>1.01</v>
       </c>
       <c r="T25" t="n">
-        <v>2.28</v>
+        <v>1.04</v>
       </c>
       <c r="U25" t="n">
-        <v>1.72</v>
+        <v>1.04</v>
       </c>
       <c r="V25" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="W25" t="n">
-        <v>3.5</v>
+        <v>1.01</v>
       </c>
       <c r="X25" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
-        <v>470</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>11.5</v>
+        <v>42</v>
       </c>
       <c r="AD25" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AI25" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="AK25" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>6.8</v>
+        <v>29</v>
       </c>
       <c r="AO25" t="n">
-        <v>410</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Real Tomayapo</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Oriente Petrolero</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.38</v>
+        <v>2.5</v>
       </c>
       <c r="G26" t="n">
-        <v>1.39</v>
+        <v>2.64</v>
       </c>
       <c r="H26" t="n">
-        <v>9.199999999999999</v>
+        <v>2.76</v>
       </c>
       <c r="I26" t="n">
-        <v>9.4</v>
+        <v>2.92</v>
       </c>
       <c r="J26" t="n">
-        <v>5.9</v>
+        <v>3.8</v>
       </c>
       <c r="K26" t="n">
-        <v>6</v>
+        <v>3.95</v>
       </c>
       <c r="L26" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="M26" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>5.5</v>
+        <v>6.8</v>
       </c>
       <c r="O26" t="n">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="P26" t="n">
-        <v>2.52</v>
+        <v>2.92</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.64</v>
+        <v>1.48</v>
       </c>
       <c r="R26" t="n">
-        <v>1.59</v>
+        <v>1.81</v>
       </c>
       <c r="S26" t="n">
-        <v>2.64</v>
+        <v>2.18</v>
       </c>
       <c r="T26" t="n">
-        <v>1.98</v>
+        <v>1.5</v>
       </c>
       <c r="U26" t="n">
-        <v>1.98</v>
+        <v>2.82</v>
       </c>
       <c r="V26" t="n">
-        <v>1.11</v>
+        <v>1.52</v>
       </c>
       <c r="W26" t="n">
-        <v>3.55</v>
+        <v>1.6</v>
       </c>
       <c r="X26" t="n">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="Y26" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="Z26" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AA26" t="n">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="AB26" t="n">
-        <v>9.6</v>
+        <v>970</v>
       </c>
       <c r="AC26" t="n">
         <v>13</v>
       </c>
       <c r="AD26" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AE26" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AF26" t="n">
-        <v>8.6</v>
+        <v>60</v>
       </c>
       <c r="AG26" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AH26" t="n">
         <v>26</v>
       </c>
       <c r="AI26" t="n">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="AJ26" t="n">
-        <v>11</v>
+        <v>280</v>
       </c>
       <c r="AK26" t="n">
-        <v>13.5</v>
+        <v>75</v>
       </c>
       <c r="AL26" t="n">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="AM26" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="AN26" t="n">
-        <v>5.2</v>
+        <v>55</v>
       </c>
       <c r="AO26" t="n">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Fortaleza EC</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4.2</v>
+        <v>1.91</v>
       </c>
       <c r="G27" t="n">
-        <v>4.3</v>
+        <v>1.92</v>
       </c>
       <c r="H27" t="n">
-        <v>1.95</v>
+        <v>5.1</v>
       </c>
       <c r="I27" t="n">
-        <v>1.97</v>
+        <v>5.3</v>
       </c>
       <c r="J27" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="K27" t="n">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="L27" t="n">
-        <v>1.37</v>
+        <v>1.54</v>
       </c>
       <c r="M27" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="N27" t="n">
-        <v>4.4</v>
+        <v>2.96</v>
       </c>
       <c r="O27" t="n">
-        <v>1.28</v>
+        <v>1.49</v>
       </c>
       <c r="P27" t="n">
-        <v>2.18</v>
+        <v>1.64</v>
       </c>
       <c r="Q27" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U27" t="n">
         <v>1.82</v>
       </c>
-      <c r="R27" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S27" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U27" t="n">
-        <v>2.32</v>
-      </c>
       <c r="V27" t="n">
-        <v>2.04</v>
+        <v>1.23</v>
       </c>
       <c r="W27" t="n">
-        <v>1.3</v>
+        <v>2.08</v>
       </c>
       <c r="X27" t="n">
-        <v>17</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y27" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG27" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z27" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA27" t="n">
+      <c r="AH27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK27" t="n">
         <v>24</v>
       </c>
-      <c r="AB27" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE27" t="n">
+      <c r="AL27" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN27" t="n">
         <v>19</v>
       </c>
-      <c r="AF27" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>48</v>
-      </c>
       <c r="AO27" t="n">
-        <v>11</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Genesis Huracan</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Juticalpa</t>
+          <t>EC Vitoria Salvador</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.04</v>
+        <v>1.93</v>
       </c>
       <c r="G28" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H28" t="n">
-        <v>1.04</v>
+        <v>4.8</v>
       </c>
       <c r="I28" t="n">
-        <v>970</v>
+        <v>4.9</v>
       </c>
       <c r="J28" t="n">
-        <v>2.9</v>
+        <v>3.55</v>
       </c>
       <c r="K28" t="n">
-        <v>970</v>
+        <v>3.6</v>
       </c>
       <c r="L28" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M28" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>1.02</v>
+        <v>3.45</v>
       </c>
       <c r="O28" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="P28" t="n">
-        <v>1.24</v>
+        <v>1.81</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="R28" t="n">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="S28" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="T28" t="n">
-        <v>1.04</v>
+        <v>1.96</v>
       </c>
       <c r="U28" t="n">
-        <v>1.04</v>
+        <v>1.97</v>
       </c>
       <c r="V28" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="W28" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="X28" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB28" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC28" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL28" t="n">
         <v>42</v>
       </c>
-      <c r="AD28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>180</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN28" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,126 +4298,126 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Real Tomayapo</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Oriente Petrolero</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.5</v>
+        <v>5.8</v>
       </c>
       <c r="G29" t="n">
-        <v>2.64</v>
+        <v>6</v>
       </c>
       <c r="H29" t="n">
-        <v>2.72</v>
+        <v>1.72</v>
       </c>
       <c r="I29" t="n">
-        <v>2.92</v>
+        <v>1.74</v>
       </c>
       <c r="J29" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K29" t="n">
         <v>4</v>
       </c>
       <c r="L29" t="n">
-        <v>1.26</v>
+        <v>1.41</v>
       </c>
       <c r="M29" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>6.8</v>
+        <v>3.9</v>
       </c>
       <c r="O29" t="n">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="P29" t="n">
-        <v>2.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.48</v>
+        <v>1.98</v>
       </c>
       <c r="R29" t="n">
-        <v>1.83</v>
+        <v>1.37</v>
       </c>
       <c r="S29" t="n">
-        <v>2.12</v>
+        <v>3.55</v>
       </c>
       <c r="T29" t="n">
-        <v>1.46</v>
+        <v>1.91</v>
       </c>
       <c r="U29" t="n">
-        <v>2.96</v>
+        <v>2.02</v>
       </c>
       <c r="V29" t="n">
-        <v>1.52</v>
+        <v>2.34</v>
       </c>
       <c r="W29" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="X29" t="n">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="Y29" t="n">
-        <v>970</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z29" t="n">
-        <v>60</v>
+        <v>9.6</v>
       </c>
       <c r="AA29" t="n">
-        <v>280</v>
+        <v>17.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AC29" t="n">
-        <v>13</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD29" t="n">
-        <v>970</v>
+        <v>9.6</v>
       </c>
       <c r="AE29" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK29" t="n">
         <v>80</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>190</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>280</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>75</v>
       </c>
       <c r="AL29" t="n">
         <v>85</v>
       </c>
       <c r="AM29" t="n">
-        <v>580</v>
+        <v>130</v>
       </c>
       <c r="AN29" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AO29" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
@@ -4433,126 +4433,126 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Fortaleza EC</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.78</v>
+        <v>1.23</v>
       </c>
       <c r="G30" t="n">
-        <v>1.79</v>
+        <v>1.25</v>
       </c>
       <c r="H30" t="n">
-        <v>5.8</v>
+        <v>15</v>
       </c>
       <c r="I30" t="n">
-        <v>5.9</v>
+        <v>16</v>
       </c>
       <c r="J30" t="n">
-        <v>3.65</v>
+        <v>7.4</v>
       </c>
       <c r="K30" t="n">
-        <v>3.75</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L30" t="n">
-        <v>1.52</v>
+        <v>1.26</v>
       </c>
       <c r="M30" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>3.05</v>
+        <v>6.4</v>
       </c>
       <c r="O30" t="n">
-        <v>1.47</v>
+        <v>1.17</v>
       </c>
       <c r="P30" t="n">
-        <v>1.67</v>
+        <v>2.9</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.4</v>
+        <v>1.51</v>
       </c>
       <c r="R30" t="n">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="S30" t="n">
-        <v>4.6</v>
+        <v>2.28</v>
       </c>
       <c r="T30" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="U30" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="V30" t="n">
-        <v>1.2</v>
+        <v>1.06</v>
       </c>
       <c r="W30" t="n">
-        <v>2.26</v>
+        <v>5</v>
       </c>
       <c r="X30" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>160</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>840</v>
+      </c>
+      <c r="AB30" t="n">
         <v>11</v>
       </c>
-      <c r="Y30" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>190</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>6.6</v>
-      </c>
       <c r="AC30" t="n">
-        <v>8</v>
+        <v>16.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="AE30" t="n">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="AF30" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG30" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH30" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AI30" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>19.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK30" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AL30" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="AM30" t="n">
-        <v>580</v>
+        <v>180</v>
       </c>
       <c r="AN30" t="n">
-        <v>16.5</v>
+        <v>3.8</v>
       </c>
       <c r="AO30" t="n">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31">
@@ -4568,132 +4568,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>EC Vitoria Salvador</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.93</v>
+        <v>2.78</v>
       </c>
       <c r="G31" t="n">
-        <v>1.95</v>
+        <v>2.82</v>
       </c>
       <c r="H31" t="n">
-        <v>4.8</v>
+        <v>2.84</v>
       </c>
       <c r="I31" t="n">
-        <v>4.9</v>
+        <v>2.88</v>
       </c>
       <c r="J31" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="K31" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="L31" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="M31" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N31" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="O31" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="P31" t="n">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="R31" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="T31" t="n">
         <v>1.93</v>
       </c>
       <c r="U31" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="V31" t="n">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="W31" t="n">
-        <v>2.04</v>
+        <v>1.54</v>
       </c>
       <c r="X31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y31" t="n">
-        <v>15</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z31" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AA31" t="n">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="AB31" t="n">
-        <v>8.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AC31" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>18.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="AF31" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AG31" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AJ31" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="AK31" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AL31" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AM31" t="n">
         <v>130</v>
       </c>
       <c r="AN31" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="AO31" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,132 +4703,132 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Deportes Concepcion</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Cobreloa Calama</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>5.5</v>
+        <v>2.08</v>
       </c>
       <c r="G32" t="n">
-        <v>5.7</v>
+        <v>2.16</v>
       </c>
       <c r="H32" t="n">
-        <v>1.73</v>
+        <v>3.95</v>
       </c>
       <c r="I32" t="n">
-        <v>1.75</v>
+        <v>4.2</v>
       </c>
       <c r="J32" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="K32" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="L32" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="M32" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N32" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="O32" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P32" t="n">
-        <v>1.96</v>
+        <v>1.83</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="R32" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="S32" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="T32" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="U32" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V32" t="n">
-        <v>2.32</v>
+        <v>1.31</v>
       </c>
       <c r="W32" t="n">
-        <v>1.21</v>
+        <v>1.86</v>
       </c>
       <c r="X32" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Y32" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC32" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="Z32" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AD32" t="n">
-        <v>9.6</v>
+        <v>17</v>
       </c>
       <c r="AE32" t="n">
-        <v>18.5</v>
+        <v>55</v>
       </c>
       <c r="AF32" t="n">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="AG32" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI32" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="AJ32" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="AK32" t="n">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="AL32" t="n">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="AM32" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="AO32" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,132 +4838,132 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:20:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Deportes Concepcion</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Cobreloa Calama</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.06</v>
+        <v>2.56</v>
       </c>
       <c r="G33" t="n">
-        <v>2.18</v>
+        <v>2.7</v>
       </c>
       <c r="H33" t="n">
-        <v>3.95</v>
+        <v>3.1</v>
       </c>
       <c r="I33" t="n">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="J33" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K33" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="L33" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="M33" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N33" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S33" t="n">
         <v>3.4</v>
       </c>
-      <c r="O33" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S33" t="n">
-        <v>3.8</v>
-      </c>
       <c r="T33" t="n">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="U33" t="n">
-        <v>1.97</v>
+        <v>2.2</v>
       </c>
       <c r="V33" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="W33" t="n">
-        <v>1.84</v>
+        <v>1.58</v>
       </c>
       <c r="X33" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="AA33" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB33" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AC33" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AD33" t="n">
-        <v>17.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF33" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AG33" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ33" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AK33" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AL33" t="n">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN33" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,126 +4973,126 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Jorge Wilstermann</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>CDT Real Oruro</t>
         </is>
       </c>
       <c r="F34" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K34" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N34" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O34" t="n">
         <v>1.23</v>
       </c>
-      <c r="G34" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="H34" t="n">
+      <c r="P34" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X34" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y34" t="n">
         <v>14.5</v>
       </c>
-      <c r="I34" t="n">
+      <c r="Z34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB34" t="n">
         <v>16</v>
       </c>
-      <c r="J34" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K34" t="n">
-        <v>8</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N34" t="n">
-        <v>6</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P34" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S34" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="T34" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W34" t="n">
-        <v>5</v>
-      </c>
-      <c r="X34" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>170</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>780</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AC34" t="n">
-        <v>16.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD34" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="AE34" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AF34" t="n">
-        <v>8</v>
+        <v>970</v>
       </c>
       <c r="AG34" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AH34" t="n">
-        <v>38</v>
+        <v>18.5</v>
       </c>
       <c r="AI34" t="n">
         <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>9.199999999999999</v>
+        <v>50</v>
       </c>
       <c r="AK34" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AL34" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM34" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="AO34" t="n">
-        <v>330</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="35">
@@ -5108,132 +5108,132 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>SE Palmeiras</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.84</v>
+        <v>3.35</v>
       </c>
       <c r="G35" t="n">
-        <v>2.88</v>
+        <v>3.55</v>
       </c>
       <c r="H35" t="n">
-        <v>2.8</v>
+        <v>2.46</v>
       </c>
       <c r="I35" t="n">
-        <v>2.84</v>
+        <v>2.5</v>
       </c>
       <c r="J35" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K35" t="n">
         <v>3.3</v>
       </c>
-      <c r="K35" t="n">
-        <v>3.4</v>
-      </c>
       <c r="L35" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="M35" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N35" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="O35" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="P35" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="R35" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S35" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="T35" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="U35" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="V35" t="n">
-        <v>1.54</v>
+        <v>1.66</v>
       </c>
       <c r="W35" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="X35" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB35" t="n">
         <v>11</v>
       </c>
-      <c r="Y35" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA35" t="n">
+      <c r="AC35" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK35" t="n">
         <v>46</v>
       </c>
-      <c r="AB35" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>36</v>
-      </c>
       <c r="AL35" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN35" t="n">
         <v>55</v>
       </c>
-      <c r="AM35" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>36</v>
-      </c>
       <c r="AO35" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,132 +5243,132 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>20:20:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Ceara SC Fortaleza</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.56</v>
+        <v>1.32</v>
       </c>
       <c r="G36" t="n">
-        <v>2.66</v>
+        <v>1.33</v>
       </c>
       <c r="H36" t="n">
-        <v>3.1</v>
+        <v>12.5</v>
       </c>
       <c r="I36" t="n">
-        <v>3.25</v>
+        <v>13</v>
       </c>
       <c r="J36" t="n">
-        <v>3.3</v>
+        <v>5.9</v>
       </c>
       <c r="K36" t="n">
-        <v>3.35</v>
+        <v>6.2</v>
       </c>
       <c r="L36" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="M36" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N36" t="n">
-        <v>3.85</v>
+        <v>4.9</v>
       </c>
       <c r="O36" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="P36" t="n">
-        <v>1.97</v>
+        <v>2.36</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="R36" t="n">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
       <c r="S36" t="n">
-        <v>3.45</v>
+        <v>2.8</v>
       </c>
       <c r="T36" t="n">
-        <v>1.04</v>
+        <v>2.2</v>
       </c>
       <c r="U36" t="n">
-        <v>2.22</v>
+        <v>1.78</v>
       </c>
       <c r="V36" t="n">
-        <v>1.44</v>
+        <v>1.08</v>
       </c>
       <c r="W36" t="n">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="X36" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Y36" t="n">
-        <v>13.5</v>
+        <v>40</v>
       </c>
       <c r="Z36" t="n">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="AA36" t="n">
-        <v>230</v>
+        <v>530</v>
       </c>
       <c r="AB36" t="n">
-        <v>12</v>
+        <v>8.6</v>
       </c>
       <c r="AC36" t="n">
-        <v>7.8</v>
+        <v>13</v>
       </c>
       <c r="AD36" t="n">
-        <v>13.5</v>
+        <v>46</v>
       </c>
       <c r="AE36" t="n">
-        <v>34</v>
+        <v>240</v>
       </c>
       <c r="AF36" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH36" t="n">
         <v>32</v>
       </c>
-      <c r="AG36" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AI36" t="n">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="AJ36" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="AK36" t="n">
-        <v>110</v>
+        <v>14.5</v>
       </c>
       <c r="AL36" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM36" t="n">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="AN36" t="n">
-        <v>24</v>
+        <v>5.1</v>
       </c>
       <c r="AO36" t="n">
-        <v>32</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,132 +5378,132 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Jorge Wilstermann</t>
+          <t>Cruz Azul</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>CDT Real Oruro</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.78</v>
+        <v>2.52</v>
       </c>
       <c r="G37" t="n">
-        <v>2.88</v>
+        <v>2.58</v>
       </c>
       <c r="H37" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="I37" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="J37" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="K37" t="n">
-        <v>4.1</v>
+        <v>3.35</v>
       </c>
       <c r="L37" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="M37" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="N37" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="O37" t="n">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
       <c r="P37" t="n">
-        <v>2.34</v>
+        <v>1.84</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.71</v>
+        <v>2.12</v>
       </c>
       <c r="R37" t="n">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="S37" t="n">
-        <v>2.8</v>
+        <v>3.85</v>
       </c>
       <c r="T37" t="n">
-        <v>1.59</v>
+        <v>1.81</v>
       </c>
       <c r="U37" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="V37" t="n">
-        <v>1.62</v>
+        <v>1.43</v>
       </c>
       <c r="W37" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="X37" t="n">
-        <v>22</v>
+        <v>12.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="Z37" t="n">
         <v>21</v>
       </c>
       <c r="AA37" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB37" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF37" t="n">
         <v>16</v>
       </c>
-      <c r="AC37" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>970</v>
-      </c>
       <c r="AG37" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AH37" t="n">
         <v>18.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ37" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AK37" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL37" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM37" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN37" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AO37" t="n">
-        <v>18.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,132 +5513,132 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Atletico Bucaramanga</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Ceara SC Fortaleza</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.33</v>
+        <v>2.2</v>
       </c>
       <c r="G38" t="n">
-        <v>1.34</v>
+        <v>2.26</v>
       </c>
       <c r="H38" t="n">
-        <v>11.5</v>
+        <v>4</v>
       </c>
       <c r="I38" t="n">
-        <v>12.5</v>
+        <v>4.5</v>
       </c>
       <c r="J38" t="n">
-        <v>5.8</v>
+        <v>3.1</v>
       </c>
       <c r="K38" t="n">
-        <v>5.9</v>
+        <v>3.3</v>
       </c>
       <c r="L38" t="n">
-        <v>1.33</v>
+        <v>1.54</v>
       </c>
       <c r="M38" t="n">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="N38" t="n">
-        <v>4.8</v>
+        <v>2.78</v>
       </c>
       <c r="O38" t="n">
-        <v>1.25</v>
+        <v>1.52</v>
       </c>
       <c r="P38" t="n">
-        <v>2.32</v>
+        <v>1.59</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.72</v>
+        <v>2.54</v>
       </c>
       <c r="R38" t="n">
-        <v>1.51</v>
+        <v>1.21</v>
       </c>
       <c r="S38" t="n">
-        <v>2.86</v>
+        <v>5.1</v>
       </c>
       <c r="T38" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="U38" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W38" t="n">
         <v>1.79</v>
       </c>
-      <c r="V38" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W38" t="n">
-        <v>3.9</v>
-      </c>
       <c r="X38" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD38" t="n">
         <v>20</v>
       </c>
-      <c r="Y38" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>130</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>46</v>
-      </c>
       <c r="AE38" t="n">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="AF38" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AG38" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH38" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK38" t="n">
         <v>32</v>
       </c>
-      <c r="AI38" t="n">
-        <v>170</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AL38" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AM38" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="AN38" t="n">
-        <v>5.4</v>
+        <v>1000</v>
       </c>
       <c r="AO38" t="n">
-        <v>270</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,530 +5648,125 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Olancho</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>SE Palmeiras</t>
+          <t>CD Olimpia</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3.3</v>
+        <v>2.68</v>
       </c>
       <c r="G39" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="J39" t="n">
         <v>3.4</v>
       </c>
-      <c r="H39" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3.25</v>
-      </c>
       <c r="K39" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="L39" t="n">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="M39" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="N39" t="n">
-        <v>3.05</v>
+        <v>4.2</v>
       </c>
       <c r="O39" t="n">
-        <v>1.46</v>
+        <v>1.23</v>
       </c>
       <c r="P39" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q39" t="n">
         <v>1.69</v>
       </c>
-      <c r="Q39" t="n">
-        <v>2.4</v>
-      </c>
       <c r="R39" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="S39" t="n">
-        <v>4.7</v>
+        <v>2.78</v>
       </c>
       <c r="T39" t="n">
-        <v>2</v>
+        <v>1.58</v>
       </c>
       <c r="U39" t="n">
-        <v>1.93</v>
+        <v>2.28</v>
       </c>
       <c r="V39" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="W39" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="X39" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Y39" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="Z39" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AA39" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AB39" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC39" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AD39" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE39" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF39" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG39" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH39" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI39" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ39" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK39" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AL39" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM39" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN39" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO39" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Cruz Azul</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Tigres</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="G40" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H40" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I40" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K40" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N40" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P40" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S40" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="U40" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="W40" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="X40" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>30</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Atletico Bucaramanga</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Tolima</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="G41" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="H41" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I41" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3</v>
-      </c>
-      <c r="K41" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N41" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P41" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S41" t="n">
-        <v>5</v>
-      </c>
-      <c r="T41" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U41" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V41" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W41" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="X41" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Olancho</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>CD Olimpia</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="G42" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="J42" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K42" t="n">
-        <v>4</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N42" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P42" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S42" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="T42" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="U42" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="V42" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W42" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="X42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO42" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO39"/>
+  <dimension ref="A1:AO30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,60 +653,60 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Casertana</t>
+          <t>Zeljeznicar</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Atalanta B</t>
+          <t>Siroki Brijeg</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="G2" t="n">
-        <v>1.03</v>
+        <v>2.02</v>
       </c>
       <c r="H2" t="n">
-        <v>200</v>
+        <v>2.52</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="J2" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="N2" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="O2" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="S2" t="n">
         <v>1.08</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>34</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="S2" t="n">
-        <v>50</v>
       </c>
       <c r="T2" t="n">
         <v>1.01</v>
@@ -721,7 +721,7 @@
         <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -736,10 +736,10 @@
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -748,10 +748,10 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Kazincbarcika</t>
+          <t>Blooming Santa Cruz</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Gyori</t>
+          <t>Academia de Balompie Bolivi</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>60</v>
+        <v>1.01</v>
       </c>
       <c r="G3" t="n">
-        <v>80</v>
+        <v>1.01</v>
       </c>
       <c r="H3" t="n">
-        <v>1.14</v>
+        <v>36</v>
       </c>
       <c r="I3" t="n">
-        <v>1.16</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -838,82 +838,82 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V3" t="n">
-        <v>6.8</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
+        <v>100</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN3" t="n">
         <v>1.01</v>
       </c>
-      <c r="X3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO3" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Slovakian Super League</t>
+          <t>Austrian Bundesliga</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,36 +923,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ruzomberok</t>
+          <t>WSG Wattens</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="G4" t="n">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="H4" t="n">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="I4" t="n">
-        <v>12.5</v>
+        <v>5.7</v>
       </c>
       <c r="J4" t="n">
-        <v>2.74</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
-        <v>2.96</v>
+        <v>3.5</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -961,34 +961,34 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>3.55</v>
+        <v>1.84</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.36</v>
+        <v>2.14</v>
       </c>
       <c r="R4" t="n">
-        <v>1.46</v>
+        <v>1.25</v>
       </c>
       <c r="S4" t="n">
-        <v>3.05</v>
+        <v>4.7</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="V4" t="n">
-        <v>1.09</v>
+        <v>1.21</v>
       </c>
       <c r="W4" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1003,52 +1003,52 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="AC4" t="n">
-        <v>3.75</v>
+        <v>4.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>15.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE4" t="n">
-        <v>170</v>
+        <v>42</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG4" t="n">
-        <v>3.35</v>
+        <v>8.6</v>
       </c>
       <c r="AH4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI4" t="n">
-        <v>990</v>
+        <v>70</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK4" t="n">
-        <v>7.8</v>
+        <v>36</v>
       </c>
       <c r="AL4" t="n">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AM4" t="n">
-        <v>450</v>
+        <v>260</v>
       </c>
       <c r="AN4" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Slovakian Super League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,36 +1058,36 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Podbrezova</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Spartak Trnava</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G5" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="H5" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="I5" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="J5" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="K5" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1096,94 +1096,94 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S5" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="T5" t="n">
         <v>2.24</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="S5" t="n">
+      <c r="U5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V5" t="n">
+        <v>4</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE5" t="n">
         <v>23</v>
       </c>
-      <c r="T5" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="X5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>100</v>
-      </c>
       <c r="AF5" t="n">
         <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH5" t="n">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>310</v>
+        <v>200</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN5" t="n">
         <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>260</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,75 +1193,75 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Zeljeznicar</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Siroki Brijeg</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.53</v>
+        <v>2.78</v>
       </c>
       <c r="G6" t="n">
-        <v>2.02</v>
+        <v>2.8</v>
       </c>
       <c r="H6" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>3.35</v>
       </c>
       <c r="J6" t="n">
-        <v>2.64</v>
+        <v>2.92</v>
       </c>
       <c r="K6" t="n">
-        <v>9</v>
+        <v>2.96</v>
       </c>
       <c r="L6" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1.14</v>
+        <v>1.42</v>
       </c>
       <c r="W6" t="n">
-        <v>1.98</v>
+        <v>1.56</v>
       </c>
       <c r="X6" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
         <v>1000</v>
@@ -1276,10 +1276,10 @@
         <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
@@ -1288,13 +1288,13 @@
         <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>990</v>
+        <v>5.9</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
@@ -1303,22 +1303,22 @@
         <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AN6" t="n">
-        <v>21</v>
+        <v>5.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Maccabi Netanya</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FC Ashdod</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.09</v>
+        <v>4.4</v>
       </c>
       <c r="G7" t="n">
-        <v>1.11</v>
+        <v>4.5</v>
       </c>
       <c r="H7" t="n">
-        <v>48</v>
+        <v>2.58</v>
       </c>
       <c r="I7" t="n">
-        <v>60</v>
+        <v>2.6</v>
       </c>
       <c r="J7" t="n">
-        <v>13</v>
+        <v>2.58</v>
       </c>
       <c r="K7" t="n">
-        <v>15</v>
+        <v>2.6</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="P7" t="n">
-        <v>6.2</v>
+        <v>1.21</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.18</v>
+        <v>5.6</v>
       </c>
       <c r="R7" t="n">
-        <v>2.14</v>
+        <v>1.06</v>
       </c>
       <c r="S7" t="n">
-        <v>1.82</v>
+        <v>17</v>
       </c>
       <c r="T7" t="n">
-        <v>1.76</v>
+        <v>3.6</v>
       </c>
       <c r="U7" t="n">
-        <v>2.12</v>
+        <v>1.36</v>
       </c>
       <c r="V7" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="W7" t="n">
-        <v>10.5</v>
+        <v>1.29</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF7" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="AG7" t="n">
-        <v>8.4</v>
+        <v>30</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="AI7" t="n">
-        <v>95</v>
+        <v>340</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6.2</v>
+        <v>180</v>
       </c>
       <c r="AK7" t="n">
-        <v>990</v>
+        <v>210</v>
       </c>
       <c r="AL7" t="n">
-        <v>25</v>
+        <v>530</v>
       </c>
       <c r="AM7" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.95</v>
+        <v>440</v>
       </c>
       <c r="AO7" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,36 +1463,36 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SSD Dolomiti Bellunesi</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.54</v>
+        <v>1.18</v>
       </c>
       <c r="G8" t="n">
-        <v>1.65</v>
+        <v>1.19</v>
       </c>
       <c r="H8" t="n">
-        <v>8.6</v>
+        <v>36</v>
       </c>
       <c r="I8" t="n">
-        <v>10.5</v>
+        <v>38</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>7.6</v>
       </c>
       <c r="K8" t="n">
-        <v>3.95</v>
+        <v>8</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1501,34 +1501,34 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="P8" t="n">
-        <v>1.53</v>
+        <v>1.74</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.56</v>
+        <v>2.34</v>
       </c>
       <c r="R8" t="n">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="S8" t="n">
-        <v>7.2</v>
+        <v>5.5</v>
       </c>
       <c r="T8" t="n">
-        <v>1.78</v>
+        <v>2.84</v>
       </c>
       <c r="U8" t="n">
-        <v>2.08</v>
+        <v>1.5</v>
       </c>
       <c r="V8" t="n">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="W8" t="n">
-        <v>2.52</v>
+        <v>6.4</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1543,52 +1543,52 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF8" t="n">
         <v>4</v>
       </c>
-      <c r="AC8" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>7.6</v>
-      </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="AI8" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="AJ8" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="AK8" t="n">
-        <v>44</v>
+        <v>19.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AM8" t="n">
-        <v>510</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="AO8" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Ironi Tiberias</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>150</v>
+        <v>3.55</v>
       </c>
       <c r="G9" t="n">
-        <v>550</v>
+        <v>3.65</v>
       </c>
       <c r="H9" t="n">
-        <v>1.01</v>
+        <v>2.86</v>
       </c>
       <c r="I9" t="n">
-        <v>1.02</v>
+        <v>2.92</v>
       </c>
       <c r="J9" t="n">
-        <v>70</v>
+        <v>2.62</v>
       </c>
       <c r="K9" t="n">
-        <v>130</v>
+        <v>2.66</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="R9" t="n">
-        <v>11</v>
+        <v>1.06</v>
       </c>
       <c r="S9" t="n">
-        <v>1.09</v>
+        <v>15.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.93</v>
+        <v>3.35</v>
       </c>
       <c r="U9" t="n">
-        <v>1.98</v>
+        <v>1.38</v>
       </c>
       <c r="V9" t="n">
-        <v>50</v>
+        <v>1.52</v>
       </c>
       <c r="W9" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE9" t="n">
-        <v>16.5</v>
+        <v>110</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AI9" t="n">
-        <v>46</v>
+        <v>320</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="AM9" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AO9" t="n">
-        <v>1.28</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,36 +1733,36 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>15</v>
+        <v>3.95</v>
       </c>
       <c r="G10" t="n">
-        <v>15.5</v>
+        <v>4.1</v>
       </c>
       <c r="H10" t="n">
-        <v>1.3</v>
+        <v>2.52</v>
       </c>
       <c r="I10" t="n">
-        <v>1.31</v>
+        <v>2.54</v>
       </c>
       <c r="J10" t="n">
-        <v>5.8</v>
+        <v>2.78</v>
       </c>
       <c r="K10" t="n">
-        <v>5.9</v>
+        <v>2.82</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1771,94 +1771,94 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.66</v>
+        <v>5.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.59</v>
+        <v>1.23</v>
       </c>
       <c r="R10" t="n">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="S10" t="n">
-        <v>2.78</v>
+        <v>2.04</v>
       </c>
       <c r="T10" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>4.2</v>
+        <v>1.64</v>
       </c>
       <c r="W10" t="n">
-        <v>1.06</v>
+        <v>1.33</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
         <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>10.5</v>
+        <v>5.4</v>
       </c>
       <c r="AD10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG10" t="n">
         <v>7.6</v>
       </c>
-      <c r="AE10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>29</v>
-      </c>
       <c r="AH10" t="n">
-        <v>18.5</v>
+        <v>7.4</v>
       </c>
       <c r="AI10" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="n">
         <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="AL10" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="AM10" t="n">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="AN10" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>7.6</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.43</v>
+        <v>1.56</v>
       </c>
       <c r="G11" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="H11" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="I11" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="J11" t="n">
-        <v>4.8</v>
+        <v>3.55</v>
       </c>
       <c r="K11" t="n">
-        <v>5.1</v>
+        <v>3.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.21</v>
       </c>
       <c r="N11" t="n">
-        <v>3.85</v>
+        <v>1.98</v>
       </c>
       <c r="O11" t="n">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="P11" t="n">
-        <v>1.98</v>
+        <v>1.29</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.96</v>
+        <v>4.3</v>
       </c>
       <c r="R11" t="n">
-        <v>1.35</v>
+        <v>1.09</v>
       </c>
       <c r="S11" t="n">
-        <v>3.65</v>
+        <v>11.5</v>
       </c>
       <c r="T11" t="n">
-        <v>2.28</v>
+        <v>4.4</v>
       </c>
       <c r="U11" t="n">
-        <v>1.7</v>
+        <v>1.26</v>
       </c>
       <c r="V11" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="W11" t="n">
-        <v>3.15</v>
+        <v>2.72</v>
       </c>
       <c r="X11" t="n">
-        <v>16</v>
+        <v>5.8</v>
       </c>
       <c r="Y11" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="Z11" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="AA11" t="n">
-        <v>360</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>7.4</v>
+        <v>3.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD11" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="AE11" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AH11" t="n">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="AI11" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="AL11" t="n">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="AM11" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>8.199999999999999</v>
+        <v>27</v>
       </c>
       <c r="AO11" t="n">
-        <v>360</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Kahraba Ismailia</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pyramids</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="F12" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="S12" t="n">
+        <v>24</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>210</v>
+      </c>
+      <c r="AF12" t="n">
         <v>15.5</v>
       </c>
-      <c r="G12" t="n">
-        <v>17</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="S12" t="n">
-        <v>7</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="V12" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="X12" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>240</v>
-      </c>
       <c r="AG12" t="n">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="AH12" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AI12" t="n">
-        <v>200</v>
+        <v>590</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AO12" t="n">
-        <v>15</v>
+        <v>530</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Blooming Santa Cruz</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Academia de Balompie Bolivi</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="G13" t="n">
-        <v>1.23</v>
+        <v>1.09</v>
       </c>
       <c r="H13" t="n">
-        <v>13.5</v>
+        <v>75</v>
       </c>
       <c r="I13" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="J13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>15</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
         <v>8</v>
       </c>
-      <c r="K13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N13" t="n">
-        <v>10</v>
-      </c>
       <c r="O13" t="n">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="P13" t="n">
-        <v>4.1</v>
+        <v>2.56</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.28</v>
+        <v>1.62</v>
       </c>
       <c r="R13" t="n">
-        <v>2.28</v>
+        <v>1.49</v>
       </c>
       <c r="S13" t="n">
-        <v>1.74</v>
+        <v>2.96</v>
       </c>
       <c r="T13" t="n">
-        <v>1.73</v>
+        <v>3.05</v>
       </c>
       <c r="U13" t="n">
-        <v>2.12</v>
+        <v>1.44</v>
       </c>
       <c r="V13" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="W13" t="n">
-        <v>5.3</v>
+        <v>12</v>
       </c>
       <c r="X13" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>540</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>27</v>
+        <v>8.4</v>
       </c>
       <c r="AC13" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AD13" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="AE13" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>13</v>
+        <v>4.8</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH13" t="n">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AI13" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>23</v>
+        <v>5.6</v>
       </c>
       <c r="AK13" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="AM13" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Austrian Bundesliga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,126 +2273,126 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>WSG Wattens</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="G14" t="n">
-        <v>1.75</v>
+        <v>1.58</v>
       </c>
       <c r="H14" t="n">
-        <v>5.5</v>
+        <v>6.8</v>
       </c>
       <c r="I14" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="J14" t="n">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="K14" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="L14" t="n">
-        <v>1.39</v>
+        <v>1.62</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O14" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="P14" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="R14" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="S14" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="T14" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="U14" t="n">
-        <v>2.06</v>
+        <v>1.8</v>
       </c>
       <c r="V14" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="W14" t="n">
-        <v>2.34</v>
+        <v>2.78</v>
       </c>
       <c r="X14" t="n">
         <v>16</v>
       </c>
       <c r="Y14" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="Z14" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AA14" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="AB14" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN14" t="n">
         <v>8.6</v>
       </c>
-      <c r="AC14" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>11</v>
-      </c>
       <c r="AO14" t="n">
-        <v>95</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>5.6</v>
+        <v>2.06</v>
       </c>
       <c r="G15" t="n">
-        <v>5.7</v>
+        <v>2.08</v>
       </c>
       <c r="H15" t="n">
-        <v>1.76</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>1.77</v>
+        <v>4.1</v>
       </c>
       <c r="J15" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="K15" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="L15" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>3.2</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>1.43</v>
+        <v>1.1</v>
       </c>
       <c r="P15" t="n">
-        <v>1.76</v>
+        <v>2.84</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.26</v>
+        <v>1.52</v>
       </c>
       <c r="R15" t="n">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="S15" t="n">
-        <v>4.3</v>
+        <v>2.7</v>
       </c>
       <c r="T15" t="n">
-        <v>2.16</v>
+        <v>1.31</v>
       </c>
       <c r="U15" t="n">
-        <v>1.83</v>
+        <v>4.1</v>
       </c>
       <c r="V15" t="n">
-        <v>2.28</v>
+        <v>1.3</v>
       </c>
       <c r="W15" t="n">
-        <v>1.21</v>
+        <v>1.94</v>
       </c>
       <c r="X15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF15" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y15" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>40</v>
-      </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="AH15" t="n">
-        <v>24</v>
+        <v>11.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="AJ15" t="n">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="AK15" t="n">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="AL15" t="n">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="AM15" t="n">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="AN15" t="n">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="AO15" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Genesis Huracan</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Juticalpa</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.36</v>
+        <v>1.04</v>
       </c>
       <c r="G16" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="H16" t="n">
-        <v>3.3</v>
+        <v>1.04</v>
       </c>
       <c r="I16" t="n">
-        <v>3.4</v>
+        <v>970</v>
       </c>
       <c r="J16" t="n">
-        <v>3.5</v>
+        <v>1.01</v>
       </c>
       <c r="K16" t="n">
-        <v>3.6</v>
+        <v>970</v>
       </c>
       <c r="L16" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>4.2</v>
+        <v>1.02</v>
       </c>
       <c r="O16" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="P16" t="n">
-        <v>2.08</v>
+        <v>1.24</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="R16" t="n">
-        <v>1.44</v>
+        <v>1.18</v>
       </c>
       <c r="S16" t="n">
-        <v>3.2</v>
+        <v>1.01</v>
       </c>
       <c r="T16" t="n">
-        <v>1.7</v>
+        <v>1.04</v>
       </c>
       <c r="U16" t="n">
-        <v>2.34</v>
+        <v>1.04</v>
       </c>
       <c r="V16" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="W16" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="X16" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.8</v>
+        <v>42</v>
       </c>
       <c r="AD16" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>32</v>
+        <v>180</v>
       </c>
       <c r="AK16" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AO16" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Real Tomayapo</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Oriente Petrolero</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.3</v>
+        <v>2.48</v>
       </c>
       <c r="G17" t="n">
-        <v>3.35</v>
+        <v>2.62</v>
       </c>
       <c r="H17" t="n">
-        <v>2.46</v>
+        <v>2.76</v>
       </c>
       <c r="I17" t="n">
-        <v>2.5</v>
+        <v>2.96</v>
       </c>
       <c r="J17" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="K17" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="L17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N17" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T17" t="n">
         <v>1.48</v>
       </c>
-      <c r="M17" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.94</v>
-      </c>
       <c r="U17" t="n">
-        <v>2.02</v>
+        <v>2.8</v>
       </c>
       <c r="V17" t="n">
-        <v>1.68</v>
+        <v>1.51</v>
       </c>
       <c r="W17" t="n">
-        <v>1.41</v>
+        <v>1.62</v>
       </c>
       <c r="X17" t="n">
-        <v>11.5</v>
+        <v>48</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.800000000000001</v>
+        <v>32</v>
       </c>
       <c r="Z17" t="n">
-        <v>13.5</v>
+        <v>44</v>
       </c>
       <c r="AA17" t="n">
-        <v>32</v>
+        <v>280</v>
       </c>
       <c r="AB17" t="n">
-        <v>11.5</v>
+        <v>26</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.4</v>
+        <v>12.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="AE17" t="n">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="AF17" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="AG17" t="n">
-        <v>14.5</v>
+        <v>20</v>
       </c>
       <c r="AH17" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI17" t="n">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="AJ17" t="n">
-        <v>60</v>
+        <v>280</v>
       </c>
       <c r="AK17" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>330</v>
+      </c>
+      <c r="AN17" t="n">
         <v>42</v>
       </c>
-      <c r="AL17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>46</v>
-      </c>
       <c r="AO17" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Fortaleza EC</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.46</v>
+        <v>1.93</v>
       </c>
       <c r="G18" t="n">
-        <v>1.47</v>
+        <v>1.95</v>
       </c>
       <c r="H18" t="n">
-        <v>8.6</v>
+        <v>5.1</v>
       </c>
       <c r="I18" t="n">
-        <v>9</v>
+        <v>5.2</v>
       </c>
       <c r="J18" t="n">
-        <v>4.9</v>
+        <v>3.4</v>
       </c>
       <c r="K18" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.41</v>
+        <v>1.54</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="N18" t="n">
-        <v>3.95</v>
+        <v>3.05</v>
       </c>
       <c r="O18" t="n">
-        <v>1.32</v>
+        <v>1.48</v>
       </c>
       <c r="P18" t="n">
-        <v>2</v>
+        <v>1.66</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.95</v>
+        <v>2.48</v>
       </c>
       <c r="R18" t="n">
-        <v>1.39</v>
+        <v>1.24</v>
       </c>
       <c r="S18" t="n">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="T18" t="n">
         <v>2.14</v>
       </c>
       <c r="U18" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="V18" t="n">
-        <v>1.12</v>
+        <v>1.23</v>
       </c>
       <c r="W18" t="n">
-        <v>3.15</v>
+        <v>2.06</v>
       </c>
       <c r="X18" t="n">
-        <v>17.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH18" t="n">
         <v>23</v>
       </c>
-      <c r="Z18" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>330</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>28</v>
-      </c>
       <c r="AI18" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ18" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AK18" t="n">
-        <v>16.5</v>
+        <v>24</v>
       </c>
       <c r="AL18" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AM18" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AN18" t="n">
-        <v>8</v>
+        <v>18.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>EC Vitoria Salvador</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.32</v>
+        <v>1.96</v>
       </c>
       <c r="G19" t="n">
-        <v>2.34</v>
+        <v>1.97</v>
       </c>
       <c r="H19" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K19" t="n">
         <v>3.6</v>
       </c>
-      <c r="I19" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.45</v>
-      </c>
       <c r="L19" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M19" t="n">
         <v>1.09</v>
       </c>
       <c r="N19" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O19" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P19" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R19" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S19" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T19" t="n">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="U19" t="n">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="V19" t="n">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="W19" t="n">
-        <v>1.74</v>
+        <v>2.02</v>
       </c>
       <c r="X19" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y19" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Z19" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AA19" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE19" t="n">
         <v>70</v>
       </c>
-      <c r="AB19" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>46</v>
-      </c>
       <c r="AF19" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AG19" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AI19" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AJ19" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AL19" t="n">
         <v>44</v>
       </c>
       <c r="AM19" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AN19" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AO19" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.14</v>
+        <v>6</v>
       </c>
       <c r="G20" t="n">
-        <v>1.15</v>
+        <v>6.2</v>
       </c>
       <c r="H20" t="n">
-        <v>23</v>
+        <v>1.69</v>
       </c>
       <c r="I20" t="n">
-        <v>28</v>
+        <v>1.71</v>
       </c>
       <c r="J20" t="n">
-        <v>11.5</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
-        <v>12</v>
+        <v>4.1</v>
       </c>
       <c r="L20" t="n">
-        <v>1.21</v>
+        <v>1.41</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>8.6</v>
+        <v>3.95</v>
       </c>
       <c r="O20" t="n">
-        <v>1.12</v>
+        <v>1.32</v>
       </c>
       <c r="P20" t="n">
-        <v>3.45</v>
+        <v>2</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.38</v>
+        <v>1.97</v>
       </c>
       <c r="R20" t="n">
-        <v>1.99</v>
+        <v>1.37</v>
       </c>
       <c r="S20" t="n">
-        <v>1.98</v>
+        <v>3.5</v>
       </c>
       <c r="T20" t="n">
-        <v>2.28</v>
+        <v>1.93</v>
       </c>
       <c r="U20" t="n">
-        <v>1.74</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
-        <v>1.03</v>
+        <v>2.4</v>
       </c>
       <c r="W20" t="n">
-        <v>7.6</v>
+        <v>1.19</v>
       </c>
       <c r="X20" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="Y20" t="n">
-        <v>990</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z20" t="n">
-        <v>300</v>
+        <v>9.6</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AB20" t="n">
-        <v>13.5</v>
+        <v>19.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="AD20" t="n">
-        <v>980</v>
+        <v>9.6</v>
       </c>
       <c r="AE20" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
       <c r="AF20" t="n">
-        <v>8.4</v>
+        <v>46</v>
       </c>
       <c r="AG20" t="n">
-        <v>13.5</v>
+        <v>22</v>
       </c>
       <c r="AH20" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ20" t="n">
-        <v>8.199999999999999</v>
+        <v>160</v>
       </c>
       <c r="AK20" t="n">
-        <v>13.5</v>
+        <v>85</v>
       </c>
       <c r="AL20" t="n">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN20" t="n">
-        <v>2.82</v>
+        <v>130</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.95</v>
+        <v>1.23</v>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>1.25</v>
       </c>
       <c r="H21" t="n">
-        <v>2.06</v>
+        <v>15</v>
       </c>
       <c r="I21" t="n">
-        <v>2.08</v>
+        <v>16.5</v>
       </c>
       <c r="J21" t="n">
-        <v>3.7</v>
+        <v>7.4</v>
       </c>
       <c r="K21" t="n">
-        <v>3.75</v>
+        <v>7.8</v>
       </c>
       <c r="L21" t="n">
-        <v>1.39</v>
+        <v>1.27</v>
       </c>
       <c r="M21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N21" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V21" t="n">
         <v>1.06</v>
       </c>
-      <c r="N21" t="n">
-        <v>4</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.92</v>
-      </c>
       <c r="W21" t="n">
-        <v>1.33</v>
+        <v>5</v>
       </c>
       <c r="X21" t="n">
-        <v>15.5</v>
+        <v>36</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.800000000000001</v>
+        <v>60</v>
       </c>
       <c r="Z21" t="n">
-        <v>12.5</v>
+        <v>170</v>
       </c>
       <c r="AA21" t="n">
-        <v>24</v>
+        <v>700</v>
       </c>
       <c r="AB21" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.199999999999999</v>
+        <v>16.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>10.5</v>
+        <v>55</v>
       </c>
       <c r="AE21" t="n">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="AF21" t="n">
-        <v>28</v>
+        <v>8.6</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AH21" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AI21" t="n">
+        <v>180</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL21" t="n">
         <v>34</v>
       </c>
-      <c r="AJ21" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>55</v>
-      </c>
       <c r="AM21" t="n">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="AN21" t="n">
-        <v>48</v>
+        <v>3.6</v>
       </c>
       <c r="AO21" t="n">
-        <v>15</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F22" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N22" t="n">
         <v>3.2</v>
       </c>
-      <c r="G22" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N22" t="n">
-        <v>3.95</v>
-      </c>
       <c r="O22" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="P22" t="n">
-        <v>1.98</v>
+        <v>1.74</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.99</v>
+        <v>2.3</v>
       </c>
       <c r="R22" t="n">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="S22" t="n">
-        <v>3.45</v>
+        <v>4.5</v>
       </c>
       <c r="T22" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="U22" t="n">
-        <v>2.28</v>
+        <v>2</v>
       </c>
       <c r="V22" t="n">
-        <v>1.67</v>
+        <v>1.52</v>
       </c>
       <c r="W22" t="n">
-        <v>1.43</v>
+        <v>1.54</v>
       </c>
       <c r="X22" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AB22" t="n">
-        <v>13</v>
+        <v>9.6</v>
       </c>
       <c r="AC22" t="n">
         <v>7.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AF22" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AG22" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH22" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AI22" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AJ22" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AK22" t="n">
         <v>36</v>
       </c>
       <c r="AL22" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AM22" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="AN22" t="n">
         <v>34</v>
       </c>
       <c r="AO22" t="n">
-        <v>19.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Deportes Concepcion</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Cobreloa Calama</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.37</v>
+        <v>2.1</v>
       </c>
       <c r="G23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O23" t="n">
         <v>1.38</v>
       </c>
-      <c r="H23" t="n">
-        <v>11</v>
-      </c>
-      <c r="I23" t="n">
-        <v>12</v>
-      </c>
-      <c r="J23" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K23" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N23" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.27</v>
-      </c>
       <c r="P23" t="n">
-        <v>2.18</v>
+        <v>1.84</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.81</v>
+        <v>2.08</v>
       </c>
       <c r="R23" t="n">
-        <v>1.47</v>
+        <v>1.31</v>
       </c>
       <c r="S23" t="n">
-        <v>3</v>
+        <v>3.85</v>
       </c>
       <c r="T23" t="n">
-        <v>2.2</v>
+        <v>1.86</v>
       </c>
       <c r="U23" t="n">
-        <v>1.79</v>
+        <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>1.09</v>
+        <v>1.31</v>
       </c>
       <c r="W23" t="n">
-        <v>3.6</v>
+        <v>1.83</v>
       </c>
       <c r="X23" t="n">
-        <v>18.5</v>
+        <v>13</v>
       </c>
       <c r="Y23" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="Z23" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AA23" t="n">
-        <v>440</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC23" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG23" t="n">
         <v>11.5</v>
       </c>
-      <c r="AD23" t="n">
-        <v>42</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>190</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH23" t="n">
-        <v>30</v>
+        <v>19.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>10.5</v>
+        <v>75</v>
       </c>
       <c r="AK23" t="n">
-        <v>14.5</v>
+        <v>26</v>
       </c>
       <c r="AL23" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM23" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="AO23" t="n">
-        <v>370</v>
+        <v>600</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>20:20:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.39</v>
+        <v>2.52</v>
       </c>
       <c r="G24" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L24" t="n">
         <v>1.4</v>
       </c>
-      <c r="H24" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="I24" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="J24" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="K24" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.31</v>
-      </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>5.6</v>
+        <v>4.3</v>
       </c>
       <c r="O24" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="P24" t="n">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.63</v>
+        <v>1.82</v>
       </c>
       <c r="R24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W24" t="n">
         <v>1.6</v>
       </c>
-      <c r="S24" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="W24" t="n">
-        <v>3.5</v>
-      </c>
       <c r="X24" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="Y24" t="n">
-        <v>34</v>
+        <v>14.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="AA24" t="n">
-        <v>510</v>
+        <v>160</v>
       </c>
       <c r="AB24" t="n">
-        <v>9.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="AC24" t="n">
-        <v>13</v>
+        <v>8.6</v>
       </c>
       <c r="AD24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE24" t="n">
         <v>32</v>
       </c>
-      <c r="AE24" t="n">
+      <c r="AF24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>110</v>
       </c>
-      <c r="AF24" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>11</v>
-      </c>
       <c r="AK24" t="n">
-        <v>13.5</v>
+        <v>26</v>
       </c>
       <c r="AL24" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AM24" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AN24" t="n">
-        <v>5.3</v>
+        <v>27</v>
       </c>
       <c r="AO24" t="n">
-        <v>170</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,111 +3758,111 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Genesis Huracan</t>
+          <t>Jorge Wilstermann</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Juticalpa</t>
+          <t>CDT Real Oruro</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.04</v>
+        <v>2.7</v>
       </c>
       <c r="G25" t="n">
-        <v>2.1</v>
+        <v>2.92</v>
       </c>
       <c r="H25" t="n">
-        <v>1.04</v>
+        <v>2.44</v>
       </c>
       <c r="I25" t="n">
-        <v>970</v>
+        <v>2.62</v>
       </c>
       <c r="J25" t="n">
-        <v>2.9</v>
+        <v>3.85</v>
       </c>
       <c r="K25" t="n">
-        <v>970</v>
+        <v>4.1</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M25" t="n">
         <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>1.02</v>
+        <v>5.4</v>
       </c>
       <c r="O25" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="P25" t="n">
-        <v>1.24</v>
+        <v>2.66</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="R25" t="n">
-        <v>1.18</v>
+        <v>1.62</v>
       </c>
       <c r="S25" t="n">
-        <v>1.01</v>
+        <v>2.48</v>
       </c>
       <c r="T25" t="n">
-        <v>1.04</v>
+        <v>1.56</v>
       </c>
       <c r="U25" t="n">
-        <v>1.04</v>
+        <v>2.62</v>
       </c>
       <c r="V25" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="W25" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA25" t="n">
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AC25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE25" t="n">
         <v>42</v>
       </c>
-      <c r="AD25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>1000</v>
-      </c>
       <c r="AF25" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI25" t="n">
         <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="AK25" t="n">
         <v>1000</v>
@@ -3874,16 +3874,16 @@
         <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,126 +3893,126 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Real Tomayapo</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Oriente Petrolero</t>
+          <t>SE Palmeiras</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="G26" t="n">
-        <v>2.64</v>
+        <v>3.6</v>
       </c>
       <c r="H26" t="n">
-        <v>2.76</v>
+        <v>2.4</v>
       </c>
       <c r="I26" t="n">
-        <v>2.92</v>
+        <v>2.44</v>
       </c>
       <c r="J26" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="K26" t="n">
-        <v>3.95</v>
+        <v>3.3</v>
       </c>
       <c r="L26" t="n">
-        <v>1.26</v>
+        <v>1.53</v>
       </c>
       <c r="M26" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="N26" t="n">
-        <v>6.8</v>
+        <v>3.05</v>
       </c>
       <c r="O26" t="n">
-        <v>1.15</v>
+        <v>1.46</v>
       </c>
       <c r="P26" t="n">
-        <v>2.92</v>
+        <v>1.7</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.48</v>
+        <v>2.38</v>
       </c>
       <c r="R26" t="n">
-        <v>1.81</v>
+        <v>1.25</v>
       </c>
       <c r="S26" t="n">
-        <v>2.18</v>
+        <v>4.7</v>
       </c>
       <c r="T26" t="n">
-        <v>1.5</v>
+        <v>1.99</v>
       </c>
       <c r="U26" t="n">
-        <v>2.82</v>
+        <v>1.94</v>
       </c>
       <c r="V26" t="n">
-        <v>1.52</v>
+        <v>1.69</v>
       </c>
       <c r="W26" t="n">
-        <v>1.6</v>
+        <v>1.38</v>
       </c>
       <c r="X26" t="n">
-        <v>90</v>
+        <v>10.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>970</v>
+        <v>8.4</v>
       </c>
       <c r="Z26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN26" t="n">
         <v>60</v>
       </c>
-      <c r="AA26" t="n">
-        <v>280</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>190</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>280</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>55</v>
-      </c>
       <c r="AO26" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Fortaleza EC</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Ceara SC Fortaleza</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.91</v>
+        <v>1.32</v>
       </c>
       <c r="G27" t="n">
-        <v>1.92</v>
+        <v>1.33</v>
       </c>
       <c r="H27" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J27" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K27" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N27" t="n">
         <v>5.1</v>
       </c>
-      <c r="I27" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L27" t="n">
+      <c r="O27" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R27" t="n">
         <v>1.54</v>
       </c>
-      <c r="M27" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N27" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.24</v>
-      </c>
       <c r="S27" t="n">
-        <v>4.8</v>
+        <v>2.8</v>
       </c>
       <c r="T27" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U27" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="V27" t="n">
-        <v>1.23</v>
+        <v>1.08</v>
       </c>
       <c r="W27" t="n">
-        <v>2.08</v>
+        <v>4</v>
       </c>
       <c r="X27" t="n">
-        <v>9.800000000000001</v>
+        <v>22</v>
       </c>
       <c r="Y27" t="n">
-        <v>13.5</v>
+        <v>42</v>
       </c>
       <c r="Z27" t="n">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="AA27" t="n">
+        <v>530</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>46</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>230</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI27" t="n">
         <v>180</v>
       </c>
-      <c r="AB27" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>110</v>
-      </c>
       <c r="AJ27" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AK27" t="n">
-        <v>24</v>
+        <v>14.5</v>
       </c>
       <c r="AL27" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AM27" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN27" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="AO27" t="n">
-        <v>130</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Cruz Azul</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>EC Vitoria Salvador</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.93</v>
+        <v>2.52</v>
       </c>
       <c r="G28" t="n">
-        <v>1.95</v>
+        <v>2.58</v>
       </c>
       <c r="H28" t="n">
-        <v>4.8</v>
+        <v>3.25</v>
       </c>
       <c r="I28" t="n">
-        <v>4.9</v>
+        <v>3.35</v>
       </c>
       <c r="J28" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="K28" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="L28" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M28" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N28" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="O28" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P28" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R28" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S28" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="T28" t="n">
-        <v>1.96</v>
+        <v>1.82</v>
       </c>
       <c r="U28" t="n">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="V28" t="n">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="W28" t="n">
-        <v>2.04</v>
+        <v>1.63</v>
       </c>
       <c r="X28" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Z28" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AA28" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="AB28" t="n">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AF28" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AG28" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AI28" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AJ28" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AK28" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AL28" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AM28" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN28" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AO28" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Atletico Bucaramanga</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5.8</v>
+        <v>2.16</v>
       </c>
       <c r="G29" t="n">
-        <v>6</v>
+        <v>2.26</v>
       </c>
       <c r="H29" t="n">
-        <v>1.72</v>
+        <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>1.74</v>
+        <v>4.5</v>
       </c>
       <c r="J29" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="K29" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="L29" t="n">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="M29" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="N29" t="n">
-        <v>3.9</v>
+        <v>2.78</v>
       </c>
       <c r="O29" t="n">
-        <v>1.33</v>
+        <v>1.52</v>
       </c>
       <c r="P29" t="n">
-        <v>1.97</v>
+        <v>1.58</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.98</v>
+        <v>2.56</v>
       </c>
       <c r="R29" t="n">
-        <v>1.37</v>
+        <v>1.21</v>
       </c>
       <c r="S29" t="n">
-        <v>3.55</v>
+        <v>5.3</v>
       </c>
       <c r="T29" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="U29" t="n">
-        <v>2.02</v>
+        <v>1.76</v>
       </c>
       <c r="V29" t="n">
-        <v>2.34</v>
+        <v>1.28</v>
       </c>
       <c r="W29" t="n">
-        <v>1.2</v>
+        <v>1.79</v>
       </c>
       <c r="X29" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>8.199999999999999</v>
+        <v>12</v>
       </c>
       <c r="Z29" t="n">
-        <v>9.6</v>
+        <v>32</v>
       </c>
       <c r="AA29" t="n">
-        <v>17.5</v>
+        <v>110</v>
       </c>
       <c r="AB29" t="n">
-        <v>19</v>
+        <v>7.2</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>9.6</v>
+        <v>19.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>18.5</v>
+        <v>75</v>
       </c>
       <c r="AF29" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="AG29" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AI29" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="AJ29" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="AK29" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="AL29" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM29" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="AN29" t="n">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="AO29" t="n">
-        <v>12</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,1340 +4433,125 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Olancho</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>CD Olimpia</t>
         </is>
       </c>
       <c r="F30" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N30" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O30" t="n">
         <v>1.23</v>
       </c>
-      <c r="G30" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="H30" t="n">
-        <v>15</v>
-      </c>
-      <c r="I30" t="n">
-        <v>16</v>
-      </c>
-      <c r="J30" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="K30" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N30" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.17</v>
-      </c>
       <c r="P30" t="n">
-        <v>2.9</v>
+        <v>2.12</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.51</v>
+        <v>1.69</v>
       </c>
       <c r="R30" t="n">
-        <v>1.75</v>
+        <v>1.46</v>
       </c>
       <c r="S30" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U30" t="n">
         <v>2.28</v>
       </c>
-      <c r="T30" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.82</v>
-      </c>
       <c r="V30" t="n">
-        <v>1.06</v>
+        <v>1.56</v>
       </c>
       <c r="W30" t="n">
-        <v>5</v>
+        <v>1.46</v>
       </c>
       <c r="X30" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="Z30" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
-        <v>840</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AD30" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AE30" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH30" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AI30" t="n">
         <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AL30" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>3.8</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Sao Paulo</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Internacional</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="G31" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="I31" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N31" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S31" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="X31" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Chilean Primera B</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Deportes Concepcion</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Cobreloa Calama</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="G32" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="H32" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="I32" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N32" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S32" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U32" t="n">
-        <v>2</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="X32" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>85</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>20</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>20:20:00</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Fortaleza FC</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Santa Fe</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="G33" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H33" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N33" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S33" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U33" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W33" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="X33" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>38</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Jorge Wilstermann</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>CDT Real Oruro</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="G34" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I34" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="J34" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K34" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N34" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P34" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S34" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="U34" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="W34" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="X34" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Atletico MG</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>SE Palmeiras</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="G35" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="I35" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K35" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N35" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S35" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X35" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>36</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Flamengo</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Ceara SC Fortaleza</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="G36" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="H36" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="I36" t="n">
-        <v>13</v>
-      </c>
-      <c r="J36" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="K36" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N36" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P36" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S36" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T36" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V36" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W36" t="n">
-        <v>4</v>
-      </c>
-      <c r="X36" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>120</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>530</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>46</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>240</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>180</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>190</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Cruz Azul</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Tigres</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="G37" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="H37" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I37" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K37" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N37" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S37" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T37" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U37" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V37" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="W37" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="X37" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>25</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Atletico Bucaramanga</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Tolima</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G38" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="H38" t="n">
-        <v>4</v>
-      </c>
-      <c r="I38" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J38" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K38" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N38" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="T38" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U38" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="V38" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W38" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="X38" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Olancho</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>CD Olimpia</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="G39" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K39" t="n">
-        <v>4</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N39" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P39" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S39" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T39" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="U39" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="V39" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W39" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="X39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO39" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO16"/>
+  <dimension ref="A1:AO11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,72 +653,72 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Genesis Huracan</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Juticalpa</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>600</v>
+        <v>1.01</v>
       </c>
       <c r="H2" t="n">
-        <v>1.04</v>
+        <v>1000</v>
       </c>
       <c r="I2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
+        <v>200</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="R2" t="n">
         <v>1.01</v>
       </c>
-      <c r="K2" t="n">
-        <v>970</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="S2" t="n">
+        <v>650</v>
+      </c>
+      <c r="T2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="U2" t="n">
         <v>1.01</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.04</v>
       </c>
       <c r="V2" t="n">
         <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>160</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -745,10 +745,10 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>1.2</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>840</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Real Tomayapo</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Oriente Petrolero</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.34</v>
+        <v>1.01</v>
       </c>
       <c r="G3" t="n">
-        <v>2.42</v>
+        <v>1.01</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>130</v>
       </c>
       <c r="I3" t="n">
-        <v>3.5</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>3.5</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>3.75</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="T3" t="n">
+        <v>15</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W3" t="n">
+        <v>500</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>1.07</v>
       </c>
-      <c r="N3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="X3" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>500</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>500</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>30</v>
-      </c>
       <c r="AK3" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,72 +923,72 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Fortaleza EC</t>
+          <t>Deportes Concepcion</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Cobreloa Calama</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.5</v>
+        <v>13</v>
       </c>
       <c r="G4" t="n">
-        <v>1.51</v>
+        <v>290</v>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="I4" t="n">
+        <v>170</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Q4" t="n">
         <v>12</v>
       </c>
-      <c r="J4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.52</v>
-      </c>
       <c r="R4" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="S4" t="n">
-        <v>6.4</v>
+        <v>100</v>
       </c>
       <c r="T4" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>3</v>
+        <v>1.03</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1003,52 +1003,52 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>5.4</v>
+        <v>1.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>430</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>20:20:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>EC Vitoria Salvador</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.07</v>
+        <v>26</v>
       </c>
       <c r="G5" t="n">
-        <v>1.08</v>
+        <v>42</v>
       </c>
       <c r="H5" t="n">
-        <v>65</v>
+        <v>1.3</v>
       </c>
       <c r="I5" t="n">
-        <v>75</v>
+        <v>1.35</v>
       </c>
       <c r="J5" t="n">
-        <v>16.5</v>
+        <v>4.4</v>
       </c>
       <c r="K5" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI5" t="n">
         <v>18.5</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W5" t="n">
-        <v>15</v>
-      </c>
-      <c r="X5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>140</v>
-      </c>
       <c r="AJ5" t="n">
-        <v>5.3</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM5" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.9</v>
+        <v>320</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,126 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Jorge Wilstermann</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>CDT Real Oruro</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.8</v>
+        <v>1.79</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>1.82</v>
       </c>
       <c r="H6" t="n">
-        <v>1.95</v>
+        <v>5.2</v>
       </c>
       <c r="I6" t="n">
-        <v>1.96</v>
+        <v>5.6</v>
       </c>
       <c r="J6" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="K6" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="P6" t="n">
-        <v>1.76</v>
+        <v>2.72</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.3</v>
+        <v>1.54</v>
       </c>
       <c r="R6" t="n">
-        <v>1.28</v>
+        <v>1.5</v>
       </c>
       <c r="S6" t="n">
-        <v>4.2</v>
+        <v>2.76</v>
       </c>
       <c r="T6" t="n">
-        <v>2.02</v>
+        <v>1.35</v>
       </c>
       <c r="U6" t="n">
-        <v>1.88</v>
+        <v>3.25</v>
       </c>
       <c r="V6" t="n">
-        <v>2.02</v>
+        <v>1.22</v>
       </c>
       <c r="W6" t="n">
-        <v>1.25</v>
+        <v>2.14</v>
       </c>
       <c r="X6" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF6" t="n">
         <v>10.5</v>
       </c>
-      <c r="AA6" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC6" t="n">
+      <c r="AG6" t="n">
         <v>7.6</v>
       </c>
-      <c r="AD6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE6" t="n">
+      <c r="AH6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>24</v>
       </c>
-      <c r="AF6" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH6" t="n">
+      <c r="AK6" t="n">
         <v>23</v>
       </c>
-      <c r="AI6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>150</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>80</v>
-      </c>
       <c r="AL6" t="n">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AM6" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="AN6" t="n">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="AO6" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
@@ -1328,126 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>SE Palmeiras</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.22</v>
+        <v>34</v>
       </c>
       <c r="G7" t="n">
-        <v>1.23</v>
+        <v>38</v>
       </c>
       <c r="H7" t="n">
-        <v>16</v>
+        <v>1.13</v>
       </c>
       <c r="I7" t="n">
-        <v>16.5</v>
+        <v>1.14</v>
       </c>
       <c r="J7" t="n">
+        <v>10</v>
+      </c>
+      <c r="K7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="V7" t="n">
+        <v>8</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AE7" t="n">
         <v>7.8</v>
       </c>
-      <c r="K7" t="n">
-        <v>8</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N7" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W7" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="X7" t="n">
-        <v>40</v>
-      </c>
-      <c r="Y7" t="n">
+      <c r="AF7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL7" t="n">
         <v>70</v>
       </c>
-      <c r="Z7" t="n">
-        <v>250</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>260</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>36</v>
-      </c>
       <c r="AM7" t="n">
-        <v>280</v>
+        <v>55</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.45</v>
+        <v>140</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="8">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Ceara SC Fortaleza</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.66</v>
+        <v>1.33</v>
       </c>
       <c r="G8" t="n">
-        <v>2.68</v>
+        <v>1.34</v>
       </c>
       <c r="H8" t="n">
-        <v>3.1</v>
+        <v>19</v>
       </c>
       <c r="I8" t="n">
-        <v>3.15</v>
+        <v>21</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="K8" t="n">
-        <v>3.3</v>
+        <v>5.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.51</v>
+        <v>1.86</v>
       </c>
       <c r="M8" t="n">
         <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="O8" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="P8" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.32</v>
+        <v>2.58</v>
       </c>
       <c r="R8" t="n">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="S8" t="n">
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
       <c r="T8" t="n">
-        <v>1.97</v>
+        <v>3.6</v>
       </c>
       <c r="U8" t="n">
-        <v>1.99</v>
+        <v>1.33</v>
       </c>
       <c r="V8" t="n">
-        <v>1.47</v>
+        <v>1.05</v>
       </c>
       <c r="W8" t="n">
-        <v>1.59</v>
+        <v>3.9</v>
       </c>
       <c r="X8" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="Z8" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN8" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="AC8" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>34</v>
-      </c>
       <c r="AO8" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Deportes Concepcion</t>
+          <t>Cruz Azul</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Cobreloa Calama</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.95</v>
+        <v>2.36</v>
       </c>
       <c r="G9" t="n">
-        <v>1.98</v>
+        <v>2.38</v>
       </c>
       <c r="H9" t="n">
-        <v>4.6</v>
+        <v>3.65</v>
       </c>
       <c r="I9" t="n">
-        <v>4.8</v>
+        <v>3.75</v>
       </c>
       <c r="J9" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="K9" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="L9" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="O9" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="P9" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="R9" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S9" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T9" t="n">
         <v>1.89</v>
       </c>
       <c r="U9" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="V9" t="n">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="W9" t="n">
-        <v>2.02</v>
+        <v>1.7</v>
       </c>
       <c r="X9" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y9" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y9" t="n">
-        <v>16</v>
-      </c>
       <c r="Z9" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="AA9" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AE9" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="AF9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG9" t="n">
         <v>11.5</v>
       </c>
-      <c r="AG9" t="n">
-        <v>9.4</v>
-      </c>
       <c r="AH9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI9" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AJ9" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AK9" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AL9" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN9" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AO9" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>20:20:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>Atletico Bucaramanga</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.68</v>
+        <v>2.22</v>
       </c>
       <c r="G10" t="n">
-        <v>2.72</v>
+        <v>2.26</v>
       </c>
       <c r="H10" t="n">
-        <v>2.92</v>
+        <v>4.2</v>
       </c>
       <c r="I10" t="n">
-        <v>2.98</v>
+        <v>4.4</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="K10" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="L10" t="n">
-        <v>1.4</v>
+        <v>1.58</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="N10" t="n">
-        <v>3.95</v>
+        <v>2.82</v>
       </c>
       <c r="O10" t="n">
-        <v>1.32</v>
+        <v>1.53</v>
       </c>
       <c r="P10" t="n">
-        <v>1.96</v>
+        <v>1.58</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>2.64</v>
       </c>
       <c r="R10" t="n">
-        <v>1.39</v>
+        <v>1.21</v>
       </c>
       <c r="S10" t="n">
-        <v>3.45</v>
+        <v>5.4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.76</v>
+        <v>2.1</v>
       </c>
       <c r="U10" t="n">
-        <v>2.2</v>
+        <v>1.81</v>
       </c>
       <c r="V10" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="W10" t="n">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="X10" t="n">
-        <v>14</v>
+        <v>8.6</v>
       </c>
       <c r="Y10" t="n">
         <v>12</v>
       </c>
       <c r="Z10" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AA10" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="AB10" t="n">
-        <v>11.5</v>
+        <v>7.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AD10" t="n">
-        <v>13.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AF10" t="n">
-        <v>19</v>
+        <v>12.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AI10" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AJ10" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AK10" t="n">
         <v>30</v>
       </c>
       <c r="AL10" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AM10" t="n">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="AN10" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AO10" t="n">
-        <v>28</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,801 +1868,126 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Jorge Wilstermann</t>
+          <t>Olancho</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CDT Real Oruro</t>
+          <t>CD Olimpia</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="G11" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="H11" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="I11" t="n">
-        <v>2.64</v>
+        <v>2.78</v>
       </c>
       <c r="J11" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K11" t="n">
         <v>4</v>
       </c>
-      <c r="K11" t="n">
-        <v>4.3</v>
-      </c>
       <c r="L11" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>5.2</v>
+        <v>4.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="P11" t="n">
-        <v>2.5</v>
+        <v>2.16</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.59</v>
+        <v>1.74</v>
       </c>
       <c r="R11" t="n">
-        <v>1.61</v>
+        <v>1.48</v>
       </c>
       <c r="S11" t="n">
-        <v>2.46</v>
+        <v>2.84</v>
       </c>
       <c r="T11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W11" t="n">
         <v>1.56</v>
       </c>
-      <c r="U11" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.58</v>
-      </c>
       <c r="X11" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z11" t="n">
         <v>21</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB11" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AC11" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF11" t="n">
         <v>21</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>970</v>
       </c>
       <c r="AG11" t="n">
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ11" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN11" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AO11" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Atletico MG</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>SE Palmeiras</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="G12" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S12" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="X12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>60</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Flamengo</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Ceara SC Fortaleza</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="H13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="I13" t="n">
-        <v>14</v>
-      </c>
-      <c r="J13" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N13" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W13" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="X13" t="n">
         <v>23</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>130</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>600</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>48</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>240</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>190</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Cruz Azul</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Tigres</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="X14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Atletico Bucaramanga</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Tolima</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S15" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="X15" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>190</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>28</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Olancho</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>CD Olimpia</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="G16" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N16" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>1000</v>
       </c>
     </row>
   </sheetData>
